--- a/Sample_and_gear_types_AeN.xlsx
+++ b/Sample_and_gear_types_AeN.xlsx
@@ -8,11 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample_type" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Groups" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sample_type" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_Toc511305932" vbProcedure="false">Sample_type!$G$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_Toc511305933" vbProcedure="false">Sample_type!$G$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_Toc511305932" vbProcedure="false">Sample_type!$G$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_Toc511305933" vbProcedure="false">Sample_type!$G$20</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,6 +25,42 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="AN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Lena Seuthe:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Jeg forstår ikke helt denne kategorien</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -216,12 +253,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
   <si>
     <t xml:space="preserve">Sample Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Types</t>
   </si>
   <si>
     <t xml:space="preserve">Water</t>
@@ -237,6 +271,421 @@
   </si>
   <si>
     <t xml:space="preserve">Zooplankton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleo/Geology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nekton/ Fish?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytoplankton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecotox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs to be moved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gear Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go-Flo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niskin bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice corer 9 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice corer 12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice corer 14 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice corer 18 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice corer 22 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrobios mini CTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship CTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship water intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beam trawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campelen trawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemini core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Veen grab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handnet 20 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinet 64 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multinet 90µm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Multinet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">180 µm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MIK-net 1500 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niskin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim-net 200 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP2 64 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP2 180 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP3 1000 µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box corer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van veen grab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demersal trawl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krill trawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelagic trawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tucker trawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baited trap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammonium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trace elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different fish species weight, length, abundance, stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slurp gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogenic silica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jelly fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromoform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microzooplankton taxonomy, abundance, biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suction pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small mesozooplankton taxonomy, abunande, biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pore water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable isotopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaO18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton taxonomy, abundance, biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIC/AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton abundance, weight, taxonomy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOC, TON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolved oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton stable isotopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment grain size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow cytometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA protists/bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxa lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton lipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benthic foraminifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density/Abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planktic foraminifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC/TDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice algal taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecotoxicology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment oxygen demand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diatoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice fauna taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorescence excitation spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable isotope values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBIs and coccoliths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grazing on bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diet composition as genetic sequence data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedimentology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meiofauna taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPLC Pigments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phaeopigments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA /bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic carbon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment geochemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytoplankton taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycosporine-like aminoacids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinocysts, ancient DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scavenger taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnetic susceptibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zooplankton physiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate absorption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithological description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zooplankton taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pigments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC/PON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists culturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists large volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists small volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA protists/bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment traps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM coccolithophores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral production and decay</t>
   </si>
   <si>
     <r>
@@ -284,367 +733,28 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Microbes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytoplankton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecotox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammonium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxa lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microzooplankton taxonomy, abundance, biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable isotopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterial production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trace elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density/Abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small mesozooplankton taxonomy, abunande, biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pore water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton taxonomy, abundance, biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogenic silica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment oxygen demand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton abundance, weight, taxonomy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOC, TON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Different fish species weight, length, abundance, stomach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow cytometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromoform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable isotope values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton stable isotopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment grain size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelly fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diet composition as genetic sequence data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton lipid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benthic foraminifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handnet 20 µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deltaO18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planktic foraminifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice algal taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIC/AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phaeopigments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice fauna taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolved oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic carbon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diatoms</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozooplankton taxonomy</t>
   </si>
   <si>
-    <t xml:space="preserve">DNA protists/bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBIs and coccoliths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meiofauna taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC/TDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sedimentology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mesozooplankton taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecotoxicology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating</t>
   </si>
   <si>
     <t xml:space="preserve">Microplankton taxonomy</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluorescence excitation spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytoplankton taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPLC Pigments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment geochemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scavenger taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinocysts, ancient DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zooplankton physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA /bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnetic susceptibility </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zooplankton taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycosporine-like aminoacids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithological description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate absorption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pigments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC/PON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists culturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists large volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists small volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA protists/bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM coccolithophores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viral production and decay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazing on bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment traps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gear Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice corer 22 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrobios mini CTD</t>
   </si>
   <si>
     <t xml:space="preserve">Bottom trawl</t>
   </si>
   <si>
-    <t xml:space="preserve">Sediment trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krill trawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baited trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice corer 12 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship CTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beam trawl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Microplastic net</t>
   </si>
   <si>
-    <t xml:space="preserve">Van veen grab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelagic trawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go-Flo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice corer 14 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ship water intake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campelen trawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIK-net 1500 µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box corer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tucker trawl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knife</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limnos water sampler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice corer 18 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemini core</t>
   </si>
   <si>
     <r>
@@ -677,37 +787,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Demersal trawl?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slurp gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niskin bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice corer 9 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Veen grab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinet 90µm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pelagic trawl?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multinet 64 µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swim-net 200 µm</t>
   </si>
   <si>
     <r>
@@ -745,15 +825,6 @@
   <si>
     <t xml:space="preserve">WP2 500 µm</t>
   </si>
-  <si>
-    <t xml:space="preserve">WP2 64 µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP3 1000 µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niskin</t>
-  </si>
 </sst>
 </file>
 
@@ -763,7 +834,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -787,18 +858,69 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -845,30 +967,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,35 +978,77 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FF66FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFCCFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEBE00"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF99FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0FFEF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF66"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF99FF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -915,9 +1057,72 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -953,28 +1158,160 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -982,63 +1319,111 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,7 +1444,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1072,7 +1457,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FFD0FFEF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1087,18 +1472,18 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFF66"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FF99FFFF"/>
+      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF66FFFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBEBE00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1120,42 +1505,1443 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AP39"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="21.6683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3520408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="3" width="15.4591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="29" min="21" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="34" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="41" min="40" style="3" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="8" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="3" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="21" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+    </row>
+    <row r="2" s="24" customFormat="true" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="35"/>
+    </row>
+    <row r="3" s="38" customFormat="true" ht="41.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="40"/>
+      <c r="O3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="D4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="40"/>
+      <c r="O4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" s="38" customFormat="true" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36"/>
+      <c r="B5" s="42"/>
+      <c r="D5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="40"/>
+      <c r="O5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="37"/>
+      <c r="AG5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36"/>
+      <c r="B6" s="42"/>
+      <c r="D6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="40"/>
+      <c r="O6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="37"/>
+      <c r="AG6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="D7" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="40"/>
+      <c r="O7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="42"/>
+      <c r="D8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="40"/>
+      <c r="O8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="40"/>
+      <c r="O9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36"/>
+      <c r="B10" s="42"/>
+      <c r="D10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="40"/>
+      <c r="O10" s="37"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="41"/>
+    </row>
+    <row r="11" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36"/>
+      <c r="B11" s="42"/>
+      <c r="D11" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="40"/>
+      <c r="O11" s="37"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36"/>
+      <c r="B12" s="42"/>
+      <c r="D12" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="40"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="37"/>
+      <c r="T12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42"/>
+      <c r="D13" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="40"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="37"/>
+      <c r="T13" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="38" customFormat="true" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36"/>
+      <c r="B14" s="42"/>
+      <c r="D14" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="40"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="37"/>
+      <c r="T14" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="D15" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="40"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" s="37"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36"/>
+      <c r="B16" s="42"/>
+      <c r="D16" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="40"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="37"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="41"/>
+    </row>
+    <row r="17" s="38" customFormat="true" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36"/>
+      <c r="B17" s="42"/>
+      <c r="D17" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="40"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="37"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36"/>
+      <c r="B18" s="42"/>
+      <c r="D18" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="40"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" s="37"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="41"/>
+    </row>
+    <row r="19" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36"/>
+      <c r="B19" s="42"/>
+      <c r="D19" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="40"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="37"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="41"/>
+    </row>
+    <row r="20" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
+      <c r="D20" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="40"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="S20" s="37"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36"/>
+      <c r="B21" s="42"/>
+      <c r="D21" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="40"/>
+      <c r="O21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36"/>
+      <c r="B22" s="42"/>
+      <c r="D22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="40"/>
+      <c r="O22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" s="38" customFormat="true" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36"/>
+      <c r="B23" s="42"/>
+      <c r="D23" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="40"/>
+      <c r="O23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="D24" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="40"/>
+      <c r="O24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="41"/>
+    </row>
+    <row r="25" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="D25" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="40"/>
+      <c r="O25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="41"/>
+    </row>
+    <row r="26" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36"/>
+      <c r="B26" s="42"/>
+      <c r="D26" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="40"/>
+      <c r="O26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="41"/>
+    </row>
+    <row r="27" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="D27" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="40"/>
+      <c r="O27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="41"/>
+    </row>
+    <row r="28" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36"/>
+      <c r="B28" s="42"/>
+      <c r="D28" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="40"/>
+      <c r="O28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="41"/>
+    </row>
+    <row r="29" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36"/>
+      <c r="B29" s="42"/>
+      <c r="D29" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="40"/>
+      <c r="O29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="41"/>
+    </row>
+    <row r="30" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36"/>
+      <c r="B30" s="42"/>
+      <c r="D30" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="40"/>
+      <c r="O30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="41"/>
+    </row>
+    <row r="31" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="36"/>
+      <c r="B31" s="42"/>
+      <c r="D31" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="40"/>
+      <c r="O31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="41"/>
+    </row>
+    <row r="32" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36"/>
+      <c r="B32" s="42"/>
+      <c r="D32" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="40"/>
+      <c r="O32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="41"/>
+    </row>
+    <row r="33" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="D33" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="40"/>
+      <c r="O33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="41"/>
+    </row>
+    <row r="34" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="36"/>
+      <c r="B34" s="42"/>
+      <c r="D34" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="40"/>
+      <c r="O34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="41"/>
+    </row>
+    <row r="35" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="36"/>
+      <c r="B35" s="42"/>
+      <c r="D35" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="40"/>
+      <c r="O35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="41"/>
+    </row>
+    <row r="36" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="36"/>
+      <c r="B36" s="42"/>
+      <c r="D36" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="40"/>
+      <c r="O36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="41"/>
+    </row>
+    <row r="37" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36"/>
+      <c r="B37" s="42"/>
+      <c r="D37" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="40"/>
+      <c r="O37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="41"/>
+    </row>
+    <row r="38" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="36"/>
+      <c r="B38" s="42"/>
+      <c r="D38" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="40"/>
+      <c r="O38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="41"/>
+    </row>
+    <row r="39" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="36"/>
+      <c r="B39" s="42"/>
+      <c r="D39" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="40"/>
+      <c r="O39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="A3:A43"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="1:56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="E44" activeCellId="0" sqref="E44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="46" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="46" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="46" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="46" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="46" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="46" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -2172,67 +3958,67 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="51" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
+      <c r="G2" s="49" t="s">
+        <v>138</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
+      <c r="H2" s="49" t="s">
+        <v>139</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="50" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
+      <c r="A3" s="48"/>
+      <c r="B3" s="52" t="s">
+        <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
+      <c r="C3" s="53" t="s">
+        <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
+      <c r="D3" s="46" t="s">
+        <v>141</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
+      <c r="E3" s="53" t="s">
+        <v>83</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
+      <c r="F3" s="54" t="s">
+        <v>63</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>18</v>
+      <c r="G3" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="H3" s="0"/>
-      <c r="I3" s="11" t="s">
-        <v>19</v>
+      <c r="I3" s="56" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -3251,28 +5037,28 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
+      <c r="A4" s="48"/>
+      <c r="B4" s="46" t="s">
+        <v>52</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
+      <c r="C4" s="53" t="s">
+        <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
+      <c r="E4" s="53" t="s">
+        <v>88</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
+      <c r="F4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="0"/>
-      <c r="I4" s="11" t="s">
-        <v>26</v>
+      <c r="I4" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -4291,24 +6077,24 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
+      <c r="A5" s="48"/>
+      <c r="B5" s="52" t="s">
+        <v>55</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
+      <c r="C5" s="53" t="s">
+        <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
+      <c r="D5" s="46" t="s">
+        <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
+      <c r="E5" s="53" t="s">
+        <v>92</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
+      <c r="F5" s="54" t="s">
+        <v>72</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>32</v>
+      <c r="G5" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
@@ -5329,26 +7115,26 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
+      <c r="A6" s="48"/>
+      <c r="B6" s="52" t="s">
+        <v>59</v>
       </c>
       <c r="C6" s="0"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
+        <v>96</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>35</v>
+      <c r="F6" s="54" t="s">
+        <v>76</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>36</v>
+      <c r="G6" s="55" t="s">
+        <v>77</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>37</v>
+      <c r="H6" s="54" t="s">
+        <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
+      <c r="I6" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -6366,27 +8152,27 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
+    <row r="7" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48"/>
+      <c r="B7" s="52" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
+      <c r="E7" s="53" t="s">
+        <v>100</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>41</v>
+      <c r="F7" s="54" t="s">
+        <v>79</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
+      <c r="G7" s="54" t="s">
+        <v>80</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>43</v>
+      <c r="H7" s="54" t="s">
+        <v>60</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>44</v>
+      <c r="I7" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
@@ -7405,26 +9191,26 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
+      <c r="A8" s="48"/>
+      <c r="B8" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
-      <c r="E8" s="8" t="s">
-        <v>46</v>
+      <c r="E8" s="53" t="s">
+        <v>103</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>47</v>
+      <c r="F8" s="54" t="s">
+        <v>84</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>48</v>
+      <c r="G8" s="57" t="s">
+        <v>85</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>49</v>
+      <c r="H8" s="54" t="s">
+        <v>65</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>50</v>
+      <c r="I8" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
@@ -8443,24 +10229,24 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
+      <c r="A9" s="48"/>
+      <c r="B9" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
-      <c r="E9" s="8" t="s">
-        <v>52</v>
+      <c r="E9" s="53" t="s">
+        <v>107</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>53</v>
+      <c r="F9" s="54" t="s">
+        <v>89</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>54</v>
+      <c r="G9" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="H9" s="0"/>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
+      <c r="I9" s="46" t="s">
+        <v>94</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
@@ -9479,24 +11265,24 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
+      <c r="A10" s="48"/>
+      <c r="B10" s="46" t="s">
+        <v>75</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
-      <c r="E10" s="8" t="s">
-        <v>57</v>
+      <c r="E10" s="53" t="s">
+        <v>110</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>58</v>
+      <c r="F10" s="58" t="s">
+        <v>93</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>19</v>
+      <c r="G10" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="H10" s="0"/>
-      <c r="I10" s="1" t="s">
-        <v>59</v>
+      <c r="I10" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
@@ -10515,22 +12301,22 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
+      <c r="A11" s="48"/>
+      <c r="B11" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="8" t="s">
-        <v>61</v>
+      <c r="E11" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="F11" s="0"/>
-      <c r="G11" s="12" t="s">
-        <v>62</v>
+      <c r="G11" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="H11" s="0"/>
-      <c r="I11" s="1" t="s">
-        <v>63</v>
+      <c r="I11" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -11549,20 +13335,20 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
+      <c r="A12" s="48"/>
+      <c r="B12" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="0"/>
-      <c r="G12" s="12" t="s">
-        <v>65</v>
+      <c r="G12" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="H12" s="0"/>
-      <c r="I12" s="1" t="s">
-        <v>66</v>
+      <c r="I12" s="46" t="s">
+        <v>105</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
@@ -12581,20 +14367,20 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
+      <c r="A13" s="48"/>
+      <c r="B13" s="46" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="0"/>
-      <c r="G13" s="12" t="s">
-        <v>68</v>
+      <c r="G13" s="57" t="s">
+        <v>104</v>
       </c>
       <c r="H13" s="0"/>
-      <c r="I13" s="1" t="s">
-        <v>69</v>
+      <c r="I13" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -13613,20 +15399,20 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
+      <c r="A14" s="48"/>
+      <c r="B14" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="0"/>
-      <c r="G14" s="12" t="s">
-        <v>71</v>
+      <c r="G14" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="H14" s="0"/>
-      <c r="I14" s="1" t="s">
-        <v>72</v>
+      <c r="I14" s="46" t="s">
+        <v>144</v>
       </c>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -14645,20 +16431,20 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
+      <c r="A15" s="48"/>
+      <c r="B15" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="0"/>
-      <c r="G15" s="12" t="s">
-        <v>74</v>
+      <c r="G15" s="57" t="s">
+        <v>111</v>
       </c>
       <c r="H15" s="0"/>
-      <c r="I15" s="1" t="s">
-        <v>75</v>
+      <c r="I15" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -15677,18 +17463,18 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>76</v>
+      <c r="A16" s="48"/>
+      <c r="B16" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="12" t="s">
-        <v>77</v>
+      <c r="E16" s="53"/>
+      <c r="G16" s="57" t="s">
+        <v>114</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>78</v>
+      <c r="I16" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
@@ -16707,20 +18493,20 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
-        <v>79</v>
+      <c r="A17" s="48"/>
+      <c r="B17" s="52" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="0"/>
-      <c r="G17" s="12" t="s">
-        <v>80</v>
+      <c r="G17" s="57" t="s">
+        <v>117</v>
       </c>
       <c r="H17" s="0"/>
-      <c r="I17" s="1" t="s">
-        <v>81</v>
+      <c r="I17" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
@@ -17739,20 +19525,20 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
+      <c r="A18" s="48"/>
+      <c r="B18" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="0"/>
-      <c r="G18" s="12" t="s">
-        <v>83</v>
+      <c r="G18" s="57" t="s">
+        <v>119</v>
       </c>
       <c r="H18" s="0"/>
-      <c r="I18" s="1" t="s">
-        <v>84</v>
+      <c r="I18" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
@@ -18771,16 +20557,16 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
-        <v>85</v>
+      <c r="A19" s="48"/>
+      <c r="B19" s="52" t="s">
+        <v>116</v>
       </c>
       <c r="C19" s="0"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
-      <c r="G19" s="12" t="s">
-        <v>86</v>
+      <c r="G19" s="57" t="s">
+        <v>122</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -19801,16 +21587,16 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
+      <c r="A20" s="48"/>
+      <c r="B20" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
-      <c r="G20" s="12" t="s">
-        <v>87</v>
+      <c r="G20" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -20831,15 +22617,15 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1" t="s">
-        <v>88</v>
+      <c r="A21" s="48"/>
+      <c r="B21" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
@@ -21859,15 +23645,15 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
+      <c r="A22" s="48"/>
+      <c r="B22" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
@@ -22887,15 +24673,15 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
+      <c r="A23" s="48"/>
+      <c r="B23" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
@@ -23915,15 +25701,15 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
+      <c r="A24" s="48"/>
+      <c r="B24" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -24943,15 +26729,15 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
+      <c r="A25" s="48"/>
+      <c r="B25" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="57"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -25971,9 +27757,9 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
-        <v>92</v>
+      <c r="A26" s="48"/>
+      <c r="B26" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
@@ -26999,9 +28785,9 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
+      <c r="A27" s="48"/>
+      <c r="B27" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
@@ -28027,9 +29813,9 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
+      <c r="A28" s="48"/>
+      <c r="B28" s="46" t="s">
+        <v>131</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" s="0"/>
@@ -29055,9 +30841,9 @@
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="14" t="s">
-        <v>95</v>
+      <c r="A29" s="48"/>
+      <c r="B29" s="59" t="s">
+        <v>132</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
@@ -30083,9 +31869,9 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
+      <c r="A30" s="48"/>
+      <c r="B30" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
@@ -31111,9 +32897,9 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
+      <c r="A31" s="48"/>
+      <c r="B31" s="46" t="s">
+        <v>135</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
@@ -32139,9 +33925,9 @@
       <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
+      <c r="A32" s="48"/>
+      <c r="B32" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" s="0"/>
@@ -33167,9 +34953,9 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
+      <c r="A33" s="48"/>
+      <c r="B33" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
@@ -34195,9 +35981,9 @@
       <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
+      <c r="A34" s="48"/>
+      <c r="B34" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
@@ -35223,9 +37009,9 @@
       <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
-        <v>87</v>
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" s="0"/>
@@ -36251,9 +38037,9 @@
       <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="14" t="s">
-        <v>100</v>
+      <c r="A36" s="48"/>
+      <c r="B36" s="59" t="s">
+        <v>127</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
@@ -37279,9 +39065,9 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="14" t="s">
-        <v>101</v>
+      <c r="A37" s="48"/>
+      <c r="B37" s="59" t="s">
+        <v>87</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
@@ -38307,8 +40093,8 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="48"/>
+      <c r="B38" s="59" t="s">
         <v>102</v>
       </c>
       <c r="C38" s="0"/>
@@ -39335,9 +41121,9 @@
       <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="14" t="s">
-        <v>103</v>
+      <c r="A39" s="48"/>
+      <c r="B39" s="59" t="s">
+        <v>133</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
@@ -40363,9 +42149,9 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="14" t="s">
-        <v>21</v>
+      <c r="A40" s="48"/>
+      <c r="B40" s="59" t="s">
+        <v>53</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
@@ -41391,10 +43177,10 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
+      <c r="A41" s="48"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
@@ -41405,201 +43191,201 @@
       <c r="I42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
-        <v>104</v>
+      <c r="A43" s="60" t="s">
+        <v>12</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15"/>
-      <c r="B44" s="11" t="s">
-        <v>105</v>
+      <c r="A44" s="60"/>
+      <c r="B44" s="56" t="s">
+        <v>145</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>106</v>
+      <c r="C44" s="63" t="s">
+        <v>20</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>107</v>
+      <c r="D44" s="63" t="s">
+        <v>22</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>108</v>
+      <c r="E44" s="63" t="s">
+        <v>146</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>50</v>
+      <c r="F44" s="56" t="s">
+        <v>30</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>109</v>
+      <c r="G44" s="56" t="s">
+        <v>41</v>
       </c>
-      <c r="H44" s="18" t="s">
-        <v>110</v>
+      <c r="H44" s="63" t="s">
+        <v>44</v>
       </c>
-      <c r="I44" s="11" t="s">
-        <v>111</v>
+      <c r="I44" s="56" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15"/>
-      <c r="B45" s="11" t="s">
-        <v>112</v>
+      <c r="A45" s="60"/>
+      <c r="B45" s="56" t="s">
+        <v>13</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>113</v>
+      <c r="C45" s="56" t="s">
+        <v>17</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>114</v>
+      <c r="D45" s="56" t="s">
+        <v>24</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>115</v>
+      <c r="E45" s="54" t="s">
+        <v>26</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>116</v>
+      <c r="F45" s="63" t="s">
+        <v>147</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>117</v>
+      <c r="G45" s="56" t="s">
+        <v>42</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>118</v>
+      <c r="H45" s="63" t="s">
+        <v>45</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>119</v>
+      <c r="I45" s="56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15"/>
-      <c r="B46" s="11" t="s">
-        <v>120</v>
+      <c r="A46" s="60"/>
+      <c r="B46" s="56" t="s">
+        <v>14</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>121</v>
+      <c r="C46" s="56" t="s">
+        <v>18</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>122</v>
+      <c r="D46" s="56" t="s">
+        <v>25</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>123</v>
+      <c r="E46" s="54" t="s">
+        <v>27</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>124</v>
+      <c r="F46" s="56" t="s">
+        <v>34</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>125</v>
+      <c r="G46" s="53" t="s">
+        <v>40</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>126</v>
+      <c r="H46" s="56" t="s">
+        <v>46</v>
       </c>
-      <c r="I46" s="11" t="s">
-        <v>127</v>
+      <c r="I46" s="56" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15"/>
-      <c r="B47" s="11" t="s">
-        <v>128</v>
+      <c r="A47" s="60"/>
+      <c r="B47" s="56" t="s">
+        <v>148</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>129</v>
+      <c r="C47" s="63" t="s">
+        <v>19</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>130</v>
+      <c r="E47" s="53" t="s">
+        <v>28</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>131</v>
+      <c r="F47" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="G47" s="0"/>
-      <c r="H47" s="9" t="s">
-        <v>132</v>
+      <c r="H47" s="54" t="s">
+        <v>43</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>133</v>
+      <c r="I47" s="56" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15"/>
-      <c r="B48" s="11" t="s">
-        <v>134</v>
+      <c r="A48" s="60"/>
+      <c r="B48" s="56" t="s">
+        <v>15</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>135</v>
+      <c r="C48" s="56" t="s">
+        <v>16</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>136</v>
+      <c r="E48" s="53" t="s">
+        <v>29</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>137</v>
+      <c r="F48" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="G48" s="0"/>
-      <c r="H48" s="9" t="s">
-        <v>138</v>
+      <c r="H48" s="54" t="s">
+        <v>150</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>139</v>
+      <c r="I48" s="56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15"/>
+      <c r="A49" s="60"/>
       <c r="E49" s="0"/>
-      <c r="F49" s="11" t="s">
-        <v>140</v>
+      <c r="F49" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="G49" s="0"/>
-      <c r="I49" s="11" t="s">
-        <v>141</v>
+      <c r="I49" s="56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="0"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="11" t="s">
-        <v>142</v>
+      <c r="E50" s="53"/>
+      <c r="F50" s="56" t="s">
+        <v>36</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="11" t="s">
-        <v>143</v>
+      <c r="A51" s="60"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="56" t="s">
+        <v>151</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="56"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15"/>
-      <c r="F52" s="19" t="s">
-        <v>144</v>
+      <c r="A52" s="60"/>
+      <c r="F52" s="64" t="s">
+        <v>152</v>
       </c>
-      <c r="G52" s="11"/>
+      <c r="G52" s="56"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="0"/>
-      <c r="F53" s="19" t="s">
-        <v>145</v>
+      <c r="F53" s="64" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15"/>
-      <c r="F54" s="20" t="s">
-        <v>146</v>
+      <c r="A54" s="60"/>
+      <c r="F54" s="65" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15"/>
-      <c r="F55" s="11" t="s">
-        <v>147</v>
+      <c r="A55" s="60"/>
+      <c r="F55" s="56" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15"/>
-      <c r="F56" s="8" t="s">
-        <v>148</v>
+      <c r="A56" s="60"/>
+      <c r="F56" s="53" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_and_gear_types_AeN.xlsx
+++ b/Sample_and_gear_types_AeN.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="255">
   <si>
     <t xml:space="preserve">Sample Group</t>
   </si>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">Baited trap</t>
   </si>
   <si>
-    <t xml:space="preserve">Lengtd</t>
+    <t xml:space="preserve">Length</t>
   </si>
   <si>
     <t xml:space="preserve">Long_name</t>
@@ -322,12 +322,18 @@
     <t xml:space="preserve">Bacterial prod</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Ice core section</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ice core section</t>
   </si>
   <si>
     <t xml:space="preserve">Density/Abundance</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Algal pigments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algal pigments</t>
   </si>
   <si>
@@ -370,9 +376,15 @@
     <t xml:space="preserve">Barium</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Bacterial production</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Barcoding samples</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barcoding samples</t>
   </si>
   <si>
@@ -406,6 +418,12 @@
     <t xml:space="preserve">Biogenic silica</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Chlorophyll a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Food web samples</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food web samples</t>
   </si>
   <si>
@@ -433,10 +451,13 @@
     <t xml:space="preserve">Bromoform</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Iron</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iron</t>
   </si>
   <si>
-    <t xml:space="preserve">Foraminifera experiment</t>
+    <t xml:space="preserve">1,Foraminifera experiment</t>
   </si>
   <si>
     <t xml:space="preserve">Foraminifera exp</t>
@@ -460,6 +481,12 @@
     <t xml:space="preserve">C-DOM</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Microalgal culturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Microbes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microbes</t>
   </si>
   <si>
@@ -481,235 +508,265 @@
     <t xml:space="preserve">Meiofauna taxonomy</t>
   </si>
   <si>
+    <t xml:space="preserve">1, PicoNanoEpifluorenscens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicoNanoEpifluo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Organic carbon/nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic C/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton stable isotope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop isotope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinocysts, ancient DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scavenger taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaO18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, PicoNanoFlowcytometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicoNanoFlowcyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBIs and coccoliths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slurp gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIC/AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Primary production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Pore water content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pore water content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithological description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA protists/bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA protists/bact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Prokaryote DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Quantitative macrofauna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanti macrofauna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton gonad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop gonad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnetic susceptibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable isotopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Respiration experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiration exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suction pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC/DON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed isotopes, C, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoop physiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecotoxicology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist microscopy &lt;  um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists micros&lt;10um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planktic foraminifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoop taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorescence excitation spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluo ex spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ,Protist microscopy &gt; 10 um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pore water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grazing on bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPLC Pigments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Silicate incorporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicate incorp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment geochemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Virus DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virus DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoplankton stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozop stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sediment grain size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedimentology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycosporine-like aminoacids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycosporine amin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOC, TON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate absorption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate abs</t>
+  </si>
+  <si>
     <t xml:space="preserve">PicoNanoEpifluorenscens</t>
   </si>
   <si>
-    <t xml:space="preserve">PicoNanoEpifluo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic carbon/nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic C/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton stable isotope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop isotope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinocysts, ancient DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scavenger taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deltaO18</t>
-  </si>
-  <si>
     <t xml:space="preserve">PicoNanoFlowcytometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicoNanoFlowcyt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBIs and coccoliths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slurp gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIC/AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pore water content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithological description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA protists/bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA protists/bact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantitative macrofauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quanti macrofauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton gonad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop gonad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnetic susceptibility </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable isotopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiration experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiration exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC/DON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment stable isotopes, carbon and nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sed isotopes, C, N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoop physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecotoxicology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist microscopy &lt;  um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists micros&lt;10um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planktic foraminifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoop taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluorescence excitation spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluo ex spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist microscopy &gt; 10 um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pore water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazing on bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPLC Pigments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicate incorporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicate incorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment geochemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virus DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoplankton stomach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozop stomach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment grain size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sedimentology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycosporine-like aminoacids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mycosporine amin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOC, TON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate absorption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate abs</t>
   </si>
   <si>
     <t xml:space="preserve">PicoNanoImagingFlow</t>
@@ -1387,11 +1444,11 @@
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>355320</xdr:rowOff>
+      <xdr:rowOff>355680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
@@ -1402,8 +1459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60300720" y="4919400"/>
-          <a:ext cx="3168360" cy="430560"/>
+          <a:off x="59340600" y="4919760"/>
+          <a:ext cx="3118680" cy="430200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1434,7 +1491,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
@@ -1445,8 +1502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60300720" y="5300280"/>
-          <a:ext cx="3168360" cy="430560"/>
+          <a:off x="59340600" y="5300280"/>
+          <a:ext cx="3118680" cy="1360800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1471,9 +1528,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>356400</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
@@ -1488,8 +1545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74666880" y="3399120"/>
-          <a:ext cx="4194720" cy="429840"/>
+          <a:off x="73476000" y="3399480"/>
+          <a:ext cx="4128120" cy="429480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1514,9 +1571,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>355680</xdr:rowOff>
+      <xdr:rowOff>356040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
@@ -1531,8 +1588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74666880" y="4159080"/>
-          <a:ext cx="4194720" cy="430560"/>
+          <a:off x="73476000" y="4159440"/>
+          <a:ext cx="4128120" cy="430200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1557,7 +1614,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>355680</xdr:rowOff>
     </xdr:from>
@@ -1565,7 +1622,7 @@
       <xdr:col>76</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1574,8 +1631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74666880" y="4539600"/>
-          <a:ext cx="4194720" cy="430200"/>
+          <a:off x="73476000" y="4539600"/>
+          <a:ext cx="4128120" cy="429840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1600,15 +1657,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>355680</xdr:rowOff>
+      <xdr:rowOff>356040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1617,8 +1674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74666880" y="5680440"/>
-          <a:ext cx="4194720" cy="430560"/>
+          <a:off x="73476000" y="5680800"/>
+          <a:ext cx="4128120" cy="1360080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1643,9 +1700,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>355680</xdr:rowOff>
+      <xdr:rowOff>356040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
@@ -1660,8 +1717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="74666880" y="6821640"/>
-          <a:ext cx="4194720" cy="430560"/>
+          <a:off x="73476000" y="7752240"/>
+          <a:ext cx="4128120" cy="430200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1691,43 +1748,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DR83"/>
+  <dimension ref="1:83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM15" activeCellId="0" sqref="BM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="71" min="46" style="5" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="14.5408163265306"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="71" min="46" style="5" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2045,7 +2102,7 @@
       </c>
       <c r="CR2" s="33"/>
     </row>
-    <row r="3" s="32" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
@@ -2326,7 +2383,936 @@
         <v>61</v>
       </c>
       <c r="CP3" s="26"/>
+      <c r="CQ3" s="0"/>
       <c r="CR3" s="33"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="52" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
@@ -2588,31 +3574,31 @@
         <v>88</v>
       </c>
       <c r="G5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="I5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="K5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="M5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>88</v>
-      </c>
       <c r="O5" s="56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
@@ -2633,34 +3619,34 @@
       <c r="AF5" s="38"/>
       <c r="AG5" s="38"/>
       <c r="AH5" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ5" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AK5" s="57" t="s">
+      <c r="AM5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AL5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM5" s="42" t="s">
-        <v>89</v>
-      </c>
       <c r="AN5" s="45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AO5" s="45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AP5" s="45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AQ5" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AR5" s="43"/>
       <c r="AS5" s="42"/>
@@ -2693,34 +3679,34 @@
       <c r="BD5" s="42"/>
       <c r="BE5" s="42"/>
       <c r="BF5" s="47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BG5" s="47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BH5" s="47"/>
       <c r="BI5" s="47"/>
       <c r="BJ5" s="46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BK5" s="47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BL5" s="42"/>
       <c r="BM5" s="42"/>
       <c r="BN5" s="42"/>
       <c r="BO5" s="42"/>
       <c r="BP5" s="46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BQ5" s="42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BR5" s="42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BS5" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BT5" s="43"/>
       <c r="BU5" s="42"/>
@@ -2729,47 +3715,47 @@
       <c r="BX5" s="45"/>
       <c r="BY5" s="38"/>
       <c r="BZ5" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CA5" s="49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CB5" s="49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CC5" s="49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CD5" s="49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CE5" s="50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CF5" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CG5" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CH5" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CI5" s="49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CJ5" s="53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CK5" s="54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CL5" s="54"/>
       <c r="CM5" s="54"/>
       <c r="CN5" s="53"/>
       <c r="CO5" s="42"/>
       <c r="CP5" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CQ5" s="38"/>
       <c r="CR5" s="58"/>
@@ -2805,13 +3791,13 @@
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>87</v>
@@ -2843,58 +3829,58 @@
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
       <c r="AH6" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AI6" s="42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AJ6" s="57" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AK6" s="57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AL6" s="42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AM6" s="42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AN6" s="38"/>
       <c r="AO6" s="38"/>
       <c r="AP6" s="38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AQ6" s="42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AR6" s="43"/>
       <c r="AS6" s="42"/>
       <c r="AT6" s="42"/>
       <c r="AU6" s="42"/>
       <c r="AV6" s="40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AW6" s="40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AX6" s="40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AY6" s="40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AZ6" s="40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BA6" s="40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BB6" s="40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BC6" s="40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BD6" s="42"/>
       <c r="BE6" s="42"/>
@@ -2909,16 +3895,16 @@
       <c r="BN6" s="42"/>
       <c r="BO6" s="42"/>
       <c r="BP6" s="46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BQ6" s="42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BR6" s="42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BS6" s="42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BT6" s="43"/>
       <c r="BU6" s="42"/>
@@ -2927,40 +3913,40 @@
       <c r="BX6" s="45"/>
       <c r="BY6" s="38"/>
       <c r="BZ6" s="48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CA6" s="49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CB6" s="49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CC6" s="49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CD6" s="49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CE6" s="50" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="CF6" s="49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="CG6" s="49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="CH6" s="49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="CI6" s="49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="CJ6" s="53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="CK6" s="54" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="CL6" s="54"/>
       <c r="CM6" s="54"/>
@@ -3001,16 +3987,16 @@
       <c r="B7" s="53"/>
       <c r="C7" s="54"/>
       <c r="D7" s="38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -3041,10 +4027,10 @@
       <c r="AH7" s="43"/>
       <c r="AI7" s="42"/>
       <c r="AJ7" s="57" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AK7" s="57" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45"/>
@@ -3057,28 +4043,28 @@
       <c r="AT7" s="42"/>
       <c r="AU7" s="42"/>
       <c r="AV7" s="40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AW7" s="40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AX7" s="40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AY7" s="40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AZ7" s="40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="BA7" s="40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BB7" s="40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="BC7" s="40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="BD7" s="42"/>
       <c r="BE7" s="42"/>
@@ -3093,21 +4079,21 @@
       <c r="BN7" s="42"/>
       <c r="BO7" s="42"/>
       <c r="BP7" s="46" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="BQ7" s="45" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BR7" s="45" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BS7" s="42" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BT7" s="43"/>
       <c r="BU7" s="42"/>
       <c r="BV7" s="38" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="BW7" s="38"/>
       <c r="BX7" s="38"/>
@@ -3129,7 +4115,7 @@
       <c r="CN7" s="62"/>
       <c r="CO7" s="42"/>
       <c r="CP7" s="38" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="CQ7" s="38"/>
       <c r="CR7" s="58"/>
@@ -3165,16 +4151,16 @@
       <c r="B8" s="53"/>
       <c r="C8" s="54"/>
       <c r="D8" s="38" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
@@ -3205,10 +4191,10 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="42"/>
       <c r="AJ8" s="57" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AK8" s="57" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="45"/>
@@ -3221,28 +4207,28 @@
       <c r="AT8" s="42"/>
       <c r="AU8" s="42"/>
       <c r="AV8" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AW8" s="40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AX8" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AY8" s="40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AZ8" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BA8" s="40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BB8" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BC8" s="40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BD8" s="42"/>
       <c r="BE8" s="42"/>
@@ -3259,15 +4245,15 @@
       <c r="BP8" s="42"/>
       <c r="BQ8" s="42"/>
       <c r="BR8" s="42" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BS8" s="42" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BT8" s="43"/>
       <c r="BU8" s="42"/>
       <c r="BV8" s="38" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="BW8" s="38"/>
       <c r="BX8" s="38"/>
@@ -3289,7 +4275,7 @@
       <c r="CN8" s="43"/>
       <c r="CO8" s="42"/>
       <c r="CP8" s="38" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="CQ8" s="38"/>
       <c r="CR8" s="58"/>
@@ -3325,16 +4311,16 @@
       <c r="B9" s="53"/>
       <c r="C9" s="54"/>
       <c r="D9" s="38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
@@ -3365,10 +4351,10 @@
       <c r="AH9" s="43"/>
       <c r="AI9" s="42"/>
       <c r="AJ9" s="57" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="AK9" s="57" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AL9" s="45"/>
       <c r="AM9" s="45"/>
@@ -3381,28 +4367,28 @@
       <c r="AT9" s="42"/>
       <c r="AU9" s="42"/>
       <c r="AV9" s="40" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AW9" s="40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AX9" s="40" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="AY9" s="40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AZ9" s="40" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="BA9" s="40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="BB9" s="40" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="BC9" s="40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="BD9" s="42"/>
       <c r="BE9" s="42"/>
@@ -3419,15 +4405,15 @@
       <c r="BP9" s="42"/>
       <c r="BQ9" s="42"/>
       <c r="BR9" s="42" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="BS9" s="42" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="BT9" s="43"/>
       <c r="BU9" s="42"/>
       <c r="BV9" s="38" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="BW9" s="38"/>
       <c r="BX9" s="38"/>
@@ -3449,7 +4435,7 @@
       <c r="CN9" s="43"/>
       <c r="CO9" s="42"/>
       <c r="CP9" s="38" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="CQ9" s="38"/>
       <c r="CR9" s="58"/>
@@ -3485,16 +4471,16 @@
       <c r="B10" s="53"/>
       <c r="C10" s="54"/>
       <c r="D10" s="42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -3525,10 +4511,10 @@
       <c r="AH10" s="43"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="57" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AK10" s="57" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AL10" s="45"/>
       <c r="AM10" s="45"/>
@@ -3579,15 +4565,15 @@
       <c r="BP10" s="42"/>
       <c r="BQ10" s="42"/>
       <c r="BR10" s="42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="BS10" s="42" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="BT10" s="43"/>
       <c r="BU10" s="42"/>
       <c r="BV10" s="38" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="BW10" s="38"/>
       <c r="BX10" s="38"/>
@@ -3609,7 +4595,7 @@
       <c r="CN10" s="43"/>
       <c r="CO10" s="42"/>
       <c r="CP10" s="38" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="CQ10" s="38"/>
       <c r="CR10" s="58"/>
@@ -3645,16 +4631,16 @@
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
       <c r="D11" s="38" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -3685,10 +4671,10 @@
       <c r="AH11" s="43"/>
       <c r="AI11" s="42"/>
       <c r="AJ11" s="57" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AK11" s="57" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AL11" s="45"/>
       <c r="AM11" s="45"/>
@@ -3701,28 +4687,28 @@
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
       <c r="AV11" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AW11" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX11" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AY11" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AZ11" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BA11" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BB11" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BC11" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BD11" s="42"/>
       <c r="BE11" s="42"/>
@@ -3743,7 +4729,7 @@
       <c r="BT11" s="43"/>
       <c r="BU11" s="42"/>
       <c r="BV11" s="38" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="BW11" s="38"/>
       <c r="BX11" s="38"/>
@@ -3765,7 +4751,7 @@
       <c r="CN11" s="43"/>
       <c r="CO11" s="42"/>
       <c r="CP11" s="38" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="CQ11" s="38"/>
       <c r="CR11" s="58"/>
@@ -3801,16 +4787,16 @@
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
       <c r="D12" s="38" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -3841,10 +4827,10 @@
       <c r="AH12" s="43"/>
       <c r="AI12" s="42"/>
       <c r="AJ12" s="57" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="AK12" s="57" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AL12" s="45"/>
       <c r="AM12" s="45"/>
@@ -3857,28 +4843,28 @@
       <c r="AT12" s="42"/>
       <c r="AU12" s="42"/>
       <c r="AV12" s="40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AW12" s="40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AX12" s="40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AY12" s="40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AZ12" s="40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BA12" s="40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BB12" s="40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BC12" s="40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BD12" s="42"/>
       <c r="BE12" s="42"/>
@@ -3899,7 +4885,7 @@
       <c r="BT12" s="43"/>
       <c r="BU12" s="42"/>
       <c r="BV12" s="38" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="BW12" s="38"/>
       <c r="BX12" s="38"/>
@@ -3921,7 +4907,7 @@
       <c r="CN12" s="43"/>
       <c r="CO12" s="42"/>
       <c r="CP12" s="38" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="CQ12" s="38"/>
       <c r="CR12" s="58"/>
@@ -3957,16 +4943,16 @@
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
       <c r="D13" s="38" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -3997,10 +4983,10 @@
       <c r="AH13" s="53"/>
       <c r="AI13" s="54"/>
       <c r="AJ13" s="57" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="AK13" s="57" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AL13" s="45"/>
       <c r="AM13" s="45"/>
@@ -4013,28 +4999,28 @@
       <c r="AT13" s="42"/>
       <c r="AU13" s="42"/>
       <c r="AV13" s="40" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AW13" s="40" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AX13" s="40" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="AY13" s="40" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AZ13" s="40" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="BA13" s="40" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="BB13" s="40" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="BC13" s="40" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="BD13" s="42"/>
       <c r="BE13" s="42"/>
@@ -4055,7 +5041,7 @@
       <c r="BT13" s="43"/>
       <c r="BU13" s="42"/>
       <c r="BV13" s="38" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="BW13" s="38"/>
       <c r="BX13" s="38"/>
@@ -4077,7 +5063,7 @@
       <c r="CN13" s="43"/>
       <c r="CO13" s="42"/>
       <c r="CP13" s="38" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="CQ13" s="38"/>
       <c r="CR13" s="58"/>
@@ -4113,16 +5099,16 @@
       <c r="B14" s="53"/>
       <c r="C14" s="54"/>
       <c r="D14" s="38" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -4153,10 +5139,10 @@
       <c r="AH14" s="53"/>
       <c r="AI14" s="54"/>
       <c r="AJ14" s="57" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AK14" s="57" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AL14" s="45"/>
       <c r="AM14" s="45"/>
@@ -4169,35 +5155,35 @@
       <c r="AT14" s="42"/>
       <c r="AU14" s="42"/>
       <c r="AV14" s="40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AW14" s="40" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AX14" s="40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AY14" s="40" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AZ14" s="40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BA14" s="40" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="BB14" s="40" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BC14" s="40" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="BD14" s="42"/>
       <c r="BE14" s="42"/>
       <c r="BF14" s="42"/>
       <c r="BG14" s="42"/>
       <c r="BH14" s="42" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="BI14" s="42"/>
       <c r="BJ14" s="42"/>
@@ -4213,7 +5199,7 @@
       <c r="BT14" s="43"/>
       <c r="BU14" s="42"/>
       <c r="BV14" s="38" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="BW14" s="38"/>
       <c r="BX14" s="38"/>
@@ -4235,7 +5221,7 @@
       <c r="CN14" s="43"/>
       <c r="CO14" s="42"/>
       <c r="CP14" s="38" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="CQ14" s="38"/>
       <c r="CR14" s="58"/>
@@ -4266,21 +5252,21 @@
       <c r="DQ14" s="51"/>
       <c r="DR14" s="51"/>
     </row>
-    <row r="15" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
       <c r="D15" s="38" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -4311,10 +5297,10 @@
       <c r="AH15" s="53"/>
       <c r="AI15" s="54"/>
       <c r="AJ15" s="57" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AK15" s="57" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
@@ -4327,35 +5313,35 @@
       <c r="AT15" s="42"/>
       <c r="AU15" s="42"/>
       <c r="AV15" s="40" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AW15" s="40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AX15" s="40" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AY15" s="40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AZ15" s="40" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="BA15" s="40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="BB15" s="40" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="BC15" s="40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="BD15" s="42"/>
       <c r="BE15" s="42"/>
       <c r="BF15" s="42"/>
       <c r="BG15" s="42"/>
       <c r="BH15" s="42" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="BI15" s="42"/>
       <c r="BJ15" s="42"/>
@@ -4371,7 +5357,7 @@
       <c r="BT15" s="43"/>
       <c r="BU15" s="42"/>
       <c r="BV15" s="38" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="BW15" s="38"/>
       <c r="BX15" s="38"/>
@@ -4393,7 +5379,7 @@
       <c r="CN15" s="43"/>
       <c r="CO15" s="42"/>
       <c r="CP15" s="38" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="CQ15" s="38"/>
       <c r="CR15" s="58"/>
@@ -4429,16 +5415,16 @@
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
       <c r="D16" s="38" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -4481,28 +5467,28 @@
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
       <c r="AV16" s="40" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AW16" s="40" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="AX16" s="40" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AY16" s="40" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="AZ16" s="40" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="BA16" s="40" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="BB16" s="40" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="BC16" s="40" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="BD16" s="42"/>
       <c r="BE16" s="42"/>
@@ -4523,7 +5509,7 @@
       <c r="BT16" s="43"/>
       <c r="BU16" s="42"/>
       <c r="BV16" s="38" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="BW16" s="38"/>
       <c r="BX16" s="38"/>
@@ -4545,7 +5531,7 @@
       <c r="CN16" s="43"/>
       <c r="CO16" s="42"/>
       <c r="CP16" s="38" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="CQ16" s="38"/>
       <c r="CR16" s="58"/>
@@ -4581,13 +5567,13 @@
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
       <c r="D17" s="38" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G17" s="65" t="s">
         <v>83</v>
@@ -4633,28 +5619,28 @@
       <c r="AT17" s="42"/>
       <c r="AU17" s="42"/>
       <c r="AV17" s="40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AW17" s="40" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AX17" s="40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AY17" s="40" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AZ17" s="40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BA17" s="40" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="BB17" s="40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BC17" s="40" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="BD17" s="42"/>
       <c r="BE17" s="42"/>
@@ -4675,7 +5661,7 @@
       <c r="BT17" s="43"/>
       <c r="BU17" s="42"/>
       <c r="BV17" s="38" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="BW17" s="38"/>
       <c r="BX17" s="38"/>
@@ -4731,16 +5717,16 @@
       <c r="B18" s="53"/>
       <c r="C18" s="54"/>
       <c r="D18" s="38" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
@@ -4783,28 +5769,28 @@
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
       <c r="AV18" s="40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AW18" s="40" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AX18" s="40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AY18" s="40" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AZ18" s="40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="BA18" s="40" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="BB18" s="40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="BC18" s="40" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="BD18" s="42"/>
       <c r="BE18" s="42"/>
@@ -4825,7 +5811,7 @@
       <c r="BT18" s="43"/>
       <c r="BU18" s="42"/>
       <c r="BV18" s="38" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="BW18" s="38"/>
       <c r="BX18" s="38"/>
@@ -4881,16 +5867,16 @@
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
       <c r="D19" s="38" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -4933,28 +5919,28 @@
       <c r="AT19" s="42"/>
       <c r="AU19" s="42"/>
       <c r="AV19" s="40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AW19" s="40" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="AX19" s="40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="AY19" s="40" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="AZ19" s="40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="BA19" s="40" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="BB19" s="40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="BC19" s="40" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="BD19" s="42"/>
       <c r="BE19" s="42"/>
@@ -4975,7 +5961,7 @@
       <c r="BT19" s="43"/>
       <c r="BU19" s="42"/>
       <c r="BV19" s="38" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="BW19" s="38"/>
       <c r="BX19" s="38"/>
@@ -5031,16 +6017,16 @@
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
       <c r="D20" s="38" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -5083,28 +6069,28 @@
       <c r="AT20" s="42"/>
       <c r="AU20" s="42"/>
       <c r="AV20" s="40" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AW20" s="40" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AX20" s="40" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AY20" s="40" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AZ20" s="40" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="BA20" s="40" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="BB20" s="40" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="BC20" s="40" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
@@ -5125,7 +6111,7 @@
       <c r="BT20" s="43"/>
       <c r="BU20" s="42"/>
       <c r="BV20" s="38" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="BW20" s="38"/>
       <c r="BX20" s="38"/>
@@ -5181,10 +6167,10 @@
       <c r="B21" s="53"/>
       <c r="C21" s="54"/>
       <c r="D21" s="38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F21" s="53"/>
       <c r="G21" s="54"/>
@@ -5232,25 +6218,25 @@
         <v>70</v>
       </c>
       <c r="AW21" s="49" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AX21" s="49" t="s">
         <v>70</v>
       </c>
       <c r="AY21" s="49" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AZ21" s="49" t="s">
         <v>70</v>
       </c>
       <c r="BA21" s="49" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="BB21" s="49" t="s">
         <v>70</v>
       </c>
       <c r="BC21" s="49" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
@@ -5271,7 +6257,7 @@
       <c r="BT21" s="43"/>
       <c r="BU21" s="42"/>
       <c r="BV21" s="38" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="BW21" s="38"/>
       <c r="BX21" s="38"/>
@@ -5327,10 +6313,10 @@
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
       <c r="D22" s="38" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="54"/>
@@ -5401,7 +6387,7 @@
       <c r="BT22" s="43"/>
       <c r="BU22" s="42"/>
       <c r="BV22" s="38" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="BW22" s="38"/>
       <c r="BX22" s="38"/>
@@ -5457,10 +6443,10 @@
       <c r="B23" s="53"/>
       <c r="C23" s="54"/>
       <c r="D23" s="38" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="54"/>
@@ -5531,7 +6517,7 @@
       <c r="BT23" s="43"/>
       <c r="BU23" s="42"/>
       <c r="BV23" s="38" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="BW23" s="38"/>
       <c r="BX23" s="38"/>
@@ -5587,10 +6573,10 @@
       <c r="B24" s="53"/>
       <c r="C24" s="54"/>
       <c r="D24" s="38" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="54"/>
@@ -5661,7 +6647,7 @@
       <c r="BT24" s="43"/>
       <c r="BU24" s="42"/>
       <c r="BV24" s="38" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="BW24" s="38"/>
       <c r="BX24" s="38"/>
@@ -5717,10 +6703,10 @@
       <c r="B25" s="53"/>
       <c r="C25" s="54"/>
       <c r="D25" s="38" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="54"/>
@@ -5845,10 +6831,10 @@
       <c r="B26" s="53"/>
       <c r="C26" s="54"/>
       <c r="D26" s="38" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F26" s="53"/>
       <c r="G26" s="54"/>
@@ -5973,10 +6959,10 @@
       <c r="B27" s="53"/>
       <c r="C27" s="54"/>
       <c r="D27" s="42" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="54"/>
@@ -6101,10 +7087,10 @@
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="42" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
@@ -6229,10 +7215,10 @@
       <c r="B29" s="53"/>
       <c r="C29" s="54"/>
       <c r="D29" s="42" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="54"/>
@@ -6357,10 +7343,10 @@
       <c r="B30" s="53"/>
       <c r="C30" s="54"/>
       <c r="D30" s="38" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="54"/>
@@ -6613,10 +7599,10 @@
       <c r="B32" s="53"/>
       <c r="C32" s="54"/>
       <c r="D32" s="38" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="54"/>
@@ -6741,10 +7727,10 @@
       <c r="B33" s="53"/>
       <c r="C33" s="54"/>
       <c r="D33" s="38" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="54"/>
@@ -6869,10 +7855,10 @@
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
       <c r="D34" s="38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="54"/>
@@ -6997,10 +7983,10 @@
       <c r="B35" s="53"/>
       <c r="C35" s="54"/>
       <c r="D35" s="38" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="54"/>
@@ -7125,10 +8111,10 @@
       <c r="B36" s="53"/>
       <c r="C36" s="54"/>
       <c r="D36" s="38" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="54"/>
@@ -7253,10 +8239,10 @@
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
       <c r="D37" s="42" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="54"/>
@@ -7381,10 +8367,10 @@
       <c r="B38" s="53"/>
       <c r="C38" s="54"/>
       <c r="D38" s="42" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="54"/>
@@ -7509,10 +8495,10 @@
       <c r="B39" s="53"/>
       <c r="C39" s="54"/>
       <c r="D39" s="42" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="54"/>
@@ -7637,10 +8623,10 @@
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
       <c r="D40" s="38" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="54"/>
@@ -7765,10 +8751,10 @@
       <c r="B41" s="43"/>
       <c r="C41" s="42"/>
       <c r="D41" s="38" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F41" s="53"/>
       <c r="G41" s="54"/>
@@ -7893,10 +8879,10 @@
       <c r="B42" s="43"/>
       <c r="C42" s="42"/>
       <c r="D42" s="38" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="54"/>
@@ -8021,10 +9007,10 @@
       <c r="B43" s="43"/>
       <c r="C43" s="42"/>
       <c r="D43" s="38" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="54"/>
@@ -8149,10 +9135,10 @@
       <c r="B44" s="43"/>
       <c r="C44" s="42"/>
       <c r="D44" s="38" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="42"/>
@@ -8276,10 +9262,10 @@
       <c r="B45" s="43"/>
       <c r="C45" s="42"/>
       <c r="D45" s="38" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="42"/>
@@ -8403,10 +9389,10 @@
       <c r="B46" s="43"/>
       <c r="C46" s="42"/>
       <c r="D46" s="38" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="42"/>
@@ -8530,10 +9516,10 @@
       <c r="B47" s="43"/>
       <c r="C47" s="42"/>
       <c r="D47" s="38" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="42"/>

--- a/Sample_and_gear_types_AeN.xlsx
+++ b/Sample_and_gear_types_AeN.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="261">
   <si>
     <t xml:space="preserve">Sample Group</t>
   </si>
@@ -520,6 +520,9 @@
     <t xml:space="preserve">Organic C/N</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton carbohydrat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Macrozooplankton stable isotope</t>
   </si>
   <si>
@@ -547,6 +550,9 @@
     <t xml:space="preserve">pH</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton energetics</t>
+  </si>
+  <si>
     <t xml:space="preserve">HBIs and coccoliths</t>
   </si>
   <si>
@@ -568,6 +574,9 @@
     <t xml:space="preserve">Pore water content</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton fatty acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lithological description</t>
   </si>
   <si>
@@ -592,63 +601,69 @@
     <t xml:space="preserve">Quanti macrofauna</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton gonad </t>
+    <t xml:space="preserve">Macrozooplankton genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop genetics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnetic susceptibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable isotopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Respiration experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiration exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton gonad </t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop gonad </t>
   </si>
   <si>
-    <t xml:space="preserve">magnetic susceptibility </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable isotopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Respiration experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiration exp</t>
+    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suction pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC/DON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed isotopes, C, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton hg</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop hg</t>
   </si>
   <si>
-    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC/DON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sed isotopes, C, N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton length</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
   </si>
   <si>
@@ -664,10 +679,7 @@
     <t xml:space="preserve">Protists micros&lt;10um</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop length</t>
+    <t xml:space="preserve">1, Macrozooplankton stable isotope</t>
   </si>
   <si>
     <t xml:space="preserve">Planktic foraminifera</t>
@@ -685,6 +697,9 @@
     <t xml:space="preserve">1 ,Protist microscopy &gt; 10 um</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton nutrition</t>
+  </si>
+  <si>
     <t xml:space="preserve">Macrozoop nutrition</t>
   </si>
   <si>
@@ -697,6 +712,9 @@
     <t xml:space="preserve">1, Protist PCR</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton organic pollutio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
@@ -709,6 +727,9 @@
     <t xml:space="preserve">Silicate incorp</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton protein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Macrozoop protein</t>
   </si>
   <si>
@@ -724,16 +745,13 @@
     <t xml:space="preserve">Virus DNA</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoplankton stomach</t>
+    <t xml:space="preserve">1, Macrozoplankton stomach</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozop stomach</t>
   </si>
   <si>
     <t xml:space="preserve">Sediment grain size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop tax</t>
   </si>
   <si>
     <t xml:space="preserve">Sedimentology</t>
@@ -1444,11 +1462,11 @@
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>355680</xdr:rowOff>
+      <xdr:rowOff>356040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
@@ -1459,8 +1477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59340600" y="4919760"/>
-          <a:ext cx="3118680" cy="430200"/>
+          <a:off x="58588200" y="4920120"/>
+          <a:ext cx="3061080" cy="429840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1491,9 +1509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1502,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59340600" y="5300280"/>
-          <a:ext cx="3118680" cy="1360800"/>
+          <a:off x="58588200" y="5300280"/>
+          <a:ext cx="3061080" cy="1347840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1528,13 +1546,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>356760</xdr:rowOff>
+      <xdr:rowOff>357120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
@@ -1545,8 +1563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73476000" y="3399480"/>
-          <a:ext cx="4128120" cy="429480"/>
+          <a:off x="72457200" y="3399840"/>
+          <a:ext cx="4051440" cy="429120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1571,13 +1589,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>356040</xdr:rowOff>
+      <xdr:rowOff>356400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
@@ -1588,8 +1606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73476000" y="4159440"/>
-          <a:ext cx="4128120" cy="430200"/>
+          <a:off x="72457200" y="4159800"/>
+          <a:ext cx="4051440" cy="429840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1614,15 +1632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>355680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1631,8 +1649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73476000" y="4539600"/>
-          <a:ext cx="4128120" cy="429840"/>
+          <a:off x="72457200" y="4539600"/>
+          <a:ext cx="4051440" cy="429480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1657,15 +1675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>356040</xdr:rowOff>
+      <xdr:rowOff>356400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1674,8 +1692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73476000" y="5680800"/>
-          <a:ext cx="4128120" cy="1360080"/>
+          <a:off x="72457200" y="5681160"/>
+          <a:ext cx="4051440" cy="1346760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1700,15 +1718,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>356040</xdr:rowOff>
+      <xdr:rowOff>349920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1717,8 +1735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73476000" y="7752240"/>
-          <a:ext cx="4128120" cy="430200"/>
+          <a:off x="72457200" y="7740000"/>
+          <a:ext cx="4051440" cy="429840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1750,41 +1768,43 @@
   </sheetPr>
   <dimension ref="1:83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM15" activeCellId="0" sqref="BM15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="71" min="46" style="5" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="47" min="46" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="5" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="71" min="49" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3576,25 +3596,25 @@
       <c r="G5" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="56" t="s">
         <v>88</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="56" t="s">
         <v>88</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="56" t="s">
         <v>88</v>
       </c>
       <c r="M5" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="56" t="s">
         <v>88</v>
       </c>
       <c r="O5" s="56" t="s">
@@ -4526,28 +4546,28 @@
       <c r="AS10" s="42"/>
       <c r="AT10" s="42"/>
       <c r="AU10" s="42"/>
-      <c r="AV10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW10" s="40" t="s">
+      <c r="AV10" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="AX10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY10" s="40" t="s">
+      <c r="AX10" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="AZ10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA10" s="40" t="s">
+      <c r="AZ10" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA10" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="BB10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC10" s="40" t="s">
+      <c r="BB10" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC10" s="56" t="s">
         <v>80</v>
       </c>
       <c r="BD10" s="42"/>
@@ -4565,15 +4585,15 @@
       <c r="BP10" s="42"/>
       <c r="BQ10" s="42"/>
       <c r="BR10" s="42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BS10" s="42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BT10" s="43"/>
       <c r="BU10" s="42"/>
       <c r="BV10" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BW10" s="38"/>
       <c r="BX10" s="38"/>
@@ -4595,7 +4615,7 @@
       <c r="CN10" s="43"/>
       <c r="CO10" s="42"/>
       <c r="CP10" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CQ10" s="38"/>
       <c r="CR10" s="58"/>
@@ -4631,16 +4651,16 @@
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
       <c r="D11" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4671,10 +4691,10 @@
       <c r="AH11" s="43"/>
       <c r="AI11" s="42"/>
       <c r="AJ11" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK11" s="57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL11" s="45"/>
       <c r="AM11" s="45"/>
@@ -4686,28 +4706,28 @@
       <c r="AS11" s="42"/>
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
-      <c r="AV11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW11" s="40" t="s">
+      <c r="AV11" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="AX11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY11" s="40" t="s">
+      <c r="AX11" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="AZ11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA11" s="40" t="s">
+      <c r="AZ11" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA11" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="BB11" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC11" s="40" t="s">
+      <c r="BB11" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC11" s="56" t="s">
         <v>101</v>
       </c>
       <c r="BD11" s="42"/>
@@ -4729,7 +4749,7 @@
       <c r="BT11" s="43"/>
       <c r="BU11" s="42"/>
       <c r="BV11" s="38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BW11" s="38"/>
       <c r="BX11" s="38"/>
@@ -4751,7 +4771,7 @@
       <c r="CN11" s="43"/>
       <c r="CO11" s="42"/>
       <c r="CP11" s="38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CQ11" s="38"/>
       <c r="CR11" s="58"/>
@@ -4787,16 +4807,16 @@
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
       <c r="D12" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4827,10 +4847,10 @@
       <c r="AH12" s="43"/>
       <c r="AI12" s="42"/>
       <c r="AJ12" s="57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK12" s="57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL12" s="45"/>
       <c r="AM12" s="45"/>
@@ -4842,28 +4862,28 @@
       <c r="AS12" s="42"/>
       <c r="AT12" s="42"/>
       <c r="AU12" s="42"/>
-      <c r="AV12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW12" s="40" t="s">
+      <c r="AV12" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW12" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AX12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY12" s="40" t="s">
+      <c r="AX12" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY12" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AZ12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA12" s="40" t="s">
+      <c r="AZ12" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA12" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="BB12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC12" s="40" t="s">
+      <c r="BB12" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC12" s="56" t="s">
         <v>115</v>
       </c>
       <c r="BD12" s="42"/>
@@ -4885,7 +4905,7 @@
       <c r="BT12" s="43"/>
       <c r="BU12" s="42"/>
       <c r="BV12" s="38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BW12" s="38"/>
       <c r="BX12" s="38"/>
@@ -4907,7 +4927,7 @@
       <c r="CN12" s="43"/>
       <c r="CO12" s="42"/>
       <c r="CP12" s="38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="CQ12" s="38"/>
       <c r="CR12" s="58"/>
@@ -4943,16 +4963,16 @@
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
       <c r="D13" s="38" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -4983,10 +5003,10 @@
       <c r="AH13" s="53"/>
       <c r="AI13" s="54"/>
       <c r="AJ13" s="57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK13" s="57" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL13" s="45"/>
       <c r="AM13" s="45"/>
@@ -4999,28 +5019,28 @@
       <c r="AT13" s="42"/>
       <c r="AU13" s="42"/>
       <c r="AV13" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AW13" s="40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AX13" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AY13" s="40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AZ13" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BA13" s="40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BB13" s="40" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BC13" s="40" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BD13" s="42"/>
       <c r="BE13" s="42"/>
@@ -5041,7 +5061,7 @@
       <c r="BT13" s="43"/>
       <c r="BU13" s="42"/>
       <c r="BV13" s="38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BW13" s="38"/>
       <c r="BX13" s="38"/>
@@ -5063,7 +5083,7 @@
       <c r="CN13" s="43"/>
       <c r="CO13" s="42"/>
       <c r="CP13" s="38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="CQ13" s="38"/>
       <c r="CR13" s="58"/>
@@ -5099,16 +5119,16 @@
       <c r="B14" s="53"/>
       <c r="C14" s="54"/>
       <c r="D14" s="38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5139,10 +5159,10 @@
       <c r="AH14" s="53"/>
       <c r="AI14" s="54"/>
       <c r="AJ14" s="57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AK14" s="57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL14" s="45"/>
       <c r="AM14" s="45"/>
@@ -5154,36 +5174,36 @@
       <c r="AS14" s="42"/>
       <c r="AT14" s="42"/>
       <c r="AU14" s="42"/>
-      <c r="AV14" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX14" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="AZ14" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB14" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC14" s="40" t="s">
-        <v>187</v>
+      <c r="AV14" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW14" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AX14" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY14" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ14" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA14" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB14" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC14" s="56" t="s">
+        <v>191</v>
       </c>
       <c r="BD14" s="42"/>
       <c r="BE14" s="42"/>
       <c r="BF14" s="42"/>
       <c r="BG14" s="42"/>
       <c r="BH14" s="42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="BI14" s="42"/>
       <c r="BJ14" s="42"/>
@@ -5199,7 +5219,7 @@
       <c r="BT14" s="43"/>
       <c r="BU14" s="42"/>
       <c r="BV14" s="38" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BW14" s="38"/>
       <c r="BX14" s="38"/>
@@ -5221,7 +5241,7 @@
       <c r="CN14" s="43"/>
       <c r="CO14" s="42"/>
       <c r="CP14" s="38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CQ14" s="38"/>
       <c r="CR14" s="58"/>
@@ -5252,21 +5272,21 @@
       <c r="DQ14" s="51"/>
       <c r="DR14" s="51"/>
     </row>
-    <row r="15" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
       <c r="D15" s="38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5297,10 +5317,10 @@
       <c r="AH15" s="53"/>
       <c r="AI15" s="54"/>
       <c r="AJ15" s="57" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AK15" s="57" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
@@ -5312,36 +5332,36 @@
       <c r="AS15" s="42"/>
       <c r="AT15" s="42"/>
       <c r="AU15" s="42"/>
-      <c r="AV15" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="AW15" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX15" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY15" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ15" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="BA15" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB15" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="BC15" s="40" t="s">
-        <v>155</v>
+      <c r="AV15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW15" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY15" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA15" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="BC15" s="56" t="s">
+        <v>201</v>
       </c>
       <c r="BD15" s="42"/>
       <c r="BE15" s="42"/>
       <c r="BF15" s="42"/>
       <c r="BG15" s="42"/>
       <c r="BH15" s="42" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="BI15" s="42"/>
       <c r="BJ15" s="42"/>
@@ -5357,7 +5377,7 @@
       <c r="BT15" s="43"/>
       <c r="BU15" s="42"/>
       <c r="BV15" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BW15" s="38"/>
       <c r="BX15" s="38"/>
@@ -5379,7 +5399,7 @@
       <c r="CN15" s="43"/>
       <c r="CO15" s="42"/>
       <c r="CP15" s="38" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="CQ15" s="38"/>
       <c r="CR15" s="58"/>
@@ -5415,16 +5435,16 @@
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
       <c r="D16" s="38" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -5466,29 +5486,29 @@
       <c r="AS16" s="42"/>
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
-      <c r="AV16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW16" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="AY16" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="BA16" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="BB16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="BC16" s="40" t="s">
-        <v>203</v>
+      <c r="AV16" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW16" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX16" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY16" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ16" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="BA16" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB16" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC16" s="56" t="s">
+        <v>156</v>
       </c>
       <c r="BD16" s="42"/>
       <c r="BE16" s="42"/>
@@ -5509,7 +5529,7 @@
       <c r="BT16" s="43"/>
       <c r="BU16" s="42"/>
       <c r="BV16" s="38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="BW16" s="38"/>
       <c r="BX16" s="38"/>
@@ -5531,7 +5551,7 @@
       <c r="CN16" s="43"/>
       <c r="CO16" s="42"/>
       <c r="CP16" s="38" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="CQ16" s="38"/>
       <c r="CR16" s="58"/>
@@ -5567,13 +5587,13 @@
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
       <c r="D17" s="38" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G17" s="65" t="s">
         <v>83</v>
@@ -5618,29 +5638,29 @@
       <c r="AS17" s="42"/>
       <c r="AT17" s="42"/>
       <c r="AU17" s="42"/>
-      <c r="AV17" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW17" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX17" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY17" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ17" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA17" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB17" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="BC17" s="40" t="s">
-        <v>209</v>
+      <c r="AV17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW17" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY17" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA17" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC17" s="56" t="s">
+        <v>214</v>
       </c>
       <c r="BD17" s="42"/>
       <c r="BE17" s="42"/>
@@ -5661,7 +5681,7 @@
       <c r="BT17" s="43"/>
       <c r="BU17" s="42"/>
       <c r="BV17" s="38" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BW17" s="38"/>
       <c r="BX17" s="38"/>
@@ -5717,13 +5737,13 @@
       <c r="B18" s="53"/>
       <c r="C18" s="54"/>
       <c r="D18" s="38" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G18" s="60" t="s">
         <v>103</v>
@@ -5768,28 +5788,28 @@
       <c r="AS18" s="42"/>
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
-      <c r="AV18" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW18" s="40" t="s">
+      <c r="AV18" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW18" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AX18" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AY18" s="40" t="s">
+      <c r="AX18" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY18" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AZ18" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA18" s="40" t="s">
+      <c r="AZ18" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA18" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="BB18" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC18" s="40" t="s">
+      <c r="BB18" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC18" s="56" t="s">
         <v>147</v>
       </c>
       <c r="BD18" s="42"/>
@@ -5811,7 +5831,7 @@
       <c r="BT18" s="43"/>
       <c r="BU18" s="42"/>
       <c r="BV18" s="38" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="BW18" s="38"/>
       <c r="BX18" s="38"/>
@@ -5867,16 +5887,16 @@
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
       <c r="D19" s="38" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5918,29 +5938,29 @@
       <c r="AS19" s="42"/>
       <c r="AT19" s="42"/>
       <c r="AU19" s="42"/>
-      <c r="AV19" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW19" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="AX19" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY19" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ19" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA19" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="BB19" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC19" s="40" t="s">
-        <v>217</v>
+      <c r="AV19" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW19" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX19" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY19" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ19" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA19" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB19" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC19" s="56" t="s">
+        <v>224</v>
       </c>
       <c r="BD19" s="42"/>
       <c r="BE19" s="42"/>
@@ -5961,7 +5981,7 @@
       <c r="BT19" s="43"/>
       <c r="BU19" s="42"/>
       <c r="BV19" s="38" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="BW19" s="38"/>
       <c r="BX19" s="38"/>
@@ -6017,16 +6037,16 @@
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
       <c r="D20" s="38" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G20" s="60" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -6068,29 +6088,29 @@
       <c r="AS20" s="42"/>
       <c r="AT20" s="42"/>
       <c r="AU20" s="42"/>
-      <c r="AV20" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW20" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX20" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY20" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="AZ20" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA20" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="BB20" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC20" s="40" t="s">
-        <v>223</v>
+      <c r="AV20" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW20" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX20" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY20" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ20" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA20" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="BB20" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC20" s="56" t="s">
+        <v>230</v>
       </c>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
@@ -6111,7 +6131,7 @@
       <c r="BT20" s="43"/>
       <c r="BU20" s="42"/>
       <c r="BV20" s="38" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="BW20" s="38"/>
       <c r="BX20" s="38"/>
@@ -6214,30 +6234,14 @@
       <c r="AS21" s="42"/>
       <c r="AT21" s="42"/>
       <c r="AU21" s="42"/>
-      <c r="AV21" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW21" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX21" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY21" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ21" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA21" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB21" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC21" s="49" t="s">
-        <v>225</v>
-      </c>
+      <c r="AV21" s="0"/>
+      <c r="AW21" s="0"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="49"/>
+      <c r="BA21" s="49"/>
+      <c r="BB21" s="49"/>
+      <c r="BC21" s="49"/>
       <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
       <c r="BF21" s="42"/>
@@ -6257,7 +6261,7 @@
       <c r="BT21" s="43"/>
       <c r="BU21" s="42"/>
       <c r="BV21" s="38" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="BW21" s="38"/>
       <c r="BX21" s="38"/>
@@ -6313,10 +6317,10 @@
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
       <c r="D22" s="38" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="54"/>
@@ -6360,8 +6364,8 @@
       <c r="AS22" s="42"/>
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="0"/>
       <c r="AX22" s="42"/>
       <c r="AY22" s="42"/>
       <c r="AZ22" s="42"/>
@@ -6387,7 +6391,7 @@
       <c r="BT22" s="43"/>
       <c r="BU22" s="42"/>
       <c r="BV22" s="38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BW22" s="38"/>
       <c r="BX22" s="38"/>
@@ -6443,10 +6447,10 @@
       <c r="B23" s="53"/>
       <c r="C23" s="54"/>
       <c r="D23" s="38" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="54"/>
@@ -6517,7 +6521,7 @@
       <c r="BT23" s="43"/>
       <c r="BU23" s="42"/>
       <c r="BV23" s="38" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="BW23" s="38"/>
       <c r="BX23" s="38"/>
@@ -6573,10 +6577,10 @@
       <c r="B24" s="53"/>
       <c r="C24" s="54"/>
       <c r="D24" s="38" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="54"/>
@@ -6647,7 +6651,7 @@
       <c r="BT24" s="43"/>
       <c r="BU24" s="42"/>
       <c r="BV24" s="38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="BW24" s="38"/>
       <c r="BX24" s="38"/>
@@ -6703,10 +6707,10 @@
       <c r="B25" s="53"/>
       <c r="C25" s="54"/>
       <c r="D25" s="38" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="54"/>
@@ -6831,10 +6835,10 @@
       <c r="B26" s="53"/>
       <c r="C26" s="54"/>
       <c r="D26" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="53"/>
       <c r="G26" s="54"/>
@@ -6959,7 +6963,7 @@
       <c r="B27" s="53"/>
       <c r="C27" s="54"/>
       <c r="D27" s="42" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E27" s="42" t="s">
         <v>151</v>
@@ -7087,10 +7091,10 @@
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="42" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
@@ -7215,10 +7219,10 @@
       <c r="B29" s="53"/>
       <c r="C29" s="54"/>
       <c r="D29" s="42" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="54"/>
@@ -7343,10 +7347,10 @@
       <c r="B30" s="53"/>
       <c r="C30" s="54"/>
       <c r="D30" s="38" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="54"/>
@@ -7599,10 +7603,10 @@
       <c r="B32" s="53"/>
       <c r="C32" s="54"/>
       <c r="D32" s="38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="54"/>
@@ -7727,10 +7731,10 @@
       <c r="B33" s="53"/>
       <c r="C33" s="54"/>
       <c r="D33" s="38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="54"/>
@@ -7983,10 +7987,10 @@
       <c r="B35" s="53"/>
       <c r="C35" s="54"/>
       <c r="D35" s="38" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="54"/>
@@ -8111,10 +8115,10 @@
       <c r="B36" s="53"/>
       <c r="C36" s="54"/>
       <c r="D36" s="38" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="54"/>
@@ -8239,10 +8243,10 @@
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
       <c r="D37" s="42" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="54"/>
@@ -8367,10 +8371,10 @@
       <c r="B38" s="53"/>
       <c r="C38" s="54"/>
       <c r="D38" s="42" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="54"/>
@@ -8495,10 +8499,10 @@
       <c r="B39" s="53"/>
       <c r="C39" s="54"/>
       <c r="D39" s="42" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="54"/>
@@ -8623,10 +8627,10 @@
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
       <c r="D40" s="38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="54"/>
@@ -8751,10 +8755,10 @@
       <c r="B41" s="43"/>
       <c r="C41" s="42"/>
       <c r="D41" s="38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F41" s="53"/>
       <c r="G41" s="54"/>
@@ -8879,10 +8883,10 @@
       <c r="B42" s="43"/>
       <c r="C42" s="42"/>
       <c r="D42" s="38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="54"/>
@@ -9007,10 +9011,10 @@
       <c r="B43" s="43"/>
       <c r="C43" s="42"/>
       <c r="D43" s="38" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="54"/>
@@ -9135,10 +9139,10 @@
       <c r="B44" s="43"/>
       <c r="C44" s="42"/>
       <c r="D44" s="38" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="42"/>
@@ -9262,10 +9266,10 @@
       <c r="B45" s="43"/>
       <c r="C45" s="42"/>
       <c r="D45" s="38" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="42"/>
@@ -9389,10 +9393,10 @@
       <c r="B46" s="43"/>
       <c r="C46" s="42"/>
       <c r="D46" s="38" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="42"/>
@@ -9516,10 +9520,10 @@
       <c r="B47" s="43"/>
       <c r="C47" s="42"/>
       <c r="D47" s="38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="42"/>
@@ -9885,7 +9889,7 @@
       <c r="DQ49" s="51"/>
       <c r="DR49" s="51"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -9894,6 +9898,8 @@
       <c r="U50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AS50" s="5"/>
+      <c r="AV50" s="42"/>
+      <c r="AW50" s="42"/>
       <c r="BU50" s="5"/>
       <c r="CA50" s="5"/>
       <c r="CF50" s="5"/>
@@ -10625,11 +10631,11 @@
     <mergeCell ref="A4:A44"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV83 AX1:AX83 AZ1:AZ83 BB1:BB83 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR83 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 D50:D83" type="none">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV20 AX1:AX83 AZ1:AZ83 BB1:BB83 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR83 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 AV22:AV83 D50:D83" type="none">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW83 AY1:AY83 BA1:BA83 BC1:BC83 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS83 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 E50:E83" type="textLength">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW20 AY1:AY83 BA1:BA83 BC1:BC83 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS83 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 AW23:AW83 E50:E83" type="textLength">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Sample_and_gear_types_AeN.xlsx
+++ b/Sample_and_gear_types_AeN.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="257">
   <si>
     <t xml:space="preserve">Sample Group</t>
   </si>
@@ -295,183 +295,189 @@
     <t xml:space="preserve">Gelationous zooplankton abundance</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton carbohydrat</t>
+    <t xml:space="preserve">Macrozooplankton ecotox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop ecotox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POC/PON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists microscopy &gt; 10 um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists micros&gt;10um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists microscopy &gt; 20 um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists micros&gt;20um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Ice core section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice core section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Density/Abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Algal pigments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algal pigments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozoop abun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microzooplankton abundance, lugol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microzoop abun,lugol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton biomass, live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozoop mass, live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton carbohydrat</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop carhyd</t>
   </si>
   <si>
-    <t xml:space="preserve">POC/PON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists microscopy &gt; 10 um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists micros&gt;10um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists microscopy &gt; 20 um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists micros&gt;20um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterial production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterial prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Ice core section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice core section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density/Abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Algal pigments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algal pigments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paleo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozoop abun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microzooplankton abundance, lugol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microzoop abun,lugol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton biomass, live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozoop mass, live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton energetics</t>
+    <t xml:space="preserve">Protist community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice algal taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Bacterial production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Barcoding samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcoding samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelationous zooplankton taxonomy, ethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gel zoop tax, EtOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton biomass, weighed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozoop mass, wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton energetics</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop energ</t>
   </si>
   <si>
-    <t xml:space="preserve">Protist community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice algal taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Bacterial production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Barcoding samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barcoding samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gelationous zooplankton taxonomy, ethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gel zoop tax, EtOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton biomass, weighed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozoop mass, wei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton fatty acid</t>
+    <t xml:space="preserve">Chlorophyll a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chl a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microalgal culturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogenic silica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Chlorophyll a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Food web samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food web samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelationous zooplankton taxonomy, formaldehyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gel zoop tax, form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozoop genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton fatty acid</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop fatty acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Chlorophyll a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chl a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microalgal culturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogenic silica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Chlorophyll a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Food web samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food web samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gelationous zooplankton taxonomy, formaldehyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gel zoop tax, form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozoop genetics</t>
+    <t xml:space="preserve">Benthic foraminifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromoform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Foraminifera experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foraminifera exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop abun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton hg</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozooplankton hg</t>
   </si>
   <si>
-    <t xml:space="preserve">Benthic foraminifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromoform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,Foraminifera experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foraminifera exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop abun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton organic pollutio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dating</t>
   </si>
   <si>
@@ -496,63 +502,60 @@
     <t xml:space="preserve">Macrozoop biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton protein</t>
+    <t xml:space="preserve">1, Macrozooplankton organic pollutio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diatoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meiofauna taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, PicoNanoEpifluorenscens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicoNanoEpifluo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Organic carbon/nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic C/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton protein</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop org pol</t>
   </si>
   <si>
-    <t xml:space="preserve">Diatoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meiofauna taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, PicoNanoEpifluorenscens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicoNanoEpifluo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Organic carbon/nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic C/N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton carbohydrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton stable isotope</t>
+    <t xml:space="preserve">Dinocysts, ancient DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scavenger taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaO18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, PicoNanoFlowcytometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicoNanoFlowcyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton stable isotope</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop isotope</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinocysts, ancient DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scavenger taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deltaO18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, PicoNanoFlowcytometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicoNanoFlowcyt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton energetics</t>
-  </si>
-  <si>
     <t xml:space="preserve">HBIs and coccoliths</t>
   </si>
   <si>
@@ -574,9 +577,6 @@
     <t xml:space="preserve">Pore water content</t>
   </si>
   <si>
-    <t xml:space="preserve">1, Macrozooplankton fatty acid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lithological description</t>
   </si>
   <si>
@@ -601,31 +601,55 @@
     <t xml:space="preserve">Quanti macrofauna</t>
   </si>
   <si>
+    <t xml:space="preserve">magnetic susceptibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable isotopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Respiration experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiration exp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Macrozooplankton genetics</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop genetics </t>
   </si>
   <si>
-    <t xml:space="preserve">magnetic susceptibility </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable isotopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Respiration experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiration exp</t>
+    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suction pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC/DON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed isotopes, C, N</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozooplankton gonad </t>
@@ -634,54 +658,24 @@
     <t xml:space="preserve">Macrozoop gonad </t>
   </si>
   <si>
-    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC/DON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sed isotopes, C, N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton hg</t>
+    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoop physiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecotoxicology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist microscopy &lt;  um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists micros&lt;10um</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop hg</t>
   </si>
   <si>
-    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoop physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecotoxicology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Protist microscopy &lt;  um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists micros&lt;10um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton stable isotope</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planktic foraminifera</t>
   </si>
   <si>
@@ -697,24 +691,21 @@
     <t xml:space="preserve">1 ,Protist microscopy &gt; 10 um</t>
   </si>
   <si>
+    <t xml:space="preserve">Pore water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grazing on bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist PCR</t>
+  </si>
+  <si>
     <t xml:space="preserve">1, Macrozooplankton nutrition</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop nutrition</t>
   </si>
   <si>
-    <t xml:space="preserve">Pore water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazing on bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Protist PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton organic pollutio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reference</t>
   </si>
   <si>
@@ -727,31 +718,28 @@
     <t xml:space="preserve">Silicate incorp</t>
   </si>
   <si>
-    <t xml:space="preserve">1, Macrozooplankton protein</t>
+    <t xml:space="preserve">Sediment geochemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Virus DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virus DNA</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozoop protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Sediment geochemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Virus DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virus DNA</t>
+    <t xml:space="preserve">Sediment grain size</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozoplankton stomach</t>
   </si>
   <si>
     <t xml:space="preserve">Macrozop stomach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment grain size</t>
   </si>
   <si>
     <t xml:space="preserve">Sedimentology</t>
@@ -1347,6 +1335,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1372,10 +1364,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1511,7 +1499,7 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>89280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1521,7 +1509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="58588200" y="5300280"/>
-          <a:ext cx="3061080" cy="1347840"/>
+          <a:ext cx="3061080" cy="1357560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1546,7 +1534,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>357120</xdr:rowOff>
     </xdr:from>
@@ -1563,8 +1551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72457200" y="3399840"/>
-          <a:ext cx="4051440" cy="429120"/>
+          <a:off x="73298880" y="3399840"/>
+          <a:ext cx="4051800" cy="429120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1589,7 +1577,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>356400</xdr:rowOff>
     </xdr:from>
@@ -1606,8 +1594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72457200" y="4159800"/>
-          <a:ext cx="4051440" cy="429840"/>
+          <a:off x="73298880" y="4159800"/>
+          <a:ext cx="4051800" cy="429840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1632,7 +1620,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>355680</xdr:rowOff>
     </xdr:from>
@@ -1649,8 +1637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72457200" y="4539600"/>
-          <a:ext cx="4051440" cy="429480"/>
+          <a:off x="73298880" y="4539600"/>
+          <a:ext cx="4051800" cy="429480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1675,7 +1663,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>356400</xdr:rowOff>
     </xdr:from>
@@ -1683,7 +1671,7 @@
       <xdr:col>76</xdr:col>
       <xdr:colOff>89640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1692,8 +1680,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72457200" y="5681160"/>
-          <a:ext cx="4051440" cy="1346760"/>
+          <a:off x="73298880" y="5681160"/>
+          <a:ext cx="4051800" cy="1356120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1718,15 +1706,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>349920</xdr:rowOff>
+      <xdr:rowOff>356400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
       <xdr:colOff>89640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1735,8 +1723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72457200" y="7740000"/>
-          <a:ext cx="4051440" cy="429840"/>
+          <a:off x="73298880" y="7749360"/>
+          <a:ext cx="4051800" cy="429840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1768,8 +1756,8 @@
   </sheetPr>
   <dimension ref="1:83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BQ14" activeCellId="0" sqref="BQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1789,7 +1777,9 @@
     <col collapsed="false" hidden="false" max="45" min="44" style="2" width="14.0408163265306"/>
     <col collapsed="false" hidden="false" max="47" min="46" style="5" width="14.0408163265306"/>
     <col collapsed="false" hidden="false" max="48" min="48" style="5" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="71" min="49" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="69" min="49" style="5" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="5" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="5" width="20.5612244897959"/>
     <col collapsed="false" hidden="false" max="73" min="72" style="2" width="14.0408163265306"/>
     <col collapsed="false" hidden="false" max="77" min="74" style="4" width="14.0408163265306"/>
     <col collapsed="false" hidden="false" max="79" min="78" style="2" width="14.0408163265306"/>
@@ -3494,10 +3484,10 @@
       <c r="BQ4" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="BR4" s="42" t="s">
+      <c r="BR4" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BS4" s="42" t="s">
+      <c r="BS4" s="0" t="s">
         <v>80</v>
       </c>
       <c r="BT4" s="43"/>
@@ -3722,10 +3712,10 @@
       <c r="BQ5" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="BR5" s="42" t="s">
+      <c r="BR5" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="BS5" s="42" t="s">
+      <c r="BS5" s="58" t="s">
         <v>101</v>
       </c>
       <c r="BT5" s="43"/>
@@ -3778,7 +3768,7 @@
         <v>104</v>
       </c>
       <c r="CQ5" s="38"/>
-      <c r="CR5" s="58"/>
+      <c r="CR5" s="59"/>
       <c r="CS5" s="51"/>
       <c r="CT5" s="51"/>
       <c r="CU5" s="51"/>
@@ -3816,10 +3806,10 @@
       <c r="E6" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="61" t="s">
         <v>87</v>
       </c>
       <c r="H6" s="38"/>
@@ -3833,7 +3823,7 @@
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
-      <c r="S6" s="61"/>
+      <c r="S6" s="62"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
       <c r="V6" s="42"/>
@@ -3920,10 +3910,10 @@
       <c r="BQ6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="BR6" s="42" t="s">
+      <c r="BR6" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="BS6" s="42" t="s">
+      <c r="BS6" s="58" t="s">
         <v>115</v>
       </c>
       <c r="BT6" s="43"/>
@@ -3974,7 +3964,7 @@
       <c r="CO6" s="42"/>
       <c r="CP6" s="38"/>
       <c r="CQ6" s="38"/>
-      <c r="CR6" s="58"/>
+      <c r="CR6" s="59"/>
       <c r="CS6" s="51"/>
       <c r="CT6" s="51"/>
       <c r="CU6" s="51"/>
@@ -4012,10 +4002,10 @@
       <c r="E7" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="61" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="45"/>
@@ -4029,7 +4019,7 @@
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-      <c r="S7" s="61"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
@@ -4104,16 +4094,16 @@
       <c r="BQ7" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="BR7" s="45" t="s">
+      <c r="BR7" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="BS7" s="42" t="s">
-        <v>127</v>
+      <c r="BS7" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="BT7" s="43"/>
       <c r="BU7" s="42"/>
       <c r="BV7" s="38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BW7" s="38"/>
       <c r="BX7" s="38"/>
@@ -4123,22 +4113,22 @@
       <c r="CB7" s="38"/>
       <c r="CC7" s="38"/>
       <c r="CD7" s="38"/>
-      <c r="CE7" s="61"/>
+      <c r="CE7" s="62"/>
       <c r="CF7" s="42"/>
       <c r="CG7" s="42"/>
       <c r="CH7" s="42"/>
       <c r="CI7" s="42"/>
-      <c r="CJ7" s="62"/>
-      <c r="CK7" s="63"/>
-      <c r="CL7" s="63"/>
-      <c r="CM7" s="63"/>
-      <c r="CN7" s="62"/>
+      <c r="CJ7" s="63"/>
+      <c r="CK7" s="64"/>
+      <c r="CL7" s="64"/>
+      <c r="CM7" s="64"/>
+      <c r="CN7" s="63"/>
       <c r="CO7" s="42"/>
       <c r="CP7" s="38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CQ7" s="38"/>
-      <c r="CR7" s="58"/>
+      <c r="CR7" s="59"/>
       <c r="CS7" s="51"/>
       <c r="CT7" s="51"/>
       <c r="CU7" s="51"/>
@@ -4171,16 +4161,16 @@
       <c r="B8" s="53"/>
       <c r="C8" s="54"/>
       <c r="D8" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="F8" s="65" t="s">
         <v>132</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>133</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
@@ -4193,7 +4183,7 @@
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
       <c r="R8" s="42"/>
-      <c r="S8" s="61"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="42"/>
       <c r="U8" s="42"/>
       <c r="V8" s="42"/>
@@ -4211,10 +4201,10 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="42"/>
       <c r="AJ8" s="57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK8" s="57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="45"/>
@@ -4227,28 +4217,28 @@
       <c r="AT8" s="42"/>
       <c r="AU8" s="42"/>
       <c r="AV8" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AW8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX8" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AX8" s="40" t="s">
-        <v>135</v>
-      </c>
       <c r="AY8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ8" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="AZ8" s="40" t="s">
-        <v>135</v>
-      </c>
       <c r="BA8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB8" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="BB8" s="40" t="s">
-        <v>135</v>
-      </c>
       <c r="BC8" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BD8" s="42"/>
       <c r="BE8" s="42"/>
@@ -4264,16 +4254,16 @@
       <c r="BO8" s="42"/>
       <c r="BP8" s="42"/>
       <c r="BQ8" s="42"/>
-      <c r="BR8" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS8" s="42" t="s">
-        <v>115</v>
+      <c r="BR8" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS8" s="58" t="s">
+        <v>139</v>
       </c>
       <c r="BT8" s="43"/>
       <c r="BU8" s="42"/>
       <c r="BV8" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BW8" s="38"/>
       <c r="BX8" s="38"/>
@@ -4283,7 +4273,7 @@
       <c r="CB8" s="38"/>
       <c r="CC8" s="38"/>
       <c r="CD8" s="38"/>
-      <c r="CE8" s="61"/>
+      <c r="CE8" s="62"/>
       <c r="CF8" s="42"/>
       <c r="CG8" s="42"/>
       <c r="CH8" s="42"/>
@@ -4295,10 +4285,10 @@
       <c r="CN8" s="43"/>
       <c r="CO8" s="42"/>
       <c r="CP8" s="38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CQ8" s="38"/>
-      <c r="CR8" s="58"/>
+      <c r="CR8" s="59"/>
       <c r="CS8" s="51"/>
       <c r="CT8" s="51"/>
       <c r="CU8" s="51"/>
@@ -4331,15 +4321,15 @@
       <c r="B9" s="53"/>
       <c r="C9" s="54"/>
       <c r="D9" s="38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="38"/>
@@ -4353,7 +4343,7 @@
       <c r="P9" s="42"/>
       <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
-      <c r="S9" s="61"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
       <c r="V9" s="42"/>
@@ -4371,10 +4361,10 @@
       <c r="AH9" s="43"/>
       <c r="AI9" s="42"/>
       <c r="AJ9" s="57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK9" s="57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL9" s="45"/>
       <c r="AM9" s="45"/>
@@ -4387,28 +4377,28 @@
       <c r="AT9" s="42"/>
       <c r="AU9" s="42"/>
       <c r="AV9" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AW9" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AX9" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AY9" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AZ9" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BA9" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BB9" s="40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BC9" s="40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BD9" s="42"/>
       <c r="BE9" s="42"/>
@@ -4424,16 +4414,16 @@
       <c r="BO9" s="42"/>
       <c r="BP9" s="42"/>
       <c r="BQ9" s="42"/>
-      <c r="BR9" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="BS9" s="42" t="s">
-        <v>147</v>
+      <c r="BR9" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="BS9" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="BT9" s="43"/>
       <c r="BU9" s="42"/>
       <c r="BV9" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BW9" s="38"/>
       <c r="BX9" s="38"/>
@@ -4443,7 +4433,7 @@
       <c r="CB9" s="38"/>
       <c r="CC9" s="38"/>
       <c r="CD9" s="38"/>
-      <c r="CE9" s="61"/>
+      <c r="CE9" s="62"/>
       <c r="CF9" s="42"/>
       <c r="CG9" s="42"/>
       <c r="CH9" s="42"/>
@@ -4455,10 +4445,10 @@
       <c r="CN9" s="43"/>
       <c r="CO9" s="42"/>
       <c r="CP9" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CQ9" s="38"/>
-      <c r="CR9" s="58"/>
+      <c r="CR9" s="59"/>
       <c r="CS9" s="51"/>
       <c r="CT9" s="51"/>
       <c r="CU9" s="51"/>
@@ -4496,11 +4486,11 @@
       <c r="E10" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="60" t="s">
         <v>151</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -4513,7 +4503,7 @@
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
-      <c r="S10" s="61"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
       <c r="V10" s="42"/>
@@ -4531,10 +4521,10 @@
       <c r="AH10" s="43"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK10" s="57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL10" s="45"/>
       <c r="AM10" s="45"/>
@@ -4546,28 +4536,28 @@
       <c r="AS10" s="42"/>
       <c r="AT10" s="42"/>
       <c r="AU10" s="42"/>
-      <c r="AV10" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW10" s="56" t="s">
+      <c r="AV10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="AX10" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY10" s="56" t="s">
+      <c r="AX10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="AZ10" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA10" s="56" t="s">
+      <c r="AZ10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="BB10" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC10" s="56" t="s">
+      <c r="BB10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC10" s="40" t="s">
         <v>80</v>
       </c>
       <c r="BD10" s="42"/>
@@ -4584,10 +4574,10 @@
       <c r="BO10" s="42"/>
       <c r="BP10" s="42"/>
       <c r="BQ10" s="42"/>
-      <c r="BR10" s="42" t="s">
+      <c r="BR10" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="BS10" s="42" t="s">
+      <c r="BS10" s="58" t="s">
         <v>156</v>
       </c>
       <c r="BT10" s="43"/>
@@ -4603,7 +4593,7 @@
       <c r="CB10" s="38"/>
       <c r="CC10" s="38"/>
       <c r="CD10" s="38"/>
-      <c r="CE10" s="61"/>
+      <c r="CE10" s="62"/>
       <c r="CF10" s="42"/>
       <c r="CG10" s="42"/>
       <c r="CH10" s="42"/>
@@ -4618,7 +4608,7 @@
         <v>158</v>
       </c>
       <c r="CQ10" s="38"/>
-      <c r="CR10" s="58"/>
+      <c r="CR10" s="59"/>
       <c r="CS10" s="51"/>
       <c r="CT10" s="51"/>
       <c r="CU10" s="51"/>
@@ -4656,10 +4646,10 @@
       <c r="E11" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="58" t="s">
         <v>161</v>
       </c>
       <c r="H11" s="38"/>
@@ -4673,7 +4663,7 @@
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-      <c r="S11" s="61"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="42"/>
@@ -4707,25 +4697,25 @@
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
       <c r="AV11" s="56" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="AW11" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AX11" s="56" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="AY11" s="56" t="s">
         <v>101</v>
       </c>
       <c r="AZ11" s="56" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="BA11" s="56" t="s">
         <v>101</v>
       </c>
       <c r="BB11" s="56" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="BC11" s="56" t="s">
         <v>101</v>
@@ -4744,12 +4734,16 @@
       <c r="BO11" s="42"/>
       <c r="BP11" s="42"/>
       <c r="BQ11" s="42"/>
-      <c r="BR11" s="42"/>
-      <c r="BS11" s="42"/>
+      <c r="BR11" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="BS11" s="58" t="s">
+        <v>165</v>
+      </c>
       <c r="BT11" s="43"/>
       <c r="BU11" s="42"/>
       <c r="BV11" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BW11" s="38"/>
       <c r="BX11" s="38"/>
@@ -4759,7 +4753,7 @@
       <c r="CB11" s="38"/>
       <c r="CC11" s="38"/>
       <c r="CD11" s="38"/>
-      <c r="CE11" s="61"/>
+      <c r="CE11" s="62"/>
       <c r="CF11" s="42"/>
       <c r="CG11" s="42"/>
       <c r="CH11" s="42"/>
@@ -4771,10 +4765,10 @@
       <c r="CN11" s="43"/>
       <c r="CO11" s="42"/>
       <c r="CP11" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CQ11" s="38"/>
-      <c r="CR11" s="58"/>
+      <c r="CR11" s="59"/>
       <c r="CS11" s="51"/>
       <c r="CT11" s="51"/>
       <c r="CU11" s="51"/>
@@ -4807,16 +4801,16 @@
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
       <c r="D12" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="F12" s="60" t="s">
         <v>169</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>170</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4829,7 +4823,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="61"/>
+      <c r="S12" s="62"/>
       <c r="T12" s="42"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
@@ -4847,10 +4841,10 @@
       <c r="AH12" s="43"/>
       <c r="AI12" s="42"/>
       <c r="AJ12" s="57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AK12" s="57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL12" s="45"/>
       <c r="AM12" s="45"/>
@@ -4863,25 +4857,25 @@
       <c r="AT12" s="42"/>
       <c r="AU12" s="42"/>
       <c r="AV12" s="56" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="AW12" s="56" t="s">
         <v>115</v>
       </c>
       <c r="AX12" s="56" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="AY12" s="56" t="s">
         <v>115</v>
       </c>
       <c r="AZ12" s="56" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="BA12" s="56" t="s">
         <v>115</v>
       </c>
       <c r="BB12" s="56" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="BC12" s="56" t="s">
         <v>115</v>
@@ -4915,7 +4909,7 @@
       <c r="CB12" s="38"/>
       <c r="CC12" s="38"/>
       <c r="CD12" s="38"/>
-      <c r="CE12" s="61"/>
+      <c r="CE12" s="62"/>
       <c r="CF12" s="42"/>
       <c r="CG12" s="42"/>
       <c r="CH12" s="42"/>
@@ -4930,7 +4924,7 @@
         <v>174</v>
       </c>
       <c r="CQ12" s="38"/>
-      <c r="CR12" s="58"/>
+      <c r="CR12" s="59"/>
       <c r="CS12" s="43"/>
       <c r="CT12" s="51"/>
       <c r="CU12" s="51"/>
@@ -4968,10 +4962,10 @@
       <c r="E13" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="61" t="s">
         <v>178</v>
       </c>
       <c r="H13" s="38"/>
@@ -4985,7 +4979,7 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="61"/>
+      <c r="S13" s="62"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
@@ -5018,29 +5012,29 @@
       <c r="AS13" s="42"/>
       <c r="AT13" s="42"/>
       <c r="AU13" s="42"/>
-      <c r="AV13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW13" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="AX13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY13" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA13" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC13" s="40" t="s">
-        <v>182</v>
+      <c r="AV13" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX13" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ13" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB13" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC13" s="56" t="s">
+        <v>128</v>
       </c>
       <c r="BD13" s="42"/>
       <c r="BE13" s="42"/>
@@ -5061,7 +5055,7 @@
       <c r="BT13" s="43"/>
       <c r="BU13" s="42"/>
       <c r="BV13" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BW13" s="38"/>
       <c r="BX13" s="38"/>
@@ -5071,7 +5065,7 @@
       <c r="CB13" s="38"/>
       <c r="CC13" s="38"/>
       <c r="CD13" s="38"/>
-      <c r="CE13" s="61"/>
+      <c r="CE13" s="62"/>
       <c r="CF13" s="42"/>
       <c r="CG13" s="42"/>
       <c r="CH13" s="42"/>
@@ -5083,10 +5077,10 @@
       <c r="CN13" s="43"/>
       <c r="CO13" s="42"/>
       <c r="CP13" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CQ13" s="38"/>
-      <c r="CR13" s="58"/>
+      <c r="CR13" s="59"/>
       <c r="CS13" s="43"/>
       <c r="CT13" s="51"/>
       <c r="CU13" s="51"/>
@@ -5119,16 +5113,16 @@
       <c r="B14" s="53"/>
       <c r="C14" s="54"/>
       <c r="D14" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="61" t="s">
         <v>185</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>187</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5141,7 +5135,7 @@
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
-      <c r="S14" s="61"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
@@ -5159,10 +5153,10 @@
       <c r="AH14" s="53"/>
       <c r="AI14" s="54"/>
       <c r="AJ14" s="57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AK14" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AL14" s="45"/>
       <c r="AM14" s="45"/>
@@ -5174,36 +5168,36 @@
       <c r="AS14" s="42"/>
       <c r="AT14" s="42"/>
       <c r="AU14" s="42"/>
-      <c r="AV14" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW14" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX14" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY14" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ14" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA14" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB14" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC14" s="56" t="s">
-        <v>191</v>
+      <c r="AV14" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW14" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX14" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY14" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ14" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA14" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB14" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC14" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="BD14" s="42"/>
       <c r="BE14" s="42"/>
       <c r="BF14" s="42"/>
       <c r="BG14" s="42"/>
       <c r="BH14" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BI14" s="42"/>
       <c r="BJ14" s="42"/>
@@ -5219,7 +5213,7 @@
       <c r="BT14" s="43"/>
       <c r="BU14" s="42"/>
       <c r="BV14" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BW14" s="38"/>
       <c r="BX14" s="38"/>
@@ -5229,7 +5223,7 @@
       <c r="CB14" s="38"/>
       <c r="CC14" s="38"/>
       <c r="CD14" s="38"/>
-      <c r="CE14" s="61"/>
+      <c r="CE14" s="62"/>
       <c r="CF14" s="42"/>
       <c r="CG14" s="42"/>
       <c r="CH14" s="42"/>
@@ -5241,10 +5235,10 @@
       <c r="CN14" s="43"/>
       <c r="CO14" s="42"/>
       <c r="CP14" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="CQ14" s="38"/>
-      <c r="CR14" s="58"/>
+      <c r="CR14" s="59"/>
       <c r="CS14" s="51"/>
       <c r="CT14" s="51"/>
       <c r="CU14" s="51"/>
@@ -5272,21 +5266,21 @@
       <c r="DQ14" s="51"/>
       <c r="DR14" s="51"/>
     </row>
-    <row r="15" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
       <c r="D15" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>197</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5299,7 +5293,7 @@
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
-      <c r="S15" s="61"/>
+      <c r="S15" s="62"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -5317,10 +5311,10 @@
       <c r="AH15" s="53"/>
       <c r="AI15" s="54"/>
       <c r="AJ15" s="57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AK15" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
@@ -5333,35 +5327,35 @@
       <c r="AT15" s="42"/>
       <c r="AU15" s="42"/>
       <c r="AV15" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AW15" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AX15" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AY15" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AZ15" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BA15" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BB15" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BC15" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BD15" s="42"/>
       <c r="BE15" s="42"/>
       <c r="BF15" s="42"/>
       <c r="BG15" s="42"/>
       <c r="BH15" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BI15" s="42"/>
       <c r="BJ15" s="42"/>
@@ -5387,7 +5381,7 @@
       <c r="CB15" s="38"/>
       <c r="CC15" s="38"/>
       <c r="CD15" s="38"/>
-      <c r="CE15" s="61"/>
+      <c r="CE15" s="62"/>
       <c r="CF15" s="42"/>
       <c r="CG15" s="42"/>
       <c r="CH15" s="42"/>
@@ -5399,10 +5393,10 @@
       <c r="CN15" s="43"/>
       <c r="CO15" s="42"/>
       <c r="CP15" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="CQ15" s="38"/>
-      <c r="CR15" s="58"/>
+      <c r="CR15" s="59"/>
       <c r="CS15" s="51"/>
       <c r="CT15" s="51"/>
       <c r="CU15" s="51"/>
@@ -5435,16 +5429,16 @@
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
       <c r="D16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="58" t="s">
         <v>204</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>206</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -5457,7 +5451,7 @@
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
-      <c r="S16" s="61"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
@@ -5487,28 +5481,28 @@
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
       <c r="AV16" s="56" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="AW16" s="56" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="AX16" s="56" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="AY16" s="56" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="AZ16" s="56" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="BA16" s="56" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="BB16" s="56" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="BC16" s="56" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="BD16" s="42"/>
       <c r="BE16" s="42"/>
@@ -5529,7 +5523,7 @@
       <c r="BT16" s="43"/>
       <c r="BU16" s="42"/>
       <c r="BV16" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BW16" s="38"/>
       <c r="BX16" s="38"/>
@@ -5539,7 +5533,7 @@
       <c r="CB16" s="38"/>
       <c r="CC16" s="38"/>
       <c r="CD16" s="38"/>
-      <c r="CE16" s="61"/>
+      <c r="CE16" s="62"/>
       <c r="CF16" s="42"/>
       <c r="CG16" s="42"/>
       <c r="CH16" s="42"/>
@@ -5551,10 +5545,10 @@
       <c r="CN16" s="43"/>
       <c r="CO16" s="42"/>
       <c r="CP16" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CQ16" s="38"/>
-      <c r="CR16" s="58"/>
+      <c r="CR16" s="59"/>
       <c r="CS16" s="51"/>
       <c r="CT16" s="51"/>
       <c r="CU16" s="51"/>
@@ -5587,15 +5581,15 @@
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
       <c r="D17" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="58" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="38"/>
@@ -5609,7 +5603,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="61"/>
+      <c r="S17" s="62"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -5639,28 +5633,28 @@
       <c r="AT17" s="42"/>
       <c r="AU17" s="42"/>
       <c r="AV17" s="56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="AW17" s="56" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="AX17" s="56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="AY17" s="56" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="AZ17" s="56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="BA17" s="56" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="BB17" s="56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="BC17" s="56" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="BD17" s="42"/>
       <c r="BE17" s="42"/>
@@ -5681,7 +5675,7 @@
       <c r="BT17" s="43"/>
       <c r="BU17" s="42"/>
       <c r="BV17" s="38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="BW17" s="38"/>
       <c r="BX17" s="38"/>
@@ -5691,7 +5685,7 @@
       <c r="CB17" s="38"/>
       <c r="CC17" s="38"/>
       <c r="CD17" s="38"/>
-      <c r="CE17" s="61"/>
+      <c r="CE17" s="62"/>
       <c r="CF17" s="42"/>
       <c r="CG17" s="42"/>
       <c r="CH17" s="42"/>
@@ -5704,7 +5698,7 @@
       <c r="CO17" s="42"/>
       <c r="CP17" s="45"/>
       <c r="CQ17" s="38"/>
-      <c r="CR17" s="58"/>
+      <c r="CR17" s="59"/>
       <c r="CS17" s="51"/>
       <c r="CT17" s="51"/>
       <c r="CU17" s="51"/>
@@ -5737,15 +5731,15 @@
       <c r="B18" s="53"/>
       <c r="C18" s="54"/>
       <c r="D18" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="61" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="38"/>
@@ -5759,7 +5753,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
-      <c r="S18" s="61"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
@@ -5789,28 +5783,28 @@
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
       <c r="AV18" s="56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AW18" s="56" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="AX18" s="56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AY18" s="56" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="AZ18" s="56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="BA18" s="56" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="BB18" s="56" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="BC18" s="56" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="BD18" s="42"/>
       <c r="BE18" s="42"/>
@@ -5831,7 +5825,7 @@
       <c r="BT18" s="43"/>
       <c r="BU18" s="42"/>
       <c r="BV18" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BW18" s="38"/>
       <c r="BX18" s="38"/>
@@ -5841,7 +5835,7 @@
       <c r="CB18" s="38"/>
       <c r="CC18" s="38"/>
       <c r="CD18" s="38"/>
-      <c r="CE18" s="61"/>
+      <c r="CE18" s="62"/>
       <c r="CF18" s="42"/>
       <c r="CG18" s="42"/>
       <c r="CH18" s="42"/>
@@ -5854,7 +5848,7 @@
       <c r="CO18" s="42"/>
       <c r="CP18" s="38"/>
       <c r="CQ18" s="38"/>
-      <c r="CR18" s="58"/>
+      <c r="CR18" s="59"/>
       <c r="CS18" s="51"/>
       <c r="CT18" s="51"/>
       <c r="CU18" s="51"/>
@@ -5887,16 +5881,16 @@
       <c r="B19" s="53"/>
       <c r="C19" s="54"/>
       <c r="D19" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>219</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5909,7 +5903,7 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="61"/>
+      <c r="S19" s="62"/>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -5939,28 +5933,28 @@
       <c r="AT19" s="42"/>
       <c r="AU19" s="42"/>
       <c r="AV19" s="56" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="AW19" s="56" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="AX19" s="56" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="AY19" s="56" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="AZ19" s="56" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="BA19" s="56" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="BB19" s="56" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="BC19" s="56" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="BD19" s="42"/>
       <c r="BE19" s="42"/>
@@ -5981,7 +5975,7 @@
       <c r="BT19" s="43"/>
       <c r="BU19" s="42"/>
       <c r="BV19" s="38" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BW19" s="38"/>
       <c r="BX19" s="38"/>
@@ -5991,7 +5985,7 @@
       <c r="CB19" s="38"/>
       <c r="CC19" s="38"/>
       <c r="CD19" s="38"/>
-      <c r="CE19" s="61"/>
+      <c r="CE19" s="62"/>
       <c r="CF19" s="42"/>
       <c r="CG19" s="42"/>
       <c r="CH19" s="42"/>
@@ -6004,7 +5998,7 @@
       <c r="CO19" s="42"/>
       <c r="CP19" s="38"/>
       <c r="CQ19" s="38"/>
-      <c r="CR19" s="58"/>
+      <c r="CR19" s="59"/>
       <c r="CS19" s="51"/>
       <c r="CT19" s="51"/>
       <c r="CU19" s="51"/>
@@ -6037,16 +6031,16 @@
       <c r="B20" s="53"/>
       <c r="C20" s="54"/>
       <c r="D20" s="38" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>223</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -6059,7 +6053,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
-      <c r="S20" s="61"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
@@ -6089,28 +6083,28 @@
       <c r="AT20" s="42"/>
       <c r="AU20" s="42"/>
       <c r="AV20" s="56" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="AW20" s="56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AX20" s="56" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="AY20" s="56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AZ20" s="56" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="BA20" s="56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="BB20" s="56" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="BC20" s="56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
@@ -6131,7 +6125,7 @@
       <c r="BT20" s="43"/>
       <c r="BU20" s="42"/>
       <c r="BV20" s="38" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="BW20" s="38"/>
       <c r="BX20" s="38"/>
@@ -6141,7 +6135,7 @@
       <c r="CB20" s="38"/>
       <c r="CC20" s="38"/>
       <c r="CD20" s="38"/>
-      <c r="CE20" s="61"/>
+      <c r="CE20" s="62"/>
       <c r="CF20" s="42"/>
       <c r="CG20" s="42"/>
       <c r="CH20" s="42"/>
@@ -6154,7 +6148,7 @@
       <c r="CO20" s="42"/>
       <c r="CP20" s="38"/>
       <c r="CQ20" s="38"/>
-      <c r="CR20" s="58"/>
+      <c r="CR20" s="59"/>
       <c r="CS20" s="51"/>
       <c r="CT20" s="51"/>
       <c r="CU20" s="51"/>
@@ -6205,7 +6199,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
-      <c r="S21" s="61"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
@@ -6234,14 +6228,30 @@
       <c r="AS21" s="42"/>
       <c r="AT21" s="42"/>
       <c r="AU21" s="42"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="49"/>
-      <c r="BA21" s="49"/>
-      <c r="BB21" s="49"/>
-      <c r="BC21" s="49"/>
+      <c r="AV21" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW21" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX21" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY21" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ21" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA21" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB21" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC21" s="56" t="s">
+        <v>227</v>
+      </c>
       <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
       <c r="BF21" s="42"/>
@@ -6261,7 +6271,7 @@
       <c r="BT21" s="43"/>
       <c r="BU21" s="42"/>
       <c r="BV21" s="38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="BW21" s="38"/>
       <c r="BX21" s="38"/>
@@ -6271,7 +6281,7 @@
       <c r="CB21" s="38"/>
       <c r="CC21" s="38"/>
       <c r="CD21" s="38"/>
-      <c r="CE21" s="61"/>
+      <c r="CE21" s="62"/>
       <c r="CF21" s="42"/>
       <c r="CG21" s="42"/>
       <c r="CH21" s="42"/>
@@ -6284,7 +6294,7 @@
       <c r="CO21" s="42"/>
       <c r="CP21" s="45"/>
       <c r="CQ21" s="38"/>
-      <c r="CR21" s="58"/>
+      <c r="CR21" s="59"/>
       <c r="CS21" s="51"/>
       <c r="CT21" s="51"/>
       <c r="CU21" s="51"/>
@@ -6317,10 +6327,10 @@
       <c r="B22" s="53"/>
       <c r="C22" s="54"/>
       <c r="D22" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="54"/>
@@ -6335,7 +6345,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="42"/>
-      <c r="S22" s="61"/>
+      <c r="S22" s="62"/>
       <c r="T22" s="42"/>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
@@ -6364,7 +6374,7 @@
       <c r="AS22" s="42"/>
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
-      <c r="AV22" s="49"/>
+      <c r="AV22" s="0"/>
       <c r="AW22" s="0"/>
       <c r="AX22" s="42"/>
       <c r="AY22" s="42"/>
@@ -6391,7 +6401,7 @@
       <c r="BT22" s="43"/>
       <c r="BU22" s="42"/>
       <c r="BV22" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BW22" s="38"/>
       <c r="BX22" s="38"/>
@@ -6401,7 +6411,7 @@
       <c r="CB22" s="38"/>
       <c r="CC22" s="38"/>
       <c r="CD22" s="38"/>
-      <c r="CE22" s="61"/>
+      <c r="CE22" s="62"/>
       <c r="CF22" s="42"/>
       <c r="CG22" s="42"/>
       <c r="CH22" s="42"/>
@@ -6414,7 +6424,7 @@
       <c r="CO22" s="42"/>
       <c r="CP22" s="45"/>
       <c r="CQ22" s="38"/>
-      <c r="CR22" s="58"/>
+      <c r="CR22" s="59"/>
       <c r="CS22" s="51"/>
       <c r="CT22" s="51"/>
       <c r="CU22" s="51"/>
@@ -6447,10 +6457,10 @@
       <c r="B23" s="53"/>
       <c r="C23" s="54"/>
       <c r="D23" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="54"/>
@@ -6465,7 +6475,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
-      <c r="S23" s="61"/>
+      <c r="S23" s="62"/>
       <c r="T23" s="42"/>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
@@ -6494,8 +6504,8 @@
       <c r="AS23" s="42"/>
       <c r="AT23" s="42"/>
       <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="0"/>
       <c r="AX23" s="42"/>
       <c r="AY23" s="42"/>
       <c r="AZ23" s="42"/>
@@ -6521,7 +6531,7 @@
       <c r="BT23" s="43"/>
       <c r="BU23" s="42"/>
       <c r="BV23" s="38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="BW23" s="38"/>
       <c r="BX23" s="38"/>
@@ -6531,7 +6541,7 @@
       <c r="CB23" s="38"/>
       <c r="CC23" s="38"/>
       <c r="CD23" s="38"/>
-      <c r="CE23" s="61"/>
+      <c r="CE23" s="62"/>
       <c r="CF23" s="42"/>
       <c r="CG23" s="42"/>
       <c r="CH23" s="42"/>
@@ -6544,7 +6554,7 @@
       <c r="CO23" s="42"/>
       <c r="CP23" s="45"/>
       <c r="CQ23" s="38"/>
-      <c r="CR23" s="58"/>
+      <c r="CR23" s="59"/>
       <c r="CS23" s="51"/>
       <c r="CT23" s="51"/>
       <c r="CU23" s="51"/>
@@ -6577,10 +6587,10 @@
       <c r="B24" s="53"/>
       <c r="C24" s="54"/>
       <c r="D24" s="38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="54"/>
@@ -6595,7 +6605,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
-      <c r="S24" s="61"/>
+      <c r="S24" s="62"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
@@ -6651,7 +6661,7 @@
       <c r="BT24" s="43"/>
       <c r="BU24" s="42"/>
       <c r="BV24" s="38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BW24" s="38"/>
       <c r="BX24" s="38"/>
@@ -6661,7 +6671,7 @@
       <c r="CB24" s="38"/>
       <c r="CC24" s="38"/>
       <c r="CD24" s="38"/>
-      <c r="CE24" s="61"/>
+      <c r="CE24" s="62"/>
       <c r="CF24" s="42"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="42"/>
@@ -6674,7 +6684,7 @@
       <c r="CO24" s="42"/>
       <c r="CP24" s="38"/>
       <c r="CQ24" s="38"/>
-      <c r="CR24" s="58"/>
+      <c r="CR24" s="59"/>
       <c r="CS24" s="51"/>
       <c r="CT24" s="51"/>
       <c r="CU24" s="51"/>
@@ -6707,10 +6717,10 @@
       <c r="B25" s="53"/>
       <c r="C25" s="54"/>
       <c r="D25" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="54"/>
@@ -6725,7 +6735,7 @@
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
-      <c r="S25" s="61"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
@@ -6789,7 +6799,7 @@
       <c r="CB25" s="38"/>
       <c r="CC25" s="38"/>
       <c r="CD25" s="38"/>
-      <c r="CE25" s="61"/>
+      <c r="CE25" s="62"/>
       <c r="CF25" s="42"/>
       <c r="CG25" s="42"/>
       <c r="CH25" s="42"/>
@@ -6802,7 +6812,7 @@
       <c r="CO25" s="42"/>
       <c r="CP25" s="38"/>
       <c r="CQ25" s="38"/>
-      <c r="CR25" s="58"/>
+      <c r="CR25" s="59"/>
       <c r="CS25" s="51"/>
       <c r="CT25" s="51"/>
       <c r="CU25" s="51"/>
@@ -6853,7 +6863,7 @@
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
-      <c r="S26" s="61"/>
+      <c r="S26" s="62"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
       <c r="V26" s="42"/>
@@ -6917,7 +6927,7 @@
       <c r="CB26" s="38"/>
       <c r="CC26" s="38"/>
       <c r="CD26" s="38"/>
-      <c r="CE26" s="61"/>
+      <c r="CE26" s="62"/>
       <c r="CF26" s="42"/>
       <c r="CG26" s="42"/>
       <c r="CH26" s="42"/>
@@ -6930,7 +6940,7 @@
       <c r="CO26" s="42"/>
       <c r="CP26" s="38"/>
       <c r="CQ26" s="38"/>
-      <c r="CR26" s="58"/>
+      <c r="CR26" s="59"/>
       <c r="CS26" s="51"/>
       <c r="CT26" s="51"/>
       <c r="CU26" s="51"/>
@@ -6963,10 +6973,10 @@
       <c r="B27" s="53"/>
       <c r="C27" s="54"/>
       <c r="D27" s="42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="54"/>
@@ -6981,7 +6991,7 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
-      <c r="S27" s="61"/>
+      <c r="S27" s="62"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -7045,7 +7055,7 @@
       <c r="CB27" s="38"/>
       <c r="CC27" s="38"/>
       <c r="CD27" s="38"/>
-      <c r="CE27" s="61"/>
+      <c r="CE27" s="62"/>
       <c r="CF27" s="42"/>
       <c r="CG27" s="42"/>
       <c r="CH27" s="42"/>
@@ -7058,7 +7068,7 @@
       <c r="CO27" s="42"/>
       <c r="CP27" s="38"/>
       <c r="CQ27" s="38"/>
-      <c r="CR27" s="58"/>
+      <c r="CR27" s="59"/>
       <c r="CS27" s="51"/>
       <c r="CT27" s="51"/>
       <c r="CU27" s="51"/>
@@ -7091,7 +7101,7 @@
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="42" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E28" s="42" t="s">
         <v>161</v>
@@ -7109,7 +7119,7 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
-      <c r="S28" s="61"/>
+      <c r="S28" s="62"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
@@ -7173,7 +7183,7 @@
       <c r="CB28" s="38"/>
       <c r="CC28" s="38"/>
       <c r="CD28" s="38"/>
-      <c r="CE28" s="61"/>
+      <c r="CE28" s="62"/>
       <c r="CF28" s="42"/>
       <c r="CG28" s="42"/>
       <c r="CH28" s="42"/>
@@ -7186,7 +7196,7 @@
       <c r="CO28" s="42"/>
       <c r="CP28" s="38"/>
       <c r="CQ28" s="38"/>
-      <c r="CR28" s="58"/>
+      <c r="CR28" s="59"/>
       <c r="CS28" s="51"/>
       <c r="CT28" s="51"/>
       <c r="CU28" s="51"/>
@@ -7219,10 +7229,10 @@
       <c r="B29" s="53"/>
       <c r="C29" s="54"/>
       <c r="D29" s="42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="54"/>
@@ -7237,7 +7247,7 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
-      <c r="S29" s="61"/>
+      <c r="S29" s="62"/>
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
@@ -7301,7 +7311,7 @@
       <c r="CB29" s="38"/>
       <c r="CC29" s="38"/>
       <c r="CD29" s="38"/>
-      <c r="CE29" s="61"/>
+      <c r="CE29" s="62"/>
       <c r="CF29" s="42"/>
       <c r="CG29" s="42"/>
       <c r="CH29" s="42"/>
@@ -7314,7 +7324,7 @@
       <c r="CO29" s="42"/>
       <c r="CP29" s="38"/>
       <c r="CQ29" s="38"/>
-      <c r="CR29" s="58"/>
+      <c r="CR29" s="59"/>
       <c r="CS29" s="51"/>
       <c r="CT29" s="51"/>
       <c r="CU29" s="51"/>
@@ -7347,10 +7357,10 @@
       <c r="B30" s="53"/>
       <c r="C30" s="54"/>
       <c r="D30" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="54"/>
@@ -7365,7 +7375,7 @@
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
-      <c r="S30" s="61"/>
+      <c r="S30" s="62"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
@@ -7429,7 +7439,7 @@
       <c r="CB30" s="38"/>
       <c r="CC30" s="38"/>
       <c r="CD30" s="38"/>
-      <c r="CE30" s="61"/>
+      <c r="CE30" s="62"/>
       <c r="CF30" s="42"/>
       <c r="CG30" s="42"/>
       <c r="CH30" s="42"/>
@@ -7442,7 +7452,7 @@
       <c r="CO30" s="42"/>
       <c r="CP30" s="38"/>
       <c r="CQ30" s="38"/>
-      <c r="CR30" s="58"/>
+      <c r="CR30" s="59"/>
       <c r="CS30" s="51"/>
       <c r="CT30" s="51"/>
       <c r="CU30" s="51"/>
@@ -7493,7 +7503,7 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
-      <c r="S31" s="61"/>
+      <c r="S31" s="62"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
@@ -7557,7 +7567,7 @@
       <c r="CB31" s="38"/>
       <c r="CC31" s="38"/>
       <c r="CD31" s="38"/>
-      <c r="CE31" s="61"/>
+      <c r="CE31" s="62"/>
       <c r="CF31" s="42"/>
       <c r="CG31" s="42"/>
       <c r="CH31" s="42"/>
@@ -7570,7 +7580,7 @@
       <c r="CO31" s="42"/>
       <c r="CP31" s="38"/>
       <c r="CQ31" s="38"/>
-      <c r="CR31" s="58"/>
+      <c r="CR31" s="59"/>
       <c r="CS31" s="51"/>
       <c r="CT31" s="51"/>
       <c r="CU31" s="51"/>
@@ -7603,10 +7613,10 @@
       <c r="B32" s="53"/>
       <c r="C32" s="54"/>
       <c r="D32" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="54"/>
@@ -7621,7 +7631,7 @@
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
-      <c r="S32" s="61"/>
+      <c r="S32" s="62"/>
       <c r="T32" s="42"/>
       <c r="U32" s="42"/>
       <c r="V32" s="42"/>
@@ -7685,7 +7695,7 @@
       <c r="CB32" s="38"/>
       <c r="CC32" s="38"/>
       <c r="CD32" s="38"/>
-      <c r="CE32" s="61"/>
+      <c r="CE32" s="62"/>
       <c r="CF32" s="42"/>
       <c r="CG32" s="42"/>
       <c r="CH32" s="42"/>
@@ -7698,7 +7708,7 @@
       <c r="CO32" s="42"/>
       <c r="CP32" s="38"/>
       <c r="CQ32" s="38"/>
-      <c r="CR32" s="58"/>
+      <c r="CR32" s="59"/>
       <c r="CS32" s="51"/>
       <c r="CT32" s="51"/>
       <c r="CU32" s="51"/>
@@ -7731,10 +7741,10 @@
       <c r="B33" s="53"/>
       <c r="C33" s="54"/>
       <c r="D33" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="54"/>
@@ -7749,7 +7759,7 @@
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="61"/>
+      <c r="S33" s="62"/>
       <c r="T33" s="42"/>
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
@@ -7813,7 +7823,7 @@
       <c r="CB33" s="38"/>
       <c r="CC33" s="38"/>
       <c r="CD33" s="38"/>
-      <c r="CE33" s="61"/>
+      <c r="CE33" s="62"/>
       <c r="CF33" s="42"/>
       <c r="CG33" s="42"/>
       <c r="CH33" s="42"/>
@@ -7826,7 +7836,7 @@
       <c r="CO33" s="42"/>
       <c r="CP33" s="38"/>
       <c r="CQ33" s="38"/>
-      <c r="CR33" s="58"/>
+      <c r="CR33" s="59"/>
       <c r="CS33" s="51"/>
       <c r="CT33" s="51"/>
       <c r="CU33" s="51"/>
@@ -7877,7 +7887,7 @@
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
-      <c r="S34" s="61"/>
+      <c r="S34" s="62"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
@@ -7941,7 +7951,7 @@
       <c r="CB34" s="38"/>
       <c r="CC34" s="38"/>
       <c r="CD34" s="38"/>
-      <c r="CE34" s="61"/>
+      <c r="CE34" s="62"/>
       <c r="CF34" s="42"/>
       <c r="CG34" s="42"/>
       <c r="CH34" s="42"/>
@@ -7954,7 +7964,7 @@
       <c r="CO34" s="42"/>
       <c r="CP34" s="38"/>
       <c r="CQ34" s="38"/>
-      <c r="CR34" s="58"/>
+      <c r="CR34" s="59"/>
       <c r="CS34" s="51"/>
       <c r="CT34" s="51"/>
       <c r="CU34" s="51"/>
@@ -7987,10 +7997,10 @@
       <c r="B35" s="53"/>
       <c r="C35" s="54"/>
       <c r="D35" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="54"/>
@@ -8005,7 +8015,7 @@
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
-      <c r="S35" s="61"/>
+      <c r="S35" s="62"/>
       <c r="T35" s="42"/>
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
@@ -8069,7 +8079,7 @@
       <c r="CB35" s="38"/>
       <c r="CC35" s="38"/>
       <c r="CD35" s="38"/>
-      <c r="CE35" s="61"/>
+      <c r="CE35" s="62"/>
       <c r="CF35" s="42"/>
       <c r="CG35" s="42"/>
       <c r="CH35" s="42"/>
@@ -8082,7 +8092,7 @@
       <c r="CO35" s="42"/>
       <c r="CP35" s="38"/>
       <c r="CQ35" s="38"/>
-      <c r="CR35" s="58"/>
+      <c r="CR35" s="59"/>
       <c r="CS35" s="51"/>
       <c r="CT35" s="51"/>
       <c r="CU35" s="51"/>
@@ -8115,10 +8125,10 @@
       <c r="B36" s="53"/>
       <c r="C36" s="54"/>
       <c r="D36" s="38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="54"/>
@@ -8133,7 +8143,7 @@
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
-      <c r="S36" s="61"/>
+      <c r="S36" s="62"/>
       <c r="T36" s="42"/>
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
@@ -8197,7 +8207,7 @@
       <c r="CB36" s="38"/>
       <c r="CC36" s="38"/>
       <c r="CD36" s="38"/>
-      <c r="CE36" s="61"/>
+      <c r="CE36" s="62"/>
       <c r="CF36" s="42"/>
       <c r="CG36" s="42"/>
       <c r="CH36" s="42"/>
@@ -8210,7 +8220,7 @@
       <c r="CO36" s="42"/>
       <c r="CP36" s="38"/>
       <c r="CQ36" s="38"/>
-      <c r="CR36" s="58"/>
+      <c r="CR36" s="59"/>
       <c r="CS36" s="51"/>
       <c r="CT36" s="51"/>
       <c r="CU36" s="51"/>
@@ -8243,10 +8253,10 @@
       <c r="B37" s="53"/>
       <c r="C37" s="54"/>
       <c r="D37" s="42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="54"/>
@@ -8261,7 +8271,7 @@
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
-      <c r="S37" s="61"/>
+      <c r="S37" s="62"/>
       <c r="T37" s="42"/>
       <c r="U37" s="42"/>
       <c r="V37" s="42"/>
@@ -8325,7 +8335,7 @@
       <c r="CB37" s="38"/>
       <c r="CC37" s="38"/>
       <c r="CD37" s="38"/>
-      <c r="CE37" s="61"/>
+      <c r="CE37" s="62"/>
       <c r="CF37" s="42"/>
       <c r="CG37" s="42"/>
       <c r="CH37" s="42"/>
@@ -8338,7 +8348,7 @@
       <c r="CO37" s="42"/>
       <c r="CP37" s="38"/>
       <c r="CQ37" s="38"/>
-      <c r="CR37" s="58"/>
+      <c r="CR37" s="59"/>
       <c r="CS37" s="51"/>
       <c r="CT37" s="51"/>
       <c r="CU37" s="51"/>
@@ -8371,10 +8381,10 @@
       <c r="B38" s="53"/>
       <c r="C38" s="54"/>
       <c r="D38" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="54"/>
@@ -8389,7 +8399,7 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
-      <c r="S38" s="61"/>
+      <c r="S38" s="62"/>
       <c r="T38" s="42"/>
       <c r="U38" s="42"/>
       <c r="V38" s="42"/>
@@ -8453,7 +8463,7 @@
       <c r="CB38" s="38"/>
       <c r="CC38" s="38"/>
       <c r="CD38" s="38"/>
-      <c r="CE38" s="61"/>
+      <c r="CE38" s="62"/>
       <c r="CF38" s="42"/>
       <c r="CG38" s="42"/>
       <c r="CH38" s="42"/>
@@ -8466,7 +8476,7 @@
       <c r="CO38" s="42"/>
       <c r="CP38" s="38"/>
       <c r="CQ38" s="38"/>
-      <c r="CR38" s="58"/>
+      <c r="CR38" s="59"/>
       <c r="CS38" s="51"/>
       <c r="CT38" s="51"/>
       <c r="CU38" s="51"/>
@@ -8499,10 +8509,10 @@
       <c r="B39" s="53"/>
       <c r="C39" s="54"/>
       <c r="D39" s="42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="54"/>
@@ -8517,7 +8527,7 @@
       <c r="P39" s="42"/>
       <c r="Q39" s="42"/>
       <c r="R39" s="42"/>
-      <c r="S39" s="61"/>
+      <c r="S39" s="62"/>
       <c r="T39" s="42"/>
       <c r="U39" s="42"/>
       <c r="V39" s="42"/>
@@ -8581,7 +8591,7 @@
       <c r="CB39" s="38"/>
       <c r="CC39" s="38"/>
       <c r="CD39" s="38"/>
-      <c r="CE39" s="61"/>
+      <c r="CE39" s="62"/>
       <c r="CF39" s="42"/>
       <c r="CG39" s="42"/>
       <c r="CH39" s="42"/>
@@ -8594,7 +8604,7 @@
       <c r="CO39" s="42"/>
       <c r="CP39" s="38"/>
       <c r="CQ39" s="38"/>
-      <c r="CR39" s="58"/>
+      <c r="CR39" s="59"/>
       <c r="CS39" s="51"/>
       <c r="CT39" s="51"/>
       <c r="CU39" s="51"/>
@@ -8627,10 +8637,10 @@
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
       <c r="D40" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="54"/>
@@ -8645,7 +8655,7 @@
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
-      <c r="S40" s="61"/>
+      <c r="S40" s="62"/>
       <c r="T40" s="42"/>
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
@@ -8709,7 +8719,7 @@
       <c r="CB40" s="38"/>
       <c r="CC40" s="38"/>
       <c r="CD40" s="38"/>
-      <c r="CE40" s="61"/>
+      <c r="CE40" s="62"/>
       <c r="CF40" s="42"/>
       <c r="CG40" s="42"/>
       <c r="CH40" s="42"/>
@@ -8722,7 +8732,7 @@
       <c r="CO40" s="42"/>
       <c r="CP40" s="38"/>
       <c r="CQ40" s="38"/>
-      <c r="CR40" s="58"/>
+      <c r="CR40" s="59"/>
       <c r="CS40" s="51"/>
       <c r="CT40" s="51"/>
       <c r="CU40" s="51"/>
@@ -8755,10 +8765,10 @@
       <c r="B41" s="43"/>
       <c r="C41" s="42"/>
       <c r="D41" s="38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F41" s="53"/>
       <c r="G41" s="54"/>
@@ -8773,7 +8783,7 @@
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="42"/>
-      <c r="S41" s="61"/>
+      <c r="S41" s="62"/>
       <c r="T41" s="42"/>
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
@@ -8837,7 +8847,7 @@
       <c r="CB41" s="38"/>
       <c r="CC41" s="38"/>
       <c r="CD41" s="38"/>
-      <c r="CE41" s="61"/>
+      <c r="CE41" s="62"/>
       <c r="CF41" s="42"/>
       <c r="CG41" s="42"/>
       <c r="CH41" s="42"/>
@@ -8850,7 +8860,7 @@
       <c r="CO41" s="42"/>
       <c r="CP41" s="38"/>
       <c r="CQ41" s="38"/>
-      <c r="CR41" s="58"/>
+      <c r="CR41" s="59"/>
       <c r="CS41" s="51"/>
       <c r="CT41" s="51"/>
       <c r="CU41" s="51"/>
@@ -8883,10 +8893,10 @@
       <c r="B42" s="43"/>
       <c r="C42" s="42"/>
       <c r="D42" s="38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="54"/>
@@ -8901,7 +8911,7 @@
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
       <c r="R42" s="42"/>
-      <c r="S42" s="61"/>
+      <c r="S42" s="62"/>
       <c r="T42" s="42"/>
       <c r="U42" s="42"/>
       <c r="V42" s="42"/>
@@ -8965,7 +8975,7 @@
       <c r="CB42" s="38"/>
       <c r="CC42" s="38"/>
       <c r="CD42" s="38"/>
-      <c r="CE42" s="61"/>
+      <c r="CE42" s="62"/>
       <c r="CF42" s="42"/>
       <c r="CG42" s="42"/>
       <c r="CH42" s="42"/>
@@ -8978,7 +8988,7 @@
       <c r="CO42" s="42"/>
       <c r="CP42" s="38"/>
       <c r="CQ42" s="38"/>
-      <c r="CR42" s="58"/>
+      <c r="CR42" s="59"/>
       <c r="CS42" s="51"/>
       <c r="CT42" s="51"/>
       <c r="CU42" s="51"/>
@@ -9011,10 +9021,10 @@
       <c r="B43" s="43"/>
       <c r="C43" s="42"/>
       <c r="D43" s="38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="54"/>
@@ -9029,7 +9039,7 @@
       <c r="P43" s="42"/>
       <c r="Q43" s="42"/>
       <c r="R43" s="42"/>
-      <c r="S43" s="61"/>
+      <c r="S43" s="62"/>
       <c r="T43" s="42"/>
       <c r="U43" s="42"/>
       <c r="V43" s="42"/>
@@ -9093,7 +9103,7 @@
       <c r="CB43" s="38"/>
       <c r="CC43" s="38"/>
       <c r="CD43" s="38"/>
-      <c r="CE43" s="61"/>
+      <c r="CE43" s="62"/>
       <c r="CF43" s="42"/>
       <c r="CG43" s="42"/>
       <c r="CH43" s="42"/>
@@ -9106,7 +9116,7 @@
       <c r="CO43" s="42"/>
       <c r="CP43" s="38"/>
       <c r="CQ43" s="38"/>
-      <c r="CR43" s="58"/>
+      <c r="CR43" s="59"/>
       <c r="CS43" s="51"/>
       <c r="CT43" s="51"/>
       <c r="CU43" s="51"/>
@@ -9139,10 +9149,10 @@
       <c r="B44" s="43"/>
       <c r="C44" s="42"/>
       <c r="D44" s="38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="42"/>
@@ -9157,7 +9167,7 @@
       <c r="P44" s="42"/>
       <c r="Q44" s="42"/>
       <c r="R44" s="42"/>
-      <c r="S44" s="61"/>
+      <c r="S44" s="62"/>
       <c r="T44" s="42"/>
       <c r="U44" s="42"/>
       <c r="V44" s="42"/>
@@ -9221,7 +9231,7 @@
       <c r="CB44" s="38"/>
       <c r="CC44" s="38"/>
       <c r="CD44" s="38"/>
-      <c r="CE44" s="61"/>
+      <c r="CE44" s="62"/>
       <c r="CF44" s="42"/>
       <c r="CG44" s="42"/>
       <c r="CH44" s="42"/>
@@ -9234,7 +9244,7 @@
       <c r="CO44" s="42"/>
       <c r="CP44" s="38"/>
       <c r="CQ44" s="38"/>
-      <c r="CR44" s="58"/>
+      <c r="CR44" s="59"/>
       <c r="CS44" s="51"/>
       <c r="CT44" s="51"/>
       <c r="CU44" s="51"/>
@@ -9266,10 +9276,10 @@
       <c r="B45" s="43"/>
       <c r="C45" s="42"/>
       <c r="D45" s="38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="42"/>
@@ -9284,7 +9294,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="42"/>
-      <c r="S45" s="61"/>
+      <c r="S45" s="62"/>
       <c r="T45" s="42"/>
       <c r="U45" s="42"/>
       <c r="V45" s="42"/>
@@ -9348,7 +9358,7 @@
       <c r="CB45" s="38"/>
       <c r="CC45" s="38"/>
       <c r="CD45" s="38"/>
-      <c r="CE45" s="61"/>
+      <c r="CE45" s="62"/>
       <c r="CF45" s="42"/>
       <c r="CG45" s="42"/>
       <c r="CH45" s="42"/>
@@ -9361,7 +9371,7 @@
       <c r="CO45" s="42"/>
       <c r="CP45" s="38"/>
       <c r="CQ45" s="38"/>
-      <c r="CR45" s="58"/>
+      <c r="CR45" s="59"/>
       <c r="CS45" s="51"/>
       <c r="CT45" s="51"/>
       <c r="CU45" s="51"/>
@@ -9393,10 +9403,10 @@
       <c r="B46" s="43"/>
       <c r="C46" s="42"/>
       <c r="D46" s="38" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="42"/>
@@ -9411,7 +9421,7 @@
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
       <c r="R46" s="42"/>
-      <c r="S46" s="61"/>
+      <c r="S46" s="62"/>
       <c r="T46" s="42"/>
       <c r="U46" s="42"/>
       <c r="V46" s="42"/>
@@ -9475,7 +9485,7 @@
       <c r="CB46" s="38"/>
       <c r="CC46" s="38"/>
       <c r="CD46" s="38"/>
-      <c r="CE46" s="61"/>
+      <c r="CE46" s="62"/>
       <c r="CF46" s="42"/>
       <c r="CG46" s="42"/>
       <c r="CH46" s="42"/>
@@ -9488,7 +9498,7 @@
       <c r="CO46" s="42"/>
       <c r="CP46" s="38"/>
       <c r="CQ46" s="38"/>
-      <c r="CR46" s="58"/>
+      <c r="CR46" s="59"/>
       <c r="CS46" s="51"/>
       <c r="CT46" s="51"/>
       <c r="CU46" s="51"/>
@@ -9520,10 +9530,10 @@
       <c r="B47" s="43"/>
       <c r="C47" s="42"/>
       <c r="D47" s="38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="42"/>
@@ -9538,7 +9548,7 @@
       <c r="P47" s="42"/>
       <c r="Q47" s="42"/>
       <c r="R47" s="42"/>
-      <c r="S47" s="61"/>
+      <c r="S47" s="62"/>
       <c r="T47" s="42"/>
       <c r="U47" s="42"/>
       <c r="V47" s="42"/>
@@ -9602,7 +9612,7 @@
       <c r="CB47" s="38"/>
       <c r="CC47" s="38"/>
       <c r="CD47" s="38"/>
-      <c r="CE47" s="61"/>
+      <c r="CE47" s="62"/>
       <c r="CF47" s="42"/>
       <c r="CG47" s="42"/>
       <c r="CH47" s="42"/>
@@ -9615,7 +9625,7 @@
       <c r="CO47" s="42"/>
       <c r="CP47" s="38"/>
       <c r="CQ47" s="38"/>
-      <c r="CR47" s="58"/>
+      <c r="CR47" s="59"/>
       <c r="CS47" s="51"/>
       <c r="CT47" s="51"/>
       <c r="CU47" s="51"/>
@@ -9661,7 +9671,7 @@
       <c r="P48" s="42"/>
       <c r="Q48" s="42"/>
       <c r="R48" s="42"/>
-      <c r="S48" s="61"/>
+      <c r="S48" s="62"/>
       <c r="T48" s="42"/>
       <c r="U48" s="42"/>
       <c r="V48" s="42"/>
@@ -9725,7 +9735,7 @@
       <c r="CB48" s="38"/>
       <c r="CC48" s="38"/>
       <c r="CD48" s="38"/>
-      <c r="CE48" s="61"/>
+      <c r="CE48" s="62"/>
       <c r="CF48" s="42"/>
       <c r="CG48" s="42"/>
       <c r="CH48" s="42"/>
@@ -9738,7 +9748,7 @@
       <c r="CO48" s="42"/>
       <c r="CP48" s="38"/>
       <c r="CQ48" s="38"/>
-      <c r="CR48" s="58"/>
+      <c r="CR48" s="59"/>
       <c r="CS48" s="51"/>
       <c r="CT48" s="51"/>
       <c r="CU48" s="51"/>
@@ -9784,7 +9794,7 @@
       <c r="P49" s="42"/>
       <c r="Q49" s="42"/>
       <c r="R49" s="42"/>
-      <c r="S49" s="61"/>
+      <c r="S49" s="62"/>
       <c r="T49" s="42"/>
       <c r="U49" s="42"/>
       <c r="V49" s="42"/>
@@ -9848,7 +9858,7 @@
       <c r="CB49" s="38"/>
       <c r="CC49" s="38"/>
       <c r="CD49" s="38"/>
-      <c r="CE49" s="61"/>
+      <c r="CE49" s="62"/>
       <c r="CF49" s="42"/>
       <c r="CG49" s="42"/>
       <c r="CH49" s="42"/>
@@ -9861,7 +9871,7 @@
       <c r="CO49" s="42"/>
       <c r="CP49" s="38"/>
       <c r="CQ49" s="38"/>
-      <c r="CR49" s="58"/>
+      <c r="CR49" s="59"/>
       <c r="CS49" s="51"/>
       <c r="CT49" s="51"/>
       <c r="CU49" s="51"/>
@@ -9911,7 +9921,7 @@
       <c r="CN50" s="6"/>
       <c r="CO50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -9920,6 +9930,8 @@
       <c r="U51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AS51" s="5"/>
+      <c r="AV51" s="42"/>
+      <c r="AW51" s="42"/>
       <c r="BU51" s="5"/>
       <c r="CA51" s="5"/>
       <c r="CF51" s="5"/>
@@ -10631,11 +10643,11 @@
     <mergeCell ref="A4:A44"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV20 AX1:AX83 AZ1:AZ83 BB1:BB83 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR83 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 AV22:AV83 D50:D83" type="none">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV21 AX1:AX83 AZ1:AZ83 BB1:BB83 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR3 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 BR5:BR83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 AV23:AV83 D50:D83" type="none">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW20 AY1:AY83 BA1:BA83 BC1:BC83 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS83 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 AW23:AW83 E50:E83" type="textLength">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW21 AY1:AY83 BA1:BA83 BC1:BC83 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS3 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 BS5:BS83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 AW24:AW83 E50:E83" type="textLength">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Sample_and_gear_types_AeN.xlsx
+++ b/Sample_and_gear_types_AeN.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="255">
   <si>
     <t xml:space="preserve">Sample Group</t>
   </si>
@@ -427,10 +427,10 @@
     <t xml:space="preserve">Food web samples</t>
   </si>
   <si>
-    <t xml:space="preserve">Gelationous zooplankton taxonomy, formaldehyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gel zoop tax, form</t>
+    <t xml:space="preserve">Macrozooplankton abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop abun</t>
   </si>
   <si>
     <t xml:space="preserve">Mesozooplankton genetics</t>
@@ -466,10 +466,10 @@
     <t xml:space="preserve">Foraminifera exp</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop abun</t>
+    <t xml:space="preserve">Macrozooplankton biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop biomass</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozooplankton hg</t>
@@ -496,12 +496,6 @@
     <t xml:space="preserve">Microbes</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop biomass</t>
-  </si>
-  <si>
     <t xml:space="preserve">1, Macrozooplankton organic pollutio</t>
   </si>
   <si>
@@ -577,6 +571,12 @@
     <t xml:space="preserve">Pore water content</t>
   </si>
   <si>
+    <t xml:space="preserve">Macrozooplankton genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop genetics </t>
+  </si>
+  <si>
     <t xml:space="preserve">Lithological description</t>
   </si>
   <si>
@@ -601,6 +601,12 @@
     <t xml:space="preserve">Quanti macrofauna</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozooplankton gonad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop gonad </t>
+  </si>
+  <si>
     <t xml:space="preserve">magnetic susceptibility </t>
   </si>
   <si>
@@ -622,10 +628,7 @@
     <t xml:space="preserve">Respiration exp</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop genetics </t>
+    <t xml:space="preserve">Macrozoop hg</t>
   </si>
   <si>
     <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
@@ -652,12 +655,6 @@
     <t xml:space="preserve">Sed isotopes, C, N</t>
   </si>
   <si>
-    <t xml:space="preserve">1, Macrozooplankton gonad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop gonad </t>
-  </si>
-  <si>
     <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
   </si>
   <si>
@@ -673,7 +670,10 @@
     <t xml:space="preserve">Protists micros&lt;10um</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop hg</t>
+    <t xml:space="preserve">1, Macrozooplankton nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop nutrition</t>
   </si>
   <si>
     <t xml:space="preserve">Planktic foraminifera</t>
@@ -700,10 +700,7 @@
     <t xml:space="preserve">1, Protist PCR</t>
   </si>
   <si>
-    <t xml:space="preserve">1, Macrozooplankton nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop nutrition</t>
+    <t xml:space="preserve">Macrozoop protein</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -718,6 +715,12 @@
     <t xml:space="preserve">Silicate incorp</t>
   </si>
   <si>
+    <t xml:space="preserve">1, Macrozoplankton stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozop stomach</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sediment geochemistry</t>
   </si>
   <si>
@@ -730,16 +733,7 @@
     <t xml:space="preserve">Virus DNA</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop protein</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sediment grain size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozoplankton stomach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozop stomach</t>
   </si>
   <si>
     <t xml:space="preserve">Sedimentology</t>
@@ -1102,7 +1096,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1295,6 +1289,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1454,9 +1452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1465,8 +1463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="58588200" y="4920120"/>
-          <a:ext cx="3061080" cy="429840"/>
+          <a:off x="57483360" y="4920120"/>
+          <a:ext cx="3003480" cy="429480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1497,9 +1495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1508,8 +1506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="58588200" y="5300280"/>
-          <a:ext cx="3061080" cy="1357560"/>
+          <a:off x="57483360" y="5300280"/>
+          <a:ext cx="3003480" cy="1357200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1540,9 +1538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1551,8 +1549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73298880" y="3399840"/>
-          <a:ext cx="4051800" cy="429120"/>
+          <a:off x="71923320" y="3399840"/>
+          <a:ext cx="3975120" cy="428760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1583,9 +1581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1594,8 +1592,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73298880" y="4159800"/>
-          <a:ext cx="4051800" cy="429840"/>
+          <a:off x="71923320" y="4159800"/>
+          <a:ext cx="3975120" cy="429480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1626,9 +1624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1637,8 +1635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73298880" y="4539600"/>
-          <a:ext cx="4051800" cy="429480"/>
+          <a:off x="71923320" y="4539600"/>
+          <a:ext cx="3975120" cy="429120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1669,9 +1667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1680,8 +1678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73298880" y="5681160"/>
-          <a:ext cx="4051800" cy="1356120"/>
+          <a:off x="71923320" y="5681160"/>
+          <a:ext cx="3975120" cy="1355760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1708,13 +1706,13 @@
       <xdr:col>72</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>356400</xdr:rowOff>
+      <xdr:rowOff>365760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>89640</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1723,8 +1721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73298880" y="7749360"/>
-          <a:ext cx="4051800" cy="429840"/>
+          <a:off x="71923320" y="7749360"/>
+          <a:ext cx="3975120" cy="429480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1756,45 +1754,45 @@
   </sheetPr>
   <dimension ref="1:83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BQ14" activeCellId="0" sqref="BQ14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA27" activeCellId="0" sqref="BA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="47" min="46" style="5" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="5" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="69" min="49" style="5" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="5" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="5" width="20.5612244897959"/>
-    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="47" min="46" style="5" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="5" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="69" min="49" style="5" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="5" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="5" width="20.25"/>
+    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3324,7 +3322,7 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="52" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="53" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
         <v>62</v>
       </c>
@@ -3484,10 +3482,10 @@
       <c r="BQ4" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="BR4" s="0" t="s">
+      <c r="BR4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="BS4" s="0" t="s">
+      <c r="BS4" s="48" t="s">
         <v>80</v>
       </c>
       <c r="BT4" s="43"/>
@@ -3496,34 +3494,34 @@
       <c r="BW4" s="38"/>
       <c r="BX4" s="38"/>
       <c r="BY4" s="38"/>
-      <c r="BZ4" s="48" t="s">
+      <c r="BZ4" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="CA4" s="49" t="s">
+      <c r="CA4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="CB4" s="49" t="s">
+      <c r="CB4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="CC4" s="49" t="s">
+      <c r="CC4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="CD4" s="49" t="s">
+      <c r="CD4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="CE4" s="50" t="s">
+      <c r="CE4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="CF4" s="49" t="s">
+      <c r="CF4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="CG4" s="49" t="s">
+      <c r="CG4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="CH4" s="49" t="s">
+      <c r="CH4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="CI4" s="49" t="s">
+      <c r="CI4" s="50" t="s">
         <v>81</v>
       </c>
       <c r="CJ4" s="43" t="s">
@@ -3542,72 +3540,72 @@
       <c r="CO4" s="42"/>
       <c r="CP4" s="38"/>
       <c r="CQ4" s="38"/>
-      <c r="CR4" s="51"/>
-      <c r="CS4" s="51"/>
-      <c r="CT4" s="51"/>
-      <c r="CU4" s="51"/>
-      <c r="CV4" s="51"/>
-      <c r="CW4" s="51"/>
-      <c r="CX4" s="51"/>
-      <c r="CY4" s="51"/>
-      <c r="CZ4" s="51"/>
-      <c r="DA4" s="51"/>
-      <c r="DB4" s="51"/>
-      <c r="DC4" s="51"/>
-      <c r="DD4" s="51"/>
-      <c r="DE4" s="51"/>
-      <c r="DF4" s="51"/>
-      <c r="DG4" s="51"/>
-      <c r="DH4" s="51"/>
-      <c r="DI4" s="51"/>
-      <c r="DJ4" s="51"/>
-      <c r="DK4" s="51"/>
-      <c r="DL4" s="51"/>
-      <c r="DM4" s="51"/>
-      <c r="DN4" s="51"/>
-      <c r="DO4" s="51"/>
-      <c r="DP4" s="51"/>
-      <c r="DQ4" s="51"/>
-      <c r="DR4" s="51"/>
+      <c r="CR4" s="52"/>
+      <c r="CS4" s="52"/>
+      <c r="CT4" s="52"/>
+      <c r="CU4" s="52"/>
+      <c r="CV4" s="52"/>
+      <c r="CW4" s="52"/>
+      <c r="CX4" s="52"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="52"/>
+      <c r="DB4" s="52"/>
+      <c r="DC4" s="52"/>
+      <c r="DD4" s="52"/>
+      <c r="DE4" s="52"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="52"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="52"/>
+      <c r="DK4" s="52"/>
+      <c r="DL4" s="52"/>
+      <c r="DM4" s="52"/>
+      <c r="DN4" s="52"/>
+      <c r="DO4" s="52"/>
+      <c r="DP4" s="52"/>
+      <c r="DQ4" s="52"/>
+      <c r="DR4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="38" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="57" t="s">
         <v>89</v>
       </c>
       <c r="P5" s="40"/>
@@ -3634,10 +3632,10 @@
       <c r="AI5" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="AJ5" s="57" t="s">
+      <c r="AJ5" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" s="57" t="s">
+      <c r="AK5" s="58" t="s">
         <v>92</v>
       </c>
       <c r="AL5" s="42" t="s">
@@ -3712,10 +3710,10 @@
       <c r="BQ5" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="BR5" s="58" t="s">
+      <c r="BR5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="BS5" s="58" t="s">
+      <c r="BS5" s="59" t="s">
         <v>101</v>
       </c>
       <c r="BT5" s="43"/>
@@ -3724,92 +3722,92 @@
       <c r="BW5" s="45"/>
       <c r="BX5" s="45"/>
       <c r="BY5" s="38"/>
-      <c r="BZ5" s="48" t="s">
+      <c r="BZ5" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="CA5" s="49" t="s">
+      <c r="CA5" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="CB5" s="49" t="s">
+      <c r="CB5" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="CC5" s="49" t="s">
+      <c r="CC5" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="CD5" s="49" t="s">
+      <c r="CD5" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="CE5" s="50" t="s">
+      <c r="CE5" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="CF5" s="49" t="s">
+      <c r="CF5" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="CG5" s="49" t="s">
+      <c r="CG5" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="CH5" s="49" t="s">
+      <c r="CH5" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="CI5" s="49" t="s">
+      <c r="CI5" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="CJ5" s="53" t="s">
+      <c r="CJ5" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="CK5" s="54" t="s">
+      <c r="CK5" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="CL5" s="54"/>
-      <c r="CM5" s="54"/>
-      <c r="CN5" s="53"/>
+      <c r="CL5" s="55"/>
+      <c r="CM5" s="55"/>
+      <c r="CN5" s="54"/>
       <c r="CO5" s="42"/>
       <c r="CP5" s="38" t="s">
         <v>104</v>
       </c>
       <c r="CQ5" s="38"/>
-      <c r="CR5" s="59"/>
-      <c r="CS5" s="51"/>
-      <c r="CT5" s="51"/>
-      <c r="CU5" s="51"/>
-      <c r="CV5" s="51"/>
-      <c r="CW5" s="51"/>
-      <c r="CX5" s="51"/>
-      <c r="CY5" s="51"/>
-      <c r="CZ5" s="51"/>
-      <c r="DA5" s="51"/>
-      <c r="DB5" s="51"/>
-      <c r="DC5" s="51"/>
-      <c r="DD5" s="51"/>
-      <c r="DE5" s="51"/>
-      <c r="DF5" s="51"/>
-      <c r="DG5" s="51"/>
-      <c r="DH5" s="51"/>
-      <c r="DI5" s="51"/>
-      <c r="DJ5" s="51"/>
-      <c r="DK5" s="51"/>
-      <c r="DL5" s="51"/>
-      <c r="DM5" s="51"/>
-      <c r="DN5" s="51"/>
-      <c r="DO5" s="51"/>
-      <c r="DP5" s="51"/>
-      <c r="DQ5" s="51"/>
-      <c r="DR5" s="51"/>
+      <c r="CR5" s="60"/>
+      <c r="CS5" s="52"/>
+      <c r="CT5" s="52"/>
+      <c r="CU5" s="52"/>
+      <c r="CV5" s="52"/>
+      <c r="CW5" s="52"/>
+      <c r="CX5" s="52"/>
+      <c r="CY5" s="52"/>
+      <c r="CZ5" s="52"/>
+      <c r="DA5" s="52"/>
+      <c r="DB5" s="52"/>
+      <c r="DC5" s="52"/>
+      <c r="DD5" s="52"/>
+      <c r="DE5" s="52"/>
+      <c r="DF5" s="52"/>
+      <c r="DG5" s="52"/>
+      <c r="DH5" s="52"/>
+      <c r="DI5" s="52"/>
+      <c r="DJ5" s="52"/>
+      <c r="DK5" s="52"/>
+      <c r="DL5" s="52"/>
+      <c r="DM5" s="52"/>
+      <c r="DN5" s="52"/>
+      <c r="DO5" s="52"/>
+      <c r="DP5" s="52"/>
+      <c r="DQ5" s="52"/>
+      <c r="DR5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="38" t="s">
         <v>105</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="62" t="s">
         <v>87</v>
       </c>
       <c r="H6" s="38"/>
@@ -3823,7 +3821,7 @@
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
-      <c r="S6" s="62"/>
+      <c r="S6" s="63"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
       <c r="V6" s="42"/>
@@ -3844,10 +3842,10 @@
       <c r="AI6" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AJ6" s="57" t="s">
+      <c r="AJ6" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AK6" s="57" t="s">
+      <c r="AK6" s="58" t="s">
         <v>109</v>
       </c>
       <c r="AL6" s="42" t="s">
@@ -3910,10 +3908,10 @@
       <c r="BQ6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="BR6" s="58" t="s">
+      <c r="BR6" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="BS6" s="58" t="s">
+      <c r="BS6" s="59" t="s">
         <v>115</v>
       </c>
       <c r="BT6" s="43"/>
@@ -3922,90 +3920,90 @@
       <c r="BW6" s="45"/>
       <c r="BX6" s="45"/>
       <c r="BY6" s="38"/>
-      <c r="BZ6" s="48" t="s">
+      <c r="BZ6" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="CA6" s="49" t="s">
+      <c r="CA6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="CB6" s="49" t="s">
+      <c r="CB6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="CC6" s="49" t="s">
+      <c r="CC6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="CD6" s="49" t="s">
+      <c r="CD6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="CE6" s="50" t="s">
+      <c r="CE6" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="CF6" s="49" t="s">
+      <c r="CF6" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="CG6" s="49" t="s">
+      <c r="CG6" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="CH6" s="49" t="s">
+      <c r="CH6" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="CI6" s="49" t="s">
+      <c r="CI6" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="CJ6" s="53" t="s">
+      <c r="CJ6" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="CK6" s="54" t="s">
+      <c r="CK6" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="CL6" s="54"/>
-      <c r="CM6" s="54"/>
-      <c r="CN6" s="53"/>
+      <c r="CL6" s="55"/>
+      <c r="CM6" s="55"/>
+      <c r="CN6" s="54"/>
       <c r="CO6" s="42"/>
       <c r="CP6" s="38"/>
       <c r="CQ6" s="38"/>
-      <c r="CR6" s="59"/>
-      <c r="CS6" s="51"/>
-      <c r="CT6" s="51"/>
-      <c r="CU6" s="51"/>
-      <c r="CV6" s="51"/>
-      <c r="CW6" s="51"/>
-      <c r="CX6" s="51"/>
-      <c r="CY6" s="51"/>
-      <c r="CZ6" s="51"/>
-      <c r="DA6" s="51"/>
-      <c r="DB6" s="51"/>
-      <c r="DC6" s="51"/>
-      <c r="DD6" s="51"/>
-      <c r="DE6" s="51"/>
-      <c r="DF6" s="51"/>
-      <c r="DG6" s="51"/>
-      <c r="DH6" s="51"/>
-      <c r="DI6" s="51"/>
-      <c r="DJ6" s="51"/>
-      <c r="DK6" s="51"/>
-      <c r="DL6" s="51"/>
-      <c r="DM6" s="51"/>
-      <c r="DN6" s="51"/>
-      <c r="DO6" s="51"/>
-      <c r="DP6" s="51"/>
-      <c r="DQ6" s="51"/>
-      <c r="DR6" s="51"/>
+      <c r="CR6" s="60"/>
+      <c r="CS6" s="52"/>
+      <c r="CT6" s="52"/>
+      <c r="CU6" s="52"/>
+      <c r="CV6" s="52"/>
+      <c r="CW6" s="52"/>
+      <c r="CX6" s="52"/>
+      <c r="CY6" s="52"/>
+      <c r="CZ6" s="52"/>
+      <c r="DA6" s="52"/>
+      <c r="DB6" s="52"/>
+      <c r="DC6" s="52"/>
+      <c r="DD6" s="52"/>
+      <c r="DE6" s="52"/>
+      <c r="DF6" s="52"/>
+      <c r="DG6" s="52"/>
+      <c r="DH6" s="52"/>
+      <c r="DI6" s="52"/>
+      <c r="DJ6" s="52"/>
+      <c r="DK6" s="52"/>
+      <c r="DL6" s="52"/>
+      <c r="DM6" s="52"/>
+      <c r="DN6" s="52"/>
+      <c r="DO6" s="52"/>
+      <c r="DP6" s="52"/>
+      <c r="DQ6" s="52"/>
+      <c r="DR6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="38" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="62" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="45"/>
@@ -4019,7 +4017,7 @@
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-      <c r="S7" s="62"/>
+      <c r="S7" s="63"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
@@ -4036,10 +4034,10 @@
       <c r="AG7" s="38"/>
       <c r="AH7" s="43"/>
       <c r="AI7" s="42"/>
-      <c r="AJ7" s="57" t="s">
+      <c r="AJ7" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AK7" s="57" t="s">
+      <c r="AK7" s="58" t="s">
         <v>122</v>
       </c>
       <c r="AL7" s="45"/>
@@ -4094,10 +4092,10 @@
       <c r="BQ7" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="BR7" s="58" t="s">
+      <c r="BR7" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="BS7" s="58" t="s">
+      <c r="BS7" s="59" t="s">
         <v>128</v>
       </c>
       <c r="BT7" s="43"/>
@@ -4113,63 +4111,63 @@
       <c r="CB7" s="38"/>
       <c r="CC7" s="38"/>
       <c r="CD7" s="38"/>
-      <c r="CE7" s="62"/>
+      <c r="CE7" s="63"/>
       <c r="CF7" s="42"/>
       <c r="CG7" s="42"/>
       <c r="CH7" s="42"/>
       <c r="CI7" s="42"/>
-      <c r="CJ7" s="63"/>
-      <c r="CK7" s="64"/>
-      <c r="CL7" s="64"/>
-      <c r="CM7" s="64"/>
-      <c r="CN7" s="63"/>
+      <c r="CJ7" s="64"/>
+      <c r="CK7" s="65"/>
+      <c r="CL7" s="65"/>
+      <c r="CM7" s="65"/>
+      <c r="CN7" s="64"/>
       <c r="CO7" s="42"/>
       <c r="CP7" s="38" t="s">
         <v>130</v>
       </c>
       <c r="CQ7" s="38"/>
-      <c r="CR7" s="59"/>
-      <c r="CS7" s="51"/>
-      <c r="CT7" s="51"/>
-      <c r="CU7" s="51"/>
-      <c r="CV7" s="51"/>
-      <c r="CW7" s="51"/>
-      <c r="CX7" s="51"/>
-      <c r="CY7" s="51"/>
-      <c r="CZ7" s="51"/>
-      <c r="DA7" s="51"/>
-      <c r="DB7" s="51"/>
-      <c r="DC7" s="51"/>
-      <c r="DD7" s="51"/>
-      <c r="DE7" s="51"/>
-      <c r="DF7" s="51"/>
-      <c r="DG7" s="51"/>
-      <c r="DH7" s="51"/>
-      <c r="DI7" s="51"/>
-      <c r="DJ7" s="51"/>
-      <c r="DK7" s="51"/>
-      <c r="DL7" s="51"/>
-      <c r="DM7" s="51"/>
-      <c r="DN7" s="51"/>
-      <c r="DO7" s="51"/>
-      <c r="DP7" s="51"/>
-      <c r="DQ7" s="51"/>
-      <c r="DR7" s="51"/>
+      <c r="CR7" s="60"/>
+      <c r="CS7" s="52"/>
+      <c r="CT7" s="52"/>
+      <c r="CU7" s="52"/>
+      <c r="CV7" s="52"/>
+      <c r="CW7" s="52"/>
+      <c r="CX7" s="52"/>
+      <c r="CY7" s="52"/>
+      <c r="CZ7" s="52"/>
+      <c r="DA7" s="52"/>
+      <c r="DB7" s="52"/>
+      <c r="DC7" s="52"/>
+      <c r="DD7" s="52"/>
+      <c r="DE7" s="52"/>
+      <c r="DF7" s="52"/>
+      <c r="DG7" s="52"/>
+      <c r="DH7" s="52"/>
+      <c r="DI7" s="52"/>
+      <c r="DJ7" s="52"/>
+      <c r="DK7" s="52"/>
+      <c r="DL7" s="52"/>
+      <c r="DM7" s="52"/>
+      <c r="DN7" s="52"/>
+      <c r="DO7" s="52"/>
+      <c r="DP7" s="52"/>
+      <c r="DQ7" s="52"/>
+      <c r="DR7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="38" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="59" t="s">
         <v>133</v>
       </c>
       <c r="H8" s="38"/>
@@ -4183,7 +4181,7 @@
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
       <c r="R8" s="42"/>
-      <c r="S8" s="62"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="42"/>
       <c r="U8" s="42"/>
       <c r="V8" s="42"/>
@@ -4200,10 +4198,10 @@
       <c r="AG8" s="38"/>
       <c r="AH8" s="43"/>
       <c r="AI8" s="42"/>
-      <c r="AJ8" s="57" t="s">
+      <c r="AJ8" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="AK8" s="57" t="s">
+      <c r="AK8" s="58" t="s">
         <v>135</v>
       </c>
       <c r="AL8" s="45"/>
@@ -4254,10 +4252,10 @@
       <c r="BO8" s="42"/>
       <c r="BP8" s="42"/>
       <c r="BQ8" s="42"/>
-      <c r="BR8" s="57" t="s">
+      <c r="BR8" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="BS8" s="58" t="s">
+      <c r="BS8" s="59" t="s">
         <v>139</v>
       </c>
       <c r="BT8" s="43"/>
@@ -4273,7 +4271,7 @@
       <c r="CB8" s="38"/>
       <c r="CC8" s="38"/>
       <c r="CD8" s="38"/>
-      <c r="CE8" s="62"/>
+      <c r="CE8" s="63"/>
       <c r="CF8" s="42"/>
       <c r="CG8" s="42"/>
       <c r="CH8" s="42"/>
@@ -4288,48 +4286,48 @@
         <v>141</v>
       </c>
       <c r="CQ8" s="38"/>
-      <c r="CR8" s="59"/>
-      <c r="CS8" s="51"/>
-      <c r="CT8" s="51"/>
-      <c r="CU8" s="51"/>
-      <c r="CV8" s="51"/>
-      <c r="CW8" s="51"/>
-      <c r="CX8" s="51"/>
-      <c r="CY8" s="51"/>
-      <c r="CZ8" s="51"/>
-      <c r="DA8" s="51"/>
-      <c r="DB8" s="51"/>
-      <c r="DC8" s="51"/>
-      <c r="DD8" s="51"/>
-      <c r="DE8" s="51"/>
-      <c r="DF8" s="51"/>
-      <c r="DG8" s="51"/>
-      <c r="DH8" s="51"/>
-      <c r="DI8" s="51"/>
-      <c r="DJ8" s="51"/>
-      <c r="DK8" s="51"/>
-      <c r="DL8" s="51"/>
-      <c r="DM8" s="51"/>
-      <c r="DN8" s="51"/>
-      <c r="DO8" s="51"/>
-      <c r="DP8" s="51"/>
-      <c r="DQ8" s="51"/>
-      <c r="DR8" s="51"/>
+      <c r="CR8" s="60"/>
+      <c r="CS8" s="52"/>
+      <c r="CT8" s="52"/>
+      <c r="CU8" s="52"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
+      <c r="DA8" s="52"/>
+      <c r="DB8" s="52"/>
+      <c r="DC8" s="52"/>
+      <c r="DD8" s="52"/>
+      <c r="DE8" s="52"/>
+      <c r="DF8" s="52"/>
+      <c r="DG8" s="52"/>
+      <c r="DH8" s="52"/>
+      <c r="DI8" s="52"/>
+      <c r="DJ8" s="52"/>
+      <c r="DK8" s="52"/>
+      <c r="DL8" s="52"/>
+      <c r="DM8" s="52"/>
+      <c r="DN8" s="52"/>
+      <c r="DO8" s="52"/>
+      <c r="DP8" s="52"/>
+      <c r="DQ8" s="52"/>
+      <c r="DR8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="38" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="62" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="38"/>
@@ -4343,7 +4341,7 @@
       <c r="P9" s="42"/>
       <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
-      <c r="S9" s="62"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
       <c r="V9" s="42"/>
@@ -4360,10 +4358,10 @@
       <c r="AG9" s="38"/>
       <c r="AH9" s="43"/>
       <c r="AI9" s="42"/>
-      <c r="AJ9" s="57" t="s">
+      <c r="AJ9" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="AK9" s="57" t="s">
+      <c r="AK9" s="58" t="s">
         <v>145</v>
       </c>
       <c r="AL9" s="45"/>
@@ -4376,29 +4374,29 @@
       <c r="AS9" s="42"/>
       <c r="AT9" s="42"/>
       <c r="AU9" s="42"/>
-      <c r="AV9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW9" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="AY9" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA9" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB9" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC9" s="40" t="s">
-        <v>147</v>
+      <c r="AV9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC9" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="BD9" s="42"/>
       <c r="BE9" s="42"/>
@@ -4414,16 +4412,16 @@
       <c r="BO9" s="42"/>
       <c r="BP9" s="42"/>
       <c r="BQ9" s="42"/>
-      <c r="BR9" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS9" s="58" t="s">
+      <c r="BR9" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS9" s="59" t="s">
         <v>128</v>
       </c>
       <c r="BT9" s="43"/>
       <c r="BU9" s="42"/>
       <c r="BV9" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BW9" s="38"/>
       <c r="BX9" s="38"/>
@@ -4433,7 +4431,7 @@
       <c r="CB9" s="38"/>
       <c r="CC9" s="38"/>
       <c r="CD9" s="38"/>
-      <c r="CE9" s="62"/>
+      <c r="CE9" s="63"/>
       <c r="CF9" s="42"/>
       <c r="CG9" s="42"/>
       <c r="CH9" s="42"/>
@@ -4445,52 +4443,52 @@
       <c r="CN9" s="43"/>
       <c r="CO9" s="42"/>
       <c r="CP9" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CQ9" s="38"/>
-      <c r="CR9" s="59"/>
-      <c r="CS9" s="51"/>
-      <c r="CT9" s="51"/>
-      <c r="CU9" s="51"/>
-      <c r="CV9" s="51"/>
-      <c r="CW9" s="51"/>
-      <c r="CX9" s="51"/>
-      <c r="CY9" s="51"/>
-      <c r="CZ9" s="51"/>
-      <c r="DA9" s="51"/>
-      <c r="DB9" s="51"/>
-      <c r="DC9" s="51"/>
-      <c r="DD9" s="51"/>
-      <c r="DE9" s="51"/>
-      <c r="DF9" s="51"/>
-      <c r="DG9" s="51"/>
-      <c r="DH9" s="51"/>
-      <c r="DI9" s="51"/>
-      <c r="DJ9" s="51"/>
-      <c r="DK9" s="51"/>
-      <c r="DL9" s="51"/>
-      <c r="DM9" s="51"/>
-      <c r="DN9" s="51"/>
-      <c r="DO9" s="51"/>
-      <c r="DP9" s="51"/>
-      <c r="DQ9" s="51"/>
-      <c r="DR9" s="51"/>
+      <c r="CR9" s="60"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
+      <c r="DA9" s="52"/>
+      <c r="DB9" s="52"/>
+      <c r="DC9" s="52"/>
+      <c r="DD9" s="52"/>
+      <c r="DE9" s="52"/>
+      <c r="DF9" s="52"/>
+      <c r="DG9" s="52"/>
+      <c r="DH9" s="52"/>
+      <c r="DI9" s="52"/>
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="52"/>
+      <c r="DL9" s="52"/>
+      <c r="DM9" s="52"/>
+      <c r="DN9" s="52"/>
+      <c r="DO9" s="52"/>
+      <c r="DP9" s="52"/>
+      <c r="DQ9" s="52"/>
+      <c r="DR9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="42" t="s">
         <v>116</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>152</v>
+      <c r="F10" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -4503,7 +4501,7 @@
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
-      <c r="S10" s="62"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
       <c r="V10" s="42"/>
@@ -4520,11 +4518,11 @@
       <c r="AG10" s="38"/>
       <c r="AH10" s="43"/>
       <c r="AI10" s="42"/>
-      <c r="AJ10" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK10" s="57" t="s">
-        <v>154</v>
+      <c r="AJ10" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK10" s="58" t="s">
+        <v>152</v>
       </c>
       <c r="AL10" s="45"/>
       <c r="AM10" s="45"/>
@@ -4536,29 +4534,29 @@
       <c r="AS10" s="42"/>
       <c r="AT10" s="42"/>
       <c r="AU10" s="42"/>
-      <c r="AV10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW10" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY10" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA10" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB10" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC10" s="40" t="s">
-        <v>80</v>
+      <c r="AV10" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW10" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX10" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY10" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ10" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA10" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB10" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC10" s="57" t="s">
+        <v>115</v>
       </c>
       <c r="BD10" s="42"/>
       <c r="BE10" s="42"/>
@@ -4574,16 +4572,16 @@
       <c r="BO10" s="42"/>
       <c r="BP10" s="42"/>
       <c r="BQ10" s="42"/>
-      <c r="BR10" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS10" s="58" t="s">
-        <v>156</v>
+      <c r="BR10" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS10" s="59" t="s">
+        <v>154</v>
       </c>
       <c r="BT10" s="43"/>
       <c r="BU10" s="42"/>
       <c r="BV10" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BW10" s="38"/>
       <c r="BX10" s="38"/>
@@ -4593,7 +4591,7 @@
       <c r="CB10" s="38"/>
       <c r="CC10" s="38"/>
       <c r="CD10" s="38"/>
-      <c r="CE10" s="62"/>
+      <c r="CE10" s="63"/>
       <c r="CF10" s="42"/>
       <c r="CG10" s="42"/>
       <c r="CH10" s="42"/>
@@ -4605,52 +4603,52 @@
       <c r="CN10" s="43"/>
       <c r="CO10" s="42"/>
       <c r="CP10" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CQ10" s="38"/>
-      <c r="CR10" s="59"/>
-      <c r="CS10" s="51"/>
-      <c r="CT10" s="51"/>
-      <c r="CU10" s="51"/>
-      <c r="CV10" s="51"/>
-      <c r="CW10" s="51"/>
-      <c r="CX10" s="51"/>
-      <c r="CY10" s="51"/>
-      <c r="CZ10" s="51"/>
-      <c r="DA10" s="51"/>
-      <c r="DB10" s="51"/>
-      <c r="DC10" s="51"/>
-      <c r="DD10" s="51"/>
-      <c r="DE10" s="51"/>
-      <c r="DF10" s="51"/>
-      <c r="DG10" s="51"/>
-      <c r="DH10" s="51"/>
-      <c r="DI10" s="51"/>
-      <c r="DJ10" s="51"/>
-      <c r="DK10" s="51"/>
-      <c r="DL10" s="51"/>
-      <c r="DM10" s="51"/>
-      <c r="DN10" s="51"/>
-      <c r="DO10" s="51"/>
-      <c r="DP10" s="51"/>
-      <c r="DQ10" s="51"/>
-      <c r="DR10" s="51"/>
+      <c r="CR10" s="60"/>
+      <c r="CS10" s="52"/>
+      <c r="CT10" s="52"/>
+      <c r="CU10" s="52"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
+      <c r="DA10" s="52"/>
+      <c r="DB10" s="52"/>
+      <c r="DC10" s="52"/>
+      <c r="DD10" s="52"/>
+      <c r="DE10" s="52"/>
+      <c r="DF10" s="52"/>
+      <c r="DG10" s="52"/>
+      <c r="DH10" s="52"/>
+      <c r="DI10" s="52"/>
+      <c r="DJ10" s="52"/>
+      <c r="DK10" s="52"/>
+      <c r="DL10" s="52"/>
+      <c r="DM10" s="52"/>
+      <c r="DN10" s="52"/>
+      <c r="DO10" s="52"/>
+      <c r="DP10" s="52"/>
+      <c r="DQ10" s="52"/>
+      <c r="DR10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="59" t="s">
         <v>159</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>161</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
@@ -4663,7 +4661,7 @@
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-      <c r="S11" s="62"/>
+      <c r="S11" s="63"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="42"/>
@@ -4680,11 +4678,11 @@
       <c r="AG11" s="38"/>
       <c r="AH11" s="43"/>
       <c r="AI11" s="42"/>
-      <c r="AJ11" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK11" s="57" t="s">
-        <v>163</v>
+      <c r="AJ11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK11" s="58" t="s">
+        <v>161</v>
       </c>
       <c r="AL11" s="45"/>
       <c r="AM11" s="45"/>
@@ -4696,29 +4694,29 @@
       <c r="AS11" s="42"/>
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
-      <c r="AV11" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW11" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX11" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY11" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ11" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA11" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB11" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC11" s="56" t="s">
-        <v>101</v>
+      <c r="AV11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW11" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY11" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA11" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC11" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="BD11" s="42"/>
       <c r="BE11" s="42"/>
@@ -4734,16 +4732,16 @@
       <c r="BO11" s="42"/>
       <c r="BP11" s="42"/>
       <c r="BQ11" s="42"/>
-      <c r="BR11" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS11" s="58" t="s">
-        <v>165</v>
+      <c r="BR11" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="BS11" s="59" t="s">
+        <v>163</v>
       </c>
       <c r="BT11" s="43"/>
       <c r="BU11" s="42"/>
       <c r="BV11" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BW11" s="38"/>
       <c r="BX11" s="38"/>
@@ -4753,7 +4751,7 @@
       <c r="CB11" s="38"/>
       <c r="CC11" s="38"/>
       <c r="CD11" s="38"/>
-      <c r="CE11" s="62"/>
+      <c r="CE11" s="63"/>
       <c r="CF11" s="42"/>
       <c r="CG11" s="42"/>
       <c r="CH11" s="42"/>
@@ -4765,52 +4763,52 @@
       <c r="CN11" s="43"/>
       <c r="CO11" s="42"/>
       <c r="CP11" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CQ11" s="38"/>
-      <c r="CR11" s="59"/>
-      <c r="CS11" s="51"/>
-      <c r="CT11" s="51"/>
-      <c r="CU11" s="51"/>
-      <c r="CV11" s="51"/>
-      <c r="CW11" s="51"/>
-      <c r="CX11" s="51"/>
-      <c r="CY11" s="51"/>
-      <c r="CZ11" s="51"/>
-      <c r="DA11" s="51"/>
-      <c r="DB11" s="51"/>
-      <c r="DC11" s="51"/>
-      <c r="DD11" s="51"/>
-      <c r="DE11" s="51"/>
-      <c r="DF11" s="51"/>
-      <c r="DG11" s="51"/>
-      <c r="DH11" s="51"/>
-      <c r="DI11" s="51"/>
-      <c r="DJ11" s="51"/>
-      <c r="DK11" s="51"/>
-      <c r="DL11" s="51"/>
-      <c r="DM11" s="51"/>
-      <c r="DN11" s="51"/>
-      <c r="DO11" s="51"/>
-      <c r="DP11" s="51"/>
-      <c r="DQ11" s="51"/>
-      <c r="DR11" s="51"/>
+      <c r="CR11" s="60"/>
+      <c r="CS11" s="52"/>
+      <c r="CT11" s="52"/>
+      <c r="CU11" s="52"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
+      <c r="DA11" s="52"/>
+      <c r="DB11" s="52"/>
+      <c r="DC11" s="52"/>
+      <c r="DD11" s="52"/>
+      <c r="DE11" s="52"/>
+      <c r="DF11" s="52"/>
+      <c r="DG11" s="52"/>
+      <c r="DH11" s="52"/>
+      <c r="DI11" s="52"/>
+      <c r="DJ11" s="52"/>
+      <c r="DK11" s="52"/>
+      <c r="DL11" s="52"/>
+      <c r="DM11" s="52"/>
+      <c r="DN11" s="52"/>
+      <c r="DO11" s="52"/>
+      <c r="DP11" s="52"/>
+      <c r="DQ11" s="52"/>
+      <c r="DR11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="62" t="s">
         <v>168</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="61" t="s">
-        <v>170</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4823,7 +4821,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="62"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="42"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
@@ -4840,11 +4838,11 @@
       <c r="AG12" s="38"/>
       <c r="AH12" s="43"/>
       <c r="AI12" s="42"/>
-      <c r="AJ12" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK12" s="57" t="s">
-        <v>172</v>
+      <c r="AJ12" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK12" s="58" t="s">
+        <v>170</v>
       </c>
       <c r="AL12" s="45"/>
       <c r="AM12" s="45"/>
@@ -4856,29 +4854,29 @@
       <c r="AS12" s="42"/>
       <c r="AT12" s="42"/>
       <c r="AU12" s="42"/>
-      <c r="AV12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW12" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY12" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA12" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC12" s="56" t="s">
-        <v>115</v>
+      <c r="AV12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC12" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="BD12" s="42"/>
       <c r="BE12" s="42"/>
@@ -4909,7 +4907,7 @@
       <c r="CB12" s="38"/>
       <c r="CC12" s="38"/>
       <c r="CD12" s="38"/>
-      <c r="CE12" s="62"/>
+      <c r="CE12" s="63"/>
       <c r="CF12" s="42"/>
       <c r="CG12" s="42"/>
       <c r="CH12" s="42"/>
@@ -4924,48 +4922,48 @@
         <v>174</v>
       </c>
       <c r="CQ12" s="38"/>
-      <c r="CR12" s="59"/>
+      <c r="CR12" s="60"/>
       <c r="CS12" s="43"/>
-      <c r="CT12" s="51"/>
-      <c r="CU12" s="51"/>
-      <c r="CV12" s="51"/>
-      <c r="CW12" s="51"/>
-      <c r="CX12" s="51"/>
-      <c r="CY12" s="51"/>
-      <c r="CZ12" s="51"/>
-      <c r="DA12" s="51"/>
-      <c r="DB12" s="51"/>
-      <c r="DC12" s="51"/>
-      <c r="DD12" s="51"/>
-      <c r="DE12" s="51"/>
-      <c r="DF12" s="51"/>
-      <c r="DG12" s="51"/>
-      <c r="DH12" s="51"/>
-      <c r="DI12" s="51"/>
-      <c r="DJ12" s="51"/>
-      <c r="DK12" s="51"/>
-      <c r="DL12" s="51"/>
-      <c r="DM12" s="51"/>
-      <c r="DN12" s="51"/>
-      <c r="DO12" s="51"/>
-      <c r="DP12" s="51"/>
-      <c r="DQ12" s="51"/>
-      <c r="DR12" s="51"/>
+      <c r="CT12" s="52"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
+      <c r="DA12" s="52"/>
+      <c r="DB12" s="52"/>
+      <c r="DC12" s="52"/>
+      <c r="DD12" s="52"/>
+      <c r="DE12" s="52"/>
+      <c r="DF12" s="52"/>
+      <c r="DG12" s="52"/>
+      <c r="DH12" s="52"/>
+      <c r="DI12" s="52"/>
+      <c r="DJ12" s="52"/>
+      <c r="DK12" s="52"/>
+      <c r="DL12" s="52"/>
+      <c r="DM12" s="52"/>
+      <c r="DN12" s="52"/>
+      <c r="DO12" s="52"/>
+      <c r="DP12" s="52"/>
+      <c r="DQ12" s="52"/>
+      <c r="DR12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="38" t="s">
         <v>175</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="62" t="s">
         <v>178</v>
       </c>
       <c r="H13" s="38"/>
@@ -4979,7 +4977,7 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="62"/>
+      <c r="S13" s="63"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
@@ -4994,12 +4992,12 @@
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="57" t="s">
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="AK13" s="57" t="s">
+      <c r="AK13" s="58" t="s">
         <v>180</v>
       </c>
       <c r="AL13" s="45"/>
@@ -5012,29 +5010,29 @@
       <c r="AS13" s="42"/>
       <c r="AT13" s="42"/>
       <c r="AU13" s="42"/>
-      <c r="AV13" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW13" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX13" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY13" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ13" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA13" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB13" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC13" s="56" t="s">
-        <v>128</v>
+      <c r="AV13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW13" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY13" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA13" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC13" s="57" t="s">
+        <v>182</v>
       </c>
       <c r="BD13" s="42"/>
       <c r="BE13" s="42"/>
@@ -5055,7 +5053,7 @@
       <c r="BT13" s="43"/>
       <c r="BU13" s="42"/>
       <c r="BV13" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BW13" s="38"/>
       <c r="BX13" s="38"/>
@@ -5065,7 +5063,7 @@
       <c r="CB13" s="38"/>
       <c r="CC13" s="38"/>
       <c r="CD13" s="38"/>
-      <c r="CE13" s="62"/>
+      <c r="CE13" s="63"/>
       <c r="CF13" s="42"/>
       <c r="CG13" s="42"/>
       <c r="CH13" s="42"/>
@@ -5077,52 +5075,52 @@
       <c r="CN13" s="43"/>
       <c r="CO13" s="42"/>
       <c r="CP13" s="38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="CQ13" s="38"/>
-      <c r="CR13" s="59"/>
+      <c r="CR13" s="60"/>
       <c r="CS13" s="43"/>
-      <c r="CT13" s="51"/>
-      <c r="CU13" s="51"/>
-      <c r="CV13" s="51"/>
-      <c r="CW13" s="51"/>
-      <c r="CX13" s="51"/>
-      <c r="CY13" s="51"/>
-      <c r="CZ13" s="51"/>
-      <c r="DA13" s="51"/>
-      <c r="DB13" s="51"/>
-      <c r="DC13" s="51"/>
-      <c r="DD13" s="51"/>
-      <c r="DE13" s="51"/>
-      <c r="DF13" s="51"/>
-      <c r="DG13" s="51"/>
-      <c r="DH13" s="51"/>
-      <c r="DI13" s="51"/>
-      <c r="DJ13" s="51"/>
-      <c r="DK13" s="51"/>
-      <c r="DL13" s="51"/>
-      <c r="DM13" s="51"/>
-      <c r="DN13" s="51"/>
-      <c r="DO13" s="51"/>
-      <c r="DP13" s="51"/>
-      <c r="DQ13" s="51"/>
-      <c r="DR13" s="51"/>
+      <c r="CT13" s="52"/>
+      <c r="CU13" s="52"/>
+      <c r="CV13" s="52"/>
+      <c r="CW13" s="52"/>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="52"/>
+      <c r="CZ13" s="52"/>
+      <c r="DA13" s="52"/>
+      <c r="DB13" s="52"/>
+      <c r="DC13" s="52"/>
+      <c r="DD13" s="52"/>
+      <c r="DE13" s="52"/>
+      <c r="DF13" s="52"/>
+      <c r="DG13" s="52"/>
+      <c r="DH13" s="52"/>
+      <c r="DI13" s="52"/>
+      <c r="DJ13" s="52"/>
+      <c r="DK13" s="52"/>
+      <c r="DL13" s="52"/>
+      <c r="DM13" s="52"/>
+      <c r="DN13" s="52"/>
+      <c r="DO13" s="52"/>
+      <c r="DP13" s="52"/>
+      <c r="DQ13" s="52"/>
+      <c r="DR13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="61" t="s">
         <v>185</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>187</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5135,7 +5133,7 @@
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
-      <c r="S14" s="62"/>
+      <c r="S14" s="63"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
@@ -5150,13 +5148,13 @@
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK14" s="57" t="s">
-        <v>187</v>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK14" s="58" t="s">
+        <v>189</v>
       </c>
       <c r="AL14" s="45"/>
       <c r="AM14" s="45"/>
@@ -5168,36 +5166,36 @@
       <c r="AS14" s="42"/>
       <c r="AT14" s="42"/>
       <c r="AU14" s="42"/>
-      <c r="AV14" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW14" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX14" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY14" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ14" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="BA14" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB14" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="BC14" s="40" t="s">
-        <v>189</v>
+      <c r="AV14" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW14" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX14" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY14" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ14" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA14" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB14" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC14" s="57" t="s">
+        <v>190</v>
       </c>
       <c r="BD14" s="42"/>
       <c r="BE14" s="42"/>
       <c r="BF14" s="42"/>
       <c r="BG14" s="42"/>
       <c r="BH14" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BI14" s="42"/>
       <c r="BJ14" s="42"/>
@@ -5213,7 +5211,7 @@
       <c r="BT14" s="43"/>
       <c r="BU14" s="42"/>
       <c r="BV14" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BW14" s="38"/>
       <c r="BX14" s="38"/>
@@ -5223,7 +5221,7 @@
       <c r="CB14" s="38"/>
       <c r="CC14" s="38"/>
       <c r="CD14" s="38"/>
-      <c r="CE14" s="62"/>
+      <c r="CE14" s="63"/>
       <c r="CF14" s="42"/>
       <c r="CG14" s="42"/>
       <c r="CH14" s="42"/>
@@ -5235,52 +5233,52 @@
       <c r="CN14" s="43"/>
       <c r="CO14" s="42"/>
       <c r="CP14" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CQ14" s="38"/>
-      <c r="CR14" s="59"/>
-      <c r="CS14" s="51"/>
-      <c r="CT14" s="51"/>
-      <c r="CU14" s="51"/>
-      <c r="CV14" s="51"/>
-      <c r="CW14" s="51"/>
-      <c r="CX14" s="51"/>
-      <c r="CY14" s="51"/>
-      <c r="CZ14" s="51"/>
-      <c r="DA14" s="51"/>
-      <c r="DB14" s="51"/>
-      <c r="DC14" s="51"/>
-      <c r="DD14" s="51"/>
-      <c r="DE14" s="51"/>
-      <c r="DF14" s="51"/>
-      <c r="DG14" s="51"/>
-      <c r="DH14" s="51"/>
-      <c r="DI14" s="51"/>
-      <c r="DJ14" s="51"/>
-      <c r="DK14" s="51"/>
-      <c r="DL14" s="51"/>
-      <c r="DM14" s="51"/>
-      <c r="DN14" s="51"/>
-      <c r="DO14" s="51"/>
-      <c r="DP14" s="51"/>
-      <c r="DQ14" s="51"/>
-      <c r="DR14" s="51"/>
+      <c r="CR14" s="60"/>
+      <c r="CS14" s="52"/>
+      <c r="CT14" s="52"/>
+      <c r="CU14" s="52"/>
+      <c r="CV14" s="52"/>
+      <c r="CW14" s="52"/>
+      <c r="CX14" s="52"/>
+      <c r="CY14" s="52"/>
+      <c r="CZ14" s="52"/>
+      <c r="DA14" s="52"/>
+      <c r="DB14" s="52"/>
+      <c r="DC14" s="52"/>
+      <c r="DD14" s="52"/>
+      <c r="DE14" s="52"/>
+      <c r="DF14" s="52"/>
+      <c r="DG14" s="52"/>
+      <c r="DH14" s="52"/>
+      <c r="DI14" s="52"/>
+      <c r="DJ14" s="52"/>
+      <c r="DK14" s="52"/>
+      <c r="DL14" s="52"/>
+      <c r="DM14" s="52"/>
+      <c r="DN14" s="52"/>
+      <c r="DO14" s="52"/>
+      <c r="DP14" s="52"/>
+      <c r="DQ14" s="52"/>
+      <c r="DR14" s="52"/>
     </row>
-    <row r="15" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="F15" s="61" t="s">
         <v>195</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>196</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5293,7 +5291,7 @@
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
-      <c r="S15" s="62"/>
+      <c r="S15" s="63"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -5308,13 +5306,13 @@
       <c r="AE15" s="38"/>
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK15" s="57" t="s">
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="58" t="s">
         <v>197</v>
+      </c>
+      <c r="AK15" s="58" t="s">
+        <v>198</v>
       </c>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
@@ -5326,36 +5324,36 @@
       <c r="AS15" s="42"/>
       <c r="AT15" s="42"/>
       <c r="AU15" s="42"/>
-      <c r="AV15" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW15" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX15" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY15" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ15" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="BA15" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB15" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="BC15" s="56" t="s">
-        <v>199</v>
+      <c r="AV15" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW15" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX15" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY15" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ15" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA15" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB15" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC15" s="57" t="s">
+        <v>163</v>
       </c>
       <c r="BD15" s="42"/>
       <c r="BE15" s="42"/>
       <c r="BF15" s="42"/>
       <c r="BG15" s="42"/>
       <c r="BH15" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BI15" s="42"/>
       <c r="BJ15" s="42"/>
@@ -5371,7 +5369,7 @@
       <c r="BT15" s="43"/>
       <c r="BU15" s="42"/>
       <c r="BV15" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BW15" s="38"/>
       <c r="BX15" s="38"/>
@@ -5381,7 +5379,7 @@
       <c r="CB15" s="38"/>
       <c r="CC15" s="38"/>
       <c r="CD15" s="38"/>
-      <c r="CE15" s="62"/>
+      <c r="CE15" s="63"/>
       <c r="CF15" s="42"/>
       <c r="CG15" s="42"/>
       <c r="CH15" s="42"/>
@@ -5393,52 +5391,52 @@
       <c r="CN15" s="43"/>
       <c r="CO15" s="42"/>
       <c r="CP15" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CQ15" s="38"/>
-      <c r="CR15" s="59"/>
-      <c r="CS15" s="51"/>
-      <c r="CT15" s="51"/>
-      <c r="CU15" s="51"/>
-      <c r="CV15" s="51"/>
-      <c r="CW15" s="51"/>
-      <c r="CX15" s="51"/>
-      <c r="CY15" s="51"/>
-      <c r="CZ15" s="51"/>
-      <c r="DA15" s="51"/>
-      <c r="DB15" s="51"/>
-      <c r="DC15" s="51"/>
-      <c r="DD15" s="51"/>
-      <c r="DE15" s="51"/>
-      <c r="DF15" s="51"/>
-      <c r="DG15" s="51"/>
-      <c r="DH15" s="51"/>
-      <c r="DI15" s="51"/>
-      <c r="DJ15" s="51"/>
-      <c r="DK15" s="51"/>
-      <c r="DL15" s="51"/>
-      <c r="DM15" s="51"/>
-      <c r="DN15" s="51"/>
-      <c r="DO15" s="51"/>
-      <c r="DP15" s="51"/>
-      <c r="DQ15" s="51"/>
-      <c r="DR15" s="51"/>
+      <c r="CR15" s="60"/>
+      <c r="CS15" s="52"/>
+      <c r="CT15" s="52"/>
+      <c r="CU15" s="52"/>
+      <c r="CV15" s="52"/>
+      <c r="CW15" s="52"/>
+      <c r="CX15" s="52"/>
+      <c r="CY15" s="52"/>
+      <c r="CZ15" s="52"/>
+      <c r="DA15" s="52"/>
+      <c r="DB15" s="52"/>
+      <c r="DC15" s="52"/>
+      <c r="DD15" s="52"/>
+      <c r="DE15" s="52"/>
+      <c r="DF15" s="52"/>
+      <c r="DG15" s="52"/>
+      <c r="DH15" s="52"/>
+      <c r="DI15" s="52"/>
+      <c r="DJ15" s="52"/>
+      <c r="DK15" s="52"/>
+      <c r="DL15" s="52"/>
+      <c r="DM15" s="52"/>
+      <c r="DN15" s="52"/>
+      <c r="DO15" s="52"/>
+      <c r="DP15" s="52"/>
+      <c r="DQ15" s="52"/>
+      <c r="DR15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="60" t="s">
+      <c r="G16" s="59" t="s">
         <v>203</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>204</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -5451,7 +5449,7 @@
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
-      <c r="S16" s="62"/>
+      <c r="S16" s="63"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
@@ -5466,8 +5464,8 @@
       <c r="AE16" s="38"/>
       <c r="AF16" s="38"/>
       <c r="AG16" s="38"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="55"/>
       <c r="AJ16" s="45"/>
       <c r="AK16" s="45"/>
       <c r="AL16" s="45"/>
@@ -5480,28 +5478,28 @@
       <c r="AS16" s="42"/>
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
-      <c r="AV16" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="AW16" s="56" t="s">
+      <c r="AV16" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW16" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AX16" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="AY16" s="56" t="s">
+      <c r="AX16" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY16" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AZ16" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA16" s="56" t="s">
+      <c r="AZ16" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA16" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="BB16" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC16" s="56" t="s">
+      <c r="BB16" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC16" s="57" t="s">
         <v>205</v>
       </c>
       <c r="BD16" s="42"/>
@@ -5533,7 +5531,7 @@
       <c r="CB16" s="38"/>
       <c r="CC16" s="38"/>
       <c r="CD16" s="38"/>
-      <c r="CE16" s="62"/>
+      <c r="CE16" s="63"/>
       <c r="CF16" s="42"/>
       <c r="CG16" s="42"/>
       <c r="CH16" s="42"/>
@@ -5548,48 +5546,48 @@
         <v>207</v>
       </c>
       <c r="CQ16" s="38"/>
-      <c r="CR16" s="59"/>
-      <c r="CS16" s="51"/>
-      <c r="CT16" s="51"/>
-      <c r="CU16" s="51"/>
-      <c r="CV16" s="51"/>
-      <c r="CW16" s="51"/>
-      <c r="CX16" s="51"/>
-      <c r="CY16" s="51"/>
-      <c r="CZ16" s="51"/>
-      <c r="DA16" s="51"/>
-      <c r="DB16" s="51"/>
-      <c r="DC16" s="51"/>
-      <c r="DD16" s="51"/>
-      <c r="DE16" s="51"/>
-      <c r="DF16" s="51"/>
-      <c r="DG16" s="51"/>
-      <c r="DH16" s="51"/>
-      <c r="DI16" s="51"/>
-      <c r="DJ16" s="51"/>
-      <c r="DK16" s="51"/>
-      <c r="DL16" s="51"/>
-      <c r="DM16" s="51"/>
-      <c r="DN16" s="51"/>
-      <c r="DO16" s="51"/>
-      <c r="DP16" s="51"/>
-      <c r="DQ16" s="51"/>
-      <c r="DR16" s="51"/>
+      <c r="CR16" s="60"/>
+      <c r="CS16" s="52"/>
+      <c r="CT16" s="52"/>
+      <c r="CU16" s="52"/>
+      <c r="CV16" s="52"/>
+      <c r="CW16" s="52"/>
+      <c r="CX16" s="52"/>
+      <c r="CY16" s="52"/>
+      <c r="CZ16" s="52"/>
+      <c r="DA16" s="52"/>
+      <c r="DB16" s="52"/>
+      <c r="DC16" s="52"/>
+      <c r="DD16" s="52"/>
+      <c r="DE16" s="52"/>
+      <c r="DF16" s="52"/>
+      <c r="DG16" s="52"/>
+      <c r="DH16" s="52"/>
+      <c r="DI16" s="52"/>
+      <c r="DJ16" s="52"/>
+      <c r="DK16" s="52"/>
+      <c r="DL16" s="52"/>
+      <c r="DM16" s="52"/>
+      <c r="DN16" s="52"/>
+      <c r="DO16" s="52"/>
+      <c r="DP16" s="52"/>
+      <c r="DQ16" s="52"/>
+      <c r="DR16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="38" t="s">
         <v>208</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="59" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="38"/>
@@ -5603,7 +5601,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="62"/>
+      <c r="S17" s="63"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -5618,8 +5616,8 @@
       <c r="AE17" s="38"/>
       <c r="AF17" s="38"/>
       <c r="AG17" s="38"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="55"/>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="45"/>
@@ -5632,29 +5630,29 @@
       <c r="AS17" s="42"/>
       <c r="AT17" s="42"/>
       <c r="AU17" s="42"/>
-      <c r="AV17" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="AW17" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="AX17" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY17" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ17" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA17" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB17" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="BC17" s="56" t="s">
-        <v>165</v>
+      <c r="AV17" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW17" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX17" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY17" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ17" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA17" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="BB17" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC17" s="57" t="s">
+        <v>154</v>
       </c>
       <c r="BD17" s="42"/>
       <c r="BE17" s="42"/>
@@ -5685,7 +5683,7 @@
       <c r="CB17" s="38"/>
       <c r="CC17" s="38"/>
       <c r="CD17" s="38"/>
-      <c r="CE17" s="62"/>
+      <c r="CE17" s="63"/>
       <c r="CF17" s="42"/>
       <c r="CG17" s="42"/>
       <c r="CH17" s="42"/>
@@ -5698,48 +5696,48 @@
       <c r="CO17" s="42"/>
       <c r="CP17" s="45"/>
       <c r="CQ17" s="38"/>
-      <c r="CR17" s="59"/>
-      <c r="CS17" s="51"/>
-      <c r="CT17" s="51"/>
-      <c r="CU17" s="51"/>
-      <c r="CV17" s="51"/>
-      <c r="CW17" s="51"/>
-      <c r="CX17" s="51"/>
-      <c r="CY17" s="51"/>
-      <c r="CZ17" s="51"/>
-      <c r="DA17" s="51"/>
-      <c r="DB17" s="51"/>
-      <c r="DC17" s="51"/>
-      <c r="DD17" s="51"/>
-      <c r="DE17" s="51"/>
-      <c r="DF17" s="51"/>
-      <c r="DG17" s="51"/>
-      <c r="DH17" s="51"/>
-      <c r="DI17" s="51"/>
-      <c r="DJ17" s="51"/>
-      <c r="DK17" s="51"/>
-      <c r="DL17" s="51"/>
-      <c r="DM17" s="51"/>
-      <c r="DN17" s="51"/>
-      <c r="DO17" s="51"/>
-      <c r="DP17" s="51"/>
-      <c r="DQ17" s="51"/>
-      <c r="DR17" s="51"/>
+      <c r="CR17" s="60"/>
+      <c r="CS17" s="52"/>
+      <c r="CT17" s="52"/>
+      <c r="CU17" s="52"/>
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
+      <c r="DA17" s="52"/>
+      <c r="DB17" s="52"/>
+      <c r="DC17" s="52"/>
+      <c r="DD17" s="52"/>
+      <c r="DE17" s="52"/>
+      <c r="DF17" s="52"/>
+      <c r="DG17" s="52"/>
+      <c r="DH17" s="52"/>
+      <c r="DI17" s="52"/>
+      <c r="DJ17" s="52"/>
+      <c r="DK17" s="52"/>
+      <c r="DL17" s="52"/>
+      <c r="DM17" s="52"/>
+      <c r="DN17" s="52"/>
+      <c r="DO17" s="52"/>
+      <c r="DP17" s="52"/>
+      <c r="DQ17" s="52"/>
+      <c r="DR17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="38" t="s">
         <v>212</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="62" t="s">
         <v>103</v>
       </c>
       <c r="H18" s="38"/>
@@ -5753,7 +5751,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
-      <c r="S18" s="62"/>
+      <c r="S18" s="63"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
@@ -5768,8 +5766,8 @@
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="55"/>
       <c r="AJ18" s="38"/>
       <c r="AK18" s="38"/>
       <c r="AL18" s="45"/>
@@ -5782,29 +5780,29 @@
       <c r="AS18" s="42"/>
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
-      <c r="AV18" s="56" t="s">
+      <c r="AV18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW18" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="AW18" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="AX18" s="56" t="s">
+      <c r="AX18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY18" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="AY18" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="AZ18" s="56" t="s">
+      <c r="AZ18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA18" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="BA18" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB18" s="56" t="s">
+      <c r="BB18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC18" s="57" t="s">
         <v>214</v>
-      </c>
-      <c r="BC18" s="56" t="s">
-        <v>215</v>
       </c>
       <c r="BD18" s="42"/>
       <c r="BE18" s="42"/>
@@ -5825,7 +5823,7 @@
       <c r="BT18" s="43"/>
       <c r="BU18" s="42"/>
       <c r="BV18" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BW18" s="38"/>
       <c r="BX18" s="38"/>
@@ -5835,7 +5833,7 @@
       <c r="CB18" s="38"/>
       <c r="CC18" s="38"/>
       <c r="CD18" s="38"/>
-      <c r="CE18" s="62"/>
+      <c r="CE18" s="63"/>
       <c r="CF18" s="42"/>
       <c r="CG18" s="42"/>
       <c r="CH18" s="42"/>
@@ -5848,49 +5846,49 @@
       <c r="CO18" s="42"/>
       <c r="CP18" s="38"/>
       <c r="CQ18" s="38"/>
-      <c r="CR18" s="59"/>
-      <c r="CS18" s="51"/>
-      <c r="CT18" s="51"/>
-      <c r="CU18" s="51"/>
-      <c r="CV18" s="51"/>
-      <c r="CW18" s="51"/>
-      <c r="CX18" s="51"/>
-      <c r="CY18" s="51"/>
-      <c r="CZ18" s="51"/>
-      <c r="DA18" s="51"/>
-      <c r="DB18" s="51"/>
-      <c r="DC18" s="51"/>
-      <c r="DD18" s="51"/>
-      <c r="DE18" s="51"/>
-      <c r="DF18" s="51"/>
-      <c r="DG18" s="51"/>
-      <c r="DH18" s="51"/>
-      <c r="DI18" s="51"/>
-      <c r="DJ18" s="51"/>
-      <c r="DK18" s="51"/>
-      <c r="DL18" s="51"/>
-      <c r="DM18" s="51"/>
-      <c r="DN18" s="51"/>
-      <c r="DO18" s="51"/>
-      <c r="DP18" s="51"/>
-      <c r="DQ18" s="51"/>
-      <c r="DR18" s="51"/>
+      <c r="CR18" s="60"/>
+      <c r="CS18" s="52"/>
+      <c r="CT18" s="52"/>
+      <c r="CU18" s="52"/>
+      <c r="CV18" s="52"/>
+      <c r="CW18" s="52"/>
+      <c r="CX18" s="52"/>
+      <c r="CY18" s="52"/>
+      <c r="CZ18" s="52"/>
+      <c r="DA18" s="52"/>
+      <c r="DB18" s="52"/>
+      <c r="DC18" s="52"/>
+      <c r="DD18" s="52"/>
+      <c r="DE18" s="52"/>
+      <c r="DF18" s="52"/>
+      <c r="DG18" s="52"/>
+      <c r="DH18" s="52"/>
+      <c r="DI18" s="52"/>
+      <c r="DJ18" s="52"/>
+      <c r="DK18" s="52"/>
+      <c r="DL18" s="52"/>
+      <c r="DM18" s="52"/>
+      <c r="DN18" s="52"/>
+      <c r="DO18" s="52"/>
+      <c r="DP18" s="52"/>
+      <c r="DQ18" s="52"/>
+      <c r="DR18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="35"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="60" t="s">
+      <c r="G19" s="62" t="s">
         <v>218</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5903,7 +5901,7 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="62"/>
+      <c r="S19" s="63"/>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -5918,8 +5916,8 @@
       <c r="AE19" s="38"/>
       <c r="AF19" s="38"/>
       <c r="AG19" s="38"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="55"/>
       <c r="AJ19" s="38"/>
       <c r="AK19" s="38"/>
       <c r="AL19" s="45"/>
@@ -5932,29 +5930,29 @@
       <c r="AS19" s="42"/>
       <c r="AT19" s="42"/>
       <c r="AU19" s="42"/>
-      <c r="AV19" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW19" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX19" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="AY19" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ19" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA19" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB19" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC19" s="56" t="s">
-        <v>156</v>
+      <c r="AV19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW19" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY19" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA19" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC19" s="57" t="s">
+        <v>220</v>
       </c>
       <c r="BD19" s="42"/>
       <c r="BE19" s="42"/>
@@ -5975,7 +5973,7 @@
       <c r="BT19" s="43"/>
       <c r="BU19" s="42"/>
       <c r="BV19" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BW19" s="38"/>
       <c r="BX19" s="38"/>
@@ -5985,7 +5983,7 @@
       <c r="CB19" s="38"/>
       <c r="CC19" s="38"/>
       <c r="CD19" s="38"/>
-      <c r="CE19" s="62"/>
+      <c r="CE19" s="63"/>
       <c r="CF19" s="42"/>
       <c r="CG19" s="42"/>
       <c r="CH19" s="42"/>
@@ -5998,49 +5996,49 @@
       <c r="CO19" s="42"/>
       <c r="CP19" s="38"/>
       <c r="CQ19" s="38"/>
-      <c r="CR19" s="59"/>
-      <c r="CS19" s="51"/>
-      <c r="CT19" s="51"/>
-      <c r="CU19" s="51"/>
-      <c r="CV19" s="51"/>
-      <c r="CW19" s="51"/>
-      <c r="CX19" s="51"/>
-      <c r="CY19" s="51"/>
-      <c r="CZ19" s="51"/>
-      <c r="DA19" s="51"/>
-      <c r="DB19" s="51"/>
-      <c r="DC19" s="51"/>
-      <c r="DD19" s="51"/>
-      <c r="DE19" s="51"/>
-      <c r="DF19" s="51"/>
-      <c r="DG19" s="51"/>
-      <c r="DH19" s="51"/>
-      <c r="DI19" s="51"/>
-      <c r="DJ19" s="51"/>
-      <c r="DK19" s="51"/>
-      <c r="DL19" s="51"/>
-      <c r="DM19" s="51"/>
-      <c r="DN19" s="51"/>
-      <c r="DO19" s="51"/>
-      <c r="DP19" s="51"/>
-      <c r="DQ19" s="51"/>
-      <c r="DR19" s="51"/>
+      <c r="CR19" s="60"/>
+      <c r="CS19" s="52"/>
+      <c r="CT19" s="52"/>
+      <c r="CU19" s="52"/>
+      <c r="CV19" s="52"/>
+      <c r="CW19" s="52"/>
+      <c r="CX19" s="52"/>
+      <c r="CY19" s="52"/>
+      <c r="CZ19" s="52"/>
+      <c r="DA19" s="52"/>
+      <c r="DB19" s="52"/>
+      <c r="DC19" s="52"/>
+      <c r="DD19" s="52"/>
+      <c r="DE19" s="52"/>
+      <c r="DF19" s="52"/>
+      <c r="DG19" s="52"/>
+      <c r="DH19" s="52"/>
+      <c r="DI19" s="52"/>
+      <c r="DJ19" s="52"/>
+      <c r="DK19" s="52"/>
+      <c r="DL19" s="52"/>
+      <c r="DM19" s="52"/>
+      <c r="DN19" s="52"/>
+      <c r="DO19" s="52"/>
+      <c r="DP19" s="52"/>
+      <c r="DQ19" s="52"/>
+      <c r="DR19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="F20" s="61" t="s">
         <v>223</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>224</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -6053,7 +6051,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
-      <c r="S20" s="62"/>
+      <c r="S20" s="63"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
@@ -6068,8 +6066,8 @@
       <c r="AE20" s="38"/>
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="55"/>
       <c r="AJ20" s="38"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="45"/>
@@ -6082,30 +6080,14 @@
       <c r="AS20" s="42"/>
       <c r="AT20" s="42"/>
       <c r="AU20" s="42"/>
-      <c r="AV20" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW20" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX20" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY20" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ20" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA20" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB20" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC20" s="56" t="s">
-        <v>224</v>
-      </c>
+      <c r="AV20" s="0"/>
+      <c r="AW20" s="0"/>
+      <c r="AX20" s="0"/>
+      <c r="AY20" s="0"/>
+      <c r="AZ20" s="0"/>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="0"/>
+      <c r="BC20" s="0"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
@@ -6135,7 +6117,7 @@
       <c r="CB20" s="38"/>
       <c r="CC20" s="38"/>
       <c r="CD20" s="38"/>
-      <c r="CE20" s="62"/>
+      <c r="CE20" s="63"/>
       <c r="CF20" s="42"/>
       <c r="CG20" s="42"/>
       <c r="CH20" s="42"/>
@@ -6148,46 +6130,46 @@
       <c r="CO20" s="42"/>
       <c r="CP20" s="38"/>
       <c r="CQ20" s="38"/>
-      <c r="CR20" s="59"/>
-      <c r="CS20" s="51"/>
-      <c r="CT20" s="51"/>
-      <c r="CU20" s="51"/>
-      <c r="CV20" s="51"/>
-      <c r="CW20" s="51"/>
-      <c r="CX20" s="51"/>
-      <c r="CY20" s="51"/>
-      <c r="CZ20" s="51"/>
-      <c r="DA20" s="51"/>
-      <c r="DB20" s="51"/>
-      <c r="DC20" s="51"/>
-      <c r="DD20" s="51"/>
-      <c r="DE20" s="51"/>
-      <c r="DF20" s="51"/>
-      <c r="DG20" s="51"/>
-      <c r="DH20" s="51"/>
-      <c r="DI20" s="51"/>
-      <c r="DJ20" s="51"/>
-      <c r="DK20" s="51"/>
-      <c r="DL20" s="51"/>
-      <c r="DM20" s="51"/>
-      <c r="DN20" s="51"/>
-      <c r="DO20" s="51"/>
-      <c r="DP20" s="51"/>
-      <c r="DQ20" s="51"/>
-      <c r="DR20" s="51"/>
+      <c r="CR20" s="60"/>
+      <c r="CS20" s="52"/>
+      <c r="CT20" s="52"/>
+      <c r="CU20" s="52"/>
+      <c r="CV20" s="52"/>
+      <c r="CW20" s="52"/>
+      <c r="CX20" s="52"/>
+      <c r="CY20" s="52"/>
+      <c r="CZ20" s="52"/>
+      <c r="DA20" s="52"/>
+      <c r="DB20" s="52"/>
+      <c r="DC20" s="52"/>
+      <c r="DD20" s="52"/>
+      <c r="DE20" s="52"/>
+      <c r="DF20" s="52"/>
+      <c r="DG20" s="52"/>
+      <c r="DH20" s="52"/>
+      <c r="DI20" s="52"/>
+      <c r="DJ20" s="52"/>
+      <c r="DK20" s="52"/>
+      <c r="DL20" s="52"/>
+      <c r="DM20" s="52"/>
+      <c r="DN20" s="52"/>
+      <c r="DO20" s="52"/>
+      <c r="DP20" s="52"/>
+      <c r="DQ20" s="52"/>
+      <c r="DR20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="38" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -6199,7 +6181,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
-      <c r="S21" s="62"/>
+      <c r="S21" s="63"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
@@ -6228,30 +6210,14 @@
       <c r="AS21" s="42"/>
       <c r="AT21" s="42"/>
       <c r="AU21" s="42"/>
-      <c r="AV21" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="AW21" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX21" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="AY21" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="AZ21" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="BA21" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB21" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="BC21" s="56" t="s">
-        <v>227</v>
-      </c>
+      <c r="AV21" s="0"/>
+      <c r="AW21" s="0"/>
+      <c r="AX21" s="0"/>
+      <c r="AY21" s="0"/>
+      <c r="AZ21" s="0"/>
+      <c r="BA21" s="0"/>
+      <c r="BB21" s="0"/>
+      <c r="BC21" s="0"/>
       <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
       <c r="BF21" s="42"/>
@@ -6271,7 +6237,7 @@
       <c r="BT21" s="43"/>
       <c r="BU21" s="42"/>
       <c r="BV21" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BW21" s="38"/>
       <c r="BX21" s="38"/>
@@ -6281,7 +6247,7 @@
       <c r="CB21" s="38"/>
       <c r="CC21" s="38"/>
       <c r="CD21" s="38"/>
-      <c r="CE21" s="62"/>
+      <c r="CE21" s="63"/>
       <c r="CF21" s="42"/>
       <c r="CG21" s="42"/>
       <c r="CH21" s="42"/>
@@ -6294,46 +6260,46 @@
       <c r="CO21" s="42"/>
       <c r="CP21" s="45"/>
       <c r="CQ21" s="38"/>
-      <c r="CR21" s="59"/>
-      <c r="CS21" s="51"/>
-      <c r="CT21" s="51"/>
-      <c r="CU21" s="51"/>
-      <c r="CV21" s="51"/>
-      <c r="CW21" s="51"/>
-      <c r="CX21" s="51"/>
-      <c r="CY21" s="51"/>
-      <c r="CZ21" s="51"/>
-      <c r="DA21" s="51"/>
-      <c r="DB21" s="51"/>
-      <c r="DC21" s="51"/>
-      <c r="DD21" s="51"/>
-      <c r="DE21" s="51"/>
-      <c r="DF21" s="51"/>
-      <c r="DG21" s="51"/>
-      <c r="DH21" s="51"/>
-      <c r="DI21" s="51"/>
-      <c r="DJ21" s="51"/>
-      <c r="DK21" s="51"/>
-      <c r="DL21" s="51"/>
-      <c r="DM21" s="51"/>
-      <c r="DN21" s="51"/>
-      <c r="DO21" s="51"/>
-      <c r="DP21" s="51"/>
-      <c r="DQ21" s="51"/>
-      <c r="DR21" s="51"/>
+      <c r="CR21" s="60"/>
+      <c r="CS21" s="52"/>
+      <c r="CT21" s="52"/>
+      <c r="CU21" s="52"/>
+      <c r="CV21" s="52"/>
+      <c r="CW21" s="52"/>
+      <c r="CX21" s="52"/>
+      <c r="CY21" s="52"/>
+      <c r="CZ21" s="52"/>
+      <c r="DA21" s="52"/>
+      <c r="DB21" s="52"/>
+      <c r="DC21" s="52"/>
+      <c r="DD21" s="52"/>
+      <c r="DE21" s="52"/>
+      <c r="DF21" s="52"/>
+      <c r="DG21" s="52"/>
+      <c r="DH21" s="52"/>
+      <c r="DI21" s="52"/>
+      <c r="DJ21" s="52"/>
+      <c r="DK21" s="52"/>
+      <c r="DL21" s="52"/>
+      <c r="DM21" s="52"/>
+      <c r="DN21" s="52"/>
+      <c r="DO21" s="52"/>
+      <c r="DP21" s="52"/>
+      <c r="DQ21" s="52"/>
+      <c r="DR21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
+        <v>228</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -6345,7 +6311,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="42"/>
-      <c r="S22" s="62"/>
+      <c r="S22" s="63"/>
       <c r="T22" s="42"/>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
@@ -6360,8 +6326,8 @@
       <c r="AE22" s="38"/>
       <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="55"/>
       <c r="AJ22" s="38"/>
       <c r="AK22" s="38"/>
       <c r="AL22" s="38"/>
@@ -6374,8 +6340,8 @@
       <c r="AS22" s="42"/>
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
-      <c r="AV22" s="0"/>
-      <c r="AW22" s="0"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
       <c r="AX22" s="42"/>
       <c r="AY22" s="42"/>
       <c r="AZ22" s="42"/>
@@ -6401,7 +6367,7 @@
       <c r="BT22" s="43"/>
       <c r="BU22" s="42"/>
       <c r="BV22" s="38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="BW22" s="38"/>
       <c r="BX22" s="38"/>
@@ -6411,7 +6377,7 @@
       <c r="CB22" s="38"/>
       <c r="CC22" s="38"/>
       <c r="CD22" s="38"/>
-      <c r="CE22" s="62"/>
+      <c r="CE22" s="63"/>
       <c r="CF22" s="42"/>
       <c r="CG22" s="42"/>
       <c r="CH22" s="42"/>
@@ -6424,46 +6390,46 @@
       <c r="CO22" s="42"/>
       <c r="CP22" s="45"/>
       <c r="CQ22" s="38"/>
-      <c r="CR22" s="59"/>
-      <c r="CS22" s="51"/>
-      <c r="CT22" s="51"/>
-      <c r="CU22" s="51"/>
-      <c r="CV22" s="51"/>
-      <c r="CW22" s="51"/>
-      <c r="CX22" s="51"/>
-      <c r="CY22" s="51"/>
-      <c r="CZ22" s="51"/>
-      <c r="DA22" s="51"/>
-      <c r="DB22" s="51"/>
-      <c r="DC22" s="51"/>
-      <c r="DD22" s="51"/>
-      <c r="DE22" s="51"/>
-      <c r="DF22" s="51"/>
-      <c r="DG22" s="51"/>
-      <c r="DH22" s="51"/>
-      <c r="DI22" s="51"/>
-      <c r="DJ22" s="51"/>
-      <c r="DK22" s="51"/>
-      <c r="DL22" s="51"/>
-      <c r="DM22" s="51"/>
-      <c r="DN22" s="51"/>
-      <c r="DO22" s="51"/>
-      <c r="DP22" s="51"/>
-      <c r="DQ22" s="51"/>
-      <c r="DR22" s="51"/>
+      <c r="CR22" s="60"/>
+      <c r="CS22" s="52"/>
+      <c r="CT22" s="52"/>
+      <c r="CU22" s="52"/>
+      <c r="CV22" s="52"/>
+      <c r="CW22" s="52"/>
+      <c r="CX22" s="52"/>
+      <c r="CY22" s="52"/>
+      <c r="CZ22" s="52"/>
+      <c r="DA22" s="52"/>
+      <c r="DB22" s="52"/>
+      <c r="DC22" s="52"/>
+      <c r="DD22" s="52"/>
+      <c r="DE22" s="52"/>
+      <c r="DF22" s="52"/>
+      <c r="DG22" s="52"/>
+      <c r="DH22" s="52"/>
+      <c r="DI22" s="52"/>
+      <c r="DJ22" s="52"/>
+      <c r="DK22" s="52"/>
+      <c r="DL22" s="52"/>
+      <c r="DM22" s="52"/>
+      <c r="DN22" s="52"/>
+      <c r="DO22" s="52"/>
+      <c r="DP22" s="52"/>
+      <c r="DQ22" s="52"/>
+      <c r="DR22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
+        <v>229</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -6475,7 +6441,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
-      <c r="S23" s="62"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="42"/>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
@@ -6490,8 +6456,8 @@
       <c r="AE23" s="38"/>
       <c r="AF23" s="38"/>
       <c r="AG23" s="38"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="55"/>
       <c r="AJ23" s="38"/>
       <c r="AK23" s="38"/>
       <c r="AL23" s="38"/>
@@ -6504,8 +6470,8 @@
       <c r="AS23" s="42"/>
       <c r="AT23" s="42"/>
       <c r="AU23" s="42"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="0"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="48"/>
       <c r="AX23" s="42"/>
       <c r="AY23" s="42"/>
       <c r="AZ23" s="42"/>
@@ -6531,7 +6497,7 @@
       <c r="BT23" s="43"/>
       <c r="BU23" s="42"/>
       <c r="BV23" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BW23" s="38"/>
       <c r="BX23" s="38"/>
@@ -6541,7 +6507,7 @@
       <c r="CB23" s="38"/>
       <c r="CC23" s="38"/>
       <c r="CD23" s="38"/>
-      <c r="CE23" s="62"/>
+      <c r="CE23" s="63"/>
       <c r="CF23" s="42"/>
       <c r="CG23" s="42"/>
       <c r="CH23" s="42"/>
@@ -6554,46 +6520,46 @@
       <c r="CO23" s="42"/>
       <c r="CP23" s="45"/>
       <c r="CQ23" s="38"/>
-      <c r="CR23" s="59"/>
-      <c r="CS23" s="51"/>
-      <c r="CT23" s="51"/>
-      <c r="CU23" s="51"/>
-      <c r="CV23" s="51"/>
-      <c r="CW23" s="51"/>
-      <c r="CX23" s="51"/>
-      <c r="CY23" s="51"/>
-      <c r="CZ23" s="51"/>
-      <c r="DA23" s="51"/>
-      <c r="DB23" s="51"/>
-      <c r="DC23" s="51"/>
-      <c r="DD23" s="51"/>
-      <c r="DE23" s="51"/>
-      <c r="DF23" s="51"/>
-      <c r="DG23" s="51"/>
-      <c r="DH23" s="51"/>
-      <c r="DI23" s="51"/>
-      <c r="DJ23" s="51"/>
-      <c r="DK23" s="51"/>
-      <c r="DL23" s="51"/>
-      <c r="DM23" s="51"/>
-      <c r="DN23" s="51"/>
-      <c r="DO23" s="51"/>
-      <c r="DP23" s="51"/>
-      <c r="DQ23" s="51"/>
-      <c r="DR23" s="51"/>
+      <c r="CR23" s="60"/>
+      <c r="CS23" s="52"/>
+      <c r="CT23" s="52"/>
+      <c r="CU23" s="52"/>
+      <c r="CV23" s="52"/>
+      <c r="CW23" s="52"/>
+      <c r="CX23" s="52"/>
+      <c r="CY23" s="52"/>
+      <c r="CZ23" s="52"/>
+      <c r="DA23" s="52"/>
+      <c r="DB23" s="52"/>
+      <c r="DC23" s="52"/>
+      <c r="DD23" s="52"/>
+      <c r="DE23" s="52"/>
+      <c r="DF23" s="52"/>
+      <c r="DG23" s="52"/>
+      <c r="DH23" s="52"/>
+      <c r="DI23" s="52"/>
+      <c r="DJ23" s="52"/>
+      <c r="DK23" s="52"/>
+      <c r="DL23" s="52"/>
+      <c r="DM23" s="52"/>
+      <c r="DN23" s="52"/>
+      <c r="DO23" s="52"/>
+      <c r="DP23" s="52"/>
+      <c r="DQ23" s="52"/>
+      <c r="DR23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="35"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+        <v>231</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -6605,7 +6571,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
-      <c r="S24" s="62"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
@@ -6620,8 +6586,8 @@
       <c r="AE24" s="38"/>
       <c r="AF24" s="38"/>
       <c r="AG24" s="38"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="55"/>
       <c r="AJ24" s="38"/>
       <c r="AK24" s="38"/>
       <c r="AL24" s="38"/>
@@ -6661,7 +6627,7 @@
       <c r="BT24" s="43"/>
       <c r="BU24" s="42"/>
       <c r="BV24" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BW24" s="38"/>
       <c r="BX24" s="38"/>
@@ -6671,7 +6637,7 @@
       <c r="CB24" s="38"/>
       <c r="CC24" s="38"/>
       <c r="CD24" s="38"/>
-      <c r="CE24" s="62"/>
+      <c r="CE24" s="63"/>
       <c r="CF24" s="42"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="42"/>
@@ -6684,46 +6650,46 @@
       <c r="CO24" s="42"/>
       <c r="CP24" s="38"/>
       <c r="CQ24" s="38"/>
-      <c r="CR24" s="59"/>
-      <c r="CS24" s="51"/>
-      <c r="CT24" s="51"/>
-      <c r="CU24" s="51"/>
-      <c r="CV24" s="51"/>
-      <c r="CW24" s="51"/>
-      <c r="CX24" s="51"/>
-      <c r="CY24" s="51"/>
-      <c r="CZ24" s="51"/>
-      <c r="DA24" s="51"/>
-      <c r="DB24" s="51"/>
-      <c r="DC24" s="51"/>
-      <c r="DD24" s="51"/>
-      <c r="DE24" s="51"/>
-      <c r="DF24" s="51"/>
-      <c r="DG24" s="51"/>
-      <c r="DH24" s="51"/>
-      <c r="DI24" s="51"/>
-      <c r="DJ24" s="51"/>
-      <c r="DK24" s="51"/>
-      <c r="DL24" s="51"/>
-      <c r="DM24" s="51"/>
-      <c r="DN24" s="51"/>
-      <c r="DO24" s="51"/>
-      <c r="DP24" s="51"/>
-      <c r="DQ24" s="51"/>
-      <c r="DR24" s="51"/>
+      <c r="CR24" s="60"/>
+      <c r="CS24" s="52"/>
+      <c r="CT24" s="52"/>
+      <c r="CU24" s="52"/>
+      <c r="CV24" s="52"/>
+      <c r="CW24" s="52"/>
+      <c r="CX24" s="52"/>
+      <c r="CY24" s="52"/>
+      <c r="CZ24" s="52"/>
+      <c r="DA24" s="52"/>
+      <c r="DB24" s="52"/>
+      <c r="DC24" s="52"/>
+      <c r="DD24" s="52"/>
+      <c r="DE24" s="52"/>
+      <c r="DF24" s="52"/>
+      <c r="DG24" s="52"/>
+      <c r="DH24" s="52"/>
+      <c r="DI24" s="52"/>
+      <c r="DJ24" s="52"/>
+      <c r="DK24" s="52"/>
+      <c r="DL24" s="52"/>
+      <c r="DM24" s="52"/>
+      <c r="DN24" s="52"/>
+      <c r="DO24" s="52"/>
+      <c r="DP24" s="52"/>
+      <c r="DQ24" s="52"/>
+      <c r="DR24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
+        <v>234</v>
+      </c>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -6735,7 +6701,7 @@
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
-      <c r="S25" s="62"/>
+      <c r="S25" s="63"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
@@ -6799,7 +6765,7 @@
       <c r="CB25" s="38"/>
       <c r="CC25" s="38"/>
       <c r="CD25" s="38"/>
-      <c r="CE25" s="62"/>
+      <c r="CE25" s="63"/>
       <c r="CF25" s="42"/>
       <c r="CG25" s="42"/>
       <c r="CH25" s="42"/>
@@ -6812,46 +6778,46 @@
       <c r="CO25" s="42"/>
       <c r="CP25" s="38"/>
       <c r="CQ25" s="38"/>
-      <c r="CR25" s="59"/>
-      <c r="CS25" s="51"/>
-      <c r="CT25" s="51"/>
-      <c r="CU25" s="51"/>
-      <c r="CV25" s="51"/>
-      <c r="CW25" s="51"/>
-      <c r="CX25" s="51"/>
-      <c r="CY25" s="51"/>
-      <c r="CZ25" s="51"/>
-      <c r="DA25" s="51"/>
-      <c r="DB25" s="51"/>
-      <c r="DC25" s="51"/>
-      <c r="DD25" s="51"/>
-      <c r="DE25" s="51"/>
-      <c r="DF25" s="51"/>
-      <c r="DG25" s="51"/>
-      <c r="DH25" s="51"/>
-      <c r="DI25" s="51"/>
-      <c r="DJ25" s="51"/>
-      <c r="DK25" s="51"/>
-      <c r="DL25" s="51"/>
-      <c r="DM25" s="51"/>
-      <c r="DN25" s="51"/>
-      <c r="DO25" s="51"/>
-      <c r="DP25" s="51"/>
-      <c r="DQ25" s="51"/>
-      <c r="DR25" s="51"/>
+      <c r="CR25" s="60"/>
+      <c r="CS25" s="52"/>
+      <c r="CT25" s="52"/>
+      <c r="CU25" s="52"/>
+      <c r="CV25" s="52"/>
+      <c r="CW25" s="52"/>
+      <c r="CX25" s="52"/>
+      <c r="CY25" s="52"/>
+      <c r="CZ25" s="52"/>
+      <c r="DA25" s="52"/>
+      <c r="DB25" s="52"/>
+      <c r="DC25" s="52"/>
+      <c r="DD25" s="52"/>
+      <c r="DE25" s="52"/>
+      <c r="DF25" s="52"/>
+      <c r="DG25" s="52"/>
+      <c r="DH25" s="52"/>
+      <c r="DI25" s="52"/>
+      <c r="DJ25" s="52"/>
+      <c r="DK25" s="52"/>
+      <c r="DL25" s="52"/>
+      <c r="DM25" s="52"/>
+      <c r="DN25" s="52"/>
+      <c r="DO25" s="52"/>
+      <c r="DP25" s="52"/>
+      <c r="DQ25" s="52"/>
+      <c r="DR25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
+        <v>161</v>
+      </c>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -6863,7 +6829,7 @@
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
-      <c r="S26" s="62"/>
+      <c r="S26" s="63"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
       <c r="V26" s="42"/>
@@ -6927,7 +6893,7 @@
       <c r="CB26" s="38"/>
       <c r="CC26" s="38"/>
       <c r="CD26" s="38"/>
-      <c r="CE26" s="62"/>
+      <c r="CE26" s="63"/>
       <c r="CF26" s="42"/>
       <c r="CG26" s="42"/>
       <c r="CH26" s="42"/>
@@ -6940,46 +6906,46 @@
       <c r="CO26" s="42"/>
       <c r="CP26" s="38"/>
       <c r="CQ26" s="38"/>
-      <c r="CR26" s="59"/>
-      <c r="CS26" s="51"/>
-      <c r="CT26" s="51"/>
-      <c r="CU26" s="51"/>
-      <c r="CV26" s="51"/>
-      <c r="CW26" s="51"/>
-      <c r="CX26" s="51"/>
-      <c r="CY26" s="51"/>
-      <c r="CZ26" s="51"/>
-      <c r="DA26" s="51"/>
-      <c r="DB26" s="51"/>
-      <c r="DC26" s="51"/>
-      <c r="DD26" s="51"/>
-      <c r="DE26" s="51"/>
-      <c r="DF26" s="51"/>
-      <c r="DG26" s="51"/>
-      <c r="DH26" s="51"/>
-      <c r="DI26" s="51"/>
-      <c r="DJ26" s="51"/>
-      <c r="DK26" s="51"/>
-      <c r="DL26" s="51"/>
-      <c r="DM26" s="51"/>
-      <c r="DN26" s="51"/>
-      <c r="DO26" s="51"/>
-      <c r="DP26" s="51"/>
-      <c r="DQ26" s="51"/>
-      <c r="DR26" s="51"/>
+      <c r="CR26" s="60"/>
+      <c r="CS26" s="52"/>
+      <c r="CT26" s="52"/>
+      <c r="CU26" s="52"/>
+      <c r="CV26" s="52"/>
+      <c r="CW26" s="52"/>
+      <c r="CX26" s="52"/>
+      <c r="CY26" s="52"/>
+      <c r="CZ26" s="52"/>
+      <c r="DA26" s="52"/>
+      <c r="DB26" s="52"/>
+      <c r="DC26" s="52"/>
+      <c r="DD26" s="52"/>
+      <c r="DE26" s="52"/>
+      <c r="DF26" s="52"/>
+      <c r="DG26" s="52"/>
+      <c r="DH26" s="52"/>
+      <c r="DI26" s="52"/>
+      <c r="DJ26" s="52"/>
+      <c r="DK26" s="52"/>
+      <c r="DL26" s="52"/>
+      <c r="DM26" s="52"/>
+      <c r="DN26" s="52"/>
+      <c r="DO26" s="52"/>
+      <c r="DP26" s="52"/>
+      <c r="DQ26" s="52"/>
+      <c r="DR26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -6991,7 +6957,7 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
-      <c r="S27" s="62"/>
+      <c r="S27" s="63"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -7055,7 +7021,7 @@
       <c r="CB27" s="38"/>
       <c r="CC27" s="38"/>
       <c r="CD27" s="38"/>
-      <c r="CE27" s="62"/>
+      <c r="CE27" s="63"/>
       <c r="CF27" s="42"/>
       <c r="CG27" s="42"/>
       <c r="CH27" s="42"/>
@@ -7068,46 +7034,46 @@
       <c r="CO27" s="42"/>
       <c r="CP27" s="38"/>
       <c r="CQ27" s="38"/>
-      <c r="CR27" s="59"/>
-      <c r="CS27" s="51"/>
-      <c r="CT27" s="51"/>
-      <c r="CU27" s="51"/>
-      <c r="CV27" s="51"/>
-      <c r="CW27" s="51"/>
-      <c r="CX27" s="51"/>
-      <c r="CY27" s="51"/>
-      <c r="CZ27" s="51"/>
-      <c r="DA27" s="51"/>
-      <c r="DB27" s="51"/>
-      <c r="DC27" s="51"/>
-      <c r="DD27" s="51"/>
-      <c r="DE27" s="51"/>
-      <c r="DF27" s="51"/>
-      <c r="DG27" s="51"/>
-      <c r="DH27" s="51"/>
-      <c r="DI27" s="51"/>
-      <c r="DJ27" s="51"/>
-      <c r="DK27" s="51"/>
-      <c r="DL27" s="51"/>
-      <c r="DM27" s="51"/>
-      <c r="DN27" s="51"/>
-      <c r="DO27" s="51"/>
-      <c r="DP27" s="51"/>
-      <c r="DQ27" s="51"/>
-      <c r="DR27" s="51"/>
+      <c r="CR27" s="60"/>
+      <c r="CS27" s="52"/>
+      <c r="CT27" s="52"/>
+      <c r="CU27" s="52"/>
+      <c r="CV27" s="52"/>
+      <c r="CW27" s="52"/>
+      <c r="CX27" s="52"/>
+      <c r="CY27" s="52"/>
+      <c r="CZ27" s="52"/>
+      <c r="DA27" s="52"/>
+      <c r="DB27" s="52"/>
+      <c r="DC27" s="52"/>
+      <c r="DD27" s="52"/>
+      <c r="DE27" s="52"/>
+      <c r="DF27" s="52"/>
+      <c r="DG27" s="52"/>
+      <c r="DH27" s="52"/>
+      <c r="DI27" s="52"/>
+      <c r="DJ27" s="52"/>
+      <c r="DK27" s="52"/>
+      <c r="DL27" s="52"/>
+      <c r="DM27" s="52"/>
+      <c r="DN27" s="52"/>
+      <c r="DO27" s="52"/>
+      <c r="DP27" s="52"/>
+      <c r="DQ27" s="52"/>
+      <c r="DR27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="42" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
+        <v>159</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -7119,7 +7085,7 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
-      <c r="S28" s="62"/>
+      <c r="S28" s="63"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
@@ -7183,7 +7149,7 @@
       <c r="CB28" s="38"/>
       <c r="CC28" s="38"/>
       <c r="CD28" s="38"/>
-      <c r="CE28" s="62"/>
+      <c r="CE28" s="63"/>
       <c r="CF28" s="42"/>
       <c r="CG28" s="42"/>
       <c r="CH28" s="42"/>
@@ -7196,46 +7162,46 @@
       <c r="CO28" s="42"/>
       <c r="CP28" s="38"/>
       <c r="CQ28" s="38"/>
-      <c r="CR28" s="59"/>
-      <c r="CS28" s="51"/>
-      <c r="CT28" s="51"/>
-      <c r="CU28" s="51"/>
-      <c r="CV28" s="51"/>
-      <c r="CW28" s="51"/>
-      <c r="CX28" s="51"/>
-      <c r="CY28" s="51"/>
-      <c r="CZ28" s="51"/>
-      <c r="DA28" s="51"/>
-      <c r="DB28" s="51"/>
-      <c r="DC28" s="51"/>
-      <c r="DD28" s="51"/>
-      <c r="DE28" s="51"/>
-      <c r="DF28" s="51"/>
-      <c r="DG28" s="51"/>
-      <c r="DH28" s="51"/>
-      <c r="DI28" s="51"/>
-      <c r="DJ28" s="51"/>
-      <c r="DK28" s="51"/>
-      <c r="DL28" s="51"/>
-      <c r="DM28" s="51"/>
-      <c r="DN28" s="51"/>
-      <c r="DO28" s="51"/>
-      <c r="DP28" s="51"/>
-      <c r="DQ28" s="51"/>
-      <c r="DR28" s="51"/>
+      <c r="CR28" s="60"/>
+      <c r="CS28" s="52"/>
+      <c r="CT28" s="52"/>
+      <c r="CU28" s="52"/>
+      <c r="CV28" s="52"/>
+      <c r="CW28" s="52"/>
+      <c r="CX28" s="52"/>
+      <c r="CY28" s="52"/>
+      <c r="CZ28" s="52"/>
+      <c r="DA28" s="52"/>
+      <c r="DB28" s="52"/>
+      <c r="DC28" s="52"/>
+      <c r="DD28" s="52"/>
+      <c r="DE28" s="52"/>
+      <c r="DF28" s="52"/>
+      <c r="DG28" s="52"/>
+      <c r="DH28" s="52"/>
+      <c r="DI28" s="52"/>
+      <c r="DJ28" s="52"/>
+      <c r="DK28" s="52"/>
+      <c r="DL28" s="52"/>
+      <c r="DM28" s="52"/>
+      <c r="DN28" s="52"/>
+      <c r="DO28" s="52"/>
+      <c r="DP28" s="52"/>
+      <c r="DQ28" s="52"/>
+      <c r="DR28" s="52"/>
     </row>
     <row r="29" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
+        <v>238</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
@@ -7247,7 +7213,7 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
-      <c r="S29" s="62"/>
+      <c r="S29" s="63"/>
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
@@ -7311,7 +7277,7 @@
       <c r="CB29" s="38"/>
       <c r="CC29" s="38"/>
       <c r="CD29" s="38"/>
-      <c r="CE29" s="62"/>
+      <c r="CE29" s="63"/>
       <c r="CF29" s="42"/>
       <c r="CG29" s="42"/>
       <c r="CH29" s="42"/>
@@ -7324,46 +7290,46 @@
       <c r="CO29" s="42"/>
       <c r="CP29" s="38"/>
       <c r="CQ29" s="38"/>
-      <c r="CR29" s="59"/>
-      <c r="CS29" s="51"/>
-      <c r="CT29" s="51"/>
-      <c r="CU29" s="51"/>
-      <c r="CV29" s="51"/>
-      <c r="CW29" s="51"/>
-      <c r="CX29" s="51"/>
-      <c r="CY29" s="51"/>
-      <c r="CZ29" s="51"/>
-      <c r="DA29" s="51"/>
-      <c r="DB29" s="51"/>
-      <c r="DC29" s="51"/>
-      <c r="DD29" s="51"/>
-      <c r="DE29" s="51"/>
-      <c r="DF29" s="51"/>
-      <c r="DG29" s="51"/>
-      <c r="DH29" s="51"/>
-      <c r="DI29" s="51"/>
-      <c r="DJ29" s="51"/>
-      <c r="DK29" s="51"/>
-      <c r="DL29" s="51"/>
-      <c r="DM29" s="51"/>
-      <c r="DN29" s="51"/>
-      <c r="DO29" s="51"/>
-      <c r="DP29" s="51"/>
-      <c r="DQ29" s="51"/>
-      <c r="DR29" s="51"/>
+      <c r="CR29" s="60"/>
+      <c r="CS29" s="52"/>
+      <c r="CT29" s="52"/>
+      <c r="CU29" s="52"/>
+      <c r="CV29" s="52"/>
+      <c r="CW29" s="52"/>
+      <c r="CX29" s="52"/>
+      <c r="CY29" s="52"/>
+      <c r="CZ29" s="52"/>
+      <c r="DA29" s="52"/>
+      <c r="DB29" s="52"/>
+      <c r="DC29" s="52"/>
+      <c r="DD29" s="52"/>
+      <c r="DE29" s="52"/>
+      <c r="DF29" s="52"/>
+      <c r="DG29" s="52"/>
+      <c r="DH29" s="52"/>
+      <c r="DI29" s="52"/>
+      <c r="DJ29" s="52"/>
+      <c r="DK29" s="52"/>
+      <c r="DL29" s="52"/>
+      <c r="DM29" s="52"/>
+      <c r="DN29" s="52"/>
+      <c r="DO29" s="52"/>
+      <c r="DP29" s="52"/>
+      <c r="DQ29" s="52"/>
+      <c r="DR29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="35"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
+        <v>239</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -7375,7 +7341,7 @@
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
-      <c r="S30" s="62"/>
+      <c r="S30" s="63"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
@@ -7439,7 +7405,7 @@
       <c r="CB30" s="38"/>
       <c r="CC30" s="38"/>
       <c r="CD30" s="38"/>
-      <c r="CE30" s="62"/>
+      <c r="CE30" s="63"/>
       <c r="CF30" s="42"/>
       <c r="CG30" s="42"/>
       <c r="CH30" s="42"/>
@@ -7452,46 +7418,46 @@
       <c r="CO30" s="42"/>
       <c r="CP30" s="38"/>
       <c r="CQ30" s="38"/>
-      <c r="CR30" s="59"/>
-      <c r="CS30" s="51"/>
-      <c r="CT30" s="51"/>
-      <c r="CU30" s="51"/>
-      <c r="CV30" s="51"/>
-      <c r="CW30" s="51"/>
-      <c r="CX30" s="51"/>
-      <c r="CY30" s="51"/>
-      <c r="CZ30" s="51"/>
-      <c r="DA30" s="51"/>
-      <c r="DB30" s="51"/>
-      <c r="DC30" s="51"/>
-      <c r="DD30" s="51"/>
-      <c r="DE30" s="51"/>
-      <c r="DF30" s="51"/>
-      <c r="DG30" s="51"/>
-      <c r="DH30" s="51"/>
-      <c r="DI30" s="51"/>
-      <c r="DJ30" s="51"/>
-      <c r="DK30" s="51"/>
-      <c r="DL30" s="51"/>
-      <c r="DM30" s="51"/>
-      <c r="DN30" s="51"/>
-      <c r="DO30" s="51"/>
-      <c r="DP30" s="51"/>
-      <c r="DQ30" s="51"/>
-      <c r="DR30" s="51"/>
+      <c r="CR30" s="60"/>
+      <c r="CS30" s="52"/>
+      <c r="CT30" s="52"/>
+      <c r="CU30" s="52"/>
+      <c r="CV30" s="52"/>
+      <c r="CW30" s="52"/>
+      <c r="CX30" s="52"/>
+      <c r="CY30" s="52"/>
+      <c r="CZ30" s="52"/>
+      <c r="DA30" s="52"/>
+      <c r="DB30" s="52"/>
+      <c r="DC30" s="52"/>
+      <c r="DD30" s="52"/>
+      <c r="DE30" s="52"/>
+      <c r="DF30" s="52"/>
+      <c r="DG30" s="52"/>
+      <c r="DH30" s="52"/>
+      <c r="DI30" s="52"/>
+      <c r="DJ30" s="52"/>
+      <c r="DK30" s="52"/>
+      <c r="DL30" s="52"/>
+      <c r="DM30" s="52"/>
+      <c r="DN30" s="52"/>
+      <c r="DO30" s="52"/>
+      <c r="DP30" s="52"/>
+      <c r="DQ30" s="52"/>
+      <c r="DR30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="38" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
@@ -7503,7 +7469,7 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
-      <c r="S31" s="62"/>
+      <c r="S31" s="63"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
@@ -7567,7 +7533,7 @@
       <c r="CB31" s="38"/>
       <c r="CC31" s="38"/>
       <c r="CD31" s="38"/>
-      <c r="CE31" s="62"/>
+      <c r="CE31" s="63"/>
       <c r="CF31" s="42"/>
       <c r="CG31" s="42"/>
       <c r="CH31" s="42"/>
@@ -7580,46 +7546,46 @@
       <c r="CO31" s="42"/>
       <c r="CP31" s="38"/>
       <c r="CQ31" s="38"/>
-      <c r="CR31" s="59"/>
-      <c r="CS31" s="51"/>
-      <c r="CT31" s="51"/>
-      <c r="CU31" s="51"/>
-      <c r="CV31" s="51"/>
-      <c r="CW31" s="51"/>
-      <c r="CX31" s="51"/>
-      <c r="CY31" s="51"/>
-      <c r="CZ31" s="51"/>
-      <c r="DA31" s="51"/>
-      <c r="DB31" s="51"/>
-      <c r="DC31" s="51"/>
-      <c r="DD31" s="51"/>
-      <c r="DE31" s="51"/>
-      <c r="DF31" s="51"/>
-      <c r="DG31" s="51"/>
-      <c r="DH31" s="51"/>
-      <c r="DI31" s="51"/>
-      <c r="DJ31" s="51"/>
-      <c r="DK31" s="51"/>
-      <c r="DL31" s="51"/>
-      <c r="DM31" s="51"/>
-      <c r="DN31" s="51"/>
-      <c r="DO31" s="51"/>
-      <c r="DP31" s="51"/>
-      <c r="DQ31" s="51"/>
-      <c r="DR31" s="51"/>
+      <c r="CR31" s="60"/>
+      <c r="CS31" s="52"/>
+      <c r="CT31" s="52"/>
+      <c r="CU31" s="52"/>
+      <c r="CV31" s="52"/>
+      <c r="CW31" s="52"/>
+      <c r="CX31" s="52"/>
+      <c r="CY31" s="52"/>
+      <c r="CZ31" s="52"/>
+      <c r="DA31" s="52"/>
+      <c r="DB31" s="52"/>
+      <c r="DC31" s="52"/>
+      <c r="DD31" s="52"/>
+      <c r="DE31" s="52"/>
+      <c r="DF31" s="52"/>
+      <c r="DG31" s="52"/>
+      <c r="DH31" s="52"/>
+      <c r="DI31" s="52"/>
+      <c r="DJ31" s="52"/>
+      <c r="DK31" s="52"/>
+      <c r="DL31" s="52"/>
+      <c r="DM31" s="52"/>
+      <c r="DN31" s="52"/>
+      <c r="DO31" s="52"/>
+      <c r="DP31" s="52"/>
+      <c r="DQ31" s="52"/>
+      <c r="DR31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
+        <v>168</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
@@ -7631,7 +7597,7 @@
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
-      <c r="S32" s="62"/>
+      <c r="S32" s="63"/>
       <c r="T32" s="42"/>
       <c r="U32" s="42"/>
       <c r="V32" s="42"/>
@@ -7695,7 +7661,7 @@
       <c r="CB32" s="38"/>
       <c r="CC32" s="38"/>
       <c r="CD32" s="38"/>
-      <c r="CE32" s="62"/>
+      <c r="CE32" s="63"/>
       <c r="CF32" s="42"/>
       <c r="CG32" s="42"/>
       <c r="CH32" s="42"/>
@@ -7708,46 +7674,46 @@
       <c r="CO32" s="42"/>
       <c r="CP32" s="38"/>
       <c r="CQ32" s="38"/>
-      <c r="CR32" s="59"/>
-      <c r="CS32" s="51"/>
-      <c r="CT32" s="51"/>
-      <c r="CU32" s="51"/>
-      <c r="CV32" s="51"/>
-      <c r="CW32" s="51"/>
-      <c r="CX32" s="51"/>
-      <c r="CY32" s="51"/>
-      <c r="CZ32" s="51"/>
-      <c r="DA32" s="51"/>
-      <c r="DB32" s="51"/>
-      <c r="DC32" s="51"/>
-      <c r="DD32" s="51"/>
-      <c r="DE32" s="51"/>
-      <c r="DF32" s="51"/>
-      <c r="DG32" s="51"/>
-      <c r="DH32" s="51"/>
-      <c r="DI32" s="51"/>
-      <c r="DJ32" s="51"/>
-      <c r="DK32" s="51"/>
-      <c r="DL32" s="51"/>
-      <c r="DM32" s="51"/>
-      <c r="DN32" s="51"/>
-      <c r="DO32" s="51"/>
-      <c r="DP32" s="51"/>
-      <c r="DQ32" s="51"/>
-      <c r="DR32" s="51"/>
+      <c r="CR32" s="60"/>
+      <c r="CS32" s="52"/>
+      <c r="CT32" s="52"/>
+      <c r="CU32" s="52"/>
+      <c r="CV32" s="52"/>
+      <c r="CW32" s="52"/>
+      <c r="CX32" s="52"/>
+      <c r="CY32" s="52"/>
+      <c r="CZ32" s="52"/>
+      <c r="DA32" s="52"/>
+      <c r="DB32" s="52"/>
+      <c r="DC32" s="52"/>
+      <c r="DD32" s="52"/>
+      <c r="DE32" s="52"/>
+      <c r="DF32" s="52"/>
+      <c r="DG32" s="52"/>
+      <c r="DH32" s="52"/>
+      <c r="DI32" s="52"/>
+      <c r="DJ32" s="52"/>
+      <c r="DK32" s="52"/>
+      <c r="DL32" s="52"/>
+      <c r="DM32" s="52"/>
+      <c r="DN32" s="52"/>
+      <c r="DO32" s="52"/>
+      <c r="DP32" s="52"/>
+      <c r="DQ32" s="52"/>
+      <c r="DR32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
+        <v>187</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
@@ -7759,7 +7725,7 @@
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="62"/>
+      <c r="S33" s="63"/>
       <c r="T33" s="42"/>
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
@@ -7823,7 +7789,7 @@
       <c r="CB33" s="38"/>
       <c r="CC33" s="38"/>
       <c r="CD33" s="38"/>
-      <c r="CE33" s="62"/>
+      <c r="CE33" s="63"/>
       <c r="CF33" s="42"/>
       <c r="CG33" s="42"/>
       <c r="CH33" s="42"/>
@@ -7836,46 +7802,46 @@
       <c r="CO33" s="42"/>
       <c r="CP33" s="38"/>
       <c r="CQ33" s="38"/>
-      <c r="CR33" s="59"/>
-      <c r="CS33" s="51"/>
-      <c r="CT33" s="51"/>
-      <c r="CU33" s="51"/>
-      <c r="CV33" s="51"/>
-      <c r="CW33" s="51"/>
-      <c r="CX33" s="51"/>
-      <c r="CY33" s="51"/>
-      <c r="CZ33" s="51"/>
-      <c r="DA33" s="51"/>
-      <c r="DB33" s="51"/>
-      <c r="DC33" s="51"/>
-      <c r="DD33" s="51"/>
-      <c r="DE33" s="51"/>
-      <c r="DF33" s="51"/>
-      <c r="DG33" s="51"/>
-      <c r="DH33" s="51"/>
-      <c r="DI33" s="51"/>
-      <c r="DJ33" s="51"/>
-      <c r="DK33" s="51"/>
-      <c r="DL33" s="51"/>
-      <c r="DM33" s="51"/>
-      <c r="DN33" s="51"/>
-      <c r="DO33" s="51"/>
-      <c r="DP33" s="51"/>
-      <c r="DQ33" s="51"/>
-      <c r="DR33" s="51"/>
+      <c r="CR33" s="60"/>
+      <c r="CS33" s="52"/>
+      <c r="CT33" s="52"/>
+      <c r="CU33" s="52"/>
+      <c r="CV33" s="52"/>
+      <c r="CW33" s="52"/>
+      <c r="CX33" s="52"/>
+      <c r="CY33" s="52"/>
+      <c r="CZ33" s="52"/>
+      <c r="DA33" s="52"/>
+      <c r="DB33" s="52"/>
+      <c r="DC33" s="52"/>
+      <c r="DD33" s="52"/>
+      <c r="DE33" s="52"/>
+      <c r="DF33" s="52"/>
+      <c r="DG33" s="52"/>
+      <c r="DH33" s="52"/>
+      <c r="DI33" s="52"/>
+      <c r="DJ33" s="52"/>
+      <c r="DK33" s="52"/>
+      <c r="DL33" s="52"/>
+      <c r="DM33" s="52"/>
+      <c r="DN33" s="52"/>
+      <c r="DO33" s="52"/>
+      <c r="DP33" s="52"/>
+      <c r="DQ33" s="52"/>
+      <c r="DR33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="38" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
@@ -7887,7 +7853,7 @@
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
-      <c r="S34" s="62"/>
+      <c r="S34" s="63"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
@@ -7951,7 +7917,7 @@
       <c r="CB34" s="38"/>
       <c r="CC34" s="38"/>
       <c r="CD34" s="38"/>
-      <c r="CE34" s="62"/>
+      <c r="CE34" s="63"/>
       <c r="CF34" s="42"/>
       <c r="CG34" s="42"/>
       <c r="CH34" s="42"/>
@@ -7964,46 +7930,46 @@
       <c r="CO34" s="42"/>
       <c r="CP34" s="38"/>
       <c r="CQ34" s="38"/>
-      <c r="CR34" s="59"/>
-      <c r="CS34" s="51"/>
-      <c r="CT34" s="51"/>
-      <c r="CU34" s="51"/>
-      <c r="CV34" s="51"/>
-      <c r="CW34" s="51"/>
-      <c r="CX34" s="51"/>
-      <c r="CY34" s="51"/>
-      <c r="CZ34" s="51"/>
-      <c r="DA34" s="51"/>
-      <c r="DB34" s="51"/>
-      <c r="DC34" s="51"/>
-      <c r="DD34" s="51"/>
-      <c r="DE34" s="51"/>
-      <c r="DF34" s="51"/>
-      <c r="DG34" s="51"/>
-      <c r="DH34" s="51"/>
-      <c r="DI34" s="51"/>
-      <c r="DJ34" s="51"/>
-      <c r="DK34" s="51"/>
-      <c r="DL34" s="51"/>
-      <c r="DM34" s="51"/>
-      <c r="DN34" s="51"/>
-      <c r="DO34" s="51"/>
-      <c r="DP34" s="51"/>
-      <c r="DQ34" s="51"/>
-      <c r="DR34" s="51"/>
+      <c r="CR34" s="60"/>
+      <c r="CS34" s="52"/>
+      <c r="CT34" s="52"/>
+      <c r="CU34" s="52"/>
+      <c r="CV34" s="52"/>
+      <c r="CW34" s="52"/>
+      <c r="CX34" s="52"/>
+      <c r="CY34" s="52"/>
+      <c r="CZ34" s="52"/>
+      <c r="DA34" s="52"/>
+      <c r="DB34" s="52"/>
+      <c r="DC34" s="52"/>
+      <c r="DD34" s="52"/>
+      <c r="DE34" s="52"/>
+      <c r="DF34" s="52"/>
+      <c r="DG34" s="52"/>
+      <c r="DH34" s="52"/>
+      <c r="DI34" s="52"/>
+      <c r="DJ34" s="52"/>
+      <c r="DK34" s="52"/>
+      <c r="DL34" s="52"/>
+      <c r="DM34" s="52"/>
+      <c r="DN34" s="52"/>
+      <c r="DO34" s="52"/>
+      <c r="DP34" s="52"/>
+      <c r="DQ34" s="52"/>
+      <c r="DR34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54"/>
+        <v>240</v>
+      </c>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
@@ -8015,7 +7981,7 @@
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
-      <c r="S35" s="62"/>
+      <c r="S35" s="63"/>
       <c r="T35" s="42"/>
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
@@ -8079,7 +8045,7 @@
       <c r="CB35" s="38"/>
       <c r="CC35" s="38"/>
       <c r="CD35" s="38"/>
-      <c r="CE35" s="62"/>
+      <c r="CE35" s="63"/>
       <c r="CF35" s="42"/>
       <c r="CG35" s="42"/>
       <c r="CH35" s="42"/>
@@ -8092,46 +8058,46 @@
       <c r="CO35" s="42"/>
       <c r="CP35" s="38"/>
       <c r="CQ35" s="38"/>
-      <c r="CR35" s="59"/>
-      <c r="CS35" s="51"/>
-      <c r="CT35" s="51"/>
-      <c r="CU35" s="51"/>
-      <c r="CV35" s="51"/>
-      <c r="CW35" s="51"/>
-      <c r="CX35" s="51"/>
-      <c r="CY35" s="51"/>
-      <c r="CZ35" s="51"/>
-      <c r="DA35" s="51"/>
-      <c r="DB35" s="51"/>
-      <c r="DC35" s="51"/>
-      <c r="DD35" s="51"/>
-      <c r="DE35" s="51"/>
-      <c r="DF35" s="51"/>
-      <c r="DG35" s="51"/>
-      <c r="DH35" s="51"/>
-      <c r="DI35" s="51"/>
-      <c r="DJ35" s="51"/>
-      <c r="DK35" s="51"/>
-      <c r="DL35" s="51"/>
-      <c r="DM35" s="51"/>
-      <c r="DN35" s="51"/>
-      <c r="DO35" s="51"/>
-      <c r="DP35" s="51"/>
-      <c r="DQ35" s="51"/>
-      <c r="DR35" s="51"/>
+      <c r="CR35" s="60"/>
+      <c r="CS35" s="52"/>
+      <c r="CT35" s="52"/>
+      <c r="CU35" s="52"/>
+      <c r="CV35" s="52"/>
+      <c r="CW35" s="52"/>
+      <c r="CX35" s="52"/>
+      <c r="CY35" s="52"/>
+      <c r="CZ35" s="52"/>
+      <c r="DA35" s="52"/>
+      <c r="DB35" s="52"/>
+      <c r="DC35" s="52"/>
+      <c r="DD35" s="52"/>
+      <c r="DE35" s="52"/>
+      <c r="DF35" s="52"/>
+      <c r="DG35" s="52"/>
+      <c r="DH35" s="52"/>
+      <c r="DI35" s="52"/>
+      <c r="DJ35" s="52"/>
+      <c r="DK35" s="52"/>
+      <c r="DL35" s="52"/>
+      <c r="DM35" s="52"/>
+      <c r="DN35" s="52"/>
+      <c r="DO35" s="52"/>
+      <c r="DP35" s="52"/>
+      <c r="DQ35" s="52"/>
+      <c r="DR35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54"/>
+        <v>203</v>
+      </c>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
@@ -8143,7 +8109,7 @@
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
-      <c r="S36" s="62"/>
+      <c r="S36" s="63"/>
       <c r="T36" s="42"/>
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
@@ -8207,7 +8173,7 @@
       <c r="CB36" s="38"/>
       <c r="CC36" s="38"/>
       <c r="CD36" s="38"/>
-      <c r="CE36" s="62"/>
+      <c r="CE36" s="63"/>
       <c r="CF36" s="42"/>
       <c r="CG36" s="42"/>
       <c r="CH36" s="42"/>
@@ -8220,46 +8186,46 @@
       <c r="CO36" s="42"/>
       <c r="CP36" s="38"/>
       <c r="CQ36" s="38"/>
-      <c r="CR36" s="59"/>
-      <c r="CS36" s="51"/>
-      <c r="CT36" s="51"/>
-      <c r="CU36" s="51"/>
-      <c r="CV36" s="51"/>
-      <c r="CW36" s="51"/>
-      <c r="CX36" s="51"/>
-      <c r="CY36" s="51"/>
-      <c r="CZ36" s="51"/>
-      <c r="DA36" s="51"/>
-      <c r="DB36" s="51"/>
-      <c r="DC36" s="51"/>
-      <c r="DD36" s="51"/>
-      <c r="DE36" s="51"/>
-      <c r="DF36" s="51"/>
-      <c r="DG36" s="51"/>
-      <c r="DH36" s="51"/>
-      <c r="DI36" s="51"/>
-      <c r="DJ36" s="51"/>
-      <c r="DK36" s="51"/>
-      <c r="DL36" s="51"/>
-      <c r="DM36" s="51"/>
-      <c r="DN36" s="51"/>
-      <c r="DO36" s="51"/>
-      <c r="DP36" s="51"/>
-      <c r="DQ36" s="51"/>
-      <c r="DR36" s="51"/>
+      <c r="CR36" s="60"/>
+      <c r="CS36" s="52"/>
+      <c r="CT36" s="52"/>
+      <c r="CU36" s="52"/>
+      <c r="CV36" s="52"/>
+      <c r="CW36" s="52"/>
+      <c r="CX36" s="52"/>
+      <c r="CY36" s="52"/>
+      <c r="CZ36" s="52"/>
+      <c r="DA36" s="52"/>
+      <c r="DB36" s="52"/>
+      <c r="DC36" s="52"/>
+      <c r="DD36" s="52"/>
+      <c r="DE36" s="52"/>
+      <c r="DF36" s="52"/>
+      <c r="DG36" s="52"/>
+      <c r="DH36" s="52"/>
+      <c r="DI36" s="52"/>
+      <c r="DJ36" s="52"/>
+      <c r="DK36" s="52"/>
+      <c r="DL36" s="52"/>
+      <c r="DM36" s="52"/>
+      <c r="DN36" s="52"/>
+      <c r="DO36" s="52"/>
+      <c r="DP36" s="52"/>
+      <c r="DQ36" s="52"/>
+      <c r="DR36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
+        <v>243</v>
+      </c>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
@@ -8271,7 +8237,7 @@
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
-      <c r="S37" s="62"/>
+      <c r="S37" s="63"/>
       <c r="T37" s="42"/>
       <c r="U37" s="42"/>
       <c r="V37" s="42"/>
@@ -8335,7 +8301,7 @@
       <c r="CB37" s="38"/>
       <c r="CC37" s="38"/>
       <c r="CD37" s="38"/>
-      <c r="CE37" s="62"/>
+      <c r="CE37" s="63"/>
       <c r="CF37" s="42"/>
       <c r="CG37" s="42"/>
       <c r="CH37" s="42"/>
@@ -8348,46 +8314,46 @@
       <c r="CO37" s="42"/>
       <c r="CP37" s="38"/>
       <c r="CQ37" s="38"/>
-      <c r="CR37" s="59"/>
-      <c r="CS37" s="51"/>
-      <c r="CT37" s="51"/>
-      <c r="CU37" s="51"/>
-      <c r="CV37" s="51"/>
-      <c r="CW37" s="51"/>
-      <c r="CX37" s="51"/>
-      <c r="CY37" s="51"/>
-      <c r="CZ37" s="51"/>
-      <c r="DA37" s="51"/>
-      <c r="DB37" s="51"/>
-      <c r="DC37" s="51"/>
-      <c r="DD37" s="51"/>
-      <c r="DE37" s="51"/>
-      <c r="DF37" s="51"/>
-      <c r="DG37" s="51"/>
-      <c r="DH37" s="51"/>
-      <c r="DI37" s="51"/>
-      <c r="DJ37" s="51"/>
-      <c r="DK37" s="51"/>
-      <c r="DL37" s="51"/>
-      <c r="DM37" s="51"/>
-      <c r="DN37" s="51"/>
-      <c r="DO37" s="51"/>
-      <c r="DP37" s="51"/>
-      <c r="DQ37" s="51"/>
-      <c r="DR37" s="51"/>
+      <c r="CR37" s="60"/>
+      <c r="CS37" s="52"/>
+      <c r="CT37" s="52"/>
+      <c r="CU37" s="52"/>
+      <c r="CV37" s="52"/>
+      <c r="CW37" s="52"/>
+      <c r="CX37" s="52"/>
+      <c r="CY37" s="52"/>
+      <c r="CZ37" s="52"/>
+      <c r="DA37" s="52"/>
+      <c r="DB37" s="52"/>
+      <c r="DC37" s="52"/>
+      <c r="DD37" s="52"/>
+      <c r="DE37" s="52"/>
+      <c r="DF37" s="52"/>
+      <c r="DG37" s="52"/>
+      <c r="DH37" s="52"/>
+      <c r="DI37" s="52"/>
+      <c r="DJ37" s="52"/>
+      <c r="DK37" s="52"/>
+      <c r="DL37" s="52"/>
+      <c r="DM37" s="52"/>
+      <c r="DN37" s="52"/>
+      <c r="DO37" s="52"/>
+      <c r="DP37" s="52"/>
+      <c r="DQ37" s="52"/>
+      <c r="DR37" s="52"/>
     </row>
     <row r="38" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="54"/>
+        <v>245</v>
+      </c>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
@@ -8399,7 +8365,7 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
-      <c r="S38" s="62"/>
+      <c r="S38" s="63"/>
       <c r="T38" s="42"/>
       <c r="U38" s="42"/>
       <c r="V38" s="42"/>
@@ -8463,7 +8429,7 @@
       <c r="CB38" s="38"/>
       <c r="CC38" s="38"/>
       <c r="CD38" s="38"/>
-      <c r="CE38" s="62"/>
+      <c r="CE38" s="63"/>
       <c r="CF38" s="42"/>
       <c r="CG38" s="42"/>
       <c r="CH38" s="42"/>
@@ -8476,46 +8442,46 @@
       <c r="CO38" s="42"/>
       <c r="CP38" s="38"/>
       <c r="CQ38" s="38"/>
-      <c r="CR38" s="59"/>
-      <c r="CS38" s="51"/>
-      <c r="CT38" s="51"/>
-      <c r="CU38" s="51"/>
-      <c r="CV38" s="51"/>
-      <c r="CW38" s="51"/>
-      <c r="CX38" s="51"/>
-      <c r="CY38" s="51"/>
-      <c r="CZ38" s="51"/>
-      <c r="DA38" s="51"/>
-      <c r="DB38" s="51"/>
-      <c r="DC38" s="51"/>
-      <c r="DD38" s="51"/>
-      <c r="DE38" s="51"/>
-      <c r="DF38" s="51"/>
-      <c r="DG38" s="51"/>
-      <c r="DH38" s="51"/>
-      <c r="DI38" s="51"/>
-      <c r="DJ38" s="51"/>
-      <c r="DK38" s="51"/>
-      <c r="DL38" s="51"/>
-      <c r="DM38" s="51"/>
-      <c r="DN38" s="51"/>
-      <c r="DO38" s="51"/>
-      <c r="DP38" s="51"/>
-      <c r="DQ38" s="51"/>
-      <c r="DR38" s="51"/>
+      <c r="CR38" s="60"/>
+      <c r="CS38" s="52"/>
+      <c r="CT38" s="52"/>
+      <c r="CU38" s="52"/>
+      <c r="CV38" s="52"/>
+      <c r="CW38" s="52"/>
+      <c r="CX38" s="52"/>
+      <c r="CY38" s="52"/>
+      <c r="CZ38" s="52"/>
+      <c r="DA38" s="52"/>
+      <c r="DB38" s="52"/>
+      <c r="DC38" s="52"/>
+      <c r="DD38" s="52"/>
+      <c r="DE38" s="52"/>
+      <c r="DF38" s="52"/>
+      <c r="DG38" s="52"/>
+      <c r="DH38" s="52"/>
+      <c r="DI38" s="52"/>
+      <c r="DJ38" s="52"/>
+      <c r="DK38" s="52"/>
+      <c r="DL38" s="52"/>
+      <c r="DM38" s="52"/>
+      <c r="DN38" s="52"/>
+      <c r="DO38" s="52"/>
+      <c r="DP38" s="52"/>
+      <c r="DQ38" s="52"/>
+      <c r="DR38" s="52"/>
     </row>
     <row r="39" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
+        <v>247</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -8527,7 +8493,7 @@
       <c r="P39" s="42"/>
       <c r="Q39" s="42"/>
       <c r="R39" s="42"/>
-      <c r="S39" s="62"/>
+      <c r="S39" s="63"/>
       <c r="T39" s="42"/>
       <c r="U39" s="42"/>
       <c r="V39" s="42"/>
@@ -8591,7 +8557,7 @@
       <c r="CB39" s="38"/>
       <c r="CC39" s="38"/>
       <c r="CD39" s="38"/>
-      <c r="CE39" s="62"/>
+      <c r="CE39" s="63"/>
       <c r="CF39" s="42"/>
       <c r="CG39" s="42"/>
       <c r="CH39" s="42"/>
@@ -8604,46 +8570,46 @@
       <c r="CO39" s="42"/>
       <c r="CP39" s="38"/>
       <c r="CQ39" s="38"/>
-      <c r="CR39" s="59"/>
-      <c r="CS39" s="51"/>
-      <c r="CT39" s="51"/>
-      <c r="CU39" s="51"/>
-      <c r="CV39" s="51"/>
-      <c r="CW39" s="51"/>
-      <c r="CX39" s="51"/>
-      <c r="CY39" s="51"/>
-      <c r="CZ39" s="51"/>
-      <c r="DA39" s="51"/>
-      <c r="DB39" s="51"/>
-      <c r="DC39" s="51"/>
-      <c r="DD39" s="51"/>
-      <c r="DE39" s="51"/>
-      <c r="DF39" s="51"/>
-      <c r="DG39" s="51"/>
-      <c r="DH39" s="51"/>
-      <c r="DI39" s="51"/>
-      <c r="DJ39" s="51"/>
-      <c r="DK39" s="51"/>
-      <c r="DL39" s="51"/>
-      <c r="DM39" s="51"/>
-      <c r="DN39" s="51"/>
-      <c r="DO39" s="51"/>
-      <c r="DP39" s="51"/>
-      <c r="DQ39" s="51"/>
-      <c r="DR39" s="51"/>
+      <c r="CR39" s="60"/>
+      <c r="CS39" s="52"/>
+      <c r="CT39" s="52"/>
+      <c r="CU39" s="52"/>
+      <c r="CV39" s="52"/>
+      <c r="CW39" s="52"/>
+      <c r="CX39" s="52"/>
+      <c r="CY39" s="52"/>
+      <c r="CZ39" s="52"/>
+      <c r="DA39" s="52"/>
+      <c r="DB39" s="52"/>
+      <c r="DC39" s="52"/>
+      <c r="DD39" s="52"/>
+      <c r="DE39" s="52"/>
+      <c r="DF39" s="52"/>
+      <c r="DG39" s="52"/>
+      <c r="DH39" s="52"/>
+      <c r="DI39" s="52"/>
+      <c r="DJ39" s="52"/>
+      <c r="DK39" s="52"/>
+      <c r="DL39" s="52"/>
+      <c r="DM39" s="52"/>
+      <c r="DN39" s="52"/>
+      <c r="DO39" s="52"/>
+      <c r="DP39" s="52"/>
+      <c r="DQ39" s="52"/>
+      <c r="DR39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
+        <v>248</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -8655,7 +8621,7 @@
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
-      <c r="S40" s="62"/>
+      <c r="S40" s="63"/>
       <c r="T40" s="42"/>
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
@@ -8719,7 +8685,7 @@
       <c r="CB40" s="38"/>
       <c r="CC40" s="38"/>
       <c r="CD40" s="38"/>
-      <c r="CE40" s="62"/>
+      <c r="CE40" s="63"/>
       <c r="CF40" s="42"/>
       <c r="CG40" s="42"/>
       <c r="CH40" s="42"/>
@@ -8732,46 +8698,46 @@
       <c r="CO40" s="42"/>
       <c r="CP40" s="38"/>
       <c r="CQ40" s="38"/>
-      <c r="CR40" s="59"/>
-      <c r="CS40" s="51"/>
-      <c r="CT40" s="51"/>
-      <c r="CU40" s="51"/>
-      <c r="CV40" s="51"/>
-      <c r="CW40" s="51"/>
-      <c r="CX40" s="51"/>
-      <c r="CY40" s="51"/>
-      <c r="CZ40" s="51"/>
-      <c r="DA40" s="51"/>
-      <c r="DB40" s="51"/>
-      <c r="DC40" s="51"/>
-      <c r="DD40" s="51"/>
-      <c r="DE40" s="51"/>
-      <c r="DF40" s="51"/>
-      <c r="DG40" s="51"/>
-      <c r="DH40" s="51"/>
-      <c r="DI40" s="51"/>
-      <c r="DJ40" s="51"/>
-      <c r="DK40" s="51"/>
-      <c r="DL40" s="51"/>
-      <c r="DM40" s="51"/>
-      <c r="DN40" s="51"/>
-      <c r="DO40" s="51"/>
-      <c r="DP40" s="51"/>
-      <c r="DQ40" s="51"/>
-      <c r="DR40" s="51"/>
+      <c r="CR40" s="60"/>
+      <c r="CS40" s="52"/>
+      <c r="CT40" s="52"/>
+      <c r="CU40" s="52"/>
+      <c r="CV40" s="52"/>
+      <c r="CW40" s="52"/>
+      <c r="CX40" s="52"/>
+      <c r="CY40" s="52"/>
+      <c r="CZ40" s="52"/>
+      <c r="DA40" s="52"/>
+      <c r="DB40" s="52"/>
+      <c r="DC40" s="52"/>
+      <c r="DD40" s="52"/>
+      <c r="DE40" s="52"/>
+      <c r="DF40" s="52"/>
+      <c r="DG40" s="52"/>
+      <c r="DH40" s="52"/>
+      <c r="DI40" s="52"/>
+      <c r="DJ40" s="52"/>
+      <c r="DK40" s="52"/>
+      <c r="DL40" s="52"/>
+      <c r="DM40" s="52"/>
+      <c r="DN40" s="52"/>
+      <c r="DO40" s="52"/>
+      <c r="DP40" s="52"/>
+      <c r="DQ40" s="52"/>
+      <c r="DR40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="35"/>
       <c r="B41" s="43"/>
       <c r="C41" s="42"/>
       <c r="D41" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
+        <v>249</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -8783,7 +8749,7 @@
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="42"/>
-      <c r="S41" s="62"/>
+      <c r="S41" s="63"/>
       <c r="T41" s="42"/>
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
@@ -8847,59 +8813,59 @@
       <c r="CB41" s="38"/>
       <c r="CC41" s="38"/>
       <c r="CD41" s="38"/>
-      <c r="CE41" s="62"/>
+      <c r="CE41" s="63"/>
       <c r="CF41" s="42"/>
       <c r="CG41" s="42"/>
       <c r="CH41" s="42"/>
       <c r="CI41" s="42"/>
-      <c r="CJ41" s="53"/>
-      <c r="CK41" s="54"/>
-      <c r="CL41" s="54"/>
-      <c r="CM41" s="54"/>
-      <c r="CN41" s="53"/>
+      <c r="CJ41" s="54"/>
+      <c r="CK41" s="55"/>
+      <c r="CL41" s="55"/>
+      <c r="CM41" s="55"/>
+      <c r="CN41" s="54"/>
       <c r="CO41" s="42"/>
       <c r="CP41" s="38"/>
       <c r="CQ41" s="38"/>
-      <c r="CR41" s="59"/>
-      <c r="CS41" s="51"/>
-      <c r="CT41" s="51"/>
-      <c r="CU41" s="51"/>
-      <c r="CV41" s="51"/>
-      <c r="CW41" s="51"/>
-      <c r="CX41" s="51"/>
-      <c r="CY41" s="51"/>
-      <c r="CZ41" s="51"/>
-      <c r="DA41" s="51"/>
-      <c r="DB41" s="51"/>
-      <c r="DC41" s="51"/>
-      <c r="DD41" s="51"/>
-      <c r="DE41" s="51"/>
-      <c r="DF41" s="51"/>
-      <c r="DG41" s="51"/>
-      <c r="DH41" s="51"/>
-      <c r="DI41" s="51"/>
-      <c r="DJ41" s="51"/>
-      <c r="DK41" s="51"/>
-      <c r="DL41" s="51"/>
-      <c r="DM41" s="51"/>
-      <c r="DN41" s="51"/>
-      <c r="DO41" s="51"/>
-      <c r="DP41" s="51"/>
-      <c r="DQ41" s="51"/>
-      <c r="DR41" s="51"/>
+      <c r="CR41" s="60"/>
+      <c r="CS41" s="52"/>
+      <c r="CT41" s="52"/>
+      <c r="CU41" s="52"/>
+      <c r="CV41" s="52"/>
+      <c r="CW41" s="52"/>
+      <c r="CX41" s="52"/>
+      <c r="CY41" s="52"/>
+      <c r="CZ41" s="52"/>
+      <c r="DA41" s="52"/>
+      <c r="DB41" s="52"/>
+      <c r="DC41" s="52"/>
+      <c r="DD41" s="52"/>
+      <c r="DE41" s="52"/>
+      <c r="DF41" s="52"/>
+      <c r="DG41" s="52"/>
+      <c r="DH41" s="52"/>
+      <c r="DI41" s="52"/>
+      <c r="DJ41" s="52"/>
+      <c r="DK41" s="52"/>
+      <c r="DL41" s="52"/>
+      <c r="DM41" s="52"/>
+      <c r="DN41" s="52"/>
+      <c r="DO41" s="52"/>
+      <c r="DP41" s="52"/>
+      <c r="DQ41" s="52"/>
+      <c r="DR41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="35"/>
       <c r="B42" s="43"/>
       <c r="C42" s="42"/>
       <c r="D42" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
+        <v>250</v>
+      </c>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -8911,7 +8877,7 @@
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
       <c r="R42" s="42"/>
-      <c r="S42" s="62"/>
+      <c r="S42" s="63"/>
       <c r="T42" s="42"/>
       <c r="U42" s="42"/>
       <c r="V42" s="42"/>
@@ -8975,59 +8941,59 @@
       <c r="CB42" s="38"/>
       <c r="CC42" s="38"/>
       <c r="CD42" s="38"/>
-      <c r="CE42" s="62"/>
+      <c r="CE42" s="63"/>
       <c r="CF42" s="42"/>
       <c r="CG42" s="42"/>
       <c r="CH42" s="42"/>
       <c r="CI42" s="42"/>
-      <c r="CJ42" s="53"/>
-      <c r="CK42" s="54"/>
-      <c r="CL42" s="54"/>
-      <c r="CM42" s="54"/>
-      <c r="CN42" s="53"/>
+      <c r="CJ42" s="54"/>
+      <c r="CK42" s="55"/>
+      <c r="CL42" s="55"/>
+      <c r="CM42" s="55"/>
+      <c r="CN42" s="54"/>
       <c r="CO42" s="42"/>
       <c r="CP42" s="38"/>
       <c r="CQ42" s="38"/>
-      <c r="CR42" s="59"/>
-      <c r="CS42" s="51"/>
-      <c r="CT42" s="51"/>
-      <c r="CU42" s="51"/>
-      <c r="CV42" s="51"/>
-      <c r="CW42" s="51"/>
-      <c r="CX42" s="51"/>
-      <c r="CY42" s="51"/>
-      <c r="CZ42" s="51"/>
-      <c r="DA42" s="51"/>
-      <c r="DB42" s="51"/>
-      <c r="DC42" s="51"/>
-      <c r="DD42" s="51"/>
-      <c r="DE42" s="51"/>
-      <c r="DF42" s="51"/>
-      <c r="DG42" s="51"/>
-      <c r="DH42" s="51"/>
-      <c r="DI42" s="51"/>
-      <c r="DJ42" s="51"/>
-      <c r="DK42" s="51"/>
-      <c r="DL42" s="51"/>
-      <c r="DM42" s="51"/>
-      <c r="DN42" s="51"/>
-      <c r="DO42" s="51"/>
-      <c r="DP42" s="51"/>
-      <c r="DQ42" s="51"/>
-      <c r="DR42" s="51"/>
+      <c r="CR42" s="60"/>
+      <c r="CS42" s="52"/>
+      <c r="CT42" s="52"/>
+      <c r="CU42" s="52"/>
+      <c r="CV42" s="52"/>
+      <c r="CW42" s="52"/>
+      <c r="CX42" s="52"/>
+      <c r="CY42" s="52"/>
+      <c r="CZ42" s="52"/>
+      <c r="DA42" s="52"/>
+      <c r="DB42" s="52"/>
+      <c r="DC42" s="52"/>
+      <c r="DD42" s="52"/>
+      <c r="DE42" s="52"/>
+      <c r="DF42" s="52"/>
+      <c r="DG42" s="52"/>
+      <c r="DH42" s="52"/>
+      <c r="DI42" s="52"/>
+      <c r="DJ42" s="52"/>
+      <c r="DK42" s="52"/>
+      <c r="DL42" s="52"/>
+      <c r="DM42" s="52"/>
+      <c r="DN42" s="52"/>
+      <c r="DO42" s="52"/>
+      <c r="DP42" s="52"/>
+      <c r="DQ42" s="52"/>
+      <c r="DR42" s="52"/>
     </row>
     <row r="43" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="35"/>
       <c r="B43" s="43"/>
       <c r="C43" s="42"/>
       <c r="D43" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="54"/>
+        <v>251</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -9039,7 +9005,7 @@
       <c r="P43" s="42"/>
       <c r="Q43" s="42"/>
       <c r="R43" s="42"/>
-      <c r="S43" s="62"/>
+      <c r="S43" s="63"/>
       <c r="T43" s="42"/>
       <c r="U43" s="42"/>
       <c r="V43" s="42"/>
@@ -9103,56 +9069,56 @@
       <c r="CB43" s="38"/>
       <c r="CC43" s="38"/>
       <c r="CD43" s="38"/>
-      <c r="CE43" s="62"/>
+      <c r="CE43" s="63"/>
       <c r="CF43" s="42"/>
       <c r="CG43" s="42"/>
       <c r="CH43" s="42"/>
       <c r="CI43" s="42"/>
-      <c r="CJ43" s="53"/>
-      <c r="CK43" s="54"/>
-      <c r="CL43" s="54"/>
-      <c r="CM43" s="54"/>
-      <c r="CN43" s="53"/>
+      <c r="CJ43" s="54"/>
+      <c r="CK43" s="55"/>
+      <c r="CL43" s="55"/>
+      <c r="CM43" s="55"/>
+      <c r="CN43" s="54"/>
       <c r="CO43" s="42"/>
       <c r="CP43" s="38"/>
       <c r="CQ43" s="38"/>
-      <c r="CR43" s="59"/>
-      <c r="CS43" s="51"/>
-      <c r="CT43" s="51"/>
-      <c r="CU43" s="51"/>
-      <c r="CV43" s="51"/>
-      <c r="CW43" s="51"/>
-      <c r="CX43" s="51"/>
-      <c r="CY43" s="51"/>
-      <c r="CZ43" s="51"/>
-      <c r="DA43" s="51"/>
-      <c r="DB43" s="51"/>
-      <c r="DC43" s="51"/>
-      <c r="DD43" s="51"/>
-      <c r="DE43" s="51"/>
-      <c r="DF43" s="51"/>
-      <c r="DG43" s="51"/>
-      <c r="DH43" s="51"/>
-      <c r="DI43" s="51"/>
-      <c r="DJ43" s="51"/>
-      <c r="DK43" s="51"/>
-      <c r="DL43" s="51"/>
-      <c r="DM43" s="51"/>
-      <c r="DN43" s="51"/>
-      <c r="DO43" s="51"/>
-      <c r="DP43" s="51"/>
-      <c r="DQ43" s="51"/>
-      <c r="DR43" s="51"/>
+      <c r="CR43" s="60"/>
+      <c r="CS43" s="52"/>
+      <c r="CT43" s="52"/>
+      <c r="CU43" s="52"/>
+      <c r="CV43" s="52"/>
+      <c r="CW43" s="52"/>
+      <c r="CX43" s="52"/>
+      <c r="CY43" s="52"/>
+      <c r="CZ43" s="52"/>
+      <c r="DA43" s="52"/>
+      <c r="DB43" s="52"/>
+      <c r="DC43" s="52"/>
+      <c r="DD43" s="52"/>
+      <c r="DE43" s="52"/>
+      <c r="DF43" s="52"/>
+      <c r="DG43" s="52"/>
+      <c r="DH43" s="52"/>
+      <c r="DI43" s="52"/>
+      <c r="DJ43" s="52"/>
+      <c r="DK43" s="52"/>
+      <c r="DL43" s="52"/>
+      <c r="DM43" s="52"/>
+      <c r="DN43" s="52"/>
+      <c r="DO43" s="52"/>
+      <c r="DP43" s="52"/>
+      <c r="DQ43" s="52"/>
+      <c r="DR43" s="52"/>
     </row>
     <row r="44" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35"/>
       <c r="B44" s="43"/>
       <c r="C44" s="42"/>
       <c r="D44" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="42"/>
@@ -9167,7 +9133,7 @@
       <c r="P44" s="42"/>
       <c r="Q44" s="42"/>
       <c r="R44" s="42"/>
-      <c r="S44" s="62"/>
+      <c r="S44" s="63"/>
       <c r="T44" s="42"/>
       <c r="U44" s="42"/>
       <c r="V44" s="42"/>
@@ -9231,55 +9197,55 @@
       <c r="CB44" s="38"/>
       <c r="CC44" s="38"/>
       <c r="CD44" s="38"/>
-      <c r="CE44" s="62"/>
+      <c r="CE44" s="63"/>
       <c r="CF44" s="42"/>
       <c r="CG44" s="42"/>
       <c r="CH44" s="42"/>
       <c r="CI44" s="42"/>
-      <c r="CJ44" s="53"/>
-      <c r="CK44" s="54"/>
-      <c r="CL44" s="54"/>
-      <c r="CM44" s="54"/>
-      <c r="CN44" s="53"/>
+      <c r="CJ44" s="54"/>
+      <c r="CK44" s="55"/>
+      <c r="CL44" s="55"/>
+      <c r="CM44" s="55"/>
+      <c r="CN44" s="54"/>
       <c r="CO44" s="42"/>
       <c r="CP44" s="38"/>
       <c r="CQ44" s="38"/>
-      <c r="CR44" s="59"/>
-      <c r="CS44" s="51"/>
-      <c r="CT44" s="51"/>
-      <c r="CU44" s="51"/>
-      <c r="CV44" s="51"/>
-      <c r="CW44" s="51"/>
-      <c r="CX44" s="51"/>
-      <c r="CY44" s="51"/>
-      <c r="CZ44" s="51"/>
-      <c r="DA44" s="51"/>
-      <c r="DB44" s="51"/>
-      <c r="DC44" s="51"/>
-      <c r="DD44" s="51"/>
-      <c r="DE44" s="51"/>
-      <c r="DF44" s="51"/>
-      <c r="DG44" s="51"/>
-      <c r="DH44" s="51"/>
-      <c r="DI44" s="51"/>
-      <c r="DJ44" s="51"/>
-      <c r="DK44" s="51"/>
-      <c r="DL44" s="51"/>
-      <c r="DM44" s="51"/>
-      <c r="DN44" s="51"/>
-      <c r="DO44" s="51"/>
-      <c r="DP44" s="51"/>
-      <c r="DQ44" s="51"/>
-      <c r="DR44" s="51"/>
+      <c r="CR44" s="60"/>
+      <c r="CS44" s="52"/>
+      <c r="CT44" s="52"/>
+      <c r="CU44" s="52"/>
+      <c r="CV44" s="52"/>
+      <c r="CW44" s="52"/>
+      <c r="CX44" s="52"/>
+      <c r="CY44" s="52"/>
+      <c r="CZ44" s="52"/>
+      <c r="DA44" s="52"/>
+      <c r="DB44" s="52"/>
+      <c r="DC44" s="52"/>
+      <c r="DD44" s="52"/>
+      <c r="DE44" s="52"/>
+      <c r="DF44" s="52"/>
+      <c r="DG44" s="52"/>
+      <c r="DH44" s="52"/>
+      <c r="DI44" s="52"/>
+      <c r="DJ44" s="52"/>
+      <c r="DK44" s="52"/>
+      <c r="DL44" s="52"/>
+      <c r="DM44" s="52"/>
+      <c r="DN44" s="52"/>
+      <c r="DO44" s="52"/>
+      <c r="DP44" s="52"/>
+      <c r="DQ44" s="52"/>
+      <c r="DR44" s="52"/>
     </row>
     <row r="45" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="43"/>
       <c r="C45" s="42"/>
       <c r="D45" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="42"/>
@@ -9294,7 +9260,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="42"/>
-      <c r="S45" s="62"/>
+      <c r="S45" s="63"/>
       <c r="T45" s="42"/>
       <c r="U45" s="42"/>
       <c r="V45" s="42"/>
@@ -9358,55 +9324,55 @@
       <c r="CB45" s="38"/>
       <c r="CC45" s="38"/>
       <c r="CD45" s="38"/>
-      <c r="CE45" s="62"/>
+      <c r="CE45" s="63"/>
       <c r="CF45" s="42"/>
       <c r="CG45" s="42"/>
       <c r="CH45" s="42"/>
       <c r="CI45" s="42"/>
-      <c r="CJ45" s="53"/>
-      <c r="CK45" s="54"/>
-      <c r="CL45" s="54"/>
-      <c r="CM45" s="54"/>
-      <c r="CN45" s="53"/>
+      <c r="CJ45" s="54"/>
+      <c r="CK45" s="55"/>
+      <c r="CL45" s="55"/>
+      <c r="CM45" s="55"/>
+      <c r="CN45" s="54"/>
       <c r="CO45" s="42"/>
       <c r="CP45" s="38"/>
       <c r="CQ45" s="38"/>
-      <c r="CR45" s="59"/>
-      <c r="CS45" s="51"/>
-      <c r="CT45" s="51"/>
-      <c r="CU45" s="51"/>
-      <c r="CV45" s="51"/>
-      <c r="CW45" s="51"/>
-      <c r="CX45" s="51"/>
-      <c r="CY45" s="51"/>
-      <c r="CZ45" s="51"/>
-      <c r="DA45" s="51"/>
-      <c r="DB45" s="51"/>
-      <c r="DC45" s="51"/>
-      <c r="DD45" s="51"/>
-      <c r="DE45" s="51"/>
-      <c r="DF45" s="51"/>
-      <c r="DG45" s="51"/>
-      <c r="DH45" s="51"/>
-      <c r="DI45" s="51"/>
-      <c r="DJ45" s="51"/>
-      <c r="DK45" s="51"/>
-      <c r="DL45" s="51"/>
-      <c r="DM45" s="51"/>
-      <c r="DN45" s="51"/>
-      <c r="DO45" s="51"/>
-      <c r="DP45" s="51"/>
-      <c r="DQ45" s="51"/>
-      <c r="DR45" s="51"/>
+      <c r="CR45" s="60"/>
+      <c r="CS45" s="52"/>
+      <c r="CT45" s="52"/>
+      <c r="CU45" s="52"/>
+      <c r="CV45" s="52"/>
+      <c r="CW45" s="52"/>
+      <c r="CX45" s="52"/>
+      <c r="CY45" s="52"/>
+      <c r="CZ45" s="52"/>
+      <c r="DA45" s="52"/>
+      <c r="DB45" s="52"/>
+      <c r="DC45" s="52"/>
+      <c r="DD45" s="52"/>
+      <c r="DE45" s="52"/>
+      <c r="DF45" s="52"/>
+      <c r="DG45" s="52"/>
+      <c r="DH45" s="52"/>
+      <c r="DI45" s="52"/>
+      <c r="DJ45" s="52"/>
+      <c r="DK45" s="52"/>
+      <c r="DL45" s="52"/>
+      <c r="DM45" s="52"/>
+      <c r="DN45" s="52"/>
+      <c r="DO45" s="52"/>
+      <c r="DP45" s="52"/>
+      <c r="DQ45" s="52"/>
+      <c r="DR45" s="52"/>
     </row>
     <row r="46" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="43"/>
       <c r="C46" s="42"/>
       <c r="D46" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="42"/>
@@ -9421,7 +9387,7 @@
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
       <c r="R46" s="42"/>
-      <c r="S46" s="62"/>
+      <c r="S46" s="63"/>
       <c r="T46" s="42"/>
       <c r="U46" s="42"/>
       <c r="V46" s="42"/>
@@ -9485,55 +9451,55 @@
       <c r="CB46" s="38"/>
       <c r="CC46" s="38"/>
       <c r="CD46" s="38"/>
-      <c r="CE46" s="62"/>
+      <c r="CE46" s="63"/>
       <c r="CF46" s="42"/>
       <c r="CG46" s="42"/>
       <c r="CH46" s="42"/>
       <c r="CI46" s="42"/>
-      <c r="CJ46" s="53"/>
-      <c r="CK46" s="54"/>
-      <c r="CL46" s="54"/>
-      <c r="CM46" s="54"/>
-      <c r="CN46" s="53"/>
+      <c r="CJ46" s="54"/>
+      <c r="CK46" s="55"/>
+      <c r="CL46" s="55"/>
+      <c r="CM46" s="55"/>
+      <c r="CN46" s="54"/>
       <c r="CO46" s="42"/>
       <c r="CP46" s="38"/>
       <c r="CQ46" s="38"/>
-      <c r="CR46" s="59"/>
-      <c r="CS46" s="51"/>
-      <c r="CT46" s="51"/>
-      <c r="CU46" s="51"/>
-      <c r="CV46" s="51"/>
-      <c r="CW46" s="51"/>
-      <c r="CX46" s="51"/>
-      <c r="CY46" s="51"/>
-      <c r="CZ46" s="51"/>
-      <c r="DA46" s="51"/>
-      <c r="DB46" s="51"/>
-      <c r="DC46" s="51"/>
-      <c r="DD46" s="51"/>
-      <c r="DE46" s="51"/>
-      <c r="DF46" s="51"/>
-      <c r="DG46" s="51"/>
-      <c r="DH46" s="51"/>
-      <c r="DI46" s="51"/>
-      <c r="DJ46" s="51"/>
-      <c r="DK46" s="51"/>
-      <c r="DL46" s="51"/>
-      <c r="DM46" s="51"/>
-      <c r="DN46" s="51"/>
-      <c r="DO46" s="51"/>
-      <c r="DP46" s="51"/>
-      <c r="DQ46" s="51"/>
-      <c r="DR46" s="51"/>
+      <c r="CR46" s="60"/>
+      <c r="CS46" s="52"/>
+      <c r="CT46" s="52"/>
+      <c r="CU46" s="52"/>
+      <c r="CV46" s="52"/>
+      <c r="CW46" s="52"/>
+      <c r="CX46" s="52"/>
+      <c r="CY46" s="52"/>
+      <c r="CZ46" s="52"/>
+      <c r="DA46" s="52"/>
+      <c r="DB46" s="52"/>
+      <c r="DC46" s="52"/>
+      <c r="DD46" s="52"/>
+      <c r="DE46" s="52"/>
+      <c r="DF46" s="52"/>
+      <c r="DG46" s="52"/>
+      <c r="DH46" s="52"/>
+      <c r="DI46" s="52"/>
+      <c r="DJ46" s="52"/>
+      <c r="DK46" s="52"/>
+      <c r="DL46" s="52"/>
+      <c r="DM46" s="52"/>
+      <c r="DN46" s="52"/>
+      <c r="DO46" s="52"/>
+      <c r="DP46" s="52"/>
+      <c r="DQ46" s="52"/>
+      <c r="DR46" s="52"/>
     </row>
     <row r="47" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="43"/>
       <c r="C47" s="42"/>
       <c r="D47" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="42"/>
@@ -9548,7 +9514,7 @@
       <c r="P47" s="42"/>
       <c r="Q47" s="42"/>
       <c r="R47" s="42"/>
-      <c r="S47" s="62"/>
+      <c r="S47" s="63"/>
       <c r="T47" s="42"/>
       <c r="U47" s="42"/>
       <c r="V47" s="42"/>
@@ -9612,52 +9578,52 @@
       <c r="CB47" s="38"/>
       <c r="CC47" s="38"/>
       <c r="CD47" s="38"/>
-      <c r="CE47" s="62"/>
+      <c r="CE47" s="63"/>
       <c r="CF47" s="42"/>
       <c r="CG47" s="42"/>
       <c r="CH47" s="42"/>
       <c r="CI47" s="42"/>
-      <c r="CJ47" s="53"/>
-      <c r="CK47" s="54"/>
-      <c r="CL47" s="54"/>
-      <c r="CM47" s="54"/>
-      <c r="CN47" s="53"/>
+      <c r="CJ47" s="54"/>
+      <c r="CK47" s="55"/>
+      <c r="CL47" s="55"/>
+      <c r="CM47" s="55"/>
+      <c r="CN47" s="54"/>
       <c r="CO47" s="42"/>
       <c r="CP47" s="38"/>
       <c r="CQ47" s="38"/>
-      <c r="CR47" s="59"/>
-      <c r="CS47" s="51"/>
-      <c r="CT47" s="51"/>
-      <c r="CU47" s="51"/>
-      <c r="CV47" s="51"/>
-      <c r="CW47" s="51"/>
-      <c r="CX47" s="51"/>
-      <c r="CY47" s="51"/>
-      <c r="CZ47" s="51"/>
-      <c r="DA47" s="51"/>
-      <c r="DB47" s="51"/>
-      <c r="DC47" s="51"/>
-      <c r="DD47" s="51"/>
-      <c r="DE47" s="51"/>
-      <c r="DF47" s="51"/>
-      <c r="DG47" s="51"/>
-      <c r="DH47" s="51"/>
-      <c r="DI47" s="51"/>
-      <c r="DJ47" s="51"/>
-      <c r="DK47" s="51"/>
-      <c r="DL47" s="51"/>
-      <c r="DM47" s="51"/>
-      <c r="DN47" s="51"/>
-      <c r="DO47" s="51"/>
-      <c r="DP47" s="51"/>
-      <c r="DQ47" s="51"/>
-      <c r="DR47" s="51"/>
+      <c r="CR47" s="60"/>
+      <c r="CS47" s="52"/>
+      <c r="CT47" s="52"/>
+      <c r="CU47" s="52"/>
+      <c r="CV47" s="52"/>
+      <c r="CW47" s="52"/>
+      <c r="CX47" s="52"/>
+      <c r="CY47" s="52"/>
+      <c r="CZ47" s="52"/>
+      <c r="DA47" s="52"/>
+      <c r="DB47" s="52"/>
+      <c r="DC47" s="52"/>
+      <c r="DD47" s="52"/>
+      <c r="DE47" s="52"/>
+      <c r="DF47" s="52"/>
+      <c r="DG47" s="52"/>
+      <c r="DH47" s="52"/>
+      <c r="DI47" s="52"/>
+      <c r="DJ47" s="52"/>
+      <c r="DK47" s="52"/>
+      <c r="DL47" s="52"/>
+      <c r="DM47" s="52"/>
+      <c r="DN47" s="52"/>
+      <c r="DO47" s="52"/>
+      <c r="DP47" s="52"/>
+      <c r="DQ47" s="52"/>
+      <c r="DR47" s="52"/>
     </row>
     <row r="48" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="43"/>
       <c r="C48" s="42"/>
-      <c r="D48" s="0"/>
-      <c r="E48" s="0"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="43"/>
       <c r="G48" s="42"/>
       <c r="H48" s="38"/>
@@ -9671,7 +9637,7 @@
       <c r="P48" s="42"/>
       <c r="Q48" s="42"/>
       <c r="R48" s="42"/>
-      <c r="S48" s="62"/>
+      <c r="S48" s="63"/>
       <c r="T48" s="42"/>
       <c r="U48" s="42"/>
       <c r="V48" s="42"/>
@@ -9735,52 +9701,52 @@
       <c r="CB48" s="38"/>
       <c r="CC48" s="38"/>
       <c r="CD48" s="38"/>
-      <c r="CE48" s="62"/>
+      <c r="CE48" s="63"/>
       <c r="CF48" s="42"/>
       <c r="CG48" s="42"/>
       <c r="CH48" s="42"/>
       <c r="CI48" s="42"/>
-      <c r="CJ48" s="53"/>
-      <c r="CK48" s="54"/>
-      <c r="CL48" s="54"/>
-      <c r="CM48" s="54"/>
-      <c r="CN48" s="53"/>
+      <c r="CJ48" s="54"/>
+      <c r="CK48" s="55"/>
+      <c r="CL48" s="55"/>
+      <c r="CM48" s="55"/>
+      <c r="CN48" s="54"/>
       <c r="CO48" s="42"/>
       <c r="CP48" s="38"/>
       <c r="CQ48" s="38"/>
-      <c r="CR48" s="59"/>
-      <c r="CS48" s="51"/>
-      <c r="CT48" s="51"/>
-      <c r="CU48" s="51"/>
-      <c r="CV48" s="51"/>
-      <c r="CW48" s="51"/>
-      <c r="CX48" s="51"/>
-      <c r="CY48" s="51"/>
-      <c r="CZ48" s="51"/>
-      <c r="DA48" s="51"/>
-      <c r="DB48" s="51"/>
-      <c r="DC48" s="51"/>
-      <c r="DD48" s="51"/>
-      <c r="DE48" s="51"/>
-      <c r="DF48" s="51"/>
-      <c r="DG48" s="51"/>
-      <c r="DH48" s="51"/>
-      <c r="DI48" s="51"/>
-      <c r="DJ48" s="51"/>
-      <c r="DK48" s="51"/>
-      <c r="DL48" s="51"/>
-      <c r="DM48" s="51"/>
-      <c r="DN48" s="51"/>
-      <c r="DO48" s="51"/>
-      <c r="DP48" s="51"/>
-      <c r="DQ48" s="51"/>
-      <c r="DR48" s="51"/>
+      <c r="CR48" s="60"/>
+      <c r="CS48" s="52"/>
+      <c r="CT48" s="52"/>
+      <c r="CU48" s="52"/>
+      <c r="CV48" s="52"/>
+      <c r="CW48" s="52"/>
+      <c r="CX48" s="52"/>
+      <c r="CY48" s="52"/>
+      <c r="CZ48" s="52"/>
+      <c r="DA48" s="52"/>
+      <c r="DB48" s="52"/>
+      <c r="DC48" s="52"/>
+      <c r="DD48" s="52"/>
+      <c r="DE48" s="52"/>
+      <c r="DF48" s="52"/>
+      <c r="DG48" s="52"/>
+      <c r="DH48" s="52"/>
+      <c r="DI48" s="52"/>
+      <c r="DJ48" s="52"/>
+      <c r="DK48" s="52"/>
+      <c r="DL48" s="52"/>
+      <c r="DM48" s="52"/>
+      <c r="DN48" s="52"/>
+      <c r="DO48" s="52"/>
+      <c r="DP48" s="52"/>
+      <c r="DQ48" s="52"/>
+      <c r="DR48" s="52"/>
     </row>
     <row r="49" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="43"/>
       <c r="C49" s="42"/>
-      <c r="D49" s="0"/>
-      <c r="E49" s="0"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="43"/>
       <c r="G49" s="42"/>
       <c r="H49" s="38"/>
@@ -9794,7 +9760,7 @@
       <c r="P49" s="42"/>
       <c r="Q49" s="42"/>
       <c r="R49" s="42"/>
-      <c r="S49" s="62"/>
+      <c r="S49" s="63"/>
       <c r="T49" s="42"/>
       <c r="U49" s="42"/>
       <c r="V49" s="42"/>
@@ -9858,46 +9824,46 @@
       <c r="CB49" s="38"/>
       <c r="CC49" s="38"/>
       <c r="CD49" s="38"/>
-      <c r="CE49" s="62"/>
+      <c r="CE49" s="63"/>
       <c r="CF49" s="42"/>
       <c r="CG49" s="42"/>
       <c r="CH49" s="42"/>
       <c r="CI49" s="42"/>
-      <c r="CJ49" s="53"/>
-      <c r="CK49" s="54"/>
-      <c r="CL49" s="54"/>
-      <c r="CM49" s="54"/>
-      <c r="CN49" s="53"/>
+      <c r="CJ49" s="54"/>
+      <c r="CK49" s="55"/>
+      <c r="CL49" s="55"/>
+      <c r="CM49" s="55"/>
+      <c r="CN49" s="54"/>
       <c r="CO49" s="42"/>
       <c r="CP49" s="38"/>
       <c r="CQ49" s="38"/>
-      <c r="CR49" s="59"/>
-      <c r="CS49" s="51"/>
-      <c r="CT49" s="51"/>
-      <c r="CU49" s="51"/>
-      <c r="CV49" s="51"/>
-      <c r="CW49" s="51"/>
-      <c r="CX49" s="51"/>
-      <c r="CY49" s="51"/>
-      <c r="CZ49" s="51"/>
-      <c r="DA49" s="51"/>
-      <c r="DB49" s="51"/>
-      <c r="DC49" s="51"/>
-      <c r="DD49" s="51"/>
-      <c r="DE49" s="51"/>
-      <c r="DF49" s="51"/>
-      <c r="DG49" s="51"/>
-      <c r="DH49" s="51"/>
-      <c r="DI49" s="51"/>
-      <c r="DJ49" s="51"/>
-      <c r="DK49" s="51"/>
-      <c r="DL49" s="51"/>
-      <c r="DM49" s="51"/>
-      <c r="DN49" s="51"/>
-      <c r="DO49" s="51"/>
-      <c r="DP49" s="51"/>
-      <c r="DQ49" s="51"/>
-      <c r="DR49" s="51"/>
+      <c r="CR49" s="60"/>
+      <c r="CS49" s="52"/>
+      <c r="CT49" s="52"/>
+      <c r="CU49" s="52"/>
+      <c r="CV49" s="52"/>
+      <c r="CW49" s="52"/>
+      <c r="CX49" s="52"/>
+      <c r="CY49" s="52"/>
+      <c r="CZ49" s="52"/>
+      <c r="DA49" s="52"/>
+      <c r="DB49" s="52"/>
+      <c r="DC49" s="52"/>
+      <c r="DD49" s="52"/>
+      <c r="DE49" s="52"/>
+      <c r="DF49" s="52"/>
+      <c r="DG49" s="52"/>
+      <c r="DH49" s="52"/>
+      <c r="DI49" s="52"/>
+      <c r="DJ49" s="52"/>
+      <c r="DK49" s="52"/>
+      <c r="DL49" s="52"/>
+      <c r="DM49" s="52"/>
+      <c r="DN49" s="52"/>
+      <c r="DO49" s="52"/>
+      <c r="DP49" s="52"/>
+      <c r="DQ49" s="52"/>
+      <c r="DR49" s="52"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5"/>
@@ -9915,9 +9881,9 @@
       <c r="CF50" s="5"/>
       <c r="CG50" s="5"/>
       <c r="CH50" s="5"/>
-      <c r="CK50" s="66"/>
-      <c r="CL50" s="66"/>
-      <c r="CM50" s="66"/>
+      <c r="CK50" s="67"/>
+      <c r="CL50" s="67"/>
+      <c r="CM50" s="67"/>
       <c r="CN50" s="6"/>
       <c r="CO50" s="5"/>
     </row>
@@ -9937,9 +9903,9 @@
       <c r="CF51" s="5"/>
       <c r="CG51" s="5"/>
       <c r="CH51" s="5"/>
-      <c r="CK51" s="66"/>
-      <c r="CL51" s="66"/>
-      <c r="CM51" s="66"/>
+      <c r="CK51" s="67"/>
+      <c r="CL51" s="67"/>
+      <c r="CM51" s="67"/>
       <c r="CN51" s="6"/>
       <c r="CO51" s="5"/>
     </row>
@@ -9957,9 +9923,9 @@
       <c r="CF52" s="5"/>
       <c r="CG52" s="5"/>
       <c r="CH52" s="5"/>
-      <c r="CK52" s="66"/>
-      <c r="CL52" s="66"/>
-      <c r="CM52" s="66"/>
+      <c r="CK52" s="67"/>
+      <c r="CL52" s="67"/>
+      <c r="CM52" s="67"/>
       <c r="CN52" s="6"/>
       <c r="CO52" s="5"/>
     </row>
@@ -9977,9 +9943,9 @@
       <c r="CF53" s="5"/>
       <c r="CG53" s="5"/>
       <c r="CH53" s="5"/>
-      <c r="CK53" s="66"/>
-      <c r="CL53" s="66"/>
-      <c r="CM53" s="66"/>
+      <c r="CK53" s="67"/>
+      <c r="CL53" s="67"/>
+      <c r="CM53" s="67"/>
       <c r="CN53" s="6"/>
       <c r="CO53" s="5"/>
     </row>
@@ -9997,9 +9963,9 @@
       <c r="CF54" s="5"/>
       <c r="CG54" s="5"/>
       <c r="CH54" s="5"/>
-      <c r="CK54" s="66"/>
-      <c r="CL54" s="66"/>
-      <c r="CM54" s="66"/>
+      <c r="CK54" s="67"/>
+      <c r="CL54" s="67"/>
+      <c r="CM54" s="67"/>
       <c r="CN54" s="6"/>
       <c r="CO54" s="5"/>
     </row>
@@ -10017,9 +9983,9 @@
       <c r="CF55" s="5"/>
       <c r="CG55" s="5"/>
       <c r="CH55" s="5"/>
-      <c r="CK55" s="66"/>
-      <c r="CL55" s="66"/>
-      <c r="CM55" s="66"/>
+      <c r="CK55" s="67"/>
+      <c r="CL55" s="67"/>
+      <c r="CM55" s="67"/>
       <c r="CN55" s="6"/>
       <c r="CO55" s="5"/>
     </row>
@@ -10037,9 +10003,9 @@
       <c r="CF56" s="5"/>
       <c r="CG56" s="5"/>
       <c r="CH56" s="5"/>
-      <c r="CK56" s="66"/>
-      <c r="CL56" s="66"/>
-      <c r="CM56" s="66"/>
+      <c r="CK56" s="67"/>
+      <c r="CL56" s="67"/>
+      <c r="CM56" s="67"/>
       <c r="CN56" s="6"/>
       <c r="CO56" s="5"/>
     </row>
@@ -10057,9 +10023,9 @@
       <c r="CF57" s="5"/>
       <c r="CG57" s="5"/>
       <c r="CH57" s="5"/>
-      <c r="CK57" s="66"/>
-      <c r="CL57" s="66"/>
-      <c r="CM57" s="66"/>
+      <c r="CK57" s="67"/>
+      <c r="CL57" s="67"/>
+      <c r="CM57" s="67"/>
       <c r="CN57" s="6"/>
       <c r="CO57" s="5"/>
     </row>
@@ -10077,9 +10043,9 @@
       <c r="CF58" s="5"/>
       <c r="CG58" s="5"/>
       <c r="CH58" s="5"/>
-      <c r="CK58" s="66"/>
-      <c r="CL58" s="66"/>
-      <c r="CM58" s="66"/>
+      <c r="CK58" s="67"/>
+      <c r="CL58" s="67"/>
+      <c r="CM58" s="67"/>
       <c r="CN58" s="6"/>
       <c r="CO58" s="5"/>
     </row>
@@ -10097,9 +10063,9 @@
       <c r="CF59" s="5"/>
       <c r="CG59" s="5"/>
       <c r="CH59" s="5"/>
-      <c r="CK59" s="66"/>
-      <c r="CL59" s="66"/>
-      <c r="CM59" s="66"/>
+      <c r="CK59" s="67"/>
+      <c r="CL59" s="67"/>
+      <c r="CM59" s="67"/>
       <c r="CN59" s="6"/>
       <c r="CO59" s="5"/>
     </row>
@@ -10117,9 +10083,9 @@
       <c r="CF60" s="5"/>
       <c r="CG60" s="5"/>
       <c r="CH60" s="5"/>
-      <c r="CK60" s="66"/>
-      <c r="CL60" s="66"/>
-      <c r="CM60" s="66"/>
+      <c r="CK60" s="67"/>
+      <c r="CL60" s="67"/>
+      <c r="CM60" s="67"/>
       <c r="CN60" s="6"/>
       <c r="CO60" s="5"/>
     </row>
@@ -10137,9 +10103,9 @@
       <c r="CF61" s="5"/>
       <c r="CG61" s="5"/>
       <c r="CH61" s="5"/>
-      <c r="CK61" s="66"/>
-      <c r="CL61" s="66"/>
-      <c r="CM61" s="66"/>
+      <c r="CK61" s="67"/>
+      <c r="CL61" s="67"/>
+      <c r="CM61" s="67"/>
       <c r="CN61" s="6"/>
       <c r="CO61" s="5"/>
     </row>
@@ -10157,9 +10123,9 @@
       <c r="CF62" s="5"/>
       <c r="CG62" s="5"/>
       <c r="CH62" s="5"/>
-      <c r="CK62" s="66"/>
-      <c r="CL62" s="66"/>
-      <c r="CM62" s="66"/>
+      <c r="CK62" s="67"/>
+      <c r="CL62" s="67"/>
+      <c r="CM62" s="67"/>
       <c r="CN62" s="6"/>
       <c r="CO62" s="5"/>
     </row>
@@ -10177,9 +10143,9 @@
       <c r="CF63" s="5"/>
       <c r="CG63" s="5"/>
       <c r="CH63" s="5"/>
-      <c r="CK63" s="66"/>
-      <c r="CL63" s="66"/>
-      <c r="CM63" s="66"/>
+      <c r="CK63" s="67"/>
+      <c r="CL63" s="67"/>
+      <c r="CM63" s="67"/>
       <c r="CN63" s="6"/>
       <c r="CO63" s="5"/>
     </row>
@@ -10197,9 +10163,9 @@
       <c r="CF64" s="5"/>
       <c r="CG64" s="5"/>
       <c r="CH64" s="5"/>
-      <c r="CK64" s="66"/>
-      <c r="CL64" s="66"/>
-      <c r="CM64" s="66"/>
+      <c r="CK64" s="67"/>
+      <c r="CL64" s="67"/>
+      <c r="CM64" s="67"/>
       <c r="CN64" s="6"/>
       <c r="CO64" s="5"/>
     </row>
@@ -10217,9 +10183,9 @@
       <c r="CF65" s="5"/>
       <c r="CG65" s="5"/>
       <c r="CH65" s="5"/>
-      <c r="CK65" s="66"/>
-      <c r="CL65" s="66"/>
-      <c r="CM65" s="66"/>
+      <c r="CK65" s="67"/>
+      <c r="CL65" s="67"/>
+      <c r="CM65" s="67"/>
       <c r="CN65" s="6"/>
       <c r="CO65" s="5"/>
     </row>
@@ -10237,9 +10203,9 @@
       <c r="CF66" s="5"/>
       <c r="CG66" s="5"/>
       <c r="CH66" s="5"/>
-      <c r="CK66" s="66"/>
-      <c r="CL66" s="66"/>
-      <c r="CM66" s="66"/>
+      <c r="CK66" s="67"/>
+      <c r="CL66" s="67"/>
+      <c r="CM66" s="67"/>
       <c r="CN66" s="6"/>
       <c r="CO66" s="5"/>
     </row>
@@ -10257,9 +10223,9 @@
       <c r="CF67" s="5"/>
       <c r="CG67" s="5"/>
       <c r="CH67" s="5"/>
-      <c r="CK67" s="66"/>
-      <c r="CL67" s="66"/>
-      <c r="CM67" s="66"/>
+      <c r="CK67" s="67"/>
+      <c r="CL67" s="67"/>
+      <c r="CM67" s="67"/>
       <c r="CN67" s="6"/>
       <c r="CO67" s="5"/>
     </row>
@@ -10277,9 +10243,9 @@
       <c r="CF68" s="5"/>
       <c r="CG68" s="5"/>
       <c r="CH68" s="5"/>
-      <c r="CK68" s="66"/>
-      <c r="CL68" s="66"/>
-      <c r="CM68" s="66"/>
+      <c r="CK68" s="67"/>
+      <c r="CL68" s="67"/>
+      <c r="CM68" s="67"/>
       <c r="CN68" s="6"/>
       <c r="CO68" s="5"/>
     </row>
@@ -10297,9 +10263,9 @@
       <c r="CF69" s="5"/>
       <c r="CG69" s="5"/>
       <c r="CH69" s="5"/>
-      <c r="CK69" s="66"/>
-      <c r="CL69" s="66"/>
-      <c r="CM69" s="66"/>
+      <c r="CK69" s="67"/>
+      <c r="CL69" s="67"/>
+      <c r="CM69" s="67"/>
       <c r="CN69" s="6"/>
       <c r="CO69" s="5"/>
     </row>
@@ -10317,9 +10283,9 @@
       <c r="CF70" s="5"/>
       <c r="CG70" s="5"/>
       <c r="CH70" s="5"/>
-      <c r="CK70" s="66"/>
-      <c r="CL70" s="66"/>
-      <c r="CM70" s="66"/>
+      <c r="CK70" s="67"/>
+      <c r="CL70" s="67"/>
+      <c r="CM70" s="67"/>
       <c r="CN70" s="6"/>
       <c r="CO70" s="5"/>
     </row>
@@ -10337,9 +10303,9 @@
       <c r="CF71" s="5"/>
       <c r="CG71" s="5"/>
       <c r="CH71" s="5"/>
-      <c r="CK71" s="66"/>
-      <c r="CL71" s="66"/>
-      <c r="CM71" s="66"/>
+      <c r="CK71" s="67"/>
+      <c r="CL71" s="67"/>
+      <c r="CM71" s="67"/>
       <c r="CN71" s="6"/>
       <c r="CO71" s="5"/>
     </row>
@@ -10357,9 +10323,9 @@
       <c r="CF72" s="5"/>
       <c r="CG72" s="5"/>
       <c r="CH72" s="5"/>
-      <c r="CK72" s="66"/>
-      <c r="CL72" s="66"/>
-      <c r="CM72" s="66"/>
+      <c r="CK72" s="67"/>
+      <c r="CL72" s="67"/>
+      <c r="CM72" s="67"/>
       <c r="CN72" s="6"/>
       <c r="CO72" s="5"/>
     </row>
@@ -10377,9 +10343,9 @@
       <c r="CF73" s="5"/>
       <c r="CG73" s="5"/>
       <c r="CH73" s="5"/>
-      <c r="CK73" s="66"/>
-      <c r="CL73" s="66"/>
-      <c r="CM73" s="66"/>
+      <c r="CK73" s="67"/>
+      <c r="CL73" s="67"/>
+      <c r="CM73" s="67"/>
       <c r="CN73" s="6"/>
       <c r="CO73" s="5"/>
     </row>
@@ -10397,9 +10363,9 @@
       <c r="CF74" s="5"/>
       <c r="CG74" s="5"/>
       <c r="CH74" s="5"/>
-      <c r="CK74" s="66"/>
-      <c r="CL74" s="66"/>
-      <c r="CM74" s="66"/>
+      <c r="CK74" s="67"/>
+      <c r="CL74" s="67"/>
+      <c r="CM74" s="67"/>
       <c r="CN74" s="6"/>
       <c r="CO74" s="5"/>
     </row>
@@ -10417,9 +10383,9 @@
       <c r="CF75" s="5"/>
       <c r="CG75" s="5"/>
       <c r="CH75" s="5"/>
-      <c r="CK75" s="66"/>
-      <c r="CL75" s="66"/>
-      <c r="CM75" s="66"/>
+      <c r="CK75" s="67"/>
+      <c r="CL75" s="67"/>
+      <c r="CM75" s="67"/>
       <c r="CN75" s="6"/>
       <c r="CO75" s="5"/>
     </row>
@@ -10437,9 +10403,9 @@
       <c r="CF76" s="5"/>
       <c r="CG76" s="5"/>
       <c r="CH76" s="5"/>
-      <c r="CK76" s="66"/>
-      <c r="CL76" s="66"/>
-      <c r="CM76" s="66"/>
+      <c r="CK76" s="67"/>
+      <c r="CL76" s="67"/>
+      <c r="CM76" s="67"/>
       <c r="CN76" s="6"/>
       <c r="CO76" s="5"/>
     </row>
@@ -10457,9 +10423,9 @@
       <c r="CF77" s="5"/>
       <c r="CG77" s="5"/>
       <c r="CH77" s="5"/>
-      <c r="CK77" s="66"/>
-      <c r="CL77" s="66"/>
-      <c r="CM77" s="66"/>
+      <c r="CK77" s="67"/>
+      <c r="CL77" s="67"/>
+      <c r="CM77" s="67"/>
       <c r="CN77" s="6"/>
       <c r="CO77" s="5"/>
     </row>
@@ -10477,9 +10443,9 @@
       <c r="CF78" s="5"/>
       <c r="CG78" s="5"/>
       <c r="CH78" s="5"/>
-      <c r="CK78" s="66"/>
-      <c r="CL78" s="66"/>
-      <c r="CM78" s="66"/>
+      <c r="CK78" s="67"/>
+      <c r="CL78" s="67"/>
+      <c r="CM78" s="67"/>
       <c r="CN78" s="6"/>
       <c r="CO78" s="5"/>
     </row>
@@ -10497,9 +10463,9 @@
       <c r="CF79" s="5"/>
       <c r="CG79" s="5"/>
       <c r="CH79" s="5"/>
-      <c r="CK79" s="66"/>
-      <c r="CL79" s="66"/>
-      <c r="CM79" s="66"/>
+      <c r="CK79" s="67"/>
+      <c r="CL79" s="67"/>
+      <c r="CM79" s="67"/>
       <c r="CN79" s="6"/>
       <c r="CO79" s="5"/>
     </row>
@@ -10517,9 +10483,9 @@
       <c r="CF80" s="5"/>
       <c r="CG80" s="5"/>
       <c r="CH80" s="5"/>
-      <c r="CK80" s="66"/>
-      <c r="CL80" s="66"/>
-      <c r="CM80" s="66"/>
+      <c r="CK80" s="67"/>
+      <c r="CL80" s="67"/>
+      <c r="CM80" s="67"/>
       <c r="CN80" s="6"/>
       <c r="CO80" s="5"/>
     </row>
@@ -10537,9 +10503,9 @@
       <c r="CF81" s="5"/>
       <c r="CG81" s="5"/>
       <c r="CH81" s="5"/>
-      <c r="CK81" s="66"/>
-      <c r="CL81" s="66"/>
-      <c r="CM81" s="66"/>
+      <c r="CK81" s="67"/>
+      <c r="CL81" s="67"/>
+      <c r="CM81" s="67"/>
       <c r="CN81" s="6"/>
       <c r="CO81" s="5"/>
     </row>
@@ -10557,9 +10523,9 @@
       <c r="CF82" s="5"/>
       <c r="CG82" s="5"/>
       <c r="CH82" s="5"/>
-      <c r="CK82" s="66"/>
-      <c r="CL82" s="66"/>
-      <c r="CM82" s="66"/>
+      <c r="CK82" s="67"/>
+      <c r="CL82" s="67"/>
+      <c r="CM82" s="67"/>
       <c r="CN82" s="6"/>
       <c r="CO82" s="5"/>
     </row>
@@ -10577,9 +10543,9 @@
       <c r="CF83" s="5"/>
       <c r="CG83" s="5"/>
       <c r="CH83" s="5"/>
-      <c r="CK83" s="66"/>
-      <c r="CL83" s="66"/>
-      <c r="CM83" s="66"/>
+      <c r="CK83" s="67"/>
+      <c r="CL83" s="67"/>
+      <c r="CM83" s="67"/>
       <c r="CN83" s="6"/>
       <c r="CO83" s="5"/>
     </row>
@@ -10643,11 +10609,11 @@
     <mergeCell ref="A4:A44"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV21 AX1:AX83 AZ1:AZ83 BB1:BB83 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR3 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 BR5:BR83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 AV23:AV83 D50:D83" type="none">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV19 AX1:AX19 AZ1:AZ19 BB1:BB19 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR3 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 BR5:BR83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 AX22:AX83 AZ22:AZ83 BB22:BB83 AV23:AV83 D50:D83" type="none">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW21 AY1:AY83 BA1:BA83 BC1:BC83 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS3 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 BS5:BS83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 AW24:AW83 E50:E83" type="textLength">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW19 AY1:AY19 BA1:BA19 BC1:BC19 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS3 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 BS5:BS83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 AY22:AY83 BA22:BA83 BC22:BC83 AW24:AW83 E50:E83" type="textLength">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Sample_and_gear_types_AeN.xlsx
+++ b/Sample_and_gear_types_AeN.xlsx
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="CP1" authorId="0">
+    <comment ref="CL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="256">
   <si>
     <t xml:space="preserve">Sample Group</t>
   </si>
@@ -172,12 +172,6 @@
     <t xml:space="preserve">MIK-net 1500 µm</t>
   </si>
   <si>
-    <t xml:space="preserve">Mocness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tucker</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multinet 90 µm</t>
   </si>
   <si>
@@ -268,7 +262,7 @@
     <t xml:space="preserve">Macrozoop</t>
   </si>
   <si>
-    <t xml:space="preserve">Fish larvae abundance/gut content analyses</t>
+    <t xml:space="preserve">Fish larvae abundance/gut content</t>
   </si>
   <si>
     <t xml:space="preserve">Fish larv abun/gut</t>
@@ -295,10 +289,10 @@
     <t xml:space="preserve">Gelationous zooplankton abundance</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozooplankton ecotox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop ecotox</t>
+    <t xml:space="preserve">Macrozooplankton carbohydrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop carhyd</t>
   </si>
   <si>
     <t xml:space="preserve">POC/PON</t>
@@ -358,339 +352,351 @@
     <t xml:space="preserve">Mesozoop mass, live</t>
   </si>
   <si>
+    <t xml:space="preserve">Macrozooplankton energetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop energ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice algal taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Bacterial production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Barcoding samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcoding samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop abun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton biomass, weighed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozoop mass, wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton fatty acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop fatty acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chl a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microalgal culturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogenic silica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Chlorophyll a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Food web samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food web samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozooplankton genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesozoop genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton mercury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benthic foraminifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromoform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Foraminifera experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foraminifera exp</t>
+  </si>
+  <si>
     <t xml:space="preserve">1, Macrozooplankton carbohydrat</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop carhyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist PCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice algal taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Bacterial production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Barcoding samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barcoding samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gelationous zooplankton taxonomy, ethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gel zoop tax, EtOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton biomass, weighed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozoop mass, wei</t>
+    <t xml:space="preserve">Macrozooplankton organic pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop org pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Microalgal culturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Microbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microbes</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozooplankton energetics</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop energ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chl a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microalgal culturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biogenic silica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Chlorophyll a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Food web samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food web samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton abundance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop abun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozooplankton genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesozoop genetics</t>
+    <t xml:space="preserve"> Macrozooplankton protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diatoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meiofauna taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, PicoNanoEpifluorenscens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicoNanoEpifluo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Organic carbon/nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic C/N</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozooplankton fatty acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop fatty acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benthic foraminifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromoform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,Foraminifera experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foraminifera exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-DOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Microalgal culturing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Microbes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microbes</t>
+    <t xml:space="preserve">Macrozooplankton stable isotope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop isotope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinocysts, ancient DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scavenger taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deltaO18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, PicoNanoFlowcytometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PicoNanoFlowcyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozooplankton genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop genetics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBIs and coccoliths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slurp gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIC/AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Primary production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Pore water content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pore water content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton gonad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop gonad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithological description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA protists/bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA protists/bact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Prokaryote DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Quantitative macrofauna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanti macrofauna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton mecury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop hg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnetic susceptibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable isotopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prokaryote RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Respiration experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiration exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton stable isotope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suction pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOC/DON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist DNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed isotopes, C, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Macrozooplankton nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozoop nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoop physiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecotoxicology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Protist microscopy &lt;  um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protists micros&lt;10um</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozooplankton organic pollutio</t>
   </si>
   <si>
-    <t xml:space="preserve">Diatoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meiofauna taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, PicoNanoEpifluorenscens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicoNanoEpifluo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Organic carbon/nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic C/N</t>
+    <t xml:space="preserve">Planktic foraminifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoop taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorescence excitation spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluo ex spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ,Protist microscopy &gt; 10 um</t>
   </si>
   <si>
     <t xml:space="preserve">1, Macrozooplankton protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop org pol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinocysts, ancient DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scavenger taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deltaO18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, PicoNanoFlowcytometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PicoNanoFlowcyt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton stable isotope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop isotope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBIs and coccoliths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slurp gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIC/AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Primary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Pore water content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pore water content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozooplankton genetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop genetics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithological description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA protists/bacteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA protists/bact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Prokaryote DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Quantitative macrofauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quanti macrofauna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton gonad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop gonad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnetic susceptibility </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stable isotopes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prokaryote RNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Respiration experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiration exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pteropod shell condition, shell density and size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen profiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC/DON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist DNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Sediment stable isotopes, carbon and nitrogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sed isotopes, C, N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planktonic foraminifera species abundance and species composition, state of shell dissolution and shell thickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoop physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecotoxicology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Protist microscopy &lt;  um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protists micros&lt;10um</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozooplankton nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozoop nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planktic foraminifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoop taxonomy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluorescence excitation spectrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluo ex spec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ,Protist microscopy &gt; 10 um</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pore water</t>
   </si>
   <si>
@@ -700,7 +706,10 @@
     <t xml:space="preserve">1, Protist PCR</t>
   </si>
   <si>
-    <t xml:space="preserve">Macrozoop protein</t>
+    <t xml:space="preserve">1, Macrozoplankton stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrozop stomach</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -713,12 +722,6 @@
   </si>
   <si>
     <t xml:space="preserve">Silicate incorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Macrozoplankton stomach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrozop stomach</t>
   </si>
   <si>
     <t xml:space="preserve">Sediment geochemistry</t>
@@ -1096,7 +1099,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1289,8 +1292,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1333,10 +1336,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1353,6 +1352,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1363,6 +1366,14 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1445,14 +1456,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>356040</xdr:rowOff>
+      <xdr:rowOff>356400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
@@ -1463,8 +1474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57483360" y="4920120"/>
-          <a:ext cx="3003480" cy="429480"/>
+          <a:off x="53460720" y="4920480"/>
+          <a:ext cx="2945880" cy="429120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1488,16 +1499,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>355680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1506,8 +1517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57483360" y="5300280"/>
-          <a:ext cx="3003480" cy="1357200"/>
+          <a:off x="53460720" y="5300280"/>
+          <a:ext cx="2945880" cy="1356840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1531,14 +1542,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>72</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>357120</xdr:rowOff>
+      <xdr:rowOff>357480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
@@ -1549,8 +1560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71923320" y="3399840"/>
-          <a:ext cx="3975120" cy="428760"/>
+          <a:off x="68079960" y="3400200"/>
+          <a:ext cx="3898440" cy="428400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1574,14 +1585,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>72</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>356400</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
@@ -1592,8 +1603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71923320" y="4159800"/>
-          <a:ext cx="3975120" cy="429480"/>
+          <a:off x="68079960" y="4160160"/>
+          <a:ext cx="3898440" cy="429120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1617,16 +1628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>72</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>355680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1635,8 +1646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71923320" y="4539600"/>
-          <a:ext cx="3975120" cy="429120"/>
+          <a:off x="68079960" y="4539600"/>
+          <a:ext cx="3898440" cy="428760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1660,14 +1671,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>72</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>356400</xdr:rowOff>
+      <xdr:rowOff>356760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
@@ -1678,8 +1689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71923320" y="5681160"/>
-          <a:ext cx="3975120" cy="1355760"/>
+          <a:off x="68079960" y="5681520"/>
+          <a:ext cx="3898440" cy="1355400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1703,14 +1714,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>72</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
+      <xdr:rowOff>366120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
@@ -1721,8 +1732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71923320" y="7749360"/>
-          <a:ext cx="3975120" cy="429480"/>
+          <a:off x="68079960" y="7749720"/>
+          <a:ext cx="3898440" cy="429120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1754,45 +1765,50 @@
   </sheetPr>
   <dimension ref="1:83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA27" activeCellId="0" sqref="BA27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="47" min="46" style="5" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="5" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="69" min="49" style="5" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="5" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="5" width="20.25"/>
-    <col collapsed="false" hidden="false" max="73" min="72" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="77" min="74" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="79" min="78" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="82" min="80" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="3" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="86" min="84" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="5" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="90" min="88" style="6" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="91" min="91" style="7" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="92" min="92" style="8" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="93" min="93" style="9" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="94" min="94" style="4" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="95" min="95" style="4" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="96" min="96" style="10" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="97" style="4" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="33" min="26" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="35" min="34" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="43" min="36" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="45" min="44" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="47" min="46" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="5" width="23.3367346938776"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="5" width="21.3010204081633"/>
+    <col collapsed="false" hidden="false" max="63" min="51" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="5" width="19.8163265306122"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="5" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="5" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="69" min="68" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="73" min="70" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="75" min="74" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="78" min="76" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="3" width="13.5"/>
+    <col collapsed="false" hidden="false" max="82" min="80" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="86" min="84" style="6" width="13.5"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="7" width="13.5"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="8" width="13.5"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="9" width="13.5"/>
+    <col collapsed="false" hidden="false" max="90" min="90" style="4" width="13.5"/>
+    <col collapsed="false" hidden="false" max="91" min="91" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="92" min="92" style="10" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1020" min="93" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1875,47 +1891,47 @@
       <c r="BM1" s="16"/>
       <c r="BN1" s="16"/>
       <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="17" t="s">
+      <c r="BP1" s="17" t="s">
         <v>6</v>
       </c>
+      <c r="BQ1" s="17"/>
+      <c r="BR1" s="17"/>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
       <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="18" t="s">
+      <c r="BV1" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
       <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="14" t="s">
+      <c r="CB1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="19" t="s">
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="CK1" s="19"/>
-      <c r="CL1" s="19"/>
-      <c r="CM1" s="19"/>
-      <c r="CN1" s="20" t="s">
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="19"/>
+      <c r="CJ1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CO1" s="20"/>
-      <c r="CP1" s="21" t="s">
+      <c r="CK1" s="20"/>
+      <c r="CL1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
+      <c r="CM1" s="22"/>
+      <c r="CN1" s="22"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="32" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
@@ -2049,350 +2065,338 @@
         <v>44</v>
       </c>
       <c r="BM2" s="25"/>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="BO2" s="25"/>
+      <c r="BO2" s="29"/>
       <c r="BP2" s="25" t="s">
         <v>46</v>
       </c>
       <c r="BQ2" s="25"/>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="BU2" s="25"/>
+      <c r="BU2" s="28"/>
       <c r="BV2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="BW2" s="25"/>
+      <c r="BX2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BW2" s="25"/>
-      <c r="BX2" s="28" t="s">
+      <c r="BY2" s="25"/>
+      <c r="BZ2" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="CA2" s="25"/>
+      <c r="CA2" s="28"/>
       <c r="CB2" s="25" t="s">
         <v>51</v>
       </c>
       <c r="CC2" s="25"/>
-      <c r="CD2" s="28" t="s">
+      <c r="CD2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="CE2" s="28"/>
+      <c r="CE2" s="25"/>
       <c r="CF2" s="25" t="s">
         <v>53</v>
       </c>
       <c r="CG2" s="25"/>
-      <c r="CH2" s="25" t="s">
+      <c r="CH2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="CI2" s="25"/>
-      <c r="CJ2" s="25" t="s">
+      <c r="CI2" s="30"/>
+      <c r="CJ2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="CK2" s="25"/>
-      <c r="CL2" s="30" t="s">
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="CM2" s="30"/>
-      <c r="CN2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="CO2" s="31"/>
-      <c r="CP2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="CR2" s="33"/>
+      <c r="CN2" s="33"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AC3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AJ3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AL3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AM3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AN3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AO3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AP3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AQ3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AR3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AS3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AT3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AU3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AV3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AW3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AY3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BA3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BB3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BD3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BE3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BF3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BG3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BH3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BI3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BJ3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BK3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BL3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BM3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BN3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BO3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BP3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BQ3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BR3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BS3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BT3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BU3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BV3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BW3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BX3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BY3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BZ3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA3" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="CA3" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="CB3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="CC3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="CD3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="CE3" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="CE3" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="CF3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="CG3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="CH3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="CI3" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="CJ3" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="CK3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="CL3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="CM3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="CN3" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="CO3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="CP3" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="CL3" s="26"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="33"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
       <c r="CQ3" s="0"/>
-      <c r="CR3" s="33"/>
+      <c r="CR3" s="0"/>
       <c r="CS3" s="0"/>
       <c r="CT3" s="0"/>
       <c r="CU3" s="0"/>
@@ -3317,64 +3321,60 @@
       <c r="AMD3" s="0"/>
       <c r="AME3" s="0"/>
       <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="53" customFormat="true" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="Q4" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>65</v>
-      </c>
       <c r="R4" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S4" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T4" s="42"/>
       <c r="U4" s="42"/>
@@ -3391,10 +3391,10 @@
       <c r="AF4" s="38"/>
       <c r="AG4" s="38"/>
       <c r="AH4" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AI4" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AJ4" s="45" t="s">
         <v>30</v>
@@ -3403,143 +3403,135 @@
         <v>30</v>
       </c>
       <c r="AL4" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AM4" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AN4" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AO4" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP4" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AQ4" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AR4" s="43"/>
       <c r="AS4" s="42"/>
       <c r="AT4" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU4" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV4" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AU4" s="42" t="s">
+      <c r="AW4" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="AV4" s="40" t="s">
+      <c r="AX4" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY4" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AW4" s="40" t="s">
+      <c r="BC4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AX4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY4" s="40" t="s">
+      <c r="BD4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="AZ4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA4" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="BC4" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG4" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI4" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ4" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK4" s="47" t="s">
+      <c r="BN4" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="46" t="s">
+      <c r="BO4" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="BQ4" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR4" s="48" t="s">
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW4" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX4" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="BY4" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ4" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="CB4" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="BS4" s="48" t="s">
+      <c r="CC4" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD4" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE4" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF4" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38"/>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="CA4" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="CB4" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="CC4" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="CD4" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="CE4" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="CF4" s="50" t="s">
+      <c r="CG4" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="CG4" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="CH4" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI4" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ4" s="43" t="s">
+      <c r="CH4" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="CK4" s="42" t="s">
+      <c r="CI4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="CL4" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM4" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="CN4" s="43"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
+      <c r="CJ4" s="43"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="52"/>
+      <c r="CO4" s="52"/>
+      <c r="CP4" s="52"/>
+      <c r="CQ4" s="52"/>
       <c r="CR4" s="52"/>
       <c r="CS4" s="52"/>
       <c r="CT4" s="52"/>
@@ -3563,50 +3555,50 @@
       <c r="DL4" s="52"/>
       <c r="DM4" s="52"/>
       <c r="DN4" s="52"/>
-      <c r="DO4" s="52"/>
-      <c r="DP4" s="52"/>
-      <c r="DQ4" s="52"/>
-      <c r="DR4" s="52"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="35"/>
       <c r="B5" s="54"/>
       <c r="C5" s="55"/>
       <c r="D5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="G5" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>89</v>
-      </c>
       <c r="H5" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N5" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P5" s="40"/>
       <c r="Q5" s="40"/>
@@ -3627,146 +3619,138 @@
       <c r="AF5" s="38"/>
       <c r="AG5" s="38"/>
       <c r="AH5" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="58" t="s">
+      <c r="AL5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN5" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL5" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM5" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN5" s="45" t="s">
-        <v>93</v>
-      </c>
       <c r="AO5" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AP5" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AQ5" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AR5" s="43"/>
       <c r="AS5" s="42"/>
       <c r="AT5" s="42"/>
       <c r="AU5" s="42"/>
       <c r="AV5" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AW5" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AX5" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY5" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ5" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA5" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB5" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC5" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC5" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="46" t="s">
         <v>94</v>
       </c>
       <c r="BG5" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="46" t="s">
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="BK5" s="47" t="s">
+      <c r="BM5" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="46" t="s">
+      <c r="BN5" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="BQ5" s="42" t="s">
+      <c r="BO5" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="BR5" s="59" t="s">
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW5" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX5" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY5" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="BZ5" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="CA5" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB5" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="BS5" s="59" t="s">
+      <c r="CC5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE5" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="CF5" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="42"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="45"/>
-      <c r="BX5" s="45"/>
-      <c r="BY5" s="38"/>
-      <c r="BZ5" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="CB5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="CC5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD5" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="CE5" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="CF5" s="50" t="s">
+      <c r="CG5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH5" s="55"/>
+      <c r="CI5" s="55"/>
+      <c r="CJ5" s="54"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="CG5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="CH5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="CI5" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ5" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="CK5" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL5" s="55"/>
-      <c r="CM5" s="55"/>
-      <c r="CN5" s="54"/>
-      <c r="CO5" s="42"/>
-      <c r="CP5" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="CQ5" s="38"/>
-      <c r="CR5" s="60"/>
+      <c r="CM5" s="38"/>
+      <c r="CN5" s="59"/>
+      <c r="CO5" s="52"/>
+      <c r="CP5" s="52"/>
+      <c r="CQ5" s="52"/>
+      <c r="CR5" s="52"/>
       <c r="CS5" s="52"/>
       <c r="CT5" s="52"/>
       <c r="CU5" s="52"/>
@@ -3789,26 +3773,22 @@
       <c r="DL5" s="52"/>
       <c r="DM5" s="52"/>
       <c r="DN5" s="52"/>
-      <c r="DO5" s="52"/>
-      <c r="DP5" s="52"/>
-      <c r="DQ5" s="52"/>
-      <c r="DR5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>87</v>
+        <v>103</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>85</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
@@ -3821,7 +3801,7 @@
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
-      <c r="S6" s="63"/>
+      <c r="S6" s="62"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
       <c r="V6" s="42"/>
@@ -3837,132 +3817,124 @@
       <c r="AF6" s="38"/>
       <c r="AG6" s="38"/>
       <c r="AH6" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI6" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ6" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK6" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="AI6" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ6" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK6" s="58" t="s">
-        <v>109</v>
-      </c>
       <c r="AL6" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AM6" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AN6" s="38"/>
       <c r="AO6" s="38"/>
       <c r="AP6" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AQ6" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AR6" s="43"/>
       <c r="AS6" s="42"/>
       <c r="AT6" s="42"/>
       <c r="AU6" s="42"/>
       <c r="AV6" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AW6" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AX6" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AY6" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ6" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA6" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB6" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC6" s="40" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AZ6" s="42"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="47"/>
       <c r="BD6" s="42"/>
       <c r="BE6" s="42"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
+      <c r="BF6" s="42"/>
+      <c r="BG6" s="42"/>
       <c r="BH6" s="42"/>
       <c r="BI6" s="42"/>
       <c r="BJ6" s="42"/>
       <c r="BK6" s="42"/>
-      <c r="BL6" s="42"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="46" t="s">
+      <c r="BL6" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM6" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN6" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="BQ6" s="42" t="s">
+      <c r="BO6" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="BR6" s="59" t="s">
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="42"/>
+      <c r="BR6" s="45"/>
+      <c r="BS6" s="45"/>
+      <c r="BT6" s="45"/>
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA6" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BS6" s="59" t="s">
+      <c r="CC6" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="BT6" s="43"/>
-      <c r="BU6" s="42"/>
-      <c r="BV6" s="45"/>
-      <c r="BW6" s="45"/>
-      <c r="BX6" s="45"/>
-      <c r="BY6" s="38"/>
-      <c r="BZ6" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA6" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB6" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC6" s="50" t="s">
-        <v>107</v>
-      </c>
       <c r="CD6" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE6" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF6" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="CE6" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="CF6" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="CG6" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH6" s="50" t="s">
+      <c r="CG6" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="CI6" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="CJ6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="CK6" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="CL6" s="55"/>
-      <c r="CM6" s="55"/>
-      <c r="CN6" s="54"/>
-      <c r="CO6" s="42"/>
-      <c r="CP6" s="38"/>
-      <c r="CQ6" s="38"/>
-      <c r="CR6" s="60"/>
+      <c r="CH6" s="55"/>
+      <c r="CI6" s="55"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="42"/>
+      <c r="CL6" s="38"/>
+      <c r="CM6" s="38"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="52"/>
+      <c r="CP6" s="52"/>
+      <c r="CQ6" s="52"/>
+      <c r="CR6" s="52"/>
       <c r="CS6" s="52"/>
       <c r="CT6" s="52"/>
       <c r="CU6" s="52"/>
@@ -3985,26 +3957,22 @@
       <c r="DL6" s="52"/>
       <c r="DM6" s="52"/>
       <c r="DN6" s="52"/>
-      <c r="DO6" s="52"/>
-      <c r="DP6" s="52"/>
-      <c r="DQ6" s="52"/>
-      <c r="DR6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35"/>
       <c r="B7" s="54"/>
       <c r="C7" s="55"/>
       <c r="D7" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="62" t="s">
         <v>117</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -4017,7 +3985,7 @@
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-      <c r="S7" s="63"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="42"/>
       <c r="U7" s="42"/>
       <c r="V7" s="42"/>
@@ -4035,10 +4003,10 @@
       <c r="AH7" s="43"/>
       <c r="AI7" s="42"/>
       <c r="AJ7" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK7" s="58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL7" s="45"/>
       <c r="AM7" s="45"/>
@@ -4051,29 +4019,21 @@
       <c r="AT7" s="42"/>
       <c r="AU7" s="42"/>
       <c r="AV7" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AW7" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX7" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AY7" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ7" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA7" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB7" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC7" s="40" t="s">
-        <v>124</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
       <c r="BD7" s="42"/>
       <c r="BE7" s="42"/>
       <c r="BF7" s="42"/>
@@ -4082,51 +4042,51 @@
       <c r="BI7" s="42"/>
       <c r="BJ7" s="42"/>
       <c r="BK7" s="42"/>
-      <c r="BL7" s="42"/>
-      <c r="BM7" s="42"/>
-      <c r="BN7" s="42"/>
-      <c r="BO7" s="42"/>
-      <c r="BP7" s="46" t="s">
+      <c r="BL7" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM7" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN7" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="BQ7" s="45" t="s">
+      <c r="BO7" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="BR7" s="59" t="s">
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="BS7" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT7" s="43"/>
-      <c r="BU7" s="42"/>
-      <c r="BV7" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="42"/>
       <c r="BX7" s="38"/>
       <c r="BY7" s="38"/>
-      <c r="BZ7" s="43"/>
-      <c r="CA7" s="42"/>
-      <c r="CB7" s="38"/>
-      <c r="CC7" s="38"/>
-      <c r="CD7" s="38"/>
-      <c r="CE7" s="63"/>
-      <c r="CF7" s="42"/>
-      <c r="CG7" s="42"/>
-      <c r="CH7" s="42"/>
-      <c r="CI7" s="42"/>
+      <c r="BZ7" s="38"/>
+      <c r="CA7" s="62"/>
+      <c r="CB7" s="42"/>
+      <c r="CC7" s="42"/>
+      <c r="CD7" s="42"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="64"/>
+      <c r="CG7" s="65"/>
+      <c r="CH7" s="65"/>
+      <c r="CI7" s="65"/>
       <c r="CJ7" s="64"/>
-      <c r="CK7" s="65"/>
-      <c r="CL7" s="65"/>
-      <c r="CM7" s="65"/>
-      <c r="CN7" s="64"/>
-      <c r="CO7" s="42"/>
-      <c r="CP7" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="CQ7" s="38"/>
-      <c r="CR7" s="60"/>
+      <c r="CK7" s="42"/>
+      <c r="CL7" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM7" s="38"/>
+      <c r="CN7" s="59"/>
+      <c r="CO7" s="52"/>
+      <c r="CP7" s="52"/>
+      <c r="CQ7" s="52"/>
+      <c r="CR7" s="52"/>
       <c r="CS7" s="52"/>
       <c r="CT7" s="52"/>
       <c r="CU7" s="52"/>
@@ -4149,26 +4109,22 @@
       <c r="DL7" s="52"/>
       <c r="DM7" s="52"/>
       <c r="DN7" s="52"/>
-      <c r="DO7" s="52"/>
-      <c r="DP7" s="52"/>
-      <c r="DQ7" s="52"/>
-      <c r="DR7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35"/>
       <c r="B8" s="54"/>
       <c r="C8" s="55"/>
       <c r="D8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="67" t="s">
         <v>131</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
@@ -4181,7 +4137,7 @@
       <c r="P8" s="42"/>
       <c r="Q8" s="42"/>
       <c r="R8" s="42"/>
-      <c r="S8" s="63"/>
+      <c r="S8" s="62"/>
       <c r="T8" s="42"/>
       <c r="U8" s="42"/>
       <c r="V8" s="42"/>
@@ -4199,10 +4155,10 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="42"/>
       <c r="AJ8" s="58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AK8" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL8" s="45"/>
       <c r="AM8" s="45"/>
@@ -4214,79 +4170,71 @@
       <c r="AS8" s="42"/>
       <c r="AT8" s="42"/>
       <c r="AU8" s="42"/>
-      <c r="AV8" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW8" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX8" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY8" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ8" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA8" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB8" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC8" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
+      <c r="AV8" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW8" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX8" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY8" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="45"/>
+      <c r="BE8" s="45"/>
       <c r="BF8" s="42"/>
       <c r="BG8" s="42"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
       <c r="BJ8" s="42"/>
       <c r="BK8" s="42"/>
       <c r="BL8" s="42"/>
       <c r="BM8" s="42"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="42"/>
-      <c r="BP8" s="42"/>
+      <c r="BN8" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO8" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP8" s="43"/>
       <c r="BQ8" s="42"/>
-      <c r="BR8" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS8" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW8" s="38"/>
+      <c r="BR8" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="38"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="43"/>
+      <c r="BW8" s="42"/>
       <c r="BX8" s="38"/>
       <c r="BY8" s="38"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="42"/>
-      <c r="CB8" s="38"/>
-      <c r="CC8" s="38"/>
-      <c r="CD8" s="38"/>
-      <c r="CE8" s="63"/>
-      <c r="CF8" s="42"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="62"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="42"/>
+      <c r="CD8" s="42"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="43"/>
       <c r="CG8" s="42"/>
       <c r="CH8" s="42"/>
       <c r="CI8" s="42"/>
       <c r="CJ8" s="43"/>
       <c r="CK8" s="42"/>
-      <c r="CL8" s="42"/>
-      <c r="CM8" s="42"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="42"/>
-      <c r="CP8" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="CQ8" s="38"/>
-      <c r="CR8" s="60"/>
+      <c r="CL8" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="CM8" s="38"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="52"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
       <c r="CS8" s="52"/>
       <c r="CT8" s="52"/>
       <c r="CU8" s="52"/>
@@ -4309,26 +4257,22 @@
       <c r="DL8" s="52"/>
       <c r="DM8" s="52"/>
       <c r="DN8" s="52"/>
-      <c r="DO8" s="52"/>
-      <c r="DP8" s="52"/>
-      <c r="DQ8" s="52"/>
-      <c r="DR8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35"/>
       <c r="B9" s="54"/>
       <c r="C9" s="55"/>
       <c r="D9" s="38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
@@ -4341,7 +4285,7 @@
       <c r="P9" s="42"/>
       <c r="Q9" s="42"/>
       <c r="R9" s="42"/>
-      <c r="S9" s="63"/>
+      <c r="S9" s="62"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
       <c r="V9" s="42"/>
@@ -4359,10 +4303,10 @@
       <c r="AH9" s="43"/>
       <c r="AI9" s="42"/>
       <c r="AJ9" s="58" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AK9" s="58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AL9" s="45"/>
       <c r="AM9" s="45"/>
@@ -4375,78 +4319,70 @@
       <c r="AT9" s="42"/>
       <c r="AU9" s="42"/>
       <c r="AV9" s="57" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AW9" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AX9" s="57" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AY9" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ9" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA9" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB9" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC9" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
+        <v>99</v>
+      </c>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="42"/>
+      <c r="BC9" s="42"/>
+      <c r="BD9" s="45"/>
+      <c r="BE9" s="45"/>
       <c r="BF9" s="42"/>
       <c r="BG9" s="42"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
       <c r="BJ9" s="42"/>
       <c r="BK9" s="42"/>
       <c r="BL9" s="42"/>
       <c r="BM9" s="42"/>
-      <c r="BN9" s="42"/>
-      <c r="BO9" s="42"/>
-      <c r="BP9" s="42"/>
+      <c r="BN9" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO9" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP9" s="43"/>
       <c r="BQ9" s="42"/>
-      <c r="BR9" s="59" t="s">
+      <c r="BR9" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="BS9" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT9" s="43"/>
-      <c r="BU9" s="42"/>
-      <c r="BV9" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="43"/>
+      <c r="BW9" s="42"/>
       <c r="BX9" s="38"/>
       <c r="BY9" s="38"/>
-      <c r="BZ9" s="43"/>
-      <c r="CA9" s="42"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="63"/>
-      <c r="CF9" s="42"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="62"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="42"/>
+      <c r="CD9" s="42"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="43"/>
       <c r="CG9" s="42"/>
       <c r="CH9" s="42"/>
       <c r="CI9" s="42"/>
       <c r="CJ9" s="43"/>
       <c r="CK9" s="42"/>
-      <c r="CL9" s="42"/>
-      <c r="CM9" s="42"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="42"/>
-      <c r="CP9" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="60"/>
+      <c r="CL9" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="59"/>
+      <c r="CO9" s="52"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
       <c r="CS9" s="52"/>
       <c r="CT9" s="52"/>
       <c r="CU9" s="52"/>
@@ -4469,26 +4405,22 @@
       <c r="DL9" s="52"/>
       <c r="DM9" s="52"/>
       <c r="DN9" s="52"/>
-      <c r="DO9" s="52"/>
-      <c r="DP9" s="52"/>
-      <c r="DQ9" s="52"/>
-      <c r="DR9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55"/>
       <c r="D10" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>149</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>150</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
@@ -4501,7 +4433,7 @@
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
-      <c r="S10" s="63"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
       <c r="V10" s="42"/>
@@ -4519,10 +4451,10 @@
       <c r="AH10" s="43"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK10" s="58" t="s">
         <v>151</v>
-      </c>
-      <c r="AK10" s="58" t="s">
-        <v>152</v>
       </c>
       <c r="AL10" s="45"/>
       <c r="AM10" s="45"/>
@@ -4535,78 +4467,70 @@
       <c r="AT10" s="42"/>
       <c r="AU10" s="42"/>
       <c r="AV10" s="57" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="AW10" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AX10" s="57" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="AY10" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ10" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA10" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB10" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC10" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
+        <v>113</v>
+      </c>
+      <c r="AZ10" s="42"/>
+      <c r="BA10" s="42"/>
+      <c r="BB10" s="42"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="45"/>
+      <c r="BE10" s="45"/>
       <c r="BF10" s="42"/>
       <c r="BG10" s="42"/>
-      <c r="BH10" s="45"/>
-      <c r="BI10" s="45"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
       <c r="BJ10" s="42"/>
       <c r="BK10" s="42"/>
       <c r="BL10" s="42"/>
       <c r="BM10" s="42"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="42"/>
-      <c r="BP10" s="42"/>
+      <c r="BN10" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="BO10" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="BP10" s="43"/>
       <c r="BQ10" s="42"/>
-      <c r="BR10" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS10" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT10" s="43"/>
-      <c r="BU10" s="42"/>
-      <c r="BV10" s="38" t="s">
+      <c r="BR10" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="BW10" s="38"/>
+      <c r="BS10" s="38"/>
+      <c r="BT10" s="38"/>
+      <c r="BU10" s="38"/>
+      <c r="BV10" s="43"/>
+      <c r="BW10" s="42"/>
       <c r="BX10" s="38"/>
       <c r="BY10" s="38"/>
-      <c r="BZ10" s="43"/>
-      <c r="CA10" s="42"/>
-      <c r="CB10" s="38"/>
-      <c r="CC10" s="38"/>
-      <c r="CD10" s="38"/>
-      <c r="CE10" s="63"/>
-      <c r="CF10" s="42"/>
+      <c r="BZ10" s="38"/>
+      <c r="CA10" s="62"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="42"/>
+      <c r="CD10" s="42"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="43"/>
       <c r="CG10" s="42"/>
       <c r="CH10" s="42"/>
       <c r="CI10" s="42"/>
       <c r="CJ10" s="43"/>
       <c r="CK10" s="42"/>
-      <c r="CL10" s="42"/>
-      <c r="CM10" s="42"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="42"/>
-      <c r="CP10" s="38" t="s">
+      <c r="CL10" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="60"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="52"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
       <c r="CS10" s="52"/>
       <c r="CT10" s="52"/>
       <c r="CU10" s="52"/>
@@ -4629,10 +4553,6 @@
       <c r="DL10" s="52"/>
       <c r="DM10" s="52"/>
       <c r="DN10" s="52"/>
-      <c r="DO10" s="52"/>
-      <c r="DP10" s="52"/>
-      <c r="DQ10" s="52"/>
-      <c r="DR10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35"/>
@@ -4644,10 +4564,10 @@
       <c r="E11" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="67" t="s">
         <v>159</v>
       </c>
       <c r="H11" s="38"/>
@@ -4661,7 +4581,7 @@
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-      <c r="S11" s="63"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
       <c r="V11" s="42"/>
@@ -4694,79 +4614,67 @@
       <c r="AS11" s="42"/>
       <c r="AT11" s="42"/>
       <c r="AU11" s="42"/>
-      <c r="AV11" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW11" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX11" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY11" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ11" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA11" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB11" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC11" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
+      <c r="AV11" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW11" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX11" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY11" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ11" s="42"/>
+      <c r="BA11" s="42"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="42"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="45"/>
       <c r="BF11" s="42"/>
       <c r="BG11" s="42"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
       <c r="BJ11" s="42"/>
       <c r="BK11" s="42"/>
       <c r="BL11" s="42"/>
       <c r="BM11" s="42"/>
-      <c r="BN11" s="42"/>
-      <c r="BO11" s="42"/>
-      <c r="BP11" s="42"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="43"/>
       <c r="BQ11" s="42"/>
-      <c r="BR11" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS11" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT11" s="43"/>
-      <c r="BU11" s="42"/>
-      <c r="BV11" s="38" t="s">
+      <c r="BR11" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="BW11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="43"/>
+      <c r="BW11" s="42"/>
       <c r="BX11" s="38"/>
       <c r="BY11" s="38"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="42"/>
-      <c r="CB11" s="38"/>
-      <c r="CC11" s="38"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="63"/>
-      <c r="CF11" s="42"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="62"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="42"/>
+      <c r="CD11" s="42"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="43"/>
       <c r="CG11" s="42"/>
       <c r="CH11" s="42"/>
       <c r="CI11" s="42"/>
       <c r="CJ11" s="43"/>
       <c r="CK11" s="42"/>
-      <c r="CL11" s="42"/>
-      <c r="CM11" s="42"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="42"/>
-      <c r="CP11" s="38" t="s">
+      <c r="CL11" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="CQ11" s="38"/>
-      <c r="CR11" s="60"/>
+      <c r="CM11" s="38"/>
+      <c r="CN11" s="59"/>
+      <c r="CO11" s="52"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="52"/>
       <c r="CS11" s="52"/>
       <c r="CT11" s="52"/>
       <c r="CU11" s="52"/>
@@ -4789,10 +4697,6 @@
       <c r="DL11" s="52"/>
       <c r="DM11" s="52"/>
       <c r="DN11" s="52"/>
-      <c r="DO11" s="52"/>
-      <c r="DP11" s="52"/>
-      <c r="DQ11" s="52"/>
-      <c r="DR11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35"/>
@@ -4804,10 +4708,10 @@
       <c r="E12" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="61" t="s">
         <v>168</v>
       </c>
       <c r="H12" s="38"/>
@@ -4821,7 +4725,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="63"/>
+      <c r="S12" s="62"/>
       <c r="T12" s="42"/>
       <c r="U12" s="42"/>
       <c r="V12" s="42"/>
@@ -4854,76 +4758,68 @@
       <c r="AS12" s="42"/>
       <c r="AT12" s="42"/>
       <c r="AU12" s="42"/>
-      <c r="AV12" s="40" t="s">
+      <c r="AV12" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="AW12" s="40" t="s">
+      <c r="AW12" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="AX12" s="40" t="s">
+      <c r="AX12" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="AY12" s="40" t="s">
+      <c r="AY12" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="AZ12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA12" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="BB12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC12" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
       <c r="BF12" s="42"/>
       <c r="BG12" s="42"/>
-      <c r="BH12" s="45"/>
-      <c r="BI12" s="45"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
       <c r="BJ12" s="42"/>
       <c r="BK12" s="42"/>
       <c r="BL12" s="42"/>
       <c r="BM12" s="42"/>
       <c r="BN12" s="42"/>
       <c r="BO12" s="42"/>
-      <c r="BP12" s="42"/>
+      <c r="BP12" s="43"/>
       <c r="BQ12" s="42"/>
-      <c r="BR12" s="42"/>
-      <c r="BS12" s="42"/>
-      <c r="BT12" s="43"/>
-      <c r="BU12" s="42"/>
-      <c r="BV12" s="38" t="s">
+      <c r="BR12" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="BW12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="43"/>
+      <c r="BW12" s="42"/>
       <c r="BX12" s="38"/>
       <c r="BY12" s="38"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="42"/>
-      <c r="CB12" s="38"/>
-      <c r="CC12" s="38"/>
-      <c r="CD12" s="38"/>
-      <c r="CE12" s="63"/>
-      <c r="CF12" s="42"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="62"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="43"/>
       <c r="CG12" s="42"/>
       <c r="CH12" s="42"/>
       <c r="CI12" s="42"/>
       <c r="CJ12" s="43"/>
       <c r="CK12" s="42"/>
-      <c r="CL12" s="42"/>
-      <c r="CM12" s="42"/>
-      <c r="CN12" s="43"/>
-      <c r="CO12" s="42"/>
-      <c r="CP12" s="38" t="s">
+      <c r="CL12" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="CQ12" s="38"/>
-      <c r="CR12" s="60"/>
-      <c r="CS12" s="43"/>
+      <c r="CM12" s="38"/>
+      <c r="CN12" s="59"/>
+      <c r="CO12" s="43"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
       <c r="CT12" s="52"/>
       <c r="CU12" s="52"/>
       <c r="CV12" s="52"/>
@@ -4945,10 +4841,6 @@
       <c r="DL12" s="52"/>
       <c r="DM12" s="52"/>
       <c r="DN12" s="52"/>
-      <c r="DO12" s="52"/>
-      <c r="DP12" s="52"/>
-      <c r="DQ12" s="52"/>
-      <c r="DR12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35"/>
@@ -4960,10 +4852,10 @@
       <c r="E13" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="61" t="s">
         <v>178</v>
       </c>
       <c r="H13" s="38"/>
@@ -4977,7 +4869,7 @@
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="63"/>
+      <c r="S13" s="62"/>
       <c r="T13" s="42"/>
       <c r="U13" s="42"/>
       <c r="V13" s="42"/>
@@ -5022,64 +4914,56 @@
       <c r="AY13" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="AZ13" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA13" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB13" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC13" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
       <c r="BF13" s="42"/>
       <c r="BG13" s="42"/>
-      <c r="BH13" s="45"/>
-      <c r="BI13" s="45"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
       <c r="BJ13" s="42"/>
       <c r="BK13" s="42"/>
       <c r="BL13" s="42"/>
       <c r="BM13" s="42"/>
       <c r="BN13" s="42"/>
       <c r="BO13" s="42"/>
-      <c r="BP13" s="42"/>
+      <c r="BP13" s="43"/>
       <c r="BQ13" s="42"/>
-      <c r="BR13" s="42"/>
-      <c r="BS13" s="42"/>
-      <c r="BT13" s="43"/>
-      <c r="BU13" s="42"/>
-      <c r="BV13" s="38" t="s">
+      <c r="BR13" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="BW13" s="38"/>
+      <c r="BS13" s="38"/>
+      <c r="BT13" s="38"/>
+      <c r="BU13" s="38"/>
+      <c r="BV13" s="43"/>
+      <c r="BW13" s="42"/>
       <c r="BX13" s="38"/>
       <c r="BY13" s="38"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="42"/>
-      <c r="CB13" s="38"/>
-      <c r="CC13" s="38"/>
-      <c r="CD13" s="38"/>
-      <c r="CE13" s="63"/>
-      <c r="CF13" s="42"/>
+      <c r="BZ13" s="38"/>
+      <c r="CA13" s="62"/>
+      <c r="CB13" s="42"/>
+      <c r="CC13" s="42"/>
+      <c r="CD13" s="42"/>
+      <c r="CE13" s="42"/>
+      <c r="CF13" s="43"/>
       <c r="CG13" s="42"/>
       <c r="CH13" s="42"/>
       <c r="CI13" s="42"/>
       <c r="CJ13" s="43"/>
       <c r="CK13" s="42"/>
-      <c r="CL13" s="42"/>
-      <c r="CM13" s="42"/>
-      <c r="CN13" s="43"/>
-      <c r="CO13" s="42"/>
-      <c r="CP13" s="38" t="s">
+      <c r="CL13" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="CQ13" s="38"/>
-      <c r="CR13" s="60"/>
-      <c r="CS13" s="43"/>
+      <c r="CM13" s="38"/>
+      <c r="CN13" s="59"/>
+      <c r="CO13" s="43"/>
+      <c r="CP13" s="52"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="52"/>
       <c r="CT13" s="52"/>
       <c r="CU13" s="52"/>
       <c r="CV13" s="52"/>
@@ -5101,10 +4985,6 @@
       <c r="DL13" s="52"/>
       <c r="DM13" s="52"/>
       <c r="DN13" s="52"/>
-      <c r="DO13" s="52"/>
-      <c r="DP13" s="52"/>
-      <c r="DQ13" s="52"/>
-      <c r="DR13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
@@ -5116,10 +4996,10 @@
       <c r="E14" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="61" t="s">
         <v>187</v>
       </c>
       <c r="H14" s="38"/>
@@ -5133,7 +5013,7 @@
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
-      <c r="S14" s="63"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
       <c r="V14" s="42"/>
@@ -5167,36 +5047,28 @@
       <c r="AT14" s="42"/>
       <c r="AU14" s="42"/>
       <c r="AV14" s="57" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="AW14" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX14" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="AX14" s="57" t="s">
-        <v>138</v>
-      </c>
       <c r="AY14" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ14" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA14" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB14" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC14" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD14" s="42"/>
+        <v>154</v>
+      </c>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42" t="s">
+        <v>191</v>
+      </c>
       <c r="BE14" s="42"/>
       <c r="BF14" s="42"/>
       <c r="BG14" s="42"/>
-      <c r="BH14" s="42" t="s">
-        <v>191</v>
-      </c>
+      <c r="BH14" s="42"/>
       <c r="BI14" s="42"/>
       <c r="BJ14" s="42"/>
       <c r="BK14" s="42"/>
@@ -5204,39 +5076,39 @@
       <c r="BM14" s="42"/>
       <c r="BN14" s="42"/>
       <c r="BO14" s="42"/>
-      <c r="BP14" s="42"/>
+      <c r="BP14" s="43"/>
       <c r="BQ14" s="42"/>
-      <c r="BR14" s="42"/>
-      <c r="BS14" s="42"/>
-      <c r="BT14" s="43"/>
-      <c r="BU14" s="42"/>
-      <c r="BV14" s="38" t="s">
+      <c r="BR14" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="BW14" s="38"/>
+      <c r="BS14" s="38"/>
+      <c r="BT14" s="38"/>
+      <c r="BU14" s="38"/>
+      <c r="BV14" s="43"/>
+      <c r="BW14" s="42"/>
       <c r="BX14" s="38"/>
       <c r="BY14" s="38"/>
-      <c r="BZ14" s="43"/>
-      <c r="CA14" s="42"/>
-      <c r="CB14" s="38"/>
-      <c r="CC14" s="38"/>
-      <c r="CD14" s="38"/>
-      <c r="CE14" s="63"/>
-      <c r="CF14" s="42"/>
+      <c r="BZ14" s="38"/>
+      <c r="CA14" s="62"/>
+      <c r="CB14" s="42"/>
+      <c r="CC14" s="42"/>
+      <c r="CD14" s="42"/>
+      <c r="CE14" s="42"/>
+      <c r="CF14" s="43"/>
       <c r="CG14" s="42"/>
       <c r="CH14" s="42"/>
       <c r="CI14" s="42"/>
       <c r="CJ14" s="43"/>
       <c r="CK14" s="42"/>
-      <c r="CL14" s="42"/>
-      <c r="CM14" s="42"/>
-      <c r="CN14" s="43"/>
-      <c r="CO14" s="42"/>
-      <c r="CP14" s="38" t="s">
+      <c r="CL14" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="CQ14" s="38"/>
-      <c r="CR14" s="60"/>
+      <c r="CM14" s="38"/>
+      <c r="CN14" s="59"/>
+      <c r="CO14" s="52"/>
+      <c r="CP14" s="52"/>
+      <c r="CQ14" s="52"/>
+      <c r="CR14" s="52"/>
       <c r="CS14" s="52"/>
       <c r="CT14" s="52"/>
       <c r="CU14" s="52"/>
@@ -5259,10 +5131,6 @@
       <c r="DL14" s="52"/>
       <c r="DM14" s="52"/>
       <c r="DN14" s="52"/>
-      <c r="DO14" s="52"/>
-      <c r="DP14" s="52"/>
-      <c r="DQ14" s="52"/>
-      <c r="DR14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35"/>
@@ -5274,10 +5142,10 @@
       <c r="E15" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>196</v>
       </c>
       <c r="H15" s="38"/>
@@ -5291,7 +5159,7 @@
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
-      <c r="S15" s="63"/>
+      <c r="S15" s="62"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -5325,36 +5193,28 @@
       <c r="AT15" s="42"/>
       <c r="AU15" s="42"/>
       <c r="AV15" s="57" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AW15" s="57" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="AX15" s="57" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="AY15" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ15" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA15" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="BB15" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC15" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD15" s="42"/>
+        <v>200</v>
+      </c>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42" t="s">
+        <v>201</v>
+      </c>
       <c r="BE15" s="42"/>
       <c r="BF15" s="42"/>
       <c r="BG15" s="42"/>
-      <c r="BH15" s="42" t="s">
-        <v>199</v>
-      </c>
+      <c r="BH15" s="42"/>
       <c r="BI15" s="42"/>
       <c r="BJ15" s="42"/>
       <c r="BK15" s="42"/>
@@ -5362,39 +5222,39 @@
       <c r="BM15" s="42"/>
       <c r="BN15" s="42"/>
       <c r="BO15" s="42"/>
-      <c r="BP15" s="42"/>
+      <c r="BP15" s="43"/>
       <c r="BQ15" s="42"/>
-      <c r="BR15" s="42"/>
-      <c r="BS15" s="42"/>
-      <c r="BT15" s="43"/>
-      <c r="BU15" s="42"/>
-      <c r="BV15" s="38" t="s">
+      <c r="BR15" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="BW15" s="38"/>
+      <c r="BS15" s="38"/>
+      <c r="BT15" s="38"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="42"/>
       <c r="BX15" s="38"/>
       <c r="BY15" s="38"/>
-      <c r="BZ15" s="43"/>
-      <c r="CA15" s="42"/>
-      <c r="CB15" s="38"/>
-      <c r="CC15" s="38"/>
-      <c r="CD15" s="38"/>
-      <c r="CE15" s="63"/>
-      <c r="CF15" s="42"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="62"/>
+      <c r="CB15" s="42"/>
+      <c r="CC15" s="42"/>
+      <c r="CD15" s="42"/>
+      <c r="CE15" s="42"/>
+      <c r="CF15" s="43"/>
       <c r="CG15" s="42"/>
       <c r="CH15" s="42"/>
       <c r="CI15" s="42"/>
       <c r="CJ15" s="43"/>
       <c r="CK15" s="42"/>
-      <c r="CL15" s="42"/>
-      <c r="CM15" s="42"/>
-      <c r="CN15" s="43"/>
-      <c r="CO15" s="42"/>
-      <c r="CP15" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ15" s="38"/>
-      <c r="CR15" s="60"/>
+      <c r="CL15" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="CM15" s="38"/>
+      <c r="CN15" s="59"/>
+      <c r="CO15" s="52"/>
+      <c r="CP15" s="52"/>
+      <c r="CQ15" s="52"/>
+      <c r="CR15" s="52"/>
       <c r="CS15" s="52"/>
       <c r="CT15" s="52"/>
       <c r="CU15" s="52"/>
@@ -5417,26 +5277,22 @@
       <c r="DL15" s="52"/>
       <c r="DM15" s="52"/>
       <c r="DN15" s="52"/>
-      <c r="DO15" s="52"/>
-      <c r="DP15" s="52"/>
-      <c r="DQ15" s="52"/>
-      <c r="DR15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35"/>
       <c r="B16" s="54"/>
       <c r="C16" s="55"/>
       <c r="D16" s="38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="59" t="s">
         <v>203</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>205</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
@@ -5449,7 +5305,7 @@
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
-      <c r="S16" s="63"/>
+      <c r="S16" s="62"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
@@ -5479,29 +5335,21 @@
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
       <c r="AV16" s="57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AW16" s="57" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="AX16" s="57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AY16" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ16" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="BA16" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB16" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="BC16" s="57" t="s">
-        <v>205</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
       <c r="BD16" s="42"/>
       <c r="BE16" s="42"/>
       <c r="BF16" s="42"/>
@@ -5514,39 +5362,39 @@
       <c r="BM16" s="42"/>
       <c r="BN16" s="42"/>
       <c r="BO16" s="42"/>
-      <c r="BP16" s="42"/>
+      <c r="BP16" s="43"/>
       <c r="BQ16" s="42"/>
-      <c r="BR16" s="42"/>
-      <c r="BS16" s="42"/>
-      <c r="BT16" s="43"/>
-      <c r="BU16" s="42"/>
-      <c r="BV16" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="BW16" s="38"/>
+      <c r="BR16" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="43"/>
+      <c r="BW16" s="42"/>
       <c r="BX16" s="38"/>
       <c r="BY16" s="38"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="42"/>
-      <c r="CB16" s="38"/>
-      <c r="CC16" s="38"/>
-      <c r="CD16" s="38"/>
-      <c r="CE16" s="63"/>
-      <c r="CF16" s="42"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="62"/>
+      <c r="CB16" s="42"/>
+      <c r="CC16" s="42"/>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="43"/>
       <c r="CG16" s="42"/>
       <c r="CH16" s="42"/>
       <c r="CI16" s="42"/>
       <c r="CJ16" s="43"/>
       <c r="CK16" s="42"/>
-      <c r="CL16" s="42"/>
-      <c r="CM16" s="42"/>
-      <c r="CN16" s="43"/>
-      <c r="CO16" s="42"/>
-      <c r="CP16" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="CQ16" s="38"/>
-      <c r="CR16" s="60"/>
+      <c r="CL16" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="59"/>
+      <c r="CO16" s="52"/>
+      <c r="CP16" s="52"/>
+      <c r="CQ16" s="52"/>
+      <c r="CR16" s="52"/>
       <c r="CS16" s="52"/>
       <c r="CT16" s="52"/>
       <c r="CU16" s="52"/>
@@ -5569,26 +5417,22 @@
       <c r="DL16" s="52"/>
       <c r="DM16" s="52"/>
       <c r="DN16" s="52"/>
-      <c r="DO16" s="52"/>
-      <c r="DP16" s="52"/>
-      <c r="DQ16" s="52"/>
-      <c r="DR16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="35"/>
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="59" t="s">
-        <v>83</v>
+      <c r="F17" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="67" t="s">
+        <v>81</v>
       </c>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
@@ -5601,7 +5445,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="63"/>
+      <c r="S17" s="62"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -5631,29 +5475,21 @@
       <c r="AT17" s="42"/>
       <c r="AU17" s="42"/>
       <c r="AV17" s="57" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AW17" s="57" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AX17" s="57" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AY17" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ17" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA17" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="BB17" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC17" s="57" t="s">
-        <v>154</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
       <c r="BD17" s="42"/>
       <c r="BE17" s="42"/>
       <c r="BF17" s="42"/>
@@ -5666,37 +5502,37 @@
       <c r="BM17" s="42"/>
       <c r="BN17" s="42"/>
       <c r="BO17" s="42"/>
-      <c r="BP17" s="42"/>
+      <c r="BP17" s="43"/>
       <c r="BQ17" s="42"/>
-      <c r="BR17" s="42"/>
-      <c r="BS17" s="42"/>
-      <c r="BT17" s="43"/>
-      <c r="BU17" s="42"/>
-      <c r="BV17" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="BW17" s="38"/>
+      <c r="BR17" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="BS17" s="38"/>
+      <c r="BT17" s="38"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="43"/>
+      <c r="BW17" s="42"/>
       <c r="BX17" s="38"/>
       <c r="BY17" s="38"/>
-      <c r="BZ17" s="43"/>
-      <c r="CA17" s="42"/>
-      <c r="CB17" s="38"/>
-      <c r="CC17" s="38"/>
-      <c r="CD17" s="38"/>
-      <c r="CE17" s="63"/>
-      <c r="CF17" s="42"/>
+      <c r="BZ17" s="38"/>
+      <c r="CA17" s="62"/>
+      <c r="CB17" s="42"/>
+      <c r="CC17" s="42"/>
+      <c r="CD17" s="42"/>
+      <c r="CE17" s="42"/>
+      <c r="CF17" s="43"/>
       <c r="CG17" s="42"/>
       <c r="CH17" s="42"/>
       <c r="CI17" s="42"/>
       <c r="CJ17" s="43"/>
       <c r="CK17" s="42"/>
-      <c r="CL17" s="42"/>
-      <c r="CM17" s="42"/>
-      <c r="CN17" s="43"/>
-      <c r="CO17" s="42"/>
-      <c r="CP17" s="45"/>
-      <c r="CQ17" s="38"/>
-      <c r="CR17" s="60"/>
+      <c r="CL17" s="45"/>
+      <c r="CM17" s="38"/>
+      <c r="CN17" s="59"/>
+      <c r="CO17" s="52"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="52"/>
       <c r="CS17" s="52"/>
       <c r="CT17" s="52"/>
       <c r="CU17" s="52"/>
@@ -5719,26 +5555,22 @@
       <c r="DL17" s="52"/>
       <c r="DM17" s="52"/>
       <c r="DN17" s="52"/>
-      <c r="DO17" s="52"/>
-      <c r="DP17" s="52"/>
-      <c r="DQ17" s="52"/>
-      <c r="DR17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="35"/>
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
       <c r="D18" s="38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>103</v>
+        <v>214</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
@@ -5751,7 +5583,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
-      <c r="S18" s="63"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
@@ -5781,29 +5613,21 @@
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
       <c r="AV18" s="57" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="AW18" s="57" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AX18" s="57" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="AY18" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ18" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="BA18" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB18" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC18" s="57" t="s">
-        <v>214</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
       <c r="BD18" s="42"/>
       <c r="BE18" s="42"/>
       <c r="BF18" s="42"/>
@@ -5816,37 +5640,37 @@
       <c r="BM18" s="42"/>
       <c r="BN18" s="42"/>
       <c r="BO18" s="42"/>
-      <c r="BP18" s="42"/>
+      <c r="BP18" s="43"/>
       <c r="BQ18" s="42"/>
-      <c r="BR18" s="42"/>
-      <c r="BS18" s="42"/>
-      <c r="BT18" s="43"/>
-      <c r="BU18" s="42"/>
-      <c r="BV18" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="BW18" s="38"/>
+      <c r="BR18" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS18" s="38"/>
+      <c r="BT18" s="38"/>
+      <c r="BU18" s="38"/>
+      <c r="BV18" s="43"/>
+      <c r="BW18" s="42"/>
       <c r="BX18" s="38"/>
       <c r="BY18" s="38"/>
-      <c r="BZ18" s="43"/>
-      <c r="CA18" s="42"/>
-      <c r="CB18" s="38"/>
-      <c r="CC18" s="38"/>
-      <c r="CD18" s="38"/>
-      <c r="CE18" s="63"/>
-      <c r="CF18" s="42"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="62"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="42"/>
+      <c r="CF18" s="43"/>
       <c r="CG18" s="42"/>
       <c r="CH18" s="42"/>
       <c r="CI18" s="42"/>
       <c r="CJ18" s="43"/>
       <c r="CK18" s="42"/>
-      <c r="CL18" s="42"/>
-      <c r="CM18" s="42"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="42"/>
-      <c r="CP18" s="38"/>
-      <c r="CQ18" s="38"/>
-      <c r="CR18" s="60"/>
+      <c r="CL18" s="38"/>
+      <c r="CM18" s="38"/>
+      <c r="CN18" s="59"/>
+      <c r="CO18" s="52"/>
+      <c r="CP18" s="52"/>
+      <c r="CQ18" s="52"/>
+      <c r="CR18" s="52"/>
       <c r="CS18" s="52"/>
       <c r="CT18" s="52"/>
       <c r="CU18" s="52"/>
@@ -5869,26 +5693,22 @@
       <c r="DL18" s="52"/>
       <c r="DM18" s="52"/>
       <c r="DN18" s="52"/>
-      <c r="DO18" s="52"/>
-      <c r="DP18" s="52"/>
-      <c r="DQ18" s="52"/>
-      <c r="DR18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="35"/>
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
       <c r="D19" s="38" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>221</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5901,7 +5721,7 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
-      <c r="S19" s="63"/>
+      <c r="S19" s="62"/>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -5930,30 +5750,14 @@
       <c r="AS19" s="42"/>
       <c r="AT19" s="42"/>
       <c r="AU19" s="42"/>
-      <c r="AV19" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="AW19" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX19" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="AY19" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ19" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA19" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB19" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="BC19" s="57" t="s">
-        <v>220</v>
-      </c>
+      <c r="AV19" s="0"/>
+      <c r="AW19" s="0"/>
+      <c r="AX19" s="0"/>
+      <c r="AY19" s="0"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
       <c r="BD19" s="42"/>
       <c r="BE19" s="42"/>
       <c r="BF19" s="42"/>
@@ -5966,37 +5770,37 @@
       <c r="BM19" s="42"/>
       <c r="BN19" s="42"/>
       <c r="BO19" s="42"/>
-      <c r="BP19" s="42"/>
+      <c r="BP19" s="43"/>
       <c r="BQ19" s="42"/>
-      <c r="BR19" s="42"/>
-      <c r="BS19" s="42"/>
-      <c r="BT19" s="43"/>
-      <c r="BU19" s="42"/>
-      <c r="BV19" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="BW19" s="38"/>
+      <c r="BR19" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="BS19" s="38"/>
+      <c r="BT19" s="38"/>
+      <c r="BU19" s="38"/>
+      <c r="BV19" s="43"/>
+      <c r="BW19" s="42"/>
       <c r="BX19" s="38"/>
       <c r="BY19" s="38"/>
-      <c r="BZ19" s="43"/>
-      <c r="CA19" s="42"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="63"/>
-      <c r="CF19" s="42"/>
+      <c r="BZ19" s="38"/>
+      <c r="CA19" s="62"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="42"/>
+      <c r="CD19" s="42"/>
+      <c r="CE19" s="42"/>
+      <c r="CF19" s="43"/>
       <c r="CG19" s="42"/>
       <c r="CH19" s="42"/>
       <c r="CI19" s="42"/>
       <c r="CJ19" s="43"/>
       <c r="CK19" s="42"/>
-      <c r="CL19" s="42"/>
-      <c r="CM19" s="42"/>
-      <c r="CN19" s="43"/>
-      <c r="CO19" s="42"/>
-      <c r="CP19" s="38"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="60"/>
+      <c r="CL19" s="38"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="59"/>
+      <c r="CO19" s="52"/>
+      <c r="CP19" s="52"/>
+      <c r="CQ19" s="52"/>
+      <c r="CR19" s="52"/>
       <c r="CS19" s="52"/>
       <c r="CT19" s="52"/>
       <c r="CU19" s="52"/>
@@ -6019,26 +5823,22 @@
       <c r="DL19" s="52"/>
       <c r="DM19" s="52"/>
       <c r="DN19" s="52"/>
-      <c r="DO19" s="52"/>
-      <c r="DP19" s="52"/>
-      <c r="DQ19" s="52"/>
-      <c r="DR19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35"/>
       <c r="B20" s="54"/>
       <c r="C20" s="55"/>
       <c r="D20" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="F20" s="60" t="s">
         <v>224</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>225</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
@@ -6051,7 +5851,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
-      <c r="S20" s="63"/>
+      <c r="S20" s="62"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
@@ -6084,10 +5884,10 @@
       <c r="AW20" s="0"/>
       <c r="AX20" s="0"/>
       <c r="AY20" s="0"/>
-      <c r="AZ20" s="0"/>
-      <c r="BA20" s="0"/>
-      <c r="BB20" s="0"/>
-      <c r="BC20" s="0"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
@@ -6100,37 +5900,37 @@
       <c r="BM20" s="42"/>
       <c r="BN20" s="42"/>
       <c r="BO20" s="42"/>
-      <c r="BP20" s="42"/>
+      <c r="BP20" s="43"/>
       <c r="BQ20" s="42"/>
-      <c r="BR20" s="42"/>
-      <c r="BS20" s="42"/>
-      <c r="BT20" s="43"/>
-      <c r="BU20" s="42"/>
-      <c r="BV20" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="BW20" s="38"/>
+      <c r="BR20" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="BS20" s="38"/>
+      <c r="BT20" s="38"/>
+      <c r="BU20" s="38"/>
+      <c r="BV20" s="43"/>
+      <c r="BW20" s="42"/>
       <c r="BX20" s="38"/>
       <c r="BY20" s="38"/>
-      <c r="BZ20" s="43"/>
-      <c r="CA20" s="42"/>
-      <c r="CB20" s="38"/>
-      <c r="CC20" s="38"/>
-      <c r="CD20" s="38"/>
-      <c r="CE20" s="63"/>
-      <c r="CF20" s="42"/>
+      <c r="BZ20" s="38"/>
+      <c r="CA20" s="62"/>
+      <c r="CB20" s="42"/>
+      <c r="CC20" s="42"/>
+      <c r="CD20" s="42"/>
+      <c r="CE20" s="42"/>
+      <c r="CF20" s="43"/>
       <c r="CG20" s="42"/>
       <c r="CH20" s="42"/>
       <c r="CI20" s="42"/>
       <c r="CJ20" s="43"/>
       <c r="CK20" s="42"/>
-      <c r="CL20" s="42"/>
-      <c r="CM20" s="42"/>
-      <c r="CN20" s="43"/>
-      <c r="CO20" s="42"/>
-      <c r="CP20" s="38"/>
-      <c r="CQ20" s="38"/>
-      <c r="CR20" s="60"/>
+      <c r="CL20" s="38"/>
+      <c r="CM20" s="38"/>
+      <c r="CN20" s="59"/>
+      <c r="CO20" s="52"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
       <c r="CS20" s="52"/>
       <c r="CT20" s="52"/>
       <c r="CU20" s="52"/>
@@ -6153,20 +5953,16 @@
       <c r="DL20" s="52"/>
       <c r="DM20" s="52"/>
       <c r="DN20" s="52"/>
-      <c r="DO20" s="52"/>
-      <c r="DP20" s="52"/>
-      <c r="DQ20" s="52"/>
-      <c r="DR20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
       <c r="B21" s="54"/>
       <c r="C21" s="55"/>
       <c r="D21" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="55"/>
@@ -6181,7 +5977,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
-      <c r="S21" s="63"/>
+      <c r="S21" s="62"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
@@ -6210,14 +6006,14 @@
       <c r="AS21" s="42"/>
       <c r="AT21" s="42"/>
       <c r="AU21" s="42"/>
-      <c r="AV21" s="0"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="0"/>
-      <c r="AY21" s="0"/>
-      <c r="AZ21" s="0"/>
-      <c r="BA21" s="0"/>
-      <c r="BB21" s="0"/>
-      <c r="BC21" s="0"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
       <c r="BD21" s="42"/>
       <c r="BE21" s="42"/>
       <c r="BF21" s="42"/>
@@ -6230,37 +6026,37 @@
       <c r="BM21" s="42"/>
       <c r="BN21" s="42"/>
       <c r="BO21" s="42"/>
-      <c r="BP21" s="42"/>
+      <c r="BP21" s="43"/>
       <c r="BQ21" s="42"/>
-      <c r="BR21" s="42"/>
-      <c r="BS21" s="42"/>
-      <c r="BT21" s="43"/>
-      <c r="BU21" s="42"/>
-      <c r="BV21" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="BW21" s="38"/>
+      <c r="BR21" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="38"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="43"/>
+      <c r="BW21" s="42"/>
       <c r="BX21" s="38"/>
       <c r="BY21" s="38"/>
-      <c r="BZ21" s="43"/>
-      <c r="CA21" s="42"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="63"/>
-      <c r="CF21" s="42"/>
+      <c r="BZ21" s="38"/>
+      <c r="CA21" s="62"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="42"/>
+      <c r="CD21" s="42"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="43"/>
       <c r="CG21" s="42"/>
       <c r="CH21" s="42"/>
       <c r="CI21" s="42"/>
       <c r="CJ21" s="43"/>
       <c r="CK21" s="42"/>
-      <c r="CL21" s="42"/>
-      <c r="CM21" s="42"/>
-      <c r="CN21" s="43"/>
-      <c r="CO21" s="42"/>
-      <c r="CP21" s="45"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="60"/>
+      <c r="CL21" s="45"/>
+      <c r="CM21" s="38"/>
+      <c r="CN21" s="59"/>
+      <c r="CO21" s="52"/>
+      <c r="CP21" s="52"/>
+      <c r="CQ21" s="52"/>
+      <c r="CR21" s="52"/>
       <c r="CS21" s="52"/>
       <c r="CT21" s="52"/>
       <c r="CU21" s="52"/>
@@ -6283,20 +6079,16 @@
       <c r="DL21" s="52"/>
       <c r="DM21" s="52"/>
       <c r="DN21" s="52"/>
-      <c r="DO21" s="52"/>
-      <c r="DP21" s="52"/>
-      <c r="DQ21" s="52"/>
-      <c r="DR21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="54"/>
       <c r="C22" s="55"/>
       <c r="D22" s="38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="55"/>
@@ -6311,7 +6103,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
       <c r="R22" s="42"/>
-      <c r="S22" s="63"/>
+      <c r="S22" s="62"/>
       <c r="T22" s="42"/>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
@@ -6340,8 +6132,8 @@
       <c r="AS22" s="42"/>
       <c r="AT22" s="42"/>
       <c r="AU22" s="42"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="68"/>
       <c r="AX22" s="42"/>
       <c r="AY22" s="42"/>
       <c r="AZ22" s="42"/>
@@ -6360,37 +6152,37 @@
       <c r="BM22" s="42"/>
       <c r="BN22" s="42"/>
       <c r="BO22" s="42"/>
-      <c r="BP22" s="42"/>
+      <c r="BP22" s="43"/>
       <c r="BQ22" s="42"/>
-      <c r="BR22" s="42"/>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="43"/>
-      <c r="BU22" s="42"/>
-      <c r="BV22" s="38" t="s">
+      <c r="BR22" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="BW22" s="38"/>
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="38"/>
+      <c r="BU22" s="38"/>
+      <c r="BV22" s="43"/>
+      <c r="BW22" s="42"/>
       <c r="BX22" s="38"/>
       <c r="BY22" s="38"/>
-      <c r="BZ22" s="43"/>
-      <c r="CA22" s="42"/>
-      <c r="CB22" s="38"/>
-      <c r="CC22" s="38"/>
-      <c r="CD22" s="38"/>
-      <c r="CE22" s="63"/>
-      <c r="CF22" s="42"/>
+      <c r="BZ22" s="38"/>
+      <c r="CA22" s="62"/>
+      <c r="CB22" s="42"/>
+      <c r="CC22" s="42"/>
+      <c r="CD22" s="42"/>
+      <c r="CE22" s="42"/>
+      <c r="CF22" s="43"/>
       <c r="CG22" s="42"/>
       <c r="CH22" s="42"/>
       <c r="CI22" s="42"/>
       <c r="CJ22" s="43"/>
       <c r="CK22" s="42"/>
-      <c r="CL22" s="42"/>
-      <c r="CM22" s="42"/>
-      <c r="CN22" s="43"/>
-      <c r="CO22" s="42"/>
-      <c r="CP22" s="45"/>
-      <c r="CQ22" s="38"/>
-      <c r="CR22" s="60"/>
+      <c r="CL22" s="45"/>
+      <c r="CM22" s="38"/>
+      <c r="CN22" s="59"/>
+      <c r="CO22" s="52"/>
+      <c r="CP22" s="52"/>
+      <c r="CQ22" s="52"/>
+      <c r="CR22" s="52"/>
       <c r="CS22" s="52"/>
       <c r="CT22" s="52"/>
       <c r="CU22" s="52"/>
@@ -6413,20 +6205,16 @@
       <c r="DL22" s="52"/>
       <c r="DM22" s="52"/>
       <c r="DN22" s="52"/>
-      <c r="DO22" s="52"/>
-      <c r="DP22" s="52"/>
-      <c r="DQ22" s="52"/>
-      <c r="DR22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="35"/>
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="55"/>
@@ -6441,7 +6229,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
-      <c r="S23" s="63"/>
+      <c r="S23" s="62"/>
       <c r="T23" s="42"/>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
@@ -6470,8 +6258,8 @@
       <c r="AS23" s="42"/>
       <c r="AT23" s="42"/>
       <c r="AU23" s="42"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="48"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
       <c r="AX23" s="42"/>
       <c r="AY23" s="42"/>
       <c r="AZ23" s="42"/>
@@ -6490,37 +6278,37 @@
       <c r="BM23" s="42"/>
       <c r="BN23" s="42"/>
       <c r="BO23" s="42"/>
-      <c r="BP23" s="42"/>
+      <c r="BP23" s="43"/>
       <c r="BQ23" s="42"/>
-      <c r="BR23" s="42"/>
-      <c r="BS23" s="42"/>
-      <c r="BT23" s="43"/>
-      <c r="BU23" s="42"/>
-      <c r="BV23" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="BW23" s="38"/>
+      <c r="BR23" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="43"/>
+      <c r="BW23" s="42"/>
       <c r="BX23" s="38"/>
       <c r="BY23" s="38"/>
-      <c r="BZ23" s="43"/>
-      <c r="CA23" s="42"/>
-      <c r="CB23" s="38"/>
-      <c r="CC23" s="38"/>
-      <c r="CD23" s="38"/>
-      <c r="CE23" s="63"/>
-      <c r="CF23" s="42"/>
+      <c r="BZ23" s="38"/>
+      <c r="CA23" s="62"/>
+      <c r="CB23" s="42"/>
+      <c r="CC23" s="42"/>
+      <c r="CD23" s="42"/>
+      <c r="CE23" s="42"/>
+      <c r="CF23" s="43"/>
       <c r="CG23" s="42"/>
       <c r="CH23" s="42"/>
       <c r="CI23" s="42"/>
       <c r="CJ23" s="43"/>
       <c r="CK23" s="42"/>
-      <c r="CL23" s="42"/>
-      <c r="CM23" s="42"/>
-      <c r="CN23" s="43"/>
-      <c r="CO23" s="42"/>
-      <c r="CP23" s="45"/>
-      <c r="CQ23" s="38"/>
-      <c r="CR23" s="60"/>
+      <c r="CL23" s="45"/>
+      <c r="CM23" s="38"/>
+      <c r="CN23" s="59"/>
+      <c r="CO23" s="52"/>
+      <c r="CP23" s="52"/>
+      <c r="CQ23" s="52"/>
+      <c r="CR23" s="52"/>
       <c r="CS23" s="52"/>
       <c r="CT23" s="52"/>
       <c r="CU23" s="52"/>
@@ -6543,20 +6331,16 @@
       <c r="DL23" s="52"/>
       <c r="DM23" s="52"/>
       <c r="DN23" s="52"/>
-      <c r="DO23" s="52"/>
-      <c r="DP23" s="52"/>
-      <c r="DQ23" s="52"/>
-      <c r="DR23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="35"/>
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
       <c r="D24" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="55"/>
@@ -6571,7 +6355,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
-      <c r="S24" s="63"/>
+      <c r="S24" s="62"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
@@ -6620,37 +6404,37 @@
       <c r="BM24" s="42"/>
       <c r="BN24" s="42"/>
       <c r="BO24" s="42"/>
-      <c r="BP24" s="42"/>
+      <c r="BP24" s="43"/>
       <c r="BQ24" s="42"/>
-      <c r="BR24" s="42"/>
-      <c r="BS24" s="42"/>
-      <c r="BT24" s="43"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="BW24" s="38"/>
+      <c r="BR24" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="BS24" s="38"/>
+      <c r="BT24" s="38"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="43"/>
+      <c r="BW24" s="42"/>
       <c r="BX24" s="38"/>
       <c r="BY24" s="38"/>
-      <c r="BZ24" s="43"/>
-      <c r="CA24" s="42"/>
-      <c r="CB24" s="38"/>
-      <c r="CC24" s="38"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="63"/>
-      <c r="CF24" s="42"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="62"/>
+      <c r="CB24" s="42"/>
+      <c r="CC24" s="42"/>
+      <c r="CD24" s="42"/>
+      <c r="CE24" s="42"/>
+      <c r="CF24" s="43"/>
       <c r="CG24" s="42"/>
       <c r="CH24" s="42"/>
       <c r="CI24" s="42"/>
       <c r="CJ24" s="43"/>
       <c r="CK24" s="42"/>
-      <c r="CL24" s="42"/>
-      <c r="CM24" s="42"/>
-      <c r="CN24" s="43"/>
-      <c r="CO24" s="42"/>
-      <c r="CP24" s="38"/>
-      <c r="CQ24" s="38"/>
-      <c r="CR24" s="60"/>
+      <c r="CL24" s="38"/>
+      <c r="CM24" s="38"/>
+      <c r="CN24" s="59"/>
+      <c r="CO24" s="52"/>
+      <c r="CP24" s="52"/>
+      <c r="CQ24" s="52"/>
+      <c r="CR24" s="52"/>
       <c r="CS24" s="52"/>
       <c r="CT24" s="52"/>
       <c r="CU24" s="52"/>
@@ -6673,20 +6457,16 @@
       <c r="DL24" s="52"/>
       <c r="DM24" s="52"/>
       <c r="DN24" s="52"/>
-      <c r="DO24" s="52"/>
-      <c r="DP24" s="52"/>
-      <c r="DQ24" s="52"/>
-      <c r="DR24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35"/>
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
       <c r="D25" s="38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="55"/>
@@ -6701,7 +6481,7 @@
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
-      <c r="S25" s="63"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
@@ -6750,35 +6530,35 @@
       <c r="BM25" s="42"/>
       <c r="BN25" s="42"/>
       <c r="BO25" s="42"/>
-      <c r="BP25" s="42"/>
+      <c r="BP25" s="43"/>
       <c r="BQ25" s="42"/>
-      <c r="BR25" s="42"/>
-      <c r="BS25" s="42"/>
-      <c r="BT25" s="43"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="45"/>
-      <c r="BW25" s="45"/>
-      <c r="BX25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
+      <c r="BT25" s="45"/>
+      <c r="BU25" s="38"/>
+      <c r="BV25" s="43"/>
+      <c r="BW25" s="42"/>
+      <c r="BX25" s="38"/>
       <c r="BY25" s="38"/>
-      <c r="BZ25" s="43"/>
-      <c r="CA25" s="42"/>
-      <c r="CB25" s="38"/>
-      <c r="CC25" s="38"/>
-      <c r="CD25" s="38"/>
-      <c r="CE25" s="63"/>
-      <c r="CF25" s="42"/>
+      <c r="BZ25" s="38"/>
+      <c r="CA25" s="62"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="42"/>
+      <c r="CE25" s="42"/>
+      <c r="CF25" s="43"/>
       <c r="CG25" s="42"/>
       <c r="CH25" s="42"/>
       <c r="CI25" s="42"/>
       <c r="CJ25" s="43"/>
       <c r="CK25" s="42"/>
-      <c r="CL25" s="42"/>
-      <c r="CM25" s="42"/>
-      <c r="CN25" s="43"/>
-      <c r="CO25" s="42"/>
-      <c r="CP25" s="38"/>
-      <c r="CQ25" s="38"/>
-      <c r="CR25" s="60"/>
+      <c r="CL25" s="38"/>
+      <c r="CM25" s="38"/>
+      <c r="CN25" s="59"/>
+      <c r="CO25" s="52"/>
+      <c r="CP25" s="52"/>
+      <c r="CQ25" s="52"/>
+      <c r="CR25" s="52"/>
       <c r="CS25" s="52"/>
       <c r="CT25" s="52"/>
       <c r="CU25" s="52"/>
@@ -6801,10 +6581,6 @@
       <c r="DL25" s="52"/>
       <c r="DM25" s="52"/>
       <c r="DN25" s="52"/>
-      <c r="DO25" s="52"/>
-      <c r="DP25" s="52"/>
-      <c r="DQ25" s="52"/>
-      <c r="DR25" s="52"/>
     </row>
     <row r="26" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35"/>
@@ -6829,7 +6605,7 @@
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
-      <c r="S26" s="63"/>
+      <c r="S26" s="62"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
       <c r="V26" s="42"/>
@@ -6878,35 +6654,35 @@
       <c r="BM26" s="42"/>
       <c r="BN26" s="42"/>
       <c r="BO26" s="42"/>
-      <c r="BP26" s="42"/>
+      <c r="BP26" s="43"/>
       <c r="BQ26" s="42"/>
-      <c r="BR26" s="42"/>
-      <c r="BS26" s="42"/>
-      <c r="BT26" s="43"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="38"/>
-      <c r="BW26" s="38"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="38"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="43"/>
+      <c r="BW26" s="42"/>
       <c r="BX26" s="38"/>
       <c r="BY26" s="38"/>
-      <c r="BZ26" s="43"/>
-      <c r="CA26" s="42"/>
-      <c r="CB26" s="38"/>
-      <c r="CC26" s="38"/>
-      <c r="CD26" s="38"/>
-      <c r="CE26" s="63"/>
-      <c r="CF26" s="42"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="62"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="42"/>
+      <c r="CE26" s="42"/>
+      <c r="CF26" s="43"/>
       <c r="CG26" s="42"/>
       <c r="CH26" s="42"/>
       <c r="CI26" s="42"/>
       <c r="CJ26" s="43"/>
       <c r="CK26" s="42"/>
-      <c r="CL26" s="42"/>
-      <c r="CM26" s="42"/>
-      <c r="CN26" s="43"/>
-      <c r="CO26" s="42"/>
-      <c r="CP26" s="38"/>
-      <c r="CQ26" s="38"/>
-      <c r="CR26" s="60"/>
+      <c r="CL26" s="38"/>
+      <c r="CM26" s="38"/>
+      <c r="CN26" s="59"/>
+      <c r="CO26" s="52"/>
+      <c r="CP26" s="52"/>
+      <c r="CQ26" s="52"/>
+      <c r="CR26" s="52"/>
       <c r="CS26" s="52"/>
       <c r="CT26" s="52"/>
       <c r="CU26" s="52"/>
@@ -6929,20 +6705,16 @@
       <c r="DL26" s="52"/>
       <c r="DM26" s="52"/>
       <c r="DN26" s="52"/>
-      <c r="DO26" s="52"/>
-      <c r="DP26" s="52"/>
-      <c r="DQ26" s="52"/>
-      <c r="DR26" s="52"/>
     </row>
     <row r="27" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35"/>
       <c r="B27" s="54"/>
       <c r="C27" s="55"/>
       <c r="D27" s="42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="54"/>
       <c r="G27" s="55"/>
@@ -6957,7 +6729,7 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
-      <c r="S27" s="63"/>
+      <c r="S27" s="62"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -7006,35 +6778,35 @@
       <c r="BM27" s="42"/>
       <c r="BN27" s="42"/>
       <c r="BO27" s="42"/>
-      <c r="BP27" s="42"/>
+      <c r="BP27" s="43"/>
       <c r="BQ27" s="42"/>
-      <c r="BR27" s="42"/>
-      <c r="BS27" s="42"/>
-      <c r="BT27" s="43"/>
-      <c r="BU27" s="42"/>
-      <c r="BV27" s="38"/>
-      <c r="BW27" s="38"/>
+      <c r="BR27" s="38"/>
+      <c r="BS27" s="38"/>
+      <c r="BT27" s="38"/>
+      <c r="BU27" s="38"/>
+      <c r="BV27" s="43"/>
+      <c r="BW27" s="42"/>
       <c r="BX27" s="38"/>
       <c r="BY27" s="38"/>
-      <c r="BZ27" s="43"/>
-      <c r="CA27" s="42"/>
-      <c r="CB27" s="38"/>
-      <c r="CC27" s="38"/>
-      <c r="CD27" s="38"/>
-      <c r="CE27" s="63"/>
-      <c r="CF27" s="42"/>
+      <c r="BZ27" s="38"/>
+      <c r="CA27" s="62"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="42"/>
+      <c r="CE27" s="42"/>
+      <c r="CF27" s="43"/>
       <c r="CG27" s="42"/>
       <c r="CH27" s="42"/>
       <c r="CI27" s="42"/>
       <c r="CJ27" s="43"/>
       <c r="CK27" s="42"/>
-      <c r="CL27" s="42"/>
-      <c r="CM27" s="42"/>
-      <c r="CN27" s="43"/>
-      <c r="CO27" s="42"/>
-      <c r="CP27" s="38"/>
-      <c r="CQ27" s="38"/>
-      <c r="CR27" s="60"/>
+      <c r="CL27" s="38"/>
+      <c r="CM27" s="38"/>
+      <c r="CN27" s="59"/>
+      <c r="CO27" s="52"/>
+      <c r="CP27" s="52"/>
+      <c r="CQ27" s="52"/>
+      <c r="CR27" s="52"/>
       <c r="CS27" s="52"/>
       <c r="CT27" s="52"/>
       <c r="CU27" s="52"/>
@@ -7057,17 +6829,13 @@
       <c r="DL27" s="52"/>
       <c r="DM27" s="52"/>
       <c r="DN27" s="52"/>
-      <c r="DO27" s="52"/>
-      <c r="DP27" s="52"/>
-      <c r="DQ27" s="52"/>
-      <c r="DR27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
       <c r="D28" s="42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" s="42" t="s">
         <v>159</v>
@@ -7085,7 +6853,7 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
-      <c r="S28" s="63"/>
+      <c r="S28" s="62"/>
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
@@ -7134,35 +6902,35 @@
       <c r="BM28" s="42"/>
       <c r="BN28" s="42"/>
       <c r="BO28" s="42"/>
-      <c r="BP28" s="42"/>
+      <c r="BP28" s="43"/>
       <c r="BQ28" s="42"/>
-      <c r="BR28" s="42"/>
-      <c r="BS28" s="42"/>
-      <c r="BT28" s="43"/>
-      <c r="BU28" s="42"/>
-      <c r="BV28" s="38"/>
-      <c r="BW28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="43"/>
+      <c r="BW28" s="42"/>
       <c r="BX28" s="38"/>
       <c r="BY28" s="38"/>
-      <c r="BZ28" s="43"/>
-      <c r="CA28" s="42"/>
-      <c r="CB28" s="38"/>
-      <c r="CC28" s="38"/>
-      <c r="CD28" s="38"/>
-      <c r="CE28" s="63"/>
-      <c r="CF28" s="42"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="62"/>
+      <c r="CB28" s="42"/>
+      <c r="CC28" s="42"/>
+      <c r="CD28" s="42"/>
+      <c r="CE28" s="42"/>
+      <c r="CF28" s="43"/>
       <c r="CG28" s="42"/>
       <c r="CH28" s="42"/>
       <c r="CI28" s="42"/>
       <c r="CJ28" s="43"/>
       <c r="CK28" s="42"/>
-      <c r="CL28" s="42"/>
-      <c r="CM28" s="42"/>
-      <c r="CN28" s="43"/>
-      <c r="CO28" s="42"/>
-      <c r="CP28" s="38"/>
-      <c r="CQ28" s="38"/>
-      <c r="CR28" s="60"/>
+      <c r="CL28" s="38"/>
+      <c r="CM28" s="38"/>
+      <c r="CN28" s="59"/>
+      <c r="CO28" s="52"/>
+      <c r="CP28" s="52"/>
+      <c r="CQ28" s="52"/>
+      <c r="CR28" s="52"/>
       <c r="CS28" s="52"/>
       <c r="CT28" s="52"/>
       <c r="CU28" s="52"/>
@@ -7185,20 +6953,16 @@
       <c r="DL28" s="52"/>
       <c r="DM28" s="52"/>
       <c r="DN28" s="52"/>
-      <c r="DO28" s="52"/>
-      <c r="DP28" s="52"/>
-      <c r="DQ28" s="52"/>
-      <c r="DR28" s="52"/>
     </row>
     <row r="29" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35"/>
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
       <c r="D29" s="42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F29" s="54"/>
       <c r="G29" s="55"/>
@@ -7213,7 +6977,7 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
-      <c r="S29" s="63"/>
+      <c r="S29" s="62"/>
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
@@ -7262,35 +7026,35 @@
       <c r="BM29" s="42"/>
       <c r="BN29" s="42"/>
       <c r="BO29" s="42"/>
-      <c r="BP29" s="42"/>
+      <c r="BP29" s="43"/>
       <c r="BQ29" s="42"/>
-      <c r="BR29" s="42"/>
-      <c r="BS29" s="42"/>
-      <c r="BT29" s="43"/>
-      <c r="BU29" s="42"/>
-      <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
+      <c r="BR29" s="38"/>
+      <c r="BS29" s="38"/>
+      <c r="BT29" s="38"/>
+      <c r="BU29" s="38"/>
+      <c r="BV29" s="43"/>
+      <c r="BW29" s="42"/>
       <c r="BX29" s="38"/>
       <c r="BY29" s="38"/>
-      <c r="BZ29" s="43"/>
-      <c r="CA29" s="42"/>
-      <c r="CB29" s="38"/>
-      <c r="CC29" s="38"/>
-      <c r="CD29" s="38"/>
-      <c r="CE29" s="63"/>
-      <c r="CF29" s="42"/>
+      <c r="BZ29" s="38"/>
+      <c r="CA29" s="62"/>
+      <c r="CB29" s="42"/>
+      <c r="CC29" s="42"/>
+      <c r="CD29" s="42"/>
+      <c r="CE29" s="42"/>
+      <c r="CF29" s="43"/>
       <c r="CG29" s="42"/>
       <c r="CH29" s="42"/>
       <c r="CI29" s="42"/>
       <c r="CJ29" s="43"/>
       <c r="CK29" s="42"/>
-      <c r="CL29" s="42"/>
-      <c r="CM29" s="42"/>
-      <c r="CN29" s="43"/>
-      <c r="CO29" s="42"/>
-      <c r="CP29" s="38"/>
-      <c r="CQ29" s="38"/>
-      <c r="CR29" s="60"/>
+      <c r="CL29" s="38"/>
+      <c r="CM29" s="38"/>
+      <c r="CN29" s="59"/>
+      <c r="CO29" s="52"/>
+      <c r="CP29" s="52"/>
+      <c r="CQ29" s="52"/>
+      <c r="CR29" s="52"/>
       <c r="CS29" s="52"/>
       <c r="CT29" s="52"/>
       <c r="CU29" s="52"/>
@@ -7313,20 +7077,16 @@
       <c r="DL29" s="52"/>
       <c r="DM29" s="52"/>
       <c r="DN29" s="52"/>
-      <c r="DO29" s="52"/>
-      <c r="DP29" s="52"/>
-      <c r="DQ29" s="52"/>
-      <c r="DR29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="35"/>
       <c r="B30" s="54"/>
       <c r="C30" s="55"/>
       <c r="D30" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" s="54"/>
       <c r="G30" s="55"/>
@@ -7341,7 +7101,7 @@
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
-      <c r="S30" s="63"/>
+      <c r="S30" s="62"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
@@ -7390,35 +7150,35 @@
       <c r="BM30" s="42"/>
       <c r="BN30" s="42"/>
       <c r="BO30" s="42"/>
-      <c r="BP30" s="42"/>
+      <c r="BP30" s="43"/>
       <c r="BQ30" s="42"/>
-      <c r="BR30" s="42"/>
-      <c r="BS30" s="42"/>
-      <c r="BT30" s="43"/>
-      <c r="BU30" s="42"/>
-      <c r="BV30" s="38"/>
-      <c r="BW30" s="38"/>
+      <c r="BR30" s="38"/>
+      <c r="BS30" s="38"/>
+      <c r="BT30" s="38"/>
+      <c r="BU30" s="38"/>
+      <c r="BV30" s="43"/>
+      <c r="BW30" s="42"/>
       <c r="BX30" s="38"/>
       <c r="BY30" s="38"/>
-      <c r="BZ30" s="43"/>
-      <c r="CA30" s="42"/>
-      <c r="CB30" s="38"/>
-      <c r="CC30" s="38"/>
-      <c r="CD30" s="38"/>
-      <c r="CE30" s="63"/>
-      <c r="CF30" s="42"/>
+      <c r="BZ30" s="38"/>
+      <c r="CA30" s="62"/>
+      <c r="CB30" s="42"/>
+      <c r="CC30" s="42"/>
+      <c r="CD30" s="42"/>
+      <c r="CE30" s="42"/>
+      <c r="CF30" s="43"/>
       <c r="CG30" s="42"/>
       <c r="CH30" s="42"/>
       <c r="CI30" s="42"/>
       <c r="CJ30" s="43"/>
       <c r="CK30" s="42"/>
-      <c r="CL30" s="42"/>
-      <c r="CM30" s="42"/>
-      <c r="CN30" s="43"/>
-      <c r="CO30" s="42"/>
-      <c r="CP30" s="38"/>
-      <c r="CQ30" s="38"/>
-      <c r="CR30" s="60"/>
+      <c r="CL30" s="38"/>
+      <c r="CM30" s="38"/>
+      <c r="CN30" s="59"/>
+      <c r="CO30" s="52"/>
+      <c r="CP30" s="52"/>
+      <c r="CQ30" s="52"/>
+      <c r="CR30" s="52"/>
       <c r="CS30" s="52"/>
       <c r="CT30" s="52"/>
       <c r="CU30" s="52"/>
@@ -7441,20 +7201,16 @@
       <c r="DL30" s="52"/>
       <c r="DM30" s="52"/>
       <c r="DN30" s="52"/>
-      <c r="DO30" s="52"/>
-      <c r="DP30" s="52"/>
-      <c r="DQ30" s="52"/>
-      <c r="DR30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="35"/>
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
       <c r="D31" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F31" s="54"/>
       <c r="G31" s="55"/>
@@ -7469,7 +7225,7 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
-      <c r="S31" s="63"/>
+      <c r="S31" s="62"/>
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
@@ -7518,35 +7274,35 @@
       <c r="BM31" s="42"/>
       <c r="BN31" s="42"/>
       <c r="BO31" s="42"/>
-      <c r="BP31" s="42"/>
+      <c r="BP31" s="43"/>
       <c r="BQ31" s="42"/>
-      <c r="BR31" s="42"/>
-      <c r="BS31" s="42"/>
-      <c r="BT31" s="43"/>
-      <c r="BU31" s="42"/>
-      <c r="BV31" s="38"/>
-      <c r="BW31" s="38"/>
+      <c r="BR31" s="38"/>
+      <c r="BS31" s="38"/>
+      <c r="BT31" s="38"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="43"/>
+      <c r="BW31" s="42"/>
       <c r="BX31" s="38"/>
       <c r="BY31" s="38"/>
-      <c r="BZ31" s="43"/>
-      <c r="CA31" s="42"/>
-      <c r="CB31" s="38"/>
-      <c r="CC31" s="38"/>
-      <c r="CD31" s="38"/>
-      <c r="CE31" s="63"/>
-      <c r="CF31" s="42"/>
+      <c r="BZ31" s="38"/>
+      <c r="CA31" s="62"/>
+      <c r="CB31" s="42"/>
+      <c r="CC31" s="42"/>
+      <c r="CD31" s="42"/>
+      <c r="CE31" s="42"/>
+      <c r="CF31" s="43"/>
       <c r="CG31" s="42"/>
       <c r="CH31" s="42"/>
       <c r="CI31" s="42"/>
       <c r="CJ31" s="43"/>
       <c r="CK31" s="42"/>
-      <c r="CL31" s="42"/>
-      <c r="CM31" s="42"/>
-      <c r="CN31" s="43"/>
-      <c r="CO31" s="42"/>
-      <c r="CP31" s="38"/>
-      <c r="CQ31" s="38"/>
-      <c r="CR31" s="60"/>
+      <c r="CL31" s="38"/>
+      <c r="CM31" s="38"/>
+      <c r="CN31" s="59"/>
+      <c r="CO31" s="52"/>
+      <c r="CP31" s="52"/>
+      <c r="CQ31" s="52"/>
+      <c r="CR31" s="52"/>
       <c r="CS31" s="52"/>
       <c r="CT31" s="52"/>
       <c r="CU31" s="52"/>
@@ -7569,10 +7325,6 @@
       <c r="DL31" s="52"/>
       <c r="DM31" s="52"/>
       <c r="DN31" s="52"/>
-      <c r="DO31" s="52"/>
-      <c r="DP31" s="52"/>
-      <c r="DQ31" s="52"/>
-      <c r="DR31" s="52"/>
     </row>
     <row r="32" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="35"/>
@@ -7597,7 +7349,7 @@
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
-      <c r="S32" s="63"/>
+      <c r="S32" s="62"/>
       <c r="T32" s="42"/>
       <c r="U32" s="42"/>
       <c r="V32" s="42"/>
@@ -7646,35 +7398,35 @@
       <c r="BM32" s="42"/>
       <c r="BN32" s="42"/>
       <c r="BO32" s="42"/>
-      <c r="BP32" s="42"/>
+      <c r="BP32" s="43"/>
       <c r="BQ32" s="42"/>
-      <c r="BR32" s="42"/>
-      <c r="BS32" s="42"/>
-      <c r="BT32" s="43"/>
-      <c r="BU32" s="42"/>
-      <c r="BV32" s="38"/>
-      <c r="BW32" s="38"/>
+      <c r="BR32" s="38"/>
+      <c r="BS32" s="38"/>
+      <c r="BT32" s="38"/>
+      <c r="BU32" s="38"/>
+      <c r="BV32" s="43"/>
+      <c r="BW32" s="42"/>
       <c r="BX32" s="38"/>
       <c r="BY32" s="38"/>
-      <c r="BZ32" s="43"/>
-      <c r="CA32" s="42"/>
-      <c r="CB32" s="38"/>
-      <c r="CC32" s="38"/>
-      <c r="CD32" s="38"/>
-      <c r="CE32" s="63"/>
-      <c r="CF32" s="42"/>
+      <c r="BZ32" s="38"/>
+      <c r="CA32" s="62"/>
+      <c r="CB32" s="42"/>
+      <c r="CC32" s="42"/>
+      <c r="CD32" s="42"/>
+      <c r="CE32" s="42"/>
+      <c r="CF32" s="43"/>
       <c r="CG32" s="42"/>
       <c r="CH32" s="42"/>
       <c r="CI32" s="42"/>
       <c r="CJ32" s="43"/>
       <c r="CK32" s="42"/>
-      <c r="CL32" s="42"/>
-      <c r="CM32" s="42"/>
-      <c r="CN32" s="43"/>
-      <c r="CO32" s="42"/>
-      <c r="CP32" s="38"/>
-      <c r="CQ32" s="38"/>
-      <c r="CR32" s="60"/>
+      <c r="CL32" s="38"/>
+      <c r="CM32" s="38"/>
+      <c r="CN32" s="59"/>
+      <c r="CO32" s="52"/>
+      <c r="CP32" s="52"/>
+      <c r="CQ32" s="52"/>
+      <c r="CR32" s="52"/>
       <c r="CS32" s="52"/>
       <c r="CT32" s="52"/>
       <c r="CU32" s="52"/>
@@ -7697,10 +7449,6 @@
       <c r="DL32" s="52"/>
       <c r="DM32" s="52"/>
       <c r="DN32" s="52"/>
-      <c r="DO32" s="52"/>
-      <c r="DP32" s="52"/>
-      <c r="DQ32" s="52"/>
-      <c r="DR32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35"/>
@@ -7725,7 +7473,7 @@
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="63"/>
+      <c r="S33" s="62"/>
       <c r="T33" s="42"/>
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
@@ -7774,35 +7522,35 @@
       <c r="BM33" s="42"/>
       <c r="BN33" s="42"/>
       <c r="BO33" s="42"/>
-      <c r="BP33" s="42"/>
+      <c r="BP33" s="43"/>
       <c r="BQ33" s="42"/>
-      <c r="BR33" s="42"/>
-      <c r="BS33" s="42"/>
-      <c r="BT33" s="43"/>
-      <c r="BU33" s="42"/>
-      <c r="BV33" s="38"/>
-      <c r="BW33" s="38"/>
+      <c r="BR33" s="38"/>
+      <c r="BS33" s="38"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="43"/>
+      <c r="BW33" s="42"/>
       <c r="BX33" s="38"/>
       <c r="BY33" s="38"/>
-      <c r="BZ33" s="43"/>
-      <c r="CA33" s="42"/>
-      <c r="CB33" s="38"/>
-      <c r="CC33" s="38"/>
-      <c r="CD33" s="38"/>
-      <c r="CE33" s="63"/>
-      <c r="CF33" s="42"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="62"/>
+      <c r="CB33" s="42"/>
+      <c r="CC33" s="42"/>
+      <c r="CD33" s="42"/>
+      <c r="CE33" s="42"/>
+      <c r="CF33" s="43"/>
       <c r="CG33" s="42"/>
       <c r="CH33" s="42"/>
       <c r="CI33" s="42"/>
       <c r="CJ33" s="43"/>
       <c r="CK33" s="42"/>
-      <c r="CL33" s="42"/>
-      <c r="CM33" s="42"/>
-      <c r="CN33" s="43"/>
-      <c r="CO33" s="42"/>
-      <c r="CP33" s="38"/>
-      <c r="CQ33" s="38"/>
-      <c r="CR33" s="60"/>
+      <c r="CL33" s="38"/>
+      <c r="CM33" s="38"/>
+      <c r="CN33" s="59"/>
+      <c r="CO33" s="52"/>
+      <c r="CP33" s="52"/>
+      <c r="CQ33" s="52"/>
+      <c r="CR33" s="52"/>
       <c r="CS33" s="52"/>
       <c r="CT33" s="52"/>
       <c r="CU33" s="52"/>
@@ -7825,20 +7573,16 @@
       <c r="DL33" s="52"/>
       <c r="DM33" s="52"/>
       <c r="DN33" s="52"/>
-      <c r="DO33" s="52"/>
-      <c r="DP33" s="52"/>
-      <c r="DQ33" s="52"/>
-      <c r="DR33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
       <c r="B34" s="54"/>
       <c r="C34" s="55"/>
       <c r="D34" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="55"/>
@@ -7853,7 +7597,7 @@
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
-      <c r="S34" s="63"/>
+      <c r="S34" s="62"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
@@ -7902,35 +7646,35 @@
       <c r="BM34" s="42"/>
       <c r="BN34" s="42"/>
       <c r="BO34" s="42"/>
-      <c r="BP34" s="42"/>
+      <c r="BP34" s="43"/>
       <c r="BQ34" s="42"/>
-      <c r="BR34" s="42"/>
-      <c r="BS34" s="42"/>
-      <c r="BT34" s="43"/>
-      <c r="BU34" s="42"/>
-      <c r="BV34" s="38"/>
-      <c r="BW34" s="38"/>
+      <c r="BR34" s="38"/>
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="43"/>
+      <c r="BW34" s="42"/>
       <c r="BX34" s="38"/>
       <c r="BY34" s="38"/>
-      <c r="BZ34" s="43"/>
-      <c r="CA34" s="42"/>
-      <c r="CB34" s="38"/>
-      <c r="CC34" s="38"/>
-      <c r="CD34" s="38"/>
-      <c r="CE34" s="63"/>
-      <c r="CF34" s="42"/>
+      <c r="BZ34" s="38"/>
+      <c r="CA34" s="62"/>
+      <c r="CB34" s="42"/>
+      <c r="CC34" s="42"/>
+      <c r="CD34" s="42"/>
+      <c r="CE34" s="42"/>
+      <c r="CF34" s="43"/>
       <c r="CG34" s="42"/>
       <c r="CH34" s="42"/>
       <c r="CI34" s="42"/>
       <c r="CJ34" s="43"/>
       <c r="CK34" s="42"/>
-      <c r="CL34" s="42"/>
-      <c r="CM34" s="42"/>
-      <c r="CN34" s="43"/>
-      <c r="CO34" s="42"/>
-      <c r="CP34" s="38"/>
-      <c r="CQ34" s="38"/>
-      <c r="CR34" s="60"/>
+      <c r="CL34" s="38"/>
+      <c r="CM34" s="38"/>
+      <c r="CN34" s="59"/>
+      <c r="CO34" s="52"/>
+      <c r="CP34" s="52"/>
+      <c r="CQ34" s="52"/>
+      <c r="CR34" s="52"/>
       <c r="CS34" s="52"/>
       <c r="CT34" s="52"/>
       <c r="CU34" s="52"/>
@@ -7953,20 +7697,16 @@
       <c r="DL34" s="52"/>
       <c r="DM34" s="52"/>
       <c r="DN34" s="52"/>
-      <c r="DO34" s="52"/>
-      <c r="DP34" s="52"/>
-      <c r="DQ34" s="52"/>
-      <c r="DR34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35"/>
       <c r="B35" s="54"/>
       <c r="C35" s="55"/>
       <c r="D35" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F35" s="54"/>
       <c r="G35" s="55"/>
@@ -7981,7 +7721,7 @@
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
-      <c r="S35" s="63"/>
+      <c r="S35" s="62"/>
       <c r="T35" s="42"/>
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
@@ -8030,35 +7770,35 @@
       <c r="BM35" s="42"/>
       <c r="BN35" s="42"/>
       <c r="BO35" s="42"/>
-      <c r="BP35" s="42"/>
+      <c r="BP35" s="43"/>
       <c r="BQ35" s="42"/>
-      <c r="BR35" s="42"/>
-      <c r="BS35" s="42"/>
-      <c r="BT35" s="43"/>
-      <c r="BU35" s="42"/>
-      <c r="BV35" s="38"/>
-      <c r="BW35" s="38"/>
+      <c r="BR35" s="38"/>
+      <c r="BS35" s="38"/>
+      <c r="BT35" s="38"/>
+      <c r="BU35" s="38"/>
+      <c r="BV35" s="43"/>
+      <c r="BW35" s="42"/>
       <c r="BX35" s="38"/>
       <c r="BY35" s="38"/>
-      <c r="BZ35" s="43"/>
-      <c r="CA35" s="42"/>
-      <c r="CB35" s="38"/>
-      <c r="CC35" s="38"/>
-      <c r="CD35" s="38"/>
-      <c r="CE35" s="63"/>
-      <c r="CF35" s="42"/>
+      <c r="BZ35" s="38"/>
+      <c r="CA35" s="62"/>
+      <c r="CB35" s="42"/>
+      <c r="CC35" s="42"/>
+      <c r="CD35" s="42"/>
+      <c r="CE35" s="42"/>
+      <c r="CF35" s="43"/>
       <c r="CG35" s="42"/>
       <c r="CH35" s="42"/>
       <c r="CI35" s="42"/>
       <c r="CJ35" s="43"/>
       <c r="CK35" s="42"/>
-      <c r="CL35" s="42"/>
-      <c r="CM35" s="42"/>
-      <c r="CN35" s="43"/>
-      <c r="CO35" s="42"/>
-      <c r="CP35" s="38"/>
-      <c r="CQ35" s="38"/>
-      <c r="CR35" s="60"/>
+      <c r="CL35" s="38"/>
+      <c r="CM35" s="38"/>
+      <c r="CN35" s="59"/>
+      <c r="CO35" s="52"/>
+      <c r="CP35" s="52"/>
+      <c r="CQ35" s="52"/>
+      <c r="CR35" s="52"/>
       <c r="CS35" s="52"/>
       <c r="CT35" s="52"/>
       <c r="CU35" s="52"/>
@@ -8081,20 +7821,16 @@
       <c r="DL35" s="52"/>
       <c r="DM35" s="52"/>
       <c r="DN35" s="52"/>
-      <c r="DO35" s="52"/>
-      <c r="DP35" s="52"/>
-      <c r="DQ35" s="52"/>
-      <c r="DR35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
       <c r="B36" s="54"/>
       <c r="C36" s="55"/>
       <c r="D36" s="38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="55"/>
@@ -8109,7 +7845,7 @@
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
-      <c r="S36" s="63"/>
+      <c r="S36" s="62"/>
       <c r="T36" s="42"/>
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
@@ -8158,35 +7894,35 @@
       <c r="BM36" s="42"/>
       <c r="BN36" s="42"/>
       <c r="BO36" s="42"/>
-      <c r="BP36" s="42"/>
+      <c r="BP36" s="43"/>
       <c r="BQ36" s="42"/>
-      <c r="BR36" s="42"/>
-      <c r="BS36" s="42"/>
-      <c r="BT36" s="43"/>
-      <c r="BU36" s="42"/>
-      <c r="BV36" s="38"/>
-      <c r="BW36" s="38"/>
+      <c r="BR36" s="38"/>
+      <c r="BS36" s="38"/>
+      <c r="BT36" s="38"/>
+      <c r="BU36" s="38"/>
+      <c r="BV36" s="43"/>
+      <c r="BW36" s="42"/>
       <c r="BX36" s="38"/>
       <c r="BY36" s="38"/>
-      <c r="BZ36" s="43"/>
-      <c r="CA36" s="42"/>
-      <c r="CB36" s="38"/>
-      <c r="CC36" s="38"/>
-      <c r="CD36" s="38"/>
-      <c r="CE36" s="63"/>
-      <c r="CF36" s="42"/>
+      <c r="BZ36" s="38"/>
+      <c r="CA36" s="62"/>
+      <c r="CB36" s="42"/>
+      <c r="CC36" s="42"/>
+      <c r="CD36" s="42"/>
+      <c r="CE36" s="42"/>
+      <c r="CF36" s="43"/>
       <c r="CG36" s="42"/>
       <c r="CH36" s="42"/>
       <c r="CI36" s="42"/>
       <c r="CJ36" s="43"/>
       <c r="CK36" s="42"/>
-      <c r="CL36" s="42"/>
-      <c r="CM36" s="42"/>
-      <c r="CN36" s="43"/>
-      <c r="CO36" s="42"/>
-      <c r="CP36" s="38"/>
-      <c r="CQ36" s="38"/>
-      <c r="CR36" s="60"/>
+      <c r="CL36" s="38"/>
+      <c r="CM36" s="38"/>
+      <c r="CN36" s="59"/>
+      <c r="CO36" s="52"/>
+      <c r="CP36" s="52"/>
+      <c r="CQ36" s="52"/>
+      <c r="CR36" s="52"/>
       <c r="CS36" s="52"/>
       <c r="CT36" s="52"/>
       <c r="CU36" s="52"/>
@@ -8209,20 +7945,16 @@
       <c r="DL36" s="52"/>
       <c r="DM36" s="52"/>
       <c r="DN36" s="52"/>
-      <c r="DO36" s="52"/>
-      <c r="DP36" s="52"/>
-      <c r="DQ36" s="52"/>
-      <c r="DR36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
       <c r="B37" s="54"/>
       <c r="C37" s="55"/>
       <c r="D37" s="42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F37" s="54"/>
       <c r="G37" s="55"/>
@@ -8237,7 +7969,7 @@
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
-      <c r="S37" s="63"/>
+      <c r="S37" s="62"/>
       <c r="T37" s="42"/>
       <c r="U37" s="42"/>
       <c r="V37" s="42"/>
@@ -8286,35 +8018,35 @@
       <c r="BM37" s="42"/>
       <c r="BN37" s="42"/>
       <c r="BO37" s="42"/>
-      <c r="BP37" s="42"/>
+      <c r="BP37" s="43"/>
       <c r="BQ37" s="42"/>
-      <c r="BR37" s="42"/>
-      <c r="BS37" s="42"/>
-      <c r="BT37" s="43"/>
-      <c r="BU37" s="42"/>
-      <c r="BV37" s="38"/>
-      <c r="BW37" s="38"/>
+      <c r="BR37" s="38"/>
+      <c r="BS37" s="38"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="43"/>
+      <c r="BW37" s="42"/>
       <c r="BX37" s="38"/>
       <c r="BY37" s="38"/>
-      <c r="BZ37" s="43"/>
-      <c r="CA37" s="42"/>
-      <c r="CB37" s="38"/>
-      <c r="CC37" s="38"/>
-      <c r="CD37" s="38"/>
-      <c r="CE37" s="63"/>
-      <c r="CF37" s="42"/>
+      <c r="BZ37" s="38"/>
+      <c r="CA37" s="62"/>
+      <c r="CB37" s="42"/>
+      <c r="CC37" s="42"/>
+      <c r="CD37" s="42"/>
+      <c r="CE37" s="42"/>
+      <c r="CF37" s="43"/>
       <c r="CG37" s="42"/>
       <c r="CH37" s="42"/>
       <c r="CI37" s="42"/>
       <c r="CJ37" s="43"/>
       <c r="CK37" s="42"/>
-      <c r="CL37" s="42"/>
-      <c r="CM37" s="42"/>
-      <c r="CN37" s="43"/>
-      <c r="CO37" s="42"/>
-      <c r="CP37" s="38"/>
-      <c r="CQ37" s="38"/>
-      <c r="CR37" s="60"/>
+      <c r="CL37" s="38"/>
+      <c r="CM37" s="38"/>
+      <c r="CN37" s="59"/>
+      <c r="CO37" s="52"/>
+      <c r="CP37" s="52"/>
+      <c r="CQ37" s="52"/>
+      <c r="CR37" s="52"/>
       <c r="CS37" s="52"/>
       <c r="CT37" s="52"/>
       <c r="CU37" s="52"/>
@@ -8337,20 +8069,16 @@
       <c r="DL37" s="52"/>
       <c r="DM37" s="52"/>
       <c r="DN37" s="52"/>
-      <c r="DO37" s="52"/>
-      <c r="DP37" s="52"/>
-      <c r="DQ37" s="52"/>
-      <c r="DR37" s="52"/>
     </row>
     <row r="38" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
       <c r="B38" s="54"/>
       <c r="C38" s="55"/>
       <c r="D38" s="42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="55"/>
@@ -8365,7 +8093,7 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
       <c r="R38" s="42"/>
-      <c r="S38" s="63"/>
+      <c r="S38" s="62"/>
       <c r="T38" s="42"/>
       <c r="U38" s="42"/>
       <c r="V38" s="42"/>
@@ -8414,35 +8142,35 @@
       <c r="BM38" s="42"/>
       <c r="BN38" s="42"/>
       <c r="BO38" s="42"/>
-      <c r="BP38" s="42"/>
+      <c r="BP38" s="43"/>
       <c r="BQ38" s="42"/>
-      <c r="BR38" s="42"/>
-      <c r="BS38" s="42"/>
-      <c r="BT38" s="43"/>
-      <c r="BU38" s="42"/>
-      <c r="BV38" s="38"/>
-      <c r="BW38" s="38"/>
+      <c r="BR38" s="38"/>
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="43"/>
+      <c r="BW38" s="42"/>
       <c r="BX38" s="38"/>
       <c r="BY38" s="38"/>
-      <c r="BZ38" s="43"/>
-      <c r="CA38" s="42"/>
-      <c r="CB38" s="38"/>
-      <c r="CC38" s="38"/>
-      <c r="CD38" s="38"/>
-      <c r="CE38" s="63"/>
-      <c r="CF38" s="42"/>
+      <c r="BZ38" s="38"/>
+      <c r="CA38" s="62"/>
+      <c r="CB38" s="42"/>
+      <c r="CC38" s="42"/>
+      <c r="CD38" s="42"/>
+      <c r="CE38" s="42"/>
+      <c r="CF38" s="43"/>
       <c r="CG38" s="42"/>
       <c r="CH38" s="42"/>
       <c r="CI38" s="42"/>
       <c r="CJ38" s="43"/>
       <c r="CK38" s="42"/>
-      <c r="CL38" s="42"/>
-      <c r="CM38" s="42"/>
-      <c r="CN38" s="43"/>
-      <c r="CO38" s="42"/>
-      <c r="CP38" s="38"/>
-      <c r="CQ38" s="38"/>
-      <c r="CR38" s="60"/>
+      <c r="CL38" s="38"/>
+      <c r="CM38" s="38"/>
+      <c r="CN38" s="59"/>
+      <c r="CO38" s="52"/>
+      <c r="CP38" s="52"/>
+      <c r="CQ38" s="52"/>
+      <c r="CR38" s="52"/>
       <c r="CS38" s="52"/>
       <c r="CT38" s="52"/>
       <c r="CU38" s="52"/>
@@ -8465,20 +8193,16 @@
       <c r="DL38" s="52"/>
       <c r="DM38" s="52"/>
       <c r="DN38" s="52"/>
-      <c r="DO38" s="52"/>
-      <c r="DP38" s="52"/>
-      <c r="DQ38" s="52"/>
-      <c r="DR38" s="52"/>
     </row>
     <row r="39" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55"/>
       <c r="D39" s="42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="55"/>
@@ -8493,7 +8217,7 @@
       <c r="P39" s="42"/>
       <c r="Q39" s="42"/>
       <c r="R39" s="42"/>
-      <c r="S39" s="63"/>
+      <c r="S39" s="62"/>
       <c r="T39" s="42"/>
       <c r="U39" s="42"/>
       <c r="V39" s="42"/>
@@ -8542,35 +8266,35 @@
       <c r="BM39" s="42"/>
       <c r="BN39" s="42"/>
       <c r="BO39" s="42"/>
-      <c r="BP39" s="42"/>
+      <c r="BP39" s="43"/>
       <c r="BQ39" s="42"/>
-      <c r="BR39" s="42"/>
-      <c r="BS39" s="42"/>
-      <c r="BT39" s="43"/>
-      <c r="BU39" s="42"/>
-      <c r="BV39" s="38"/>
-      <c r="BW39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="43"/>
+      <c r="BW39" s="42"/>
       <c r="BX39" s="38"/>
       <c r="BY39" s="38"/>
-      <c r="BZ39" s="43"/>
-      <c r="CA39" s="42"/>
-      <c r="CB39" s="38"/>
-      <c r="CC39" s="38"/>
-      <c r="CD39" s="38"/>
-      <c r="CE39" s="63"/>
-      <c r="CF39" s="42"/>
+      <c r="BZ39" s="38"/>
+      <c r="CA39" s="62"/>
+      <c r="CB39" s="42"/>
+      <c r="CC39" s="42"/>
+      <c r="CD39" s="42"/>
+      <c r="CE39" s="42"/>
+      <c r="CF39" s="43"/>
       <c r="CG39" s="42"/>
       <c r="CH39" s="42"/>
       <c r="CI39" s="42"/>
       <c r="CJ39" s="43"/>
       <c r="CK39" s="42"/>
-      <c r="CL39" s="42"/>
-      <c r="CM39" s="42"/>
-      <c r="CN39" s="43"/>
-      <c r="CO39" s="42"/>
-      <c r="CP39" s="38"/>
-      <c r="CQ39" s="38"/>
-      <c r="CR39" s="60"/>
+      <c r="CL39" s="38"/>
+      <c r="CM39" s="38"/>
+      <c r="CN39" s="59"/>
+      <c r="CO39" s="52"/>
+      <c r="CP39" s="52"/>
+      <c r="CQ39" s="52"/>
+      <c r="CR39" s="52"/>
       <c r="CS39" s="52"/>
       <c r="CT39" s="52"/>
       <c r="CU39" s="52"/>
@@ -8593,20 +8317,16 @@
       <c r="DL39" s="52"/>
       <c r="DM39" s="52"/>
       <c r="DN39" s="52"/>
-      <c r="DO39" s="52"/>
-      <c r="DP39" s="52"/>
-      <c r="DQ39" s="52"/>
-      <c r="DR39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="54"/>
       <c r="C40" s="55"/>
       <c r="D40" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F40" s="54"/>
       <c r="G40" s="55"/>
@@ -8621,7 +8341,7 @@
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
-      <c r="S40" s="63"/>
+      <c r="S40" s="62"/>
       <c r="T40" s="42"/>
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
@@ -8670,35 +8390,35 @@
       <c r="BM40" s="42"/>
       <c r="BN40" s="42"/>
       <c r="BO40" s="42"/>
-      <c r="BP40" s="42"/>
+      <c r="BP40" s="43"/>
       <c r="BQ40" s="42"/>
-      <c r="BR40" s="42"/>
-      <c r="BS40" s="42"/>
-      <c r="BT40" s="43"/>
-      <c r="BU40" s="42"/>
-      <c r="BV40" s="38"/>
-      <c r="BW40" s="38"/>
+      <c r="BR40" s="38"/>
+      <c r="BS40" s="38"/>
+      <c r="BT40" s="38"/>
+      <c r="BU40" s="38"/>
+      <c r="BV40" s="43"/>
+      <c r="BW40" s="42"/>
       <c r="BX40" s="38"/>
       <c r="BY40" s="38"/>
-      <c r="BZ40" s="43"/>
-      <c r="CA40" s="42"/>
-      <c r="CB40" s="38"/>
-      <c r="CC40" s="38"/>
-      <c r="CD40" s="38"/>
-      <c r="CE40" s="63"/>
-      <c r="CF40" s="42"/>
+      <c r="BZ40" s="38"/>
+      <c r="CA40" s="62"/>
+      <c r="CB40" s="42"/>
+      <c r="CC40" s="42"/>
+      <c r="CD40" s="42"/>
+      <c r="CE40" s="42"/>
+      <c r="CF40" s="43"/>
       <c r="CG40" s="42"/>
       <c r="CH40" s="42"/>
       <c r="CI40" s="42"/>
       <c r="CJ40" s="43"/>
       <c r="CK40" s="42"/>
-      <c r="CL40" s="42"/>
-      <c r="CM40" s="42"/>
-      <c r="CN40" s="43"/>
-      <c r="CO40" s="42"/>
-      <c r="CP40" s="38"/>
-      <c r="CQ40" s="38"/>
-      <c r="CR40" s="60"/>
+      <c r="CL40" s="38"/>
+      <c r="CM40" s="38"/>
+      <c r="CN40" s="59"/>
+      <c r="CO40" s="52"/>
+      <c r="CP40" s="52"/>
+      <c r="CQ40" s="52"/>
+      <c r="CR40" s="52"/>
       <c r="CS40" s="52"/>
       <c r="CT40" s="52"/>
       <c r="CU40" s="52"/>
@@ -8721,20 +8441,16 @@
       <c r="DL40" s="52"/>
       <c r="DM40" s="52"/>
       <c r="DN40" s="52"/>
-      <c r="DO40" s="52"/>
-      <c r="DP40" s="52"/>
-      <c r="DQ40" s="52"/>
-      <c r="DR40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="35"/>
       <c r="B41" s="43"/>
       <c r="C41" s="42"/>
       <c r="D41" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="55"/>
@@ -8749,7 +8465,7 @@
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="42"/>
-      <c r="S41" s="63"/>
+      <c r="S41" s="62"/>
       <c r="T41" s="42"/>
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
@@ -8798,35 +8514,35 @@
       <c r="BM41" s="42"/>
       <c r="BN41" s="42"/>
       <c r="BO41" s="42"/>
-      <c r="BP41" s="42"/>
+      <c r="BP41" s="43"/>
       <c r="BQ41" s="42"/>
-      <c r="BR41" s="42"/>
-      <c r="BS41" s="42"/>
-      <c r="BT41" s="43"/>
-      <c r="BU41" s="42"/>
-      <c r="BV41" s="38"/>
-      <c r="BW41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="43"/>
+      <c r="BW41" s="42"/>
       <c r="BX41" s="38"/>
       <c r="BY41" s="38"/>
-      <c r="BZ41" s="43"/>
-      <c r="CA41" s="42"/>
-      <c r="CB41" s="38"/>
-      <c r="CC41" s="38"/>
-      <c r="CD41" s="38"/>
-      <c r="CE41" s="63"/>
-      <c r="CF41" s="42"/>
-      <c r="CG41" s="42"/>
-      <c r="CH41" s="42"/>
-      <c r="CI41" s="42"/>
+      <c r="BZ41" s="38"/>
+      <c r="CA41" s="62"/>
+      <c r="CB41" s="42"/>
+      <c r="CC41" s="42"/>
+      <c r="CD41" s="42"/>
+      <c r="CE41" s="42"/>
+      <c r="CF41" s="54"/>
+      <c r="CG41" s="55"/>
+      <c r="CH41" s="55"/>
+      <c r="CI41" s="55"/>
       <c r="CJ41" s="54"/>
-      <c r="CK41" s="55"/>
-      <c r="CL41" s="55"/>
-      <c r="CM41" s="55"/>
-      <c r="CN41" s="54"/>
-      <c r="CO41" s="42"/>
-      <c r="CP41" s="38"/>
-      <c r="CQ41" s="38"/>
-      <c r="CR41" s="60"/>
+      <c r="CK41" s="42"/>
+      <c r="CL41" s="38"/>
+      <c r="CM41" s="38"/>
+      <c r="CN41" s="59"/>
+      <c r="CO41" s="52"/>
+      <c r="CP41" s="52"/>
+      <c r="CQ41" s="52"/>
+      <c r="CR41" s="52"/>
       <c r="CS41" s="52"/>
       <c r="CT41" s="52"/>
       <c r="CU41" s="52"/>
@@ -8849,20 +8565,16 @@
       <c r="DL41" s="52"/>
       <c r="DM41" s="52"/>
       <c r="DN41" s="52"/>
-      <c r="DO41" s="52"/>
-      <c r="DP41" s="52"/>
-      <c r="DQ41" s="52"/>
-      <c r="DR41" s="52"/>
     </row>
     <row r="42" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="35"/>
       <c r="B42" s="43"/>
       <c r="C42" s="42"/>
       <c r="D42" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F42" s="54"/>
       <c r="G42" s="55"/>
@@ -8877,7 +8589,7 @@
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
       <c r="R42" s="42"/>
-      <c r="S42" s="63"/>
+      <c r="S42" s="62"/>
       <c r="T42" s="42"/>
       <c r="U42" s="42"/>
       <c r="V42" s="42"/>
@@ -8926,35 +8638,35 @@
       <c r="BM42" s="42"/>
       <c r="BN42" s="42"/>
       <c r="BO42" s="42"/>
-      <c r="BP42" s="42"/>
+      <c r="BP42" s="43"/>
       <c r="BQ42" s="42"/>
-      <c r="BR42" s="42"/>
-      <c r="BS42" s="42"/>
-      <c r="BT42" s="43"/>
-      <c r="BU42" s="42"/>
-      <c r="BV42" s="38"/>
-      <c r="BW42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="43"/>
+      <c r="BW42" s="42"/>
       <c r="BX42" s="38"/>
       <c r="BY42" s="38"/>
-      <c r="BZ42" s="43"/>
-      <c r="CA42" s="42"/>
-      <c r="CB42" s="38"/>
-      <c r="CC42" s="38"/>
-      <c r="CD42" s="38"/>
-      <c r="CE42" s="63"/>
-      <c r="CF42" s="42"/>
-      <c r="CG42" s="42"/>
-      <c r="CH42" s="42"/>
-      <c r="CI42" s="42"/>
+      <c r="BZ42" s="38"/>
+      <c r="CA42" s="62"/>
+      <c r="CB42" s="42"/>
+      <c r="CC42" s="42"/>
+      <c r="CD42" s="42"/>
+      <c r="CE42" s="42"/>
+      <c r="CF42" s="54"/>
+      <c r="CG42" s="55"/>
+      <c r="CH42" s="55"/>
+      <c r="CI42" s="55"/>
       <c r="CJ42" s="54"/>
-      <c r="CK42" s="55"/>
-      <c r="CL42" s="55"/>
-      <c r="CM42" s="55"/>
-      <c r="CN42" s="54"/>
-      <c r="CO42" s="42"/>
-      <c r="CP42" s="38"/>
-      <c r="CQ42" s="38"/>
-      <c r="CR42" s="60"/>
+      <c r="CK42" s="42"/>
+      <c r="CL42" s="38"/>
+      <c r="CM42" s="38"/>
+      <c r="CN42" s="59"/>
+      <c r="CO42" s="52"/>
+      <c r="CP42" s="52"/>
+      <c r="CQ42" s="52"/>
+      <c r="CR42" s="52"/>
       <c r="CS42" s="52"/>
       <c r="CT42" s="52"/>
       <c r="CU42" s="52"/>
@@ -8977,20 +8689,16 @@
       <c r="DL42" s="52"/>
       <c r="DM42" s="52"/>
       <c r="DN42" s="52"/>
-      <c r="DO42" s="52"/>
-      <c r="DP42" s="52"/>
-      <c r="DQ42" s="52"/>
-      <c r="DR42" s="52"/>
     </row>
     <row r="43" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="35"/>
       <c r="B43" s="43"/>
       <c r="C43" s="42"/>
       <c r="D43" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F43" s="54"/>
       <c r="G43" s="55"/>
@@ -9005,7 +8713,7 @@
       <c r="P43" s="42"/>
       <c r="Q43" s="42"/>
       <c r="R43" s="42"/>
-      <c r="S43" s="63"/>
+      <c r="S43" s="62"/>
       <c r="T43" s="42"/>
       <c r="U43" s="42"/>
       <c r="V43" s="42"/>
@@ -9054,35 +8762,35 @@
       <c r="BM43" s="42"/>
       <c r="BN43" s="42"/>
       <c r="BO43" s="42"/>
-      <c r="BP43" s="42"/>
+      <c r="BP43" s="43"/>
       <c r="BQ43" s="42"/>
-      <c r="BR43" s="42"/>
-      <c r="BS43" s="42"/>
-      <c r="BT43" s="43"/>
-      <c r="BU43" s="42"/>
-      <c r="BV43" s="38"/>
-      <c r="BW43" s="38"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="38"/>
+      <c r="BT43" s="38"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="43"/>
+      <c r="BW43" s="42"/>
       <c r="BX43" s="38"/>
       <c r="BY43" s="38"/>
-      <c r="BZ43" s="43"/>
-      <c r="CA43" s="42"/>
-      <c r="CB43" s="38"/>
-      <c r="CC43" s="38"/>
-      <c r="CD43" s="38"/>
-      <c r="CE43" s="63"/>
-      <c r="CF43" s="42"/>
-      <c r="CG43" s="42"/>
-      <c r="CH43" s="42"/>
-      <c r="CI43" s="42"/>
+      <c r="BZ43" s="38"/>
+      <c r="CA43" s="62"/>
+      <c r="CB43" s="42"/>
+      <c r="CC43" s="42"/>
+      <c r="CD43" s="42"/>
+      <c r="CE43" s="42"/>
+      <c r="CF43" s="54"/>
+      <c r="CG43" s="55"/>
+      <c r="CH43" s="55"/>
+      <c r="CI43" s="55"/>
       <c r="CJ43" s="54"/>
-      <c r="CK43" s="55"/>
-      <c r="CL43" s="55"/>
-      <c r="CM43" s="55"/>
-      <c r="CN43" s="54"/>
-      <c r="CO43" s="42"/>
-      <c r="CP43" s="38"/>
-      <c r="CQ43" s="38"/>
-      <c r="CR43" s="60"/>
+      <c r="CK43" s="42"/>
+      <c r="CL43" s="38"/>
+      <c r="CM43" s="38"/>
+      <c r="CN43" s="59"/>
+      <c r="CO43" s="52"/>
+      <c r="CP43" s="52"/>
+      <c r="CQ43" s="52"/>
+      <c r="CR43" s="52"/>
       <c r="CS43" s="52"/>
       <c r="CT43" s="52"/>
       <c r="CU43" s="52"/>
@@ -9105,20 +8813,16 @@
       <c r="DL43" s="52"/>
       <c r="DM43" s="52"/>
       <c r="DN43" s="52"/>
-      <c r="DO43" s="52"/>
-      <c r="DP43" s="52"/>
-      <c r="DQ43" s="52"/>
-      <c r="DR43" s="52"/>
     </row>
     <row r="44" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35"/>
       <c r="B44" s="43"/>
       <c r="C44" s="42"/>
       <c r="D44" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="42"/>
@@ -9133,7 +8837,7 @@
       <c r="P44" s="42"/>
       <c r="Q44" s="42"/>
       <c r="R44" s="42"/>
-      <c r="S44" s="63"/>
+      <c r="S44" s="62"/>
       <c r="T44" s="42"/>
       <c r="U44" s="42"/>
       <c r="V44" s="42"/>
@@ -9182,35 +8886,35 @@
       <c r="BM44" s="42"/>
       <c r="BN44" s="42"/>
       <c r="BO44" s="42"/>
-      <c r="BP44" s="42"/>
+      <c r="BP44" s="43"/>
       <c r="BQ44" s="42"/>
-      <c r="BR44" s="42"/>
-      <c r="BS44" s="42"/>
-      <c r="BT44" s="43"/>
-      <c r="BU44" s="42"/>
-      <c r="BV44" s="38"/>
-      <c r="BW44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="43"/>
+      <c r="BW44" s="42"/>
       <c r="BX44" s="38"/>
       <c r="BY44" s="38"/>
-      <c r="BZ44" s="43"/>
-      <c r="CA44" s="42"/>
-      <c r="CB44" s="38"/>
-      <c r="CC44" s="38"/>
-      <c r="CD44" s="38"/>
-      <c r="CE44" s="63"/>
-      <c r="CF44" s="42"/>
-      <c r="CG44" s="42"/>
-      <c r="CH44" s="42"/>
-      <c r="CI44" s="42"/>
+      <c r="BZ44" s="38"/>
+      <c r="CA44" s="62"/>
+      <c r="CB44" s="42"/>
+      <c r="CC44" s="42"/>
+      <c r="CD44" s="42"/>
+      <c r="CE44" s="42"/>
+      <c r="CF44" s="54"/>
+      <c r="CG44" s="55"/>
+      <c r="CH44" s="55"/>
+      <c r="CI44" s="55"/>
       <c r="CJ44" s="54"/>
-      <c r="CK44" s="55"/>
-      <c r="CL44" s="55"/>
-      <c r="CM44" s="55"/>
-      <c r="CN44" s="54"/>
-      <c r="CO44" s="42"/>
-      <c r="CP44" s="38"/>
-      <c r="CQ44" s="38"/>
-      <c r="CR44" s="60"/>
+      <c r="CK44" s="42"/>
+      <c r="CL44" s="38"/>
+      <c r="CM44" s="38"/>
+      <c r="CN44" s="59"/>
+      <c r="CO44" s="52"/>
+      <c r="CP44" s="52"/>
+      <c r="CQ44" s="52"/>
+      <c r="CR44" s="52"/>
       <c r="CS44" s="52"/>
       <c r="CT44" s="52"/>
       <c r="CU44" s="52"/>
@@ -9233,19 +8937,15 @@
       <c r="DL44" s="52"/>
       <c r="DM44" s="52"/>
       <c r="DN44" s="52"/>
-      <c r="DO44" s="52"/>
-      <c r="DP44" s="52"/>
-      <c r="DQ44" s="52"/>
-      <c r="DR44" s="52"/>
     </row>
     <row r="45" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="43"/>
       <c r="C45" s="42"/>
       <c r="D45" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="42"/>
@@ -9260,7 +8960,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="42"/>
-      <c r="S45" s="63"/>
+      <c r="S45" s="62"/>
       <c r="T45" s="42"/>
       <c r="U45" s="42"/>
       <c r="V45" s="42"/>
@@ -9309,35 +9009,35 @@
       <c r="BM45" s="42"/>
       <c r="BN45" s="42"/>
       <c r="BO45" s="42"/>
-      <c r="BP45" s="42"/>
+      <c r="BP45" s="43"/>
       <c r="BQ45" s="42"/>
-      <c r="BR45" s="42"/>
-      <c r="BS45" s="42"/>
-      <c r="BT45" s="43"/>
-      <c r="BU45" s="42"/>
-      <c r="BV45" s="38"/>
-      <c r="BW45" s="38"/>
+      <c r="BR45" s="38"/>
+      <c r="BS45" s="38"/>
+      <c r="BT45" s="38"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="43"/>
+      <c r="BW45" s="42"/>
       <c r="BX45" s="38"/>
       <c r="BY45" s="38"/>
-      <c r="BZ45" s="43"/>
-      <c r="CA45" s="42"/>
-      <c r="CB45" s="38"/>
-      <c r="CC45" s="38"/>
-      <c r="CD45" s="38"/>
-      <c r="CE45" s="63"/>
-      <c r="CF45" s="42"/>
-      <c r="CG45" s="42"/>
-      <c r="CH45" s="42"/>
-      <c r="CI45" s="42"/>
+      <c r="BZ45" s="38"/>
+      <c r="CA45" s="62"/>
+      <c r="CB45" s="42"/>
+      <c r="CC45" s="42"/>
+      <c r="CD45" s="42"/>
+      <c r="CE45" s="42"/>
+      <c r="CF45" s="54"/>
+      <c r="CG45" s="55"/>
+      <c r="CH45" s="55"/>
+      <c r="CI45" s="55"/>
       <c r="CJ45" s="54"/>
-      <c r="CK45" s="55"/>
-      <c r="CL45" s="55"/>
-      <c r="CM45" s="55"/>
-      <c r="CN45" s="54"/>
-      <c r="CO45" s="42"/>
-      <c r="CP45" s="38"/>
-      <c r="CQ45" s="38"/>
-      <c r="CR45" s="60"/>
+      <c r="CK45" s="42"/>
+      <c r="CL45" s="38"/>
+      <c r="CM45" s="38"/>
+      <c r="CN45" s="59"/>
+      <c r="CO45" s="52"/>
+      <c r="CP45" s="52"/>
+      <c r="CQ45" s="52"/>
+      <c r="CR45" s="52"/>
       <c r="CS45" s="52"/>
       <c r="CT45" s="52"/>
       <c r="CU45" s="52"/>
@@ -9360,19 +9060,15 @@
       <c r="DL45" s="52"/>
       <c r="DM45" s="52"/>
       <c r="DN45" s="52"/>
-      <c r="DO45" s="52"/>
-      <c r="DP45" s="52"/>
-      <c r="DQ45" s="52"/>
-      <c r="DR45" s="52"/>
     </row>
     <row r="46" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="43"/>
       <c r="C46" s="42"/>
       <c r="D46" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="42"/>
@@ -9387,7 +9083,7 @@
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
       <c r="R46" s="42"/>
-      <c r="S46" s="63"/>
+      <c r="S46" s="62"/>
       <c r="T46" s="42"/>
       <c r="U46" s="42"/>
       <c r="V46" s="42"/>
@@ -9436,35 +9132,35 @@
       <c r="BM46" s="42"/>
       <c r="BN46" s="42"/>
       <c r="BO46" s="42"/>
-      <c r="BP46" s="42"/>
+      <c r="BP46" s="43"/>
       <c r="BQ46" s="42"/>
-      <c r="BR46" s="42"/>
-      <c r="BS46" s="42"/>
-      <c r="BT46" s="43"/>
-      <c r="BU46" s="42"/>
-      <c r="BV46" s="38"/>
-      <c r="BW46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="43"/>
+      <c r="BW46" s="42"/>
       <c r="BX46" s="38"/>
       <c r="BY46" s="38"/>
-      <c r="BZ46" s="43"/>
-      <c r="CA46" s="42"/>
-      <c r="CB46" s="38"/>
-      <c r="CC46" s="38"/>
-      <c r="CD46" s="38"/>
-      <c r="CE46" s="63"/>
-      <c r="CF46" s="42"/>
-      <c r="CG46" s="42"/>
-      <c r="CH46" s="42"/>
-      <c r="CI46" s="42"/>
+      <c r="BZ46" s="38"/>
+      <c r="CA46" s="62"/>
+      <c r="CB46" s="42"/>
+      <c r="CC46" s="42"/>
+      <c r="CD46" s="42"/>
+      <c r="CE46" s="42"/>
+      <c r="CF46" s="54"/>
+      <c r="CG46" s="55"/>
+      <c r="CH46" s="55"/>
+      <c r="CI46" s="55"/>
       <c r="CJ46" s="54"/>
-      <c r="CK46" s="55"/>
-      <c r="CL46" s="55"/>
-      <c r="CM46" s="55"/>
-      <c r="CN46" s="54"/>
-      <c r="CO46" s="42"/>
-      <c r="CP46" s="38"/>
-      <c r="CQ46" s="38"/>
-      <c r="CR46" s="60"/>
+      <c r="CK46" s="42"/>
+      <c r="CL46" s="38"/>
+      <c r="CM46" s="38"/>
+      <c r="CN46" s="59"/>
+      <c r="CO46" s="52"/>
+      <c r="CP46" s="52"/>
+      <c r="CQ46" s="52"/>
+      <c r="CR46" s="52"/>
       <c r="CS46" s="52"/>
       <c r="CT46" s="52"/>
       <c r="CU46" s="52"/>
@@ -9487,19 +9183,15 @@
       <c r="DL46" s="52"/>
       <c r="DM46" s="52"/>
       <c r="DN46" s="52"/>
-      <c r="DO46" s="52"/>
-      <c r="DP46" s="52"/>
-      <c r="DQ46" s="52"/>
-      <c r="DR46" s="52"/>
     </row>
     <row r="47" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="43"/>
       <c r="C47" s="42"/>
       <c r="D47" s="38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="42"/>
@@ -9514,7 +9206,7 @@
       <c r="P47" s="42"/>
       <c r="Q47" s="42"/>
       <c r="R47" s="42"/>
-      <c r="S47" s="63"/>
+      <c r="S47" s="62"/>
       <c r="T47" s="42"/>
       <c r="U47" s="42"/>
       <c r="V47" s="42"/>
@@ -9563,35 +9255,35 @@
       <c r="BM47" s="42"/>
       <c r="BN47" s="42"/>
       <c r="BO47" s="42"/>
-      <c r="BP47" s="42"/>
+      <c r="BP47" s="43"/>
       <c r="BQ47" s="42"/>
-      <c r="BR47" s="42"/>
-      <c r="BS47" s="42"/>
-      <c r="BT47" s="43"/>
-      <c r="BU47" s="42"/>
-      <c r="BV47" s="38"/>
-      <c r="BW47" s="38"/>
+      <c r="BR47" s="38"/>
+      <c r="BS47" s="38"/>
+      <c r="BT47" s="38"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="43"/>
+      <c r="BW47" s="42"/>
       <c r="BX47" s="38"/>
       <c r="BY47" s="38"/>
-      <c r="BZ47" s="43"/>
-      <c r="CA47" s="42"/>
-      <c r="CB47" s="38"/>
-      <c r="CC47" s="38"/>
-      <c r="CD47" s="38"/>
-      <c r="CE47" s="63"/>
-      <c r="CF47" s="42"/>
-      <c r="CG47" s="42"/>
-      <c r="CH47" s="42"/>
-      <c r="CI47" s="42"/>
+      <c r="BZ47" s="38"/>
+      <c r="CA47" s="62"/>
+      <c r="CB47" s="42"/>
+      <c r="CC47" s="42"/>
+      <c r="CD47" s="42"/>
+      <c r="CE47" s="42"/>
+      <c r="CF47" s="54"/>
+      <c r="CG47" s="55"/>
+      <c r="CH47" s="55"/>
+      <c r="CI47" s="55"/>
       <c r="CJ47" s="54"/>
-      <c r="CK47" s="55"/>
-      <c r="CL47" s="55"/>
-      <c r="CM47" s="55"/>
-      <c r="CN47" s="54"/>
-      <c r="CO47" s="42"/>
-      <c r="CP47" s="38"/>
-      <c r="CQ47" s="38"/>
-      <c r="CR47" s="60"/>
+      <c r="CK47" s="42"/>
+      <c r="CL47" s="38"/>
+      <c r="CM47" s="38"/>
+      <c r="CN47" s="59"/>
+      <c r="CO47" s="52"/>
+      <c r="CP47" s="52"/>
+      <c r="CQ47" s="52"/>
+      <c r="CR47" s="52"/>
       <c r="CS47" s="52"/>
       <c r="CT47" s="52"/>
       <c r="CU47" s="52"/>
@@ -9614,16 +9306,12 @@
       <c r="DL47" s="52"/>
       <c r="DM47" s="52"/>
       <c r="DN47" s="52"/>
-      <c r="DO47" s="52"/>
-      <c r="DP47" s="52"/>
-      <c r="DQ47" s="52"/>
-      <c r="DR47" s="52"/>
     </row>
     <row r="48" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="43"/>
       <c r="C48" s="42"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="43"/>
       <c r="G48" s="42"/>
       <c r="H48" s="38"/>
@@ -9637,7 +9325,7 @@
       <c r="P48" s="42"/>
       <c r="Q48" s="42"/>
       <c r="R48" s="42"/>
-      <c r="S48" s="63"/>
+      <c r="S48" s="62"/>
       <c r="T48" s="42"/>
       <c r="U48" s="42"/>
       <c r="V48" s="42"/>
@@ -9686,35 +9374,35 @@
       <c r="BM48" s="42"/>
       <c r="BN48" s="42"/>
       <c r="BO48" s="42"/>
-      <c r="BP48" s="42"/>
+      <c r="BP48" s="43"/>
       <c r="BQ48" s="42"/>
-      <c r="BR48" s="42"/>
-      <c r="BS48" s="42"/>
-      <c r="BT48" s="43"/>
-      <c r="BU48" s="42"/>
-      <c r="BV48" s="38"/>
-      <c r="BW48" s="38"/>
+      <c r="BR48" s="38"/>
+      <c r="BS48" s="38"/>
+      <c r="BT48" s="38"/>
+      <c r="BU48" s="38"/>
+      <c r="BV48" s="43"/>
+      <c r="BW48" s="42"/>
       <c r="BX48" s="38"/>
       <c r="BY48" s="38"/>
-      <c r="BZ48" s="43"/>
-      <c r="CA48" s="42"/>
-      <c r="CB48" s="38"/>
-      <c r="CC48" s="38"/>
-      <c r="CD48" s="38"/>
-      <c r="CE48" s="63"/>
-      <c r="CF48" s="42"/>
-      <c r="CG48" s="42"/>
-      <c r="CH48" s="42"/>
-      <c r="CI48" s="42"/>
+      <c r="BZ48" s="38"/>
+      <c r="CA48" s="62"/>
+      <c r="CB48" s="42"/>
+      <c r="CC48" s="42"/>
+      <c r="CD48" s="42"/>
+      <c r="CE48" s="42"/>
+      <c r="CF48" s="54"/>
+      <c r="CG48" s="55"/>
+      <c r="CH48" s="55"/>
+      <c r="CI48" s="55"/>
       <c r="CJ48" s="54"/>
-      <c r="CK48" s="55"/>
-      <c r="CL48" s="55"/>
-      <c r="CM48" s="55"/>
-      <c r="CN48" s="54"/>
-      <c r="CO48" s="42"/>
-      <c r="CP48" s="38"/>
-      <c r="CQ48" s="38"/>
-      <c r="CR48" s="60"/>
+      <c r="CK48" s="42"/>
+      <c r="CL48" s="38"/>
+      <c r="CM48" s="38"/>
+      <c r="CN48" s="59"/>
+      <c r="CO48" s="52"/>
+      <c r="CP48" s="52"/>
+      <c r="CQ48" s="52"/>
+      <c r="CR48" s="52"/>
       <c r="CS48" s="52"/>
       <c r="CT48" s="52"/>
       <c r="CU48" s="52"/>
@@ -9737,16 +9425,12 @@
       <c r="DL48" s="52"/>
       <c r="DM48" s="52"/>
       <c r="DN48" s="52"/>
-      <c r="DO48" s="52"/>
-      <c r="DP48" s="52"/>
-      <c r="DQ48" s="52"/>
-      <c r="DR48" s="52"/>
     </row>
     <row r="49" customFormat="false" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="43"/>
       <c r="C49" s="42"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="43"/>
       <c r="G49" s="42"/>
       <c r="H49" s="38"/>
@@ -9760,7 +9444,7 @@
       <c r="P49" s="42"/>
       <c r="Q49" s="42"/>
       <c r="R49" s="42"/>
-      <c r="S49" s="63"/>
+      <c r="S49" s="62"/>
       <c r="T49" s="42"/>
       <c r="U49" s="42"/>
       <c r="V49" s="42"/>
@@ -9791,8 +9475,6 @@
       <c r="AU49" s="42"/>
       <c r="AV49" s="42"/>
       <c r="AW49" s="42"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
       <c r="AZ49" s="42"/>
       <c r="BA49" s="42"/>
       <c r="BB49" s="42"/>
@@ -9809,35 +9491,35 @@
       <c r="BM49" s="42"/>
       <c r="BN49" s="42"/>
       <c r="BO49" s="42"/>
-      <c r="BP49" s="42"/>
+      <c r="BP49" s="43"/>
       <c r="BQ49" s="42"/>
-      <c r="BR49" s="42"/>
-      <c r="BS49" s="42"/>
-      <c r="BT49" s="43"/>
-      <c r="BU49" s="42"/>
-      <c r="BV49" s="38"/>
-      <c r="BW49" s="38"/>
+      <c r="BR49" s="38"/>
+      <c r="BS49" s="38"/>
+      <c r="BT49" s="38"/>
+      <c r="BU49" s="38"/>
+      <c r="BV49" s="43"/>
+      <c r="BW49" s="42"/>
       <c r="BX49" s="38"/>
       <c r="BY49" s="38"/>
-      <c r="BZ49" s="43"/>
-      <c r="CA49" s="42"/>
-      <c r="CB49" s="38"/>
-      <c r="CC49" s="38"/>
-      <c r="CD49" s="38"/>
-      <c r="CE49" s="63"/>
-      <c r="CF49" s="42"/>
-      <c r="CG49" s="42"/>
-      <c r="CH49" s="42"/>
-      <c r="CI49" s="42"/>
+      <c r="BZ49" s="38"/>
+      <c r="CA49" s="62"/>
+      <c r="CB49" s="42"/>
+      <c r="CC49" s="42"/>
+      <c r="CD49" s="42"/>
+      <c r="CE49" s="42"/>
+      <c r="CF49" s="54"/>
+      <c r="CG49" s="55"/>
+      <c r="CH49" s="55"/>
+      <c r="CI49" s="55"/>
       <c r="CJ49" s="54"/>
-      <c r="CK49" s="55"/>
-      <c r="CL49" s="55"/>
-      <c r="CM49" s="55"/>
-      <c r="CN49" s="54"/>
-      <c r="CO49" s="42"/>
-      <c r="CP49" s="38"/>
-      <c r="CQ49" s="38"/>
-      <c r="CR49" s="60"/>
+      <c r="CK49" s="42"/>
+      <c r="CL49" s="38"/>
+      <c r="CM49" s="38"/>
+      <c r="CN49" s="59"/>
+      <c r="CO49" s="52"/>
+      <c r="CP49" s="52"/>
+      <c r="CQ49" s="52"/>
+      <c r="CR49" s="52"/>
       <c r="CS49" s="52"/>
       <c r="CT49" s="52"/>
       <c r="CU49" s="52"/>
@@ -9860,10 +9542,6 @@
       <c r="DL49" s="52"/>
       <c r="DM49" s="52"/>
       <c r="DN49" s="52"/>
-      <c r="DO49" s="52"/>
-      <c r="DP49" s="52"/>
-      <c r="DQ49" s="52"/>
-      <c r="DR49" s="52"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="5"/>
@@ -9876,18 +9554,18 @@
       <c r="AS50" s="5"/>
       <c r="AV50" s="42"/>
       <c r="AW50" s="42"/>
-      <c r="BU50" s="5"/>
-      <c r="CA50" s="5"/>
-      <c r="CF50" s="5"/>
-      <c r="CG50" s="5"/>
-      <c r="CH50" s="5"/>
-      <c r="CK50" s="67"/>
-      <c r="CL50" s="67"/>
-      <c r="CM50" s="67"/>
-      <c r="CN50" s="6"/>
-      <c r="CO50" s="5"/>
+      <c r="BQ50" s="5"/>
+      <c r="BW50" s="5"/>
+      <c r="CB50" s="5"/>
+      <c r="CC50" s="5"/>
+      <c r="CD50" s="5"/>
+      <c r="CG50" s="69"/>
+      <c r="CH50" s="69"/>
+      <c r="CI50" s="69"/>
+      <c r="CJ50" s="6"/>
+      <c r="CK50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -9896,18 +9574,16 @@
       <c r="U51" s="5"/>
       <c r="AI51" s="5"/>
       <c r="AS51" s="5"/>
-      <c r="AV51" s="42"/>
-      <c r="AW51" s="42"/>
-      <c r="BU51" s="5"/>
-      <c r="CA51" s="5"/>
-      <c r="CF51" s="5"/>
-      <c r="CG51" s="5"/>
-      <c r="CH51" s="5"/>
-      <c r="CK51" s="67"/>
-      <c r="CL51" s="67"/>
-      <c r="CM51" s="67"/>
-      <c r="CN51" s="6"/>
-      <c r="CO51" s="5"/>
+      <c r="BQ51" s="5"/>
+      <c r="BW51" s="5"/>
+      <c r="CB51" s="5"/>
+      <c r="CC51" s="5"/>
+      <c r="CD51" s="5"/>
+      <c r="CG51" s="69"/>
+      <c r="CH51" s="69"/>
+      <c r="CI51" s="69"/>
+      <c r="CJ51" s="6"/>
+      <c r="CK51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="5"/>
@@ -9918,16 +9594,16 @@
       <c r="U52" s="5"/>
       <c r="AI52" s="5"/>
       <c r="AS52" s="5"/>
-      <c r="BU52" s="5"/>
-      <c r="CA52" s="5"/>
-      <c r="CF52" s="5"/>
-      <c r="CG52" s="5"/>
-      <c r="CH52" s="5"/>
-      <c r="CK52" s="67"/>
-      <c r="CL52" s="67"/>
-      <c r="CM52" s="67"/>
-      <c r="CN52" s="6"/>
-      <c r="CO52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BW52" s="5"/>
+      <c r="CB52" s="5"/>
+      <c r="CC52" s="5"/>
+      <c r="CD52" s="5"/>
+      <c r="CG52" s="69"/>
+      <c r="CH52" s="69"/>
+      <c r="CI52" s="69"/>
+      <c r="CJ52" s="6"/>
+      <c r="CK52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="5"/>
@@ -9938,16 +9614,16 @@
       <c r="U53" s="5"/>
       <c r="AI53" s="5"/>
       <c r="AS53" s="5"/>
-      <c r="BU53" s="5"/>
-      <c r="CA53" s="5"/>
-      <c r="CF53" s="5"/>
-      <c r="CG53" s="5"/>
-      <c r="CH53" s="5"/>
-      <c r="CK53" s="67"/>
-      <c r="CL53" s="67"/>
-      <c r="CM53" s="67"/>
-      <c r="CN53" s="6"/>
-      <c r="CO53" s="5"/>
+      <c r="BQ53" s="5"/>
+      <c r="BW53" s="5"/>
+      <c r="CB53" s="5"/>
+      <c r="CC53" s="5"/>
+      <c r="CD53" s="5"/>
+      <c r="CG53" s="69"/>
+      <c r="CH53" s="69"/>
+      <c r="CI53" s="69"/>
+      <c r="CJ53" s="6"/>
+      <c r="CK53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="5"/>
@@ -9958,16 +9634,16 @@
       <c r="U54" s="5"/>
       <c r="AI54" s="5"/>
       <c r="AS54" s="5"/>
-      <c r="BU54" s="5"/>
-      <c r="CA54" s="5"/>
-      <c r="CF54" s="5"/>
-      <c r="CG54" s="5"/>
-      <c r="CH54" s="5"/>
-      <c r="CK54" s="67"/>
-      <c r="CL54" s="67"/>
-      <c r="CM54" s="67"/>
-      <c r="CN54" s="6"/>
-      <c r="CO54" s="5"/>
+      <c r="BQ54" s="5"/>
+      <c r="BW54" s="5"/>
+      <c r="CB54" s="5"/>
+      <c r="CC54" s="5"/>
+      <c r="CD54" s="5"/>
+      <c r="CG54" s="69"/>
+      <c r="CH54" s="69"/>
+      <c r="CI54" s="69"/>
+      <c r="CJ54" s="6"/>
+      <c r="CK54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="5"/>
@@ -9978,16 +9654,16 @@
       <c r="U55" s="5"/>
       <c r="AI55" s="5"/>
       <c r="AS55" s="5"/>
-      <c r="BU55" s="5"/>
-      <c r="CA55" s="5"/>
-      <c r="CF55" s="5"/>
-      <c r="CG55" s="5"/>
-      <c r="CH55" s="5"/>
-      <c r="CK55" s="67"/>
-      <c r="CL55" s="67"/>
-      <c r="CM55" s="67"/>
-      <c r="CN55" s="6"/>
-      <c r="CO55" s="5"/>
+      <c r="BQ55" s="5"/>
+      <c r="BW55" s="5"/>
+      <c r="CB55" s="5"/>
+      <c r="CC55" s="5"/>
+      <c r="CD55" s="5"/>
+      <c r="CG55" s="69"/>
+      <c r="CH55" s="69"/>
+      <c r="CI55" s="69"/>
+      <c r="CJ55" s="6"/>
+      <c r="CK55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="5"/>
@@ -9998,16 +9674,16 @@
       <c r="U56" s="5"/>
       <c r="AI56" s="5"/>
       <c r="AS56" s="5"/>
-      <c r="BU56" s="5"/>
-      <c r="CA56" s="5"/>
-      <c r="CF56" s="5"/>
-      <c r="CG56" s="5"/>
-      <c r="CH56" s="5"/>
-      <c r="CK56" s="67"/>
-      <c r="CL56" s="67"/>
-      <c r="CM56" s="67"/>
-      <c r="CN56" s="6"/>
-      <c r="CO56" s="5"/>
+      <c r="BQ56" s="5"/>
+      <c r="BW56" s="5"/>
+      <c r="CB56" s="5"/>
+      <c r="CC56" s="5"/>
+      <c r="CD56" s="5"/>
+      <c r="CG56" s="69"/>
+      <c r="CH56" s="69"/>
+      <c r="CI56" s="69"/>
+      <c r="CJ56" s="6"/>
+      <c r="CK56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="5"/>
@@ -10018,16 +9694,16 @@
       <c r="U57" s="5"/>
       <c r="AI57" s="5"/>
       <c r="AS57" s="5"/>
-      <c r="BU57" s="5"/>
-      <c r="CA57" s="5"/>
-      <c r="CF57" s="5"/>
-      <c r="CG57" s="5"/>
-      <c r="CH57" s="5"/>
-      <c r="CK57" s="67"/>
-      <c r="CL57" s="67"/>
-      <c r="CM57" s="67"/>
-      <c r="CN57" s="6"/>
-      <c r="CO57" s="5"/>
+      <c r="BQ57" s="5"/>
+      <c r="BW57" s="5"/>
+      <c r="CB57" s="5"/>
+      <c r="CC57" s="5"/>
+      <c r="CD57" s="5"/>
+      <c r="CG57" s="69"/>
+      <c r="CH57" s="69"/>
+      <c r="CI57" s="69"/>
+      <c r="CJ57" s="6"/>
+      <c r="CK57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="5"/>
@@ -10038,16 +9714,16 @@
       <c r="U58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AS58" s="5"/>
-      <c r="BU58" s="5"/>
-      <c r="CA58" s="5"/>
-      <c r="CF58" s="5"/>
-      <c r="CG58" s="5"/>
-      <c r="CH58" s="5"/>
-      <c r="CK58" s="67"/>
-      <c r="CL58" s="67"/>
-      <c r="CM58" s="67"/>
-      <c r="CN58" s="6"/>
-      <c r="CO58" s="5"/>
+      <c r="BQ58" s="5"/>
+      <c r="BW58" s="5"/>
+      <c r="CB58" s="5"/>
+      <c r="CC58" s="5"/>
+      <c r="CD58" s="5"/>
+      <c r="CG58" s="69"/>
+      <c r="CH58" s="69"/>
+      <c r="CI58" s="69"/>
+      <c r="CJ58" s="6"/>
+      <c r="CK58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="5"/>
@@ -10058,16 +9734,16 @@
       <c r="U59" s="5"/>
       <c r="AI59" s="5"/>
       <c r="AS59" s="5"/>
-      <c r="BU59" s="5"/>
-      <c r="CA59" s="5"/>
-      <c r="CF59" s="5"/>
-      <c r="CG59" s="5"/>
-      <c r="CH59" s="5"/>
-      <c r="CK59" s="67"/>
-      <c r="CL59" s="67"/>
-      <c r="CM59" s="67"/>
-      <c r="CN59" s="6"/>
-      <c r="CO59" s="5"/>
+      <c r="BQ59" s="5"/>
+      <c r="BW59" s="5"/>
+      <c r="CB59" s="5"/>
+      <c r="CC59" s="5"/>
+      <c r="CD59" s="5"/>
+      <c r="CG59" s="69"/>
+      <c r="CH59" s="69"/>
+      <c r="CI59" s="69"/>
+      <c r="CJ59" s="6"/>
+      <c r="CK59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="5"/>
@@ -10078,16 +9754,16 @@
       <c r="U60" s="5"/>
       <c r="AI60" s="5"/>
       <c r="AS60" s="5"/>
-      <c r="BU60" s="5"/>
-      <c r="CA60" s="5"/>
-      <c r="CF60" s="5"/>
-      <c r="CG60" s="5"/>
-      <c r="CH60" s="5"/>
-      <c r="CK60" s="67"/>
-      <c r="CL60" s="67"/>
-      <c r="CM60" s="67"/>
-      <c r="CN60" s="6"/>
-      <c r="CO60" s="5"/>
+      <c r="BQ60" s="5"/>
+      <c r="BW60" s="5"/>
+      <c r="CB60" s="5"/>
+      <c r="CC60" s="5"/>
+      <c r="CD60" s="5"/>
+      <c r="CG60" s="69"/>
+      <c r="CH60" s="69"/>
+      <c r="CI60" s="69"/>
+      <c r="CJ60" s="6"/>
+      <c r="CK60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="5"/>
@@ -10098,16 +9774,16 @@
       <c r="U61" s="5"/>
       <c r="AI61" s="5"/>
       <c r="AS61" s="5"/>
-      <c r="BU61" s="5"/>
-      <c r="CA61" s="5"/>
-      <c r="CF61" s="5"/>
-      <c r="CG61" s="5"/>
-      <c r="CH61" s="5"/>
-      <c r="CK61" s="67"/>
-      <c r="CL61" s="67"/>
-      <c r="CM61" s="67"/>
-      <c r="CN61" s="6"/>
-      <c r="CO61" s="5"/>
+      <c r="BQ61" s="5"/>
+      <c r="BW61" s="5"/>
+      <c r="CB61" s="5"/>
+      <c r="CC61" s="5"/>
+      <c r="CD61" s="5"/>
+      <c r="CG61" s="69"/>
+      <c r="CH61" s="69"/>
+      <c r="CI61" s="69"/>
+      <c r="CJ61" s="6"/>
+      <c r="CK61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="5"/>
@@ -10118,16 +9794,16 @@
       <c r="U62" s="5"/>
       <c r="AI62" s="5"/>
       <c r="AS62" s="5"/>
-      <c r="BU62" s="5"/>
-      <c r="CA62" s="5"/>
-      <c r="CF62" s="5"/>
-      <c r="CG62" s="5"/>
-      <c r="CH62" s="5"/>
-      <c r="CK62" s="67"/>
-      <c r="CL62" s="67"/>
-      <c r="CM62" s="67"/>
-      <c r="CN62" s="6"/>
-      <c r="CO62" s="5"/>
+      <c r="BQ62" s="5"/>
+      <c r="BW62" s="5"/>
+      <c r="CB62" s="5"/>
+      <c r="CC62" s="5"/>
+      <c r="CD62" s="5"/>
+      <c r="CG62" s="69"/>
+      <c r="CH62" s="69"/>
+      <c r="CI62" s="69"/>
+      <c r="CJ62" s="6"/>
+      <c r="CK62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="5"/>
@@ -10138,16 +9814,16 @@
       <c r="U63" s="5"/>
       <c r="AI63" s="5"/>
       <c r="AS63" s="5"/>
-      <c r="BU63" s="5"/>
-      <c r="CA63" s="5"/>
-      <c r="CF63" s="5"/>
-      <c r="CG63" s="5"/>
-      <c r="CH63" s="5"/>
-      <c r="CK63" s="67"/>
-      <c r="CL63" s="67"/>
-      <c r="CM63" s="67"/>
-      <c r="CN63" s="6"/>
-      <c r="CO63" s="5"/>
+      <c r="BQ63" s="5"/>
+      <c r="BW63" s="5"/>
+      <c r="CB63" s="5"/>
+      <c r="CC63" s="5"/>
+      <c r="CD63" s="5"/>
+      <c r="CG63" s="69"/>
+      <c r="CH63" s="69"/>
+      <c r="CI63" s="69"/>
+      <c r="CJ63" s="6"/>
+      <c r="CK63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="5"/>
@@ -10158,16 +9834,16 @@
       <c r="U64" s="5"/>
       <c r="AI64" s="5"/>
       <c r="AS64" s="5"/>
-      <c r="BU64" s="5"/>
-      <c r="CA64" s="5"/>
-      <c r="CF64" s="5"/>
-      <c r="CG64" s="5"/>
-      <c r="CH64" s="5"/>
-      <c r="CK64" s="67"/>
-      <c r="CL64" s="67"/>
-      <c r="CM64" s="67"/>
-      <c r="CN64" s="6"/>
-      <c r="CO64" s="5"/>
+      <c r="BQ64" s="5"/>
+      <c r="BW64" s="5"/>
+      <c r="CB64" s="5"/>
+      <c r="CC64" s="5"/>
+      <c r="CD64" s="5"/>
+      <c r="CG64" s="69"/>
+      <c r="CH64" s="69"/>
+      <c r="CI64" s="69"/>
+      <c r="CJ64" s="6"/>
+      <c r="CK64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="5"/>
@@ -10178,16 +9854,16 @@
       <c r="U65" s="5"/>
       <c r="AI65" s="5"/>
       <c r="AS65" s="5"/>
-      <c r="BU65" s="5"/>
-      <c r="CA65" s="5"/>
-      <c r="CF65" s="5"/>
-      <c r="CG65" s="5"/>
-      <c r="CH65" s="5"/>
-      <c r="CK65" s="67"/>
-      <c r="CL65" s="67"/>
-      <c r="CM65" s="67"/>
-      <c r="CN65" s="6"/>
-      <c r="CO65" s="5"/>
+      <c r="BQ65" s="5"/>
+      <c r="BW65" s="5"/>
+      <c r="CB65" s="5"/>
+      <c r="CC65" s="5"/>
+      <c r="CD65" s="5"/>
+      <c r="CG65" s="69"/>
+      <c r="CH65" s="69"/>
+      <c r="CI65" s="69"/>
+      <c r="CJ65" s="6"/>
+      <c r="CK65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="5"/>
@@ -10198,16 +9874,16 @@
       <c r="U66" s="5"/>
       <c r="AI66" s="5"/>
       <c r="AS66" s="5"/>
-      <c r="BU66" s="5"/>
-      <c r="CA66" s="5"/>
-      <c r="CF66" s="5"/>
-      <c r="CG66" s="5"/>
-      <c r="CH66" s="5"/>
-      <c r="CK66" s="67"/>
-      <c r="CL66" s="67"/>
-      <c r="CM66" s="67"/>
-      <c r="CN66" s="6"/>
-      <c r="CO66" s="5"/>
+      <c r="BQ66" s="5"/>
+      <c r="BW66" s="5"/>
+      <c r="CB66" s="5"/>
+      <c r="CC66" s="5"/>
+      <c r="CD66" s="5"/>
+      <c r="CG66" s="69"/>
+      <c r="CH66" s="69"/>
+      <c r="CI66" s="69"/>
+      <c r="CJ66" s="6"/>
+      <c r="CK66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="5"/>
@@ -10218,16 +9894,16 @@
       <c r="U67" s="5"/>
       <c r="AI67" s="5"/>
       <c r="AS67" s="5"/>
-      <c r="BU67" s="5"/>
-      <c r="CA67" s="5"/>
-      <c r="CF67" s="5"/>
-      <c r="CG67" s="5"/>
-      <c r="CH67" s="5"/>
-      <c r="CK67" s="67"/>
-      <c r="CL67" s="67"/>
-      <c r="CM67" s="67"/>
-      <c r="CN67" s="6"/>
-      <c r="CO67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BW67" s="5"/>
+      <c r="CB67" s="5"/>
+      <c r="CC67" s="5"/>
+      <c r="CD67" s="5"/>
+      <c r="CG67" s="69"/>
+      <c r="CH67" s="69"/>
+      <c r="CI67" s="69"/>
+      <c r="CJ67" s="6"/>
+      <c r="CK67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="5"/>
@@ -10238,16 +9914,16 @@
       <c r="U68" s="5"/>
       <c r="AI68" s="5"/>
       <c r="AS68" s="5"/>
-      <c r="BU68" s="5"/>
-      <c r="CA68" s="5"/>
-      <c r="CF68" s="5"/>
-      <c r="CG68" s="5"/>
-      <c r="CH68" s="5"/>
-      <c r="CK68" s="67"/>
-      <c r="CL68" s="67"/>
-      <c r="CM68" s="67"/>
-      <c r="CN68" s="6"/>
-      <c r="CO68" s="5"/>
+      <c r="BQ68" s="5"/>
+      <c r="BW68" s="5"/>
+      <c r="CB68" s="5"/>
+      <c r="CC68" s="5"/>
+      <c r="CD68" s="5"/>
+      <c r="CG68" s="69"/>
+      <c r="CH68" s="69"/>
+      <c r="CI68" s="69"/>
+      <c r="CJ68" s="6"/>
+      <c r="CK68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="5"/>
@@ -10258,16 +9934,16 @@
       <c r="U69" s="5"/>
       <c r="AI69" s="5"/>
       <c r="AS69" s="5"/>
-      <c r="BU69" s="5"/>
-      <c r="CA69" s="5"/>
-      <c r="CF69" s="5"/>
-      <c r="CG69" s="5"/>
-      <c r="CH69" s="5"/>
-      <c r="CK69" s="67"/>
-      <c r="CL69" s="67"/>
-      <c r="CM69" s="67"/>
-      <c r="CN69" s="6"/>
-      <c r="CO69" s="5"/>
+      <c r="BQ69" s="5"/>
+      <c r="BW69" s="5"/>
+      <c r="CB69" s="5"/>
+      <c r="CC69" s="5"/>
+      <c r="CD69" s="5"/>
+      <c r="CG69" s="69"/>
+      <c r="CH69" s="69"/>
+      <c r="CI69" s="69"/>
+      <c r="CJ69" s="6"/>
+      <c r="CK69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="5"/>
@@ -10278,16 +9954,16 @@
       <c r="U70" s="5"/>
       <c r="AI70" s="5"/>
       <c r="AS70" s="5"/>
-      <c r="BU70" s="5"/>
-      <c r="CA70" s="5"/>
-      <c r="CF70" s="5"/>
-      <c r="CG70" s="5"/>
-      <c r="CH70" s="5"/>
-      <c r="CK70" s="67"/>
-      <c r="CL70" s="67"/>
-      <c r="CM70" s="67"/>
-      <c r="CN70" s="6"/>
-      <c r="CO70" s="5"/>
+      <c r="BQ70" s="5"/>
+      <c r="BW70" s="5"/>
+      <c r="CB70" s="5"/>
+      <c r="CC70" s="5"/>
+      <c r="CD70" s="5"/>
+      <c r="CG70" s="69"/>
+      <c r="CH70" s="69"/>
+      <c r="CI70" s="69"/>
+      <c r="CJ70" s="6"/>
+      <c r="CK70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="5"/>
@@ -10298,16 +9974,16 @@
       <c r="U71" s="5"/>
       <c r="AI71" s="5"/>
       <c r="AS71" s="5"/>
-      <c r="BU71" s="5"/>
-      <c r="CA71" s="5"/>
-      <c r="CF71" s="5"/>
-      <c r="CG71" s="5"/>
-      <c r="CH71" s="5"/>
-      <c r="CK71" s="67"/>
-      <c r="CL71" s="67"/>
-      <c r="CM71" s="67"/>
-      <c r="CN71" s="6"/>
-      <c r="CO71" s="5"/>
+      <c r="BQ71" s="5"/>
+      <c r="BW71" s="5"/>
+      <c r="CB71" s="5"/>
+      <c r="CC71" s="5"/>
+      <c r="CD71" s="5"/>
+      <c r="CG71" s="69"/>
+      <c r="CH71" s="69"/>
+      <c r="CI71" s="69"/>
+      <c r="CJ71" s="6"/>
+      <c r="CK71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="5"/>
@@ -10318,16 +9994,16 @@
       <c r="U72" s="5"/>
       <c r="AI72" s="5"/>
       <c r="AS72" s="5"/>
-      <c r="BU72" s="5"/>
-      <c r="CA72" s="5"/>
-      <c r="CF72" s="5"/>
-      <c r="CG72" s="5"/>
-      <c r="CH72" s="5"/>
-      <c r="CK72" s="67"/>
-      <c r="CL72" s="67"/>
-      <c r="CM72" s="67"/>
-      <c r="CN72" s="6"/>
-      <c r="CO72" s="5"/>
+      <c r="BQ72" s="5"/>
+      <c r="BW72" s="5"/>
+      <c r="CB72" s="5"/>
+      <c r="CC72" s="5"/>
+      <c r="CD72" s="5"/>
+      <c r="CG72" s="69"/>
+      <c r="CH72" s="69"/>
+      <c r="CI72" s="69"/>
+      <c r="CJ72" s="6"/>
+      <c r="CK72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="5"/>
@@ -10338,16 +10014,16 @@
       <c r="U73" s="5"/>
       <c r="AI73" s="5"/>
       <c r="AS73" s="5"/>
-      <c r="BU73" s="5"/>
-      <c r="CA73" s="5"/>
-      <c r="CF73" s="5"/>
-      <c r="CG73" s="5"/>
-      <c r="CH73" s="5"/>
-      <c r="CK73" s="67"/>
-      <c r="CL73" s="67"/>
-      <c r="CM73" s="67"/>
-      <c r="CN73" s="6"/>
-      <c r="CO73" s="5"/>
+      <c r="BQ73" s="5"/>
+      <c r="BW73" s="5"/>
+      <c r="CB73" s="5"/>
+      <c r="CC73" s="5"/>
+      <c r="CD73" s="5"/>
+      <c r="CG73" s="69"/>
+      <c r="CH73" s="69"/>
+      <c r="CI73" s="69"/>
+      <c r="CJ73" s="6"/>
+      <c r="CK73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="5"/>
@@ -10358,16 +10034,16 @@
       <c r="U74" s="5"/>
       <c r="AI74" s="5"/>
       <c r="AS74" s="5"/>
-      <c r="BU74" s="5"/>
-      <c r="CA74" s="5"/>
-      <c r="CF74" s="5"/>
-      <c r="CG74" s="5"/>
-      <c r="CH74" s="5"/>
-      <c r="CK74" s="67"/>
-      <c r="CL74" s="67"/>
-      <c r="CM74" s="67"/>
-      <c r="CN74" s="6"/>
-      <c r="CO74" s="5"/>
+      <c r="BQ74" s="5"/>
+      <c r="BW74" s="5"/>
+      <c r="CB74" s="5"/>
+      <c r="CC74" s="5"/>
+      <c r="CD74" s="5"/>
+      <c r="CG74" s="69"/>
+      <c r="CH74" s="69"/>
+      <c r="CI74" s="69"/>
+      <c r="CJ74" s="6"/>
+      <c r="CK74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="5"/>
@@ -10378,16 +10054,16 @@
       <c r="U75" s="5"/>
       <c r="AI75" s="5"/>
       <c r="AS75" s="5"/>
-      <c r="BU75" s="5"/>
-      <c r="CA75" s="5"/>
-      <c r="CF75" s="5"/>
-      <c r="CG75" s="5"/>
-      <c r="CH75" s="5"/>
-      <c r="CK75" s="67"/>
-      <c r="CL75" s="67"/>
-      <c r="CM75" s="67"/>
-      <c r="CN75" s="6"/>
-      <c r="CO75" s="5"/>
+      <c r="BQ75" s="5"/>
+      <c r="BW75" s="5"/>
+      <c r="CB75" s="5"/>
+      <c r="CC75" s="5"/>
+      <c r="CD75" s="5"/>
+      <c r="CG75" s="69"/>
+      <c r="CH75" s="69"/>
+      <c r="CI75" s="69"/>
+      <c r="CJ75" s="6"/>
+      <c r="CK75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="5"/>
@@ -10398,16 +10074,16 @@
       <c r="U76" s="5"/>
       <c r="AI76" s="5"/>
       <c r="AS76" s="5"/>
-      <c r="BU76" s="5"/>
-      <c r="CA76" s="5"/>
-      <c r="CF76" s="5"/>
-      <c r="CG76" s="5"/>
-      <c r="CH76" s="5"/>
-      <c r="CK76" s="67"/>
-      <c r="CL76" s="67"/>
-      <c r="CM76" s="67"/>
-      <c r="CN76" s="6"/>
-      <c r="CO76" s="5"/>
+      <c r="BQ76" s="5"/>
+      <c r="BW76" s="5"/>
+      <c r="CB76" s="5"/>
+      <c r="CC76" s="5"/>
+      <c r="CD76" s="5"/>
+      <c r="CG76" s="69"/>
+      <c r="CH76" s="69"/>
+      <c r="CI76" s="69"/>
+      <c r="CJ76" s="6"/>
+      <c r="CK76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="5"/>
@@ -10418,16 +10094,16 @@
       <c r="U77" s="5"/>
       <c r="AI77" s="5"/>
       <c r="AS77" s="5"/>
-      <c r="BU77" s="5"/>
-      <c r="CA77" s="5"/>
-      <c r="CF77" s="5"/>
-      <c r="CG77" s="5"/>
-      <c r="CH77" s="5"/>
-      <c r="CK77" s="67"/>
-      <c r="CL77" s="67"/>
-      <c r="CM77" s="67"/>
-      <c r="CN77" s="6"/>
-      <c r="CO77" s="5"/>
+      <c r="BQ77" s="5"/>
+      <c r="BW77" s="5"/>
+      <c r="CB77" s="5"/>
+      <c r="CC77" s="5"/>
+      <c r="CD77" s="5"/>
+      <c r="CG77" s="69"/>
+      <c r="CH77" s="69"/>
+      <c r="CI77" s="69"/>
+      <c r="CJ77" s="6"/>
+      <c r="CK77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="5"/>
@@ -10438,16 +10114,16 @@
       <c r="U78" s="5"/>
       <c r="AI78" s="5"/>
       <c r="AS78" s="5"/>
-      <c r="BU78" s="5"/>
-      <c r="CA78" s="5"/>
-      <c r="CF78" s="5"/>
-      <c r="CG78" s="5"/>
-      <c r="CH78" s="5"/>
-      <c r="CK78" s="67"/>
-      <c r="CL78" s="67"/>
-      <c r="CM78" s="67"/>
-      <c r="CN78" s="6"/>
-      <c r="CO78" s="5"/>
+      <c r="BQ78" s="5"/>
+      <c r="BW78" s="5"/>
+      <c r="CB78" s="5"/>
+      <c r="CC78" s="5"/>
+      <c r="CD78" s="5"/>
+      <c r="CG78" s="69"/>
+      <c r="CH78" s="69"/>
+      <c r="CI78" s="69"/>
+      <c r="CJ78" s="6"/>
+      <c r="CK78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="5"/>
@@ -10458,16 +10134,16 @@
       <c r="U79" s="5"/>
       <c r="AI79" s="5"/>
       <c r="AS79" s="5"/>
-      <c r="BU79" s="5"/>
-      <c r="CA79" s="5"/>
-      <c r="CF79" s="5"/>
-      <c r="CG79" s="5"/>
-      <c r="CH79" s="5"/>
-      <c r="CK79" s="67"/>
-      <c r="CL79" s="67"/>
-      <c r="CM79" s="67"/>
-      <c r="CN79" s="6"/>
-      <c r="CO79" s="5"/>
+      <c r="BQ79" s="5"/>
+      <c r="BW79" s="5"/>
+      <c r="CB79" s="5"/>
+      <c r="CC79" s="5"/>
+      <c r="CD79" s="5"/>
+      <c r="CG79" s="69"/>
+      <c r="CH79" s="69"/>
+      <c r="CI79" s="69"/>
+      <c r="CJ79" s="6"/>
+      <c r="CK79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="5"/>
@@ -10478,16 +10154,16 @@
       <c r="U80" s="5"/>
       <c r="AI80" s="5"/>
       <c r="AS80" s="5"/>
-      <c r="BU80" s="5"/>
-      <c r="CA80" s="5"/>
-      <c r="CF80" s="5"/>
-      <c r="CG80" s="5"/>
-      <c r="CH80" s="5"/>
-      <c r="CK80" s="67"/>
-      <c r="CL80" s="67"/>
-      <c r="CM80" s="67"/>
-      <c r="CN80" s="6"/>
-      <c r="CO80" s="5"/>
+      <c r="BQ80" s="5"/>
+      <c r="BW80" s="5"/>
+      <c r="CB80" s="5"/>
+      <c r="CC80" s="5"/>
+      <c r="CD80" s="5"/>
+      <c r="CG80" s="69"/>
+      <c r="CH80" s="69"/>
+      <c r="CI80" s="69"/>
+      <c r="CJ80" s="6"/>
+      <c r="CK80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="5"/>
@@ -10498,16 +10174,16 @@
       <c r="U81" s="5"/>
       <c r="AI81" s="5"/>
       <c r="AS81" s="5"/>
-      <c r="BU81" s="5"/>
-      <c r="CA81" s="5"/>
-      <c r="CF81" s="5"/>
-      <c r="CG81" s="5"/>
-      <c r="CH81" s="5"/>
-      <c r="CK81" s="67"/>
-      <c r="CL81" s="67"/>
-      <c r="CM81" s="67"/>
-      <c r="CN81" s="6"/>
-      <c r="CO81" s="5"/>
+      <c r="BQ81" s="5"/>
+      <c r="BW81" s="5"/>
+      <c r="CB81" s="5"/>
+      <c r="CC81" s="5"/>
+      <c r="CD81" s="5"/>
+      <c r="CG81" s="69"/>
+      <c r="CH81" s="69"/>
+      <c r="CI81" s="69"/>
+      <c r="CJ81" s="6"/>
+      <c r="CK81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="5"/>
@@ -10518,16 +10194,16 @@
       <c r="U82" s="5"/>
       <c r="AI82" s="5"/>
       <c r="AS82" s="5"/>
-      <c r="BU82" s="5"/>
-      <c r="CA82" s="5"/>
-      <c r="CF82" s="5"/>
-      <c r="CG82" s="5"/>
-      <c r="CH82" s="5"/>
-      <c r="CK82" s="67"/>
-      <c r="CL82" s="67"/>
-      <c r="CM82" s="67"/>
-      <c r="CN82" s="6"/>
-      <c r="CO82" s="5"/>
+      <c r="BQ82" s="5"/>
+      <c r="BW82" s="5"/>
+      <c r="CB82" s="5"/>
+      <c r="CC82" s="5"/>
+      <c r="CD82" s="5"/>
+      <c r="CG82" s="69"/>
+      <c r="CH82" s="69"/>
+      <c r="CI82" s="69"/>
+      <c r="CJ82" s="6"/>
+      <c r="CK82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="5"/>
@@ -10538,29 +10214,29 @@
       <c r="U83" s="5"/>
       <c r="AI83" s="5"/>
       <c r="AS83" s="5"/>
-      <c r="BU83" s="5"/>
-      <c r="CA83" s="5"/>
-      <c r="CF83" s="5"/>
-      <c r="CG83" s="5"/>
-      <c r="CH83" s="5"/>
-      <c r="CK83" s="67"/>
-      <c r="CL83" s="67"/>
-      <c r="CM83" s="67"/>
-      <c r="CN83" s="6"/>
-      <c r="CO83" s="5"/>
+      <c r="BQ83" s="5"/>
+      <c r="BW83" s="5"/>
+      <c r="CB83" s="5"/>
+      <c r="CC83" s="5"/>
+      <c r="CD83" s="5"/>
+      <c r="CG83" s="69"/>
+      <c r="CH83" s="69"/>
+      <c r="CI83" s="69"/>
+      <c r="CJ83" s="6"/>
+      <c r="CK83" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="54">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="T1:AG1"/>
     <mergeCell ref="AH1:AQ1"/>
-    <mergeCell ref="AR1:BS1"/>
-    <mergeCell ref="BT1:BY1"/>
-    <mergeCell ref="BZ1:CE1"/>
+    <mergeCell ref="AR1:BO1"/>
+    <mergeCell ref="BP1:BU1"/>
+    <mergeCell ref="BV1:CA1"/>
+    <mergeCell ref="CB1:CE1"/>
     <mergeCell ref="CF1:CI1"/>
-    <mergeCell ref="CJ1:CM1"/>
-    <mergeCell ref="CN1:CO1"/>
+    <mergeCell ref="CJ1:CK1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -10604,16 +10280,14 @@
     <mergeCell ref="CF2:CG2"/>
     <mergeCell ref="CH2:CI2"/>
     <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="CL2:CM2"/>
-    <mergeCell ref="CN2:CO2"/>
     <mergeCell ref="A4:A44"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV19 AX1:AX19 AZ1:AZ19 BB1:BB19 BD1:BD83 BF1:BF3 BH1:BH3 BJ1:BJ3 BL1:BL83 BN1:BN83 BP1:BP3 BR1:BR3 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:CL83 CN1:CN83 CP1:AMJ83 E4:P5 AI4:AL4 CA4:CF6 AI5:AJ6 BH5:BH83 BR5:BR83 E6:E47 G6:H20 BF6:BF83 BJ6:BJ83 BP8:BP83 F21:F83 AX22:AX83 AZ22:AZ83 BB22:BB83 AV23:AV83 D50:D83" type="none">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A1:B83 D1:D3 F1:F5 H1:H83 J1:J83 L1:L83 N1:N83 P1:P83 R1:R83 T1:T83 V1:V83 X1:X83 Z1:Z83 AB1:AB83 AD1:AD83 AF1:AF83 AH1:AH83 AJ1:AJ83 AL1:AL83 AN1:AN83 AP1:AP83 AR1:AR83 AT1:AT83 AV1:AV18 AX1:AX18 AZ1:AZ83 BB1:BB3 BD1:BD3 BF1:BF3 BH1:BH83 BJ1:BJ83 BL1:BL3 BN1:BN10 BP1:BP83 BR1:BR83 BT1:BT83 BV1:BV83 BX1:BX83 BZ1:BZ83 CB1:CB83 CD1:CD83 CF1:CF83 CH1:CH83 CJ1:CJ83 CL1:AMF83 E4:P5 AI4:AL4 BW4:CB6 AI5:AJ6 BD5:BD83 E6:E47 G6:H20 BB6:BB83 BF6:BF83 BL8:BL83 BN12:BN83 F21:F83 AX21:AX82 AV22:AV82 D50:D83" type="none">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW19 AY1:AY19 BA1:BA19 BC1:BC19 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO83 BQ1:BQ83 BS1:BS3 BU1:BU83 BW1:BW83 BY1:BY83 CA1:CA3 CC1:CC3 CE1:CE3 CG1:CG83 CI1:CI83 CK1:CK83 CM1:CM83 CO1:CO83 AK5:AK83 BS5:BS83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 CA7:CA83 CC7:CC83 CE7:CE83 G21:G83 AY22:AY83 BA22:BA83 BC22:BC83 AW24:AW83 E50:E83" type="textLength">
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C83 E1:E3 G1:G3 I1:I3 K1:K3 M1:M3 O1:O3 Q1:Q83 S1:S83 U1:U83 W1:W83 Y1:Y83 AA1:AA83 AC1:AC83 AE1:AE83 AG1:AG83 AI1:AI3 AK1:AK3 AM1:AM83 AO1:AO83 AQ1:AQ83 AS1:AS83 AU1:AU83 AW1:AW18 AY1:AY18 BA1:BA83 BC1:BC83 BE1:BE83 BG1:BG83 BI1:BI83 BK1:BK83 BM1:BM83 BO1:BO10 BQ1:BQ83 BS1:BS83 BU1:BU83 BW1:BW3 BY1:BY3 CA1:CA3 CC1:CC83 CE1:CE83 CG1:CG83 CI1:CI83 CK1:CK83 AK5:AK83 I6:I83 K6:K83 M6:M83 O6:O83 AI7:AI83 BW7:BW83 BY7:BY83 CA7:CA83 BO12:BO83 G21:G83 AY21:AY82 AW23:AW82 E50:E83" type="textLength">
       <formula1>20</formula1>
       <formula2>0</formula2>
     </dataValidation>
